--- a/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
+++ b/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB28B5CF-EEDB-4B98-AD33-AEF7296CDDB9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0BDEC9-B050-4B9E-9A4E-B614C7DB41EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
@@ -19,8 +19,6 @@
     <sheet name="analysis" sheetId="4" r:id="rId4"/>
     <sheet name="experiment" sheetId="1" r:id="rId5"/>
     <sheet name="run" sheetId="6" r:id="rId6"/>
-    <sheet name="dataset" sheetId="7" r:id="rId7"/>
-    <sheet name="submission" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="429">
   <si>
     <t>Tag</t>
   </si>
@@ -1448,6 +1446,10 @@
     <t>TODO: The internet service link (file:, http:, ftp: etc). If you provide several URL links, repeat the block "URL_LINK.Label" -  "URL_LINK.URL</t>
   </si>
   <si>
+    <t>TODO: Numeric record ID of the related sources, meaningful to the NCBI Entrez system.
+ If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
+  </si>
+  <si>
     <t>TODO: How to label the link to the related source.
  If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
   </si>
@@ -1470,10 +1472,20 @@
     <t>http://www.ncbi.nlm.nih.gov/SNP/snp_viewBatch.cgi?sbid=1061891</t>
   </si>
   <si>
+    <t>PRJNA214517</t>
+  </si>
+  <si>
+    <t>pubmed</t>
+  </si>
+  <si>
     <t>biosample</t>
   </si>
   <si>
     <t>SAMN00000289</t>
+  </si>
+  <si>
+    <t>TODO: Database of the related sources (publication, datasets, online databases…). Must be value from the NCBI controlled vocabulary of permitted cross references (see list: http://www.ncbi.nlm.nih.gov/entrez/eutils/einfo.fcgi?). 
+ If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
   </si>
   <si>
     <t>TODO: Database of the related sources (publication, datasets, online databases…). Must be value from the NCBI controlled vocabulary of permitted cross references (see list: http://www.ncbi.nlm.nih.gov/entrez/eutils/einfo.fcgi?)</t>
@@ -1723,6 +1735,9 @@
     <t xml:space="preserve">Repeated columns? </t>
   </si>
   <si>
+    <t xml:space="preserve">Within each tab, you will find a dark vertical line, beyond which there will be repeated "blocks" of columns. These blocks can be repeated indefinetely (i.e. add or remove as many of this blocks/columns as you need) but always as a complete block. See the column headers' format below. </t>
+  </si>
+  <si>
     <r>
       <t>For further information, go to "</t>
     </r>
@@ -1828,231 +1843,12 @@
   <si>
     <t>Repeated blocks (each with their own colour): you can add or remove as many "whole" blocks as you want to fulfil your needs, but remember to always work with complete repetitions (e.g. adding three new columns TAG-VALUE-UNITS for a new attribute, but not adding only one or two of them TAG-VALUE)</t>
   </si>
-  <si>
-    <t>Dataset_alias*</t>
-  </si>
-  <si>
-    <t>Dataset_title*</t>
-  </si>
-  <si>
-    <t>Dataset_type</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Within each tab, you will find a dark vertical line, beyond which there will be </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>repeated "blocks" of columns</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. These blocks can be repeated indefinetely (i.e. add or remove as many of this blocks/columns as you need) but always as a complete block. For instance, in many tabs you will see there are several "TAG-VALUE-UNITS" blocks, regarding metadata attributes. You can freely remove them, or add more. See the column headers' format below. </t>
-    </r>
-  </si>
-  <si>
-    <t>POLICY.Accession</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: </t>
-  </si>
-  <si>
-    <t>TODO: Title (free-form string) of the Dataset</t>
-  </si>
-  <si>
-    <t>TODO: Submitter designated name for the 'Dataset' (e.g. 'My_Dataset_HumanMicrobiome'). The name must be unique within the submission account.</t>
-  </si>
-  <si>
-    <t>Example!_Human_MicrobiomeDataset</t>
-  </si>
-  <si>
-    <t>Example!_Dataset about human microbiome data related to project X</t>
-  </si>
-  <si>
-    <t>RUN.Alias</t>
-  </si>
-  <si>
-    <t>ANALYSIS.Alias</t>
-  </si>
-  <si>
-    <t>TODO: More extensive free-form description of the Dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This dataset is related to Project X by grant Y and encompasses samples from group Z. </t>
-  </si>
-  <si>
-    <t>TODO: Selects the type of Dataset. In case the dataset is of several types, repeat this column. Must be value from Controlled vocabulary:  
-	Whole genome sequencing
-	Exome sequencing
-	Genotyping by array
-	Transcriptome profiling by high-throughput sequencing
-	Transcriptome profiling by array
-	Amplicon sequencing
-	Methylation binding domain sequencing
-	Methylation profiling by high-throughput sequencing
-	Phenotype information
-	Study summary information
-	Genomic variant calling
-	Chromatin accessibility profiling by high-throughput sequencing
-	Histone modification profiling by high-throughput sequencing
-	Chip-Seq</t>
-  </si>
-  <si>
-    <t>Exome sequencing</t>
-  </si>
-  <si>
-    <t>Genomic variant calling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: The accession ID (EGAP…) of the policy controlling this dataset. </t>
-  </si>
-  <si>
-    <t>EGAP00001000598</t>
-  </si>
-  <si>
-    <t>ENA-SUBMISSION-TOOL</t>
-  </si>
-  <si>
-    <t>Release Name</t>
-  </si>
-  <si>
-    <t>Release_NED13</t>
-  </si>
-  <si>
-    <t>SRA-Webin</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Analysis_protocol</t>
-  </si>
-  <si>
-    <t>https://github.com/EbiEga/ega-metadata-schema</t>
-  </si>
-  <si>
-    <t>https://www.internationalgenome.org</t>
-  </si>
-  <si>
-    <t>TODO: The accession ID of an Analysis (EGAZ…). Identifies the analyses which are part of this dataset. In case the dataset encompasses several analyses, repeat this column.</t>
-  </si>
-  <si>
-    <t>TODO: The alias of a Run (e.g. 'Example!_DJ0001_13'). Identifies the runs which are part of this dataset. In case the dataset encompasses several runs, repeat this column.</t>
-  </si>
-  <si>
-    <t>Example!_DJ0001_14</t>
-  </si>
-  <si>
-    <t>Example!_DJ0001_15</t>
-  </si>
-  <si>
-    <t>TODO: The alias of an Analysis (e.g. ). Identifies the analyses which are part of this dataset. In case the dataset encompasses several analyses, repeat this column.</t>
-  </si>
-  <si>
-    <t>Example!_D13_Liver_treatment_X1</t>
-  </si>
-  <si>
-    <t>Example!_D13_Liver_treatment_X2</t>
-  </si>
-  <si>
-    <t>Example!_D13_Liver_treatment_X3</t>
-  </si>
-  <si>
-    <t>Submission_alias*</t>
-  </si>
-  <si>
-    <t>Submission_title</t>
-  </si>
-  <si>
-    <t>Contact_name</t>
-  </si>
-  <si>
-    <t>Address_ToInformStatus</t>
-  </si>
-  <si>
-    <t>Address_ToInformError</t>
-  </si>
-  <si>
-    <t>ADD.Filepath</t>
-  </si>
-  <si>
-    <t>ADD.Type</t>
-  </si>
-  <si>
-    <t>MODIFY.Filepath</t>
-  </si>
-  <si>
-    <t>MODIFY.Type</t>
-  </si>
-  <si>
-    <t>VALIDATE.Filepath</t>
-  </si>
-  <si>
-    <t>VALIDATE.Type</t>
-  </si>
-  <si>
-    <t>TODO: Internet address of person or service to inform on any status changes for this submission (e.g. flast@yourdomain.com).</t>
-  </si>
-  <si>
-    <t>TODO: Internet address of person or service to inform on any errors for this submission (e.g. flast@yourdomain.com).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: Name of contact person for this submission (e.g. "Lastname, Firstname"). </t>
-  </si>
-  <si>
-    <t>flast@yourdomain.com</t>
-  </si>
-  <si>
-    <t>flast2@yourdomain.com</t>
-  </si>
-  <si>
-    <t>Lastname2, Firstname2</t>
-  </si>
-  <si>
-    <t>ENSEMBL</t>
-  </si>
-  <si>
-    <t>ENSG00000007102</t>
-  </si>
-  <si>
-    <t>GDB</t>
-  </si>
-  <si>
-    <t>G00-128-600</t>
-  </si>
-  <si>
-    <t>Genome browser for vertebrate genomes</t>
-  </si>
-  <si>
-    <t>Human Genome Database accession numbers</t>
-  </si>
-  <si>
-    <t>TODO: INSDC database of the permitted cross reference (e.g. ENSEMBL, GDB, GeneDB...). Must be value from the INSDC controlled vocabulary of permitted cross references (see list: http://www.insdc.org/db_xref.html). 
- If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
-  </si>
-  <si>
-    <t>TODO: Numeric record ID (accession) of the related sources, meaningful to the INSDC cross reference (e.g. ENSG00000007102 for ensembl)
- If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2129,23 +1925,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF7030A0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2326,24 +2107,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFD9D9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF75DBFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD1F3FF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -2498,7 +2261,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2542,8 +2305,31 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2641,6 +2427,22 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2693,235 +2495,12 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="67">
     <dxf>
       <font>
         <strike val="0"/>
@@ -3181,16 +2760,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3576,16 +3145,15 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFD8EEC0"/>
       <color rgb="FFFFE5E5"/>
-      <color rgb="FFF2C4E9"/>
-      <color rgb="FFD1F3FF"/>
-      <color rgb="FF75DBFF"/>
-      <color rgb="FFFFD9D9"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFF7DDF2"/>
+      <color rgb="FFF2C4E9"/>
       <color rgb="FFFFF5D5"/>
       <color rgb="FFE0EED6"/>
+      <color rgb="FFD8EEC0"/>
+      <color rgb="FFFFFFB7"/>
+      <color rgb="FFCDACE6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3864,83 +3432,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3716877C-2DD6-4C53-9859-D06BF40DA072}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="81.85546875" customWidth="1"/>
+    <col min="2" max="2" width="39.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="126" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="127"/>
+      <c r="A2" s="83" t="s">
+        <v>409</v>
+      </c>
+      <c r="B2" s="84"/>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>406</v>
-      </c>
-      <c r="B3" s="99" t="s">
-        <v>407</v>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="81" t="s">
+        <v>410</v>
+      </c>
+      <c r="B3" s="69" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
-        <v>408</v>
-      </c>
-      <c r="B4" s="99" t="s">
-        <v>409</v>
+      <c r="A4" s="81" t="s">
+        <v>412</v>
+      </c>
+      <c r="B4" s="69" t="s">
+        <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
-        <v>410</v>
-      </c>
-      <c r="B5" s="99" t="s">
-        <v>411</v>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="82" t="s">
+        <v>414</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
-        <v>412</v>
-      </c>
-      <c r="B6" s="99" t="s">
-        <v>413</v>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="82" t="s">
+        <v>416</v>
+      </c>
+      <c r="B6" s="69" t="s">
+        <v>417</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
-        <v>414</v>
-      </c>
-      <c r="B7" s="99" t="s">
-        <v>415</v>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="B7" s="69" t="s">
+        <v>419</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
-        <v>416</v>
-      </c>
-      <c r="B8" s="99" t="s">
-        <v>427</v>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="82" t="s">
+        <v>420</v>
+      </c>
+      <c r="B8" s="69" t="s">
+        <v>421</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="128" t="s">
-        <v>417</v>
-      </c>
-      <c r="B9" s="128"/>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="85" t="s">
+        <v>422</v>
+      </c>
+      <c r="B9" s="85"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="86" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="127"/>
+      <c r="B11" s="84"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
@@ -3951,43 +3519,43 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="90">
+      <c r="A13" s="28">
         <v>1</v>
       </c>
-      <c r="B13" s="99" t="s">
+      <c r="B13" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29">
         <v>2</v>
       </c>
-      <c r="B14" s="99" t="s">
-        <v>418</v>
+      <c r="B14" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+      <c r="A15" s="29">
         <v>3</v>
       </c>
-      <c r="B15" s="99" t="s">
-        <v>419</v>
+      <c r="B15" t="s">
+        <v>424</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="99" t="s">
-        <v>420</v>
+      <c r="B16" t="s">
+        <v>425</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="129" t="s">
+      <c r="A18" s="86" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="127"/>
+      <c r="B18" s="84"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -3998,43 +3566,43 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="100" t="s">
+      <c r="B20" s="22" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
+      <c r="A21" s="23" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="100" t="s">
-        <v>421</v>
+      <c r="B21" s="22" t="s">
+        <v>426</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="26" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="22" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="100" t="s">
-        <v>422</v>
+      <c r="B23" s="22" t="s">
+        <v>427</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="100" t="s">
-        <v>423</v>
+      <c r="B24" s="22" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
@@ -4052,9 +3620,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA4E3C-B110-4DC1-9919-979853C674EC}">
   <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AJ4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4064,25 +3630,25 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="34" customWidth="1"/>
     <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
     <col min="13" max="15" width="8.7109375" customWidth="1"/>
     <col min="16" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="22" width="10.85546875" style="35" customWidth="1"/>
+    <col min="19" max="22" width="10.85546875" style="44" customWidth="1"/>
     <col min="23" max="26" width="10.85546875" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="65" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="74" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" style="103" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="103" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -4113,7 +3679,7 @@
       <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -4140,362 +3706,360 @@
       <c r="R1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="23" t="s">
+      <c r="S1" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="T1" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="U1" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="V1" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="23" t="s">
+      <c r="X1" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="23" t="s">
+      <c r="Y1" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="23" t="s">
+      <c r="Z1" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AA1" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AB1" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AD1" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="AE1" s="87" t="s">
+      <c r="AE1" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="AF1" s="87" t="s">
+      <c r="AF1" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="AG1" s="87" t="s">
+      <c r="AG1" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="AH1" s="87" t="s">
+      <c r="AH1" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="AI1" s="87" t="s">
+      <c r="AI1" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="AJ1" s="87" t="s">
+      <c r="AJ1" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="AK1" s="61" t="s">
+      <c r="AK1" s="70" t="s">
         <v>361</v>
       </c>
-      <c r="AL1" s="61" t="s">
+      <c r="AL1" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="AM1" s="61" t="s">
+      <c r="AM1" s="70" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:39" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="38" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="33" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="38" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="38" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="29" t="s">
+      <c r="I2" s="38" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="31" t="s">
+      <c r="Q2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="31" t="s">
+      <c r="R2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="93" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="78" t="s">
+      <c r="T2" s="93" t="s">
         <v>152</v>
       </c>
-      <c r="U2" s="78" t="s">
+      <c r="U2" s="93" t="s">
         <v>153</v>
       </c>
-      <c r="V2" s="78" t="s">
+      <c r="V2" s="93" t="s">
         <v>154</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="33" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="X2" s="33" t="s">
         <v>152</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Y2" s="33" t="s">
         <v>153</v>
       </c>
-      <c r="Z2" s="24" t="s">
+      <c r="Z2" s="33" t="s">
         <v>154</v>
       </c>
-      <c r="AA2" s="66" t="s">
+      <c r="AA2" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="AB2" s="66" t="s">
+      <c r="AB2" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AC2" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="AE2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="AF2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG2" s="89" t="s">
+      <c r="AE2" s="104" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF2" s="104" t="s">
         <v>366</v>
       </c>
-      <c r="AH2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="AI2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AG2" s="104" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH2" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI2" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="AK2" s="62" t="s">
+      <c r="AJ2" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="AK2" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL2" s="71" t="s">
+        <v>368</v>
+      </c>
+      <c r="AM2" s="71" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="3" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="37"/>
+    </row>
+    <row r="4" spans="1:39" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="38" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="38" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="38" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="40"/>
+      <c r="M4" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="40" t="s">
+        <v>162</v>
+      </c>
+      <c r="R4" s="40"/>
+      <c r="S4" s="41" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" s="41">
+        <v>406</v>
+      </c>
+      <c r="U4" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="V4" s="42" t="s">
+        <v>168</v>
+      </c>
+      <c r="W4" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="X4" s="38">
+        <v>110649</v>
+      </c>
+      <c r="Y4" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z4" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA4" s="74" t="s">
+        <v>370</v>
+      </c>
+      <c r="AB4" s="74" t="s">
+        <v>371</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>372</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE4" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF4" s="103">
+        <v>214517</v>
+      </c>
+      <c r="AG4" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="AH4" t="s">
         <v>375</v>
       </c>
-      <c r="AL2" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="AM2" s="62" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="3" spans="1:39" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="28"/>
-    </row>
-    <row r="4" spans="1:39" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="29" t="s">
-        <v>159</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="29" t="s">
-        <v>163</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="31" t="s">
-        <v>162</v>
-      </c>
-      <c r="R4" s="31"/>
-      <c r="S4" s="32" t="s">
-        <v>166</v>
-      </c>
-      <c r="T4" s="32">
-        <v>406</v>
-      </c>
-      <c r="U4" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="V4" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="W4" s="29" t="s">
-        <v>169</v>
-      </c>
-      <c r="X4" s="29">
-        <v>110649</v>
-      </c>
-      <c r="Y4" s="29" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z4" s="34" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA4" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB4" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="AF4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="AG4" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>478</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AK4" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="AL4" s="63">
+      <c r="AI4">
+        <v>9039096</v>
+      </c>
+      <c r="AJ4"/>
+      <c r="AK4" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL4" s="72">
         <v>289</v>
       </c>
-      <c r="AM4" s="63" t="s">
-        <v>374</v>
+      <c r="AM4" s="72" t="s">
+        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="P7" s="31"/>
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
+      <c r="P7" s="40"/>
+      <c r="Q7" s="40"/>
+      <c r="R7" s="40"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I1 K1:L1 T1:V1 AN1:XFD1">
-    <cfRule type="containsText" dxfId="79" priority="12" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="66" priority="12" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="containsText" dxfId="78" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="containsText" dxfId="77" priority="10" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="64" priority="10" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",X1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",W1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="containsText" dxfId="75" priority="8" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:R1">
-    <cfRule type="containsText" dxfId="74" priority="7" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AM1">
-    <cfRule type="containsText" dxfId="73" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AB1">
-    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AD1">
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1">
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1">
-    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AJ1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4508,9 +4072,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F91026-08D1-4D75-80BD-B4D4E9D96D46}">
   <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AJ4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4531,7 +4093,7 @@
     <col min="15" max="15" width="10.140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" style="25" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="34" customWidth="1"/>
     <col min="19" max="19" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.28515625" style="2" customWidth="1"/>
     <col min="21" max="21" width="6.42578125" customWidth="1"/>
@@ -4540,19 +4102,19 @@
     <col min="24" max="24" width="6.42578125" style="2" customWidth="1"/>
     <col min="25" max="25" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.28515625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="65" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="74" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" style="103" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="103" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -4580,34 +4142,34 @@
       <c r="H1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="60" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="58" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -4634,157 +4196,157 @@
       <c r="Z1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AA1" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AB1" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AD1" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="AE1" s="87" t="s">
+      <c r="AE1" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="AF1" s="87" t="s">
+      <c r="AF1" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="AG1" s="87" t="s">
+      <c r="AG1" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="AH1" s="87" t="s">
+      <c r="AH1" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="AI1" s="87" t="s">
+      <c r="AI1" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="AJ1" s="87" t="s">
+      <c r="AJ1" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="AK1" s="61" t="s">
+      <c r="AK1" s="70" t="s">
         <v>361</v>
       </c>
-      <c r="AL1" s="61" t="s">
+      <c r="AL1" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="AM1" s="61" t="s">
+      <c r="AM1" s="70" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:39" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="38" t="s">
         <v>290</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="38" t="s">
         <v>291</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="38" t="s">
         <v>292</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="38" t="s">
         <v>293</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="I2" s="40" t="s">
         <v>295</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="J2" s="40" t="s">
         <v>296</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31" t="s">
+      <c r="K2" s="40"/>
+      <c r="L2" s="40" t="s">
         <v>297</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="63" t="s">
         <v>298</v>
       </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31" t="s">
+      <c r="N2" s="40"/>
+      <c r="O2" s="40" t="s">
         <v>299</v>
       </c>
-      <c r="P2" s="31" t="s">
+      <c r="P2" s="40" t="s">
         <v>300</v>
       </c>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="30" t="s">
+      <c r="Q2" s="40"/>
+      <c r="R2" s="39" t="s">
         <v>301</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="S2" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="T2" s="31" t="s">
+      <c r="T2" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="U2" s="38" t="s">
         <v>301</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="V2" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="X2" s="31" t="s">
+      <c r="X2" s="40" t="s">
         <v>301</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="40" t="s">
         <v>302</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="40" t="s">
         <v>303</v>
       </c>
-      <c r="AA2" s="66" t="s">
+      <c r="AA2" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="AB2" s="66" t="s">
+      <c r="AB2" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="AC2" s="29" t="s">
+      <c r="AC2" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AD2" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="AE2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="AF2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG2" s="89" t="s">
+      <c r="AE2" s="104" t="s">
+        <v>378</v>
+      </c>
+      <c r="AF2" s="104" t="s">
         <v>366</v>
       </c>
-      <c r="AH2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="AI2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AG2" s="104" t="s">
+        <v>367</v>
+      </c>
+      <c r="AH2" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="AI2" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="AK2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="AL2" s="62" t="s">
+      <c r="AJ2" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="AM2" s="62" t="s">
+      <c r="AK2" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="AL2" s="71" t="s">
         <v>368</v>
+      </c>
+      <c r="AM2" s="71" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4792,20 +4354,20 @@
         <v>106</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="R3" s="55"/>
-      <c r="AA3" s="27"/>
-      <c r="AB3" s="27"/>
-      <c r="AC3" s="27"/>
-      <c r="AD3" s="27"/>
-      <c r="AE3" s="27"/>
-      <c r="AF3" s="27"/>
-      <c r="AG3" s="27"/>
-      <c r="AH3" s="27"/>
-      <c r="AI3" s="27"/>
-      <c r="AJ3" s="27"/>
-      <c r="AK3" s="27"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
+      <c r="R3" s="64"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="36"/>
+      <c r="AJ3" s="36"/>
+      <c r="AK3" s="36"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4850,7 +4412,7 @@
       <c r="P4" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="R4" s="34" t="s">
         <v>311</v>
       </c>
       <c r="S4" s="2" t="s">
@@ -4874,79 +4436,76 @@
       <c r="Y4" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AA4" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="AB4" s="65" t="s">
+      <c r="AA4" s="74" t="s">
         <v>370</v>
       </c>
+      <c r="AB4" s="74" t="s">
+        <v>371</v>
+      </c>
       <c r="AC4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AD4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="AF4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="AG4" s="88" t="s">
-        <v>480</v>
+        <v>373</v>
+      </c>
+      <c r="AE4" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="AF4" s="103">
+        <v>214517</v>
+      </c>
+      <c r="AG4" s="103" t="s">
+        <v>374</v>
       </c>
       <c r="AH4" t="s">
-        <v>478</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AK4" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="AL4" s="63">
+        <v>375</v>
+      </c>
+      <c r="AI4">
+        <v>9039096</v>
+      </c>
+      <c r="AK4" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="AL4" s="72">
         <v>289</v>
       </c>
-      <c r="AM4" s="63" t="s">
-        <v>374</v>
+      <c r="AM4" s="72" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:T1 AN1:XFD1">
-    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:W1">
-    <cfRule type="containsText" dxfId="67" priority="10" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="55" priority="10" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",U1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",X1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AM1">
-    <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1 AA1:AB1">
-    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1">
-    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="51" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AJ1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AD1">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4956,11 +4515,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B3225A-CA96-4372-AB7E-97999D11252D}">
-  <dimension ref="A1:BV16"/>
+  <dimension ref="A1:BV17"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2:BH4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4972,32 +4529,32 @@
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="29" width="15.5703125" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" style="25" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" style="34" customWidth="1"/>
     <col min="31" max="32" width="8.7109375" style="2" customWidth="1"/>
-    <col min="33" max="34" width="15.5703125" style="46" customWidth="1"/>
+    <col min="33" max="34" width="15.5703125" style="55" customWidth="1"/>
     <col min="35" max="36" width="15.5703125" customWidth="1"/>
-    <col min="37" max="38" width="15.5703125" style="46" customWidth="1"/>
-    <col min="39" max="44" width="8.7109375" style="41" customWidth="1"/>
+    <col min="37" max="38" width="15.5703125" style="55" customWidth="1"/>
+    <col min="39" max="44" width="8.7109375" style="50" customWidth="1"/>
     <col min="45" max="50" width="8.7109375" customWidth="1"/>
-    <col min="51" max="51" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8" style="65" customWidth="1"/>
+    <col min="51" max="51" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8" style="74" customWidth="1"/>
     <col min="53" max="53" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="8" customWidth="1"/>
-    <col min="55" max="55" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.140625" style="103" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" style="103" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13" style="63" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="8.7109375" style="42" customWidth="1"/>
+    <col min="61" max="61" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13" style="72" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="8.7109375" style="51" customWidth="1"/>
     <col min="66" max="67" width="8.7109375" customWidth="1"/>
-    <col min="68" max="69" width="8.7109375" style="42" customWidth="1"/>
-    <col min="70" max="71" width="8.7109375" style="68" customWidth="1"/>
-    <col min="72" max="73" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.7109375" style="69" customWidth="1"/>
+    <col min="68" max="69" width="8.7109375" style="51" customWidth="1"/>
+    <col min="70" max="71" width="8.7109375" style="77" customWidth="1"/>
+    <col min="72" max="73" width="8.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.7109375" style="78" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5028,67 +4585,67 @@
       <c r="I1" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="J1" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="K1" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="45" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="M1" s="45" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="N1" s="45" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="O1" s="45" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="P1" s="45" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="Q1" s="45" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="45" t="s">
         <v>185</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="S1" s="45" t="s">
         <v>186</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="T1" s="45" t="s">
         <v>187</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="U1" s="45" t="s">
         <v>188</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="V1" s="45" t="s">
         <v>189</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="W1" s="45" t="s">
         <v>190</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="X1" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Y1" s="45" t="s">
         <v>192</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="Z1" s="45" t="s">
         <v>193</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AA1" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AB1" s="45" t="s">
         <v>195</v>
       </c>
-      <c r="AC1" s="36" t="s">
+      <c r="AC1" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="AD1" s="22" t="s">
+      <c r="AD1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="AE1" s="4" t="s">
@@ -5097,354 +4654,354 @@
       <c r="AF1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="37" t="s">
+      <c r="AG1" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AH1" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AI1" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AJ1" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="AK1" s="37" t="s">
+      <c r="AK1" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="AL1" s="37" t="s">
+      <c r="AL1" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="AM1" s="38" t="s">
+      <c r="AM1" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="AN1" s="38" t="s">
+      <c r="AN1" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="AO1" s="38" t="s">
+      <c r="AO1" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="AP1" s="38" t="s">
+      <c r="AP1" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="AQ1" s="38" t="s">
+      <c r="AQ1" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="AR1" s="38" t="s">
+      <c r="AR1" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="AS1" s="38" t="s">
+      <c r="AS1" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="AT1" s="38" t="s">
+      <c r="AT1" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="AU1" s="38" t="s">
+      <c r="AU1" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="AV1" s="38" t="s">
+      <c r="AV1" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="AW1" s="38" t="s">
+      <c r="AW1" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="AX1" s="38" t="s">
+      <c r="AX1" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="AY1" s="64" t="s">
+      <c r="AY1" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="AZ1" s="64" t="s">
+      <c r="AZ1" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="BA1" s="64" t="s">
+      <c r="BA1" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="BB1" s="64" t="s">
+      <c r="BB1" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="BC1" s="87" t="s">
+      <c r="BC1" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="BD1" s="87" t="s">
+      <c r="BD1" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="BE1" s="87" t="s">
+      <c r="BE1" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="BF1" s="87" t="s">
+      <c r="BF1" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="BG1" s="87" t="s">
+      <c r="BG1" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="BH1" s="87" t="s">
+      <c r="BH1" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="BI1" s="61" t="s">
+      <c r="BI1" s="70" t="s">
         <v>361</v>
       </c>
-      <c r="BJ1" s="61" t="s">
+      <c r="BJ1" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="BK1" s="61" t="s">
+      <c r="BK1" s="70" t="s">
         <v>363</v>
       </c>
-      <c r="BL1" s="39" t="s">
+      <c r="BL1" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="BM1" s="39" t="s">
+      <c r="BM1" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="BN1" s="39" t="s">
+      <c r="BN1" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="BO1" s="39" t="s">
+      <c r="BO1" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="BP1" s="39" t="s">
+      <c r="BP1" s="48" t="s">
         <v>205</v>
       </c>
-      <c r="BQ1" s="39" t="s">
+      <c r="BQ1" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="BR1" s="40" t="s">
+      <c r="BR1" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="BS1" s="40" t="s">
+      <c r="BS1" s="49" t="s">
         <v>208</v>
       </c>
-      <c r="BT1" s="87" t="s">
+      <c r="BT1" s="102" t="s">
         <v>209</v>
       </c>
-      <c r="BU1" s="87" t="s">
+      <c r="BU1" s="102" t="s">
         <v>210</v>
       </c>
-      <c r="BV1" s="67" t="s">
+      <c r="BV1" s="76" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:74" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:74" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="33" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="38" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="33" t="s">
         <v>216</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="38" t="s">
         <v>217</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="33" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="J2" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="K2" s="33" t="s">
         <v>220</v>
       </c>
-      <c r="L2" s="24" t="s">
+      <c r="L2" s="33" t="s">
         <v>221</v>
       </c>
-      <c r="M2" s="29" t="s">
-        <v>376</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>377</v>
-      </c>
-      <c r="O2" s="29" t="s">
+      <c r="M2" s="38" t="s">
+        <v>380</v>
+      </c>
+      <c r="N2" s="38" t="s">
+        <v>381</v>
+      </c>
+      <c r="O2" s="38" t="s">
+        <v>382</v>
+      </c>
+      <c r="P2" s="33" t="s">
+        <v>383</v>
+      </c>
+      <c r="Q2" s="38" t="s">
+        <v>384</v>
+      </c>
+      <c r="R2" s="38" t="s">
+        <v>385</v>
+      </c>
+      <c r="S2" s="38" t="s">
+        <v>386</v>
+      </c>
+      <c r="T2" s="33" t="s">
+        <v>387</v>
+      </c>
+      <c r="U2" s="38" t="s">
+        <v>388</v>
+      </c>
+      <c r="V2" s="38" t="s">
+        <v>389</v>
+      </c>
+      <c r="W2" s="38" t="s">
+        <v>390</v>
+      </c>
+      <c r="X2" s="38" t="s">
+        <v>391</v>
+      </c>
+      <c r="Y2" s="38" t="s">
+        <v>392</v>
+      </c>
+      <c r="Z2" s="38" t="s">
+        <v>393</v>
+      </c>
+      <c r="AA2" s="33" t="s">
+        <v>394</v>
+      </c>
+      <c r="AB2" s="38" t="s">
+        <v>395</v>
+      </c>
+      <c r="AC2" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="AD2" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="AE2" s="40" t="s">
+        <v>6</v>
+      </c>
+      <c r="AF2" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="AG2" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH2" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI2" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="AJ2" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="AK2" s="87" t="s">
+        <v>222</v>
+      </c>
+      <c r="AL2" s="87" t="s">
+        <v>223</v>
+      </c>
+      <c r="AM2" s="88" t="s">
+        <v>224</v>
+      </c>
+      <c r="AN2" s="89" t="s">
+        <v>225</v>
+      </c>
+      <c r="AO2" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="AP2" s="88" t="s">
+        <v>227</v>
+      </c>
+      <c r="AQ2" s="88" t="s">
+        <v>228</v>
+      </c>
+      <c r="AR2" s="88" t="s">
+        <v>229</v>
+      </c>
+      <c r="AS2" s="38" t="s">
+        <v>224</v>
+      </c>
+      <c r="AT2" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="AU2" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="AV2" s="38" t="s">
+        <v>227</v>
+      </c>
+      <c r="AW2" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="AX2" s="38" t="s">
+        <v>229</v>
+      </c>
+      <c r="AY2" s="75" t="s">
+        <v>364</v>
+      </c>
+      <c r="AZ2" s="75" t="s">
+        <v>365</v>
+      </c>
+      <c r="BA2" s="38" t="s">
+        <v>364</v>
+      </c>
+      <c r="BB2" s="38" t="s">
+        <v>365</v>
+      </c>
+      <c r="BC2" s="104" t="s">
         <v>378</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="BD2" s="104" t="s">
+        <v>366</v>
+      </c>
+      <c r="BE2" s="104" t="s">
+        <v>367</v>
+      </c>
+      <c r="BF2" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="BG2" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH2" s="33" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI2" s="71" t="s">
         <v>379</v>
       </c>
-      <c r="Q2" s="29" t="s">
-        <v>380</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>381</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>382</v>
-      </c>
-      <c r="T2" s="24" t="s">
-        <v>383</v>
-      </c>
-      <c r="U2" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>386</v>
-      </c>
-      <c r="X2" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>388</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC2" s="29" t="s">
-        <v>392</v>
-      </c>
-      <c r="AD2" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="AE2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="AF2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="AG2" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH2" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI2" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
-        <v>223</v>
-      </c>
-      <c r="AK2" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL2" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM2" s="73" t="s">
-        <v>224</v>
-      </c>
-      <c r="AN2" s="74" t="s">
-        <v>225</v>
-      </c>
-      <c r="AO2" s="73" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP2" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="AQ2" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="AR2" s="73" t="s">
-        <v>229</v>
-      </c>
-      <c r="AS2" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="AT2" s="24" t="s">
-        <v>230</v>
-      </c>
-      <c r="AU2" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="AV2" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW2" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="AX2" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="AY2" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ2" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="BA2" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="BB2" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="BD2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="BE2" s="89" t="s">
-        <v>366</v>
-      </c>
-      <c r="BF2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="BG2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="BH2" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="BI2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="BJ2" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="BK2" s="62" t="s">
+      <c r="BJ2" s="71" t="s">
         <v>368</v>
       </c>
-      <c r="BL2" s="75" t="s">
+      <c r="BK2" s="71" t="s">
+        <v>369</v>
+      </c>
+      <c r="BL2" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="BM2" s="75" t="s">
+      <c r="BM2" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="BN2" s="29" t="s">
+      <c r="BN2" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="BO2" s="29" t="s">
+      <c r="BO2" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="BP2" s="75" t="s">
+      <c r="BP2" s="90" t="s">
         <v>231</v>
       </c>
-      <c r="BQ2" s="75" t="s">
+      <c r="BQ2" s="90" t="s">
         <v>232</v>
       </c>
-      <c r="BR2" s="76" t="s">
+      <c r="BR2" s="91" t="s">
         <v>233</v>
       </c>
-      <c r="BS2" s="76" t="s">
+      <c r="BS2" s="91" t="s">
         <v>234</v>
       </c>
-      <c r="BT2" s="89" t="s">
+      <c r="BT2" s="104" t="s">
         <v>235</v>
       </c>
-      <c r="BU2" s="89" t="s">
+      <c r="BU2" s="104" t="s">
         <v>236</v>
       </c>
-      <c r="BV2" s="77" t="s">
+      <c r="BV2" s="92" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5453,22 +5010,22 @@
         <v>106</v>
       </c>
       <c r="L3" s="18"/>
-      <c r="AD3" s="55"/>
-      <c r="AY3" s="27"/>
-      <c r="AZ3" s="27"/>
-      <c r="BA3" s="27"/>
-      <c r="BB3" s="27"/>
-      <c r="BC3" s="27"/>
-      <c r="BD3" s="27"/>
-      <c r="BE3" s="27"/>
-      <c r="BF3" s="27"/>
-      <c r="BG3" s="27"/>
-      <c r="BH3" s="27"/>
-      <c r="BI3" s="27"/>
-      <c r="BJ3" s="27"/>
-      <c r="BK3" s="27"/>
-      <c r="BT3" s="27"/>
-      <c r="BU3" s="27"/>
+      <c r="AD3" s="64"/>
+      <c r="AY3" s="36"/>
+      <c r="AZ3" s="36"/>
+      <c r="BA3" s="36"/>
+      <c r="BB3" s="36"/>
+      <c r="BC3" s="36"/>
+      <c r="BD3" s="36"/>
+      <c r="BE3" s="36"/>
+      <c r="BF3" s="36"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36"/>
+      <c r="BT3" s="36"/>
+      <c r="BU3" s="36"/>
     </row>
     <row r="4" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5534,10 +5091,10 @@
       <c r="U4" t="s">
         <v>252</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="V4" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="W4" s="44" t="s">
+      <c r="W4" s="53" t="s">
         <v>253</v>
       </c>
       <c r="X4" t="s">
@@ -5558,16 +5115,16 @@
       <c r="AC4" t="s">
         <v>259</v>
       </c>
-      <c r="AD4" s="25" t="s">
+      <c r="AD4" s="34" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="45" t="s">
+      <c r="AE4" s="54" t="s">
         <v>261</v>
       </c>
-      <c r="AG4" s="46" t="s">
+      <c r="AG4" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="AH4" s="46" t="s">
+      <c r="AH4" s="55" t="s">
         <v>263</v>
       </c>
       <c r="AI4" t="s">
@@ -5576,25 +5133,25 @@
       <c r="AJ4" t="s">
         <v>265</v>
       </c>
-      <c r="AK4" s="46" t="s">
+      <c r="AK4" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="AL4" s="46" t="s">
+      <c r="AL4" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="AM4" s="41" t="s">
+      <c r="AM4" s="50" t="s">
         <v>268</v>
       </c>
-      <c r="AN4" s="41" t="s">
+      <c r="AN4" s="50" t="s">
         <v>269</v>
       </c>
-      <c r="AO4" s="41" t="s">
+      <c r="AO4" s="50" t="s">
         <v>226</v>
       </c>
-      <c r="AP4" s="41" t="s">
+      <c r="AP4" s="50" t="s">
         <v>270</v>
       </c>
-      <c r="AQ4" s="41" t="s">
+      <c r="AQ4" s="50" t="s">
         <v>271</v>
       </c>
       <c r="AS4" t="s">
@@ -5612,46 +5169,43 @@
       <c r="AW4" t="s">
         <v>275</v>
       </c>
-      <c r="AY4" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="AZ4" s="65" t="s">
+      <c r="AY4" s="74" t="s">
         <v>370</v>
       </c>
+      <c r="AZ4" s="74" t="s">
+        <v>371</v>
+      </c>
       <c r="BA4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BB4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BC4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="BD4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="BE4" s="88" t="s">
-        <v>480</v>
+        <v>373</v>
+      </c>
+      <c r="BC4" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="BD4" s="103">
+        <v>214517</v>
+      </c>
+      <c r="BE4" s="103" t="s">
+        <v>374</v>
       </c>
       <c r="BF4" t="s">
-        <v>478</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="BI4" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="BJ4" s="63">
+        <v>375</v>
+      </c>
+      <c r="BG4">
+        <v>9039096</v>
+      </c>
+      <c r="BI4" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="BJ4" s="72">
         <v>289</v>
       </c>
-      <c r="BK4" s="63" t="s">
-        <v>374</v>
-      </c>
-      <c r="BL4" s="42" t="s">
+      <c r="BK4" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="BL4" s="51" t="s">
         <v>276</v>
       </c>
       <c r="BN4" t="s">
@@ -5660,113 +5214,113 @@
       <c r="BO4" t="s">
         <v>278</v>
       </c>
-      <c r="BP4" s="42" t="s">
+      <c r="BP4" s="51" t="s">
         <v>279</v>
       </c>
-      <c r="BR4" s="68" t="s">
+      <c r="BR4" s="77" t="s">
         <v>280</v>
       </c>
-      <c r="BT4" s="88" t="s">
+      <c r="BT4" s="103" t="s">
         <v>281</v>
       </c>
-      <c r="BU4" s="88" t="s">
+      <c r="BU4" s="103" t="s">
         <v>282</v>
       </c>
-      <c r="BV4" s="69" t="s">
+      <c r="BV4" s="78" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="16" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="47"/>
+    <row r="17" spans="6:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F17" s="56"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1 AE1:AF1 AM1:AR1 BV1:XFD1 BL1:BM1 H1:I1 M1:AC1">
-    <cfRule type="containsText" dxfId="61" priority="20" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="49" priority="20" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR1:BS1">
-    <cfRule type="containsText" dxfId="60" priority="19" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="48" priority="19" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BR1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AH1">
-    <cfRule type="containsText" dxfId="59" priority="17" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="46" priority="17" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN1:BO1">
-    <cfRule type="containsText" dxfId="58" priority="16" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BN1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP1:BQ1">
-    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="44" priority="15" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BP1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS1:AX1">
-    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="43" priority="14" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AS1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="55" priority="13" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AJ1">
-    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="41" priority="12" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AL1">
-    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:AC1">
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="39" priority="9">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*"&amp;LEFT(L$1, FIND(".", L$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:AC1">
-    <cfRule type="expression" dxfId="51" priority="10">
+    <cfRule type="expression" dxfId="38" priority="10">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*"&amp;LEFT(L$1, FIND(".", L$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="expression" dxfId="50" priority="8">
+    <cfRule type="expression" dxfId="37" priority="8">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*REFERENCE_ALIGNMENT*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_VARIATION*") + COUNTIF($I$4:$I$1048576,"*PROCESSED_READS*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_ANNOTATION*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="expression" dxfId="49" priority="7">
+    <cfRule type="expression" dxfId="36" priority="7">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*REFERENCE_ALIGNMENT*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_VARIATION*") + COUNTIF($I$4:$I$1048576,"*PROCESSED_READS*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_ANNOTATION*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BK1">
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:AZ1">
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AY1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1">
-    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1">
-    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BE1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH1">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BH1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5781,9 +5335,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS4"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BK2" sqref="BK2:BP4"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5797,25 +5351,25 @@
     <col min="15" max="15" width="15.5703125" style="7" customWidth="1"/>
     <col min="16" max="19" width="15.5703125" style="8" customWidth="1"/>
     <col min="20" max="31" width="15.5703125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" style="71" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" style="80" customWidth="1"/>
     <col min="33" max="42" width="8.7109375" style="11" customWidth="1"/>
     <col min="43" max="47" width="8.7109375" style="13" customWidth="1"/>
     <col min="48" max="52" width="8.7109375" style="9" customWidth="1"/>
     <col min="53" max="55" width="8.7109375" style="3" customWidth="1"/>
     <col min="56" max="56" width="9.140625" style="10"/>
-    <col min="59" max="59" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8" style="65" customWidth="1"/>
+    <col min="59" max="59" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8" style="74" customWidth="1"/>
     <col min="61" max="61" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="8" customWidth="1"/>
-    <col min="63" max="63" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.140625" style="103" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.7109375" style="103" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.25">
@@ -5912,38 +5466,38 @@
       <c r="AE1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="70" t="s">
-        <v>393</v>
+      <c r="AF1" s="79" t="s">
+        <v>397</v>
       </c>
       <c r="AG1" s="12" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="AH1" s="12" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="AI1" s="12" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="AJ1" s="12" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="AK1" s="12" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="AL1" s="12" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="AM1" s="12" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="AN1" s="12" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="AO1" s="12" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="AP1" s="12" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="AQ1" s="14" t="s">
         <v>53</v>
@@ -5993,47 +5547,47 @@
       <c r="BF1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="BG1" s="64" t="s">
+      <c r="BG1" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="BH1" s="64" t="s">
+      <c r="BH1" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="BI1" s="64" t="s">
+      <c r="BI1" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="BJ1" s="64" t="s">
+      <c r="BJ1" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="BK1" s="87" t="s">
+      <c r="BK1" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="BL1" s="87" t="s">
+      <c r="BL1" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="BM1" s="87" t="s">
+      <c r="BM1" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="BN1" s="87" t="s">
+      <c r="BN1" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="BO1" s="87" t="s">
+      <c r="BO1" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="BP1" s="87" t="s">
+      <c r="BP1" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="BQ1" s="61" t="s">
+      <c r="BQ1" s="70" t="s">
         <v>361</v>
       </c>
-      <c r="BR1" s="61" t="s">
+      <c r="BR1" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="BS1" s="61" t="s">
+      <c r="BS1" s="70" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:71" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>83</v>
       </c>
@@ -6076,7 +5630,7 @@
       <c r="N2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="79" t="s">
+      <c r="O2" s="94" t="s">
         <v>125</v>
       </c>
       <c r="P2" s="15" t="s">
@@ -6127,125 +5681,125 @@
       <c r="AE2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AF2" s="80" t="s">
+      <c r="AF2" s="95" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="81" t="s">
+      <c r="AG2" s="96" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="81" t="s">
+      <c r="AH2" s="96" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" s="81" t="s">
-        <v>404</v>
-      </c>
-      <c r="AJ2" s="81" t="s">
+      <c r="AI2" s="96" t="s">
+        <v>408</v>
+      </c>
+      <c r="AJ2" s="96" t="s">
         <v>102</v>
       </c>
-      <c r="AK2" s="81" t="s">
+      <c r="AK2" s="96" t="s">
         <v>73</v>
       </c>
-      <c r="AL2" s="81" t="s">
+      <c r="AL2" s="96" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" s="81" t="s">
+      <c r="AM2" s="96" t="s">
         <v>86</v>
       </c>
-      <c r="AN2" s="81" t="s">
+      <c r="AN2" s="96" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="81" t="s">
+      <c r="AO2" s="96" t="s">
         <v>70</v>
       </c>
-      <c r="AP2" s="81" t="s">
+      <c r="AP2" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="AQ2" s="82" t="s">
+      <c r="AQ2" s="97" t="s">
         <v>59</v>
       </c>
-      <c r="AR2" s="82" t="s">
+      <c r="AR2" s="97" t="s">
         <v>129</v>
       </c>
-      <c r="AS2" s="82" t="s">
+      <c r="AS2" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="AT2" s="82" t="s">
+      <c r="AT2" s="97" t="s">
         <v>61</v>
       </c>
-      <c r="AU2" s="82" t="s">
+      <c r="AU2" s="97" t="s">
         <v>62</v>
       </c>
-      <c r="AV2" s="83" t="s">
+      <c r="AV2" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="AW2" s="83" t="s">
+      <c r="AW2" s="98" t="s">
         <v>58</v>
       </c>
-      <c r="AX2" s="83" t="s">
+      <c r="AX2" s="98" t="s">
         <v>60</v>
       </c>
-      <c r="AY2" s="83" t="s">
+      <c r="AY2" s="98" t="s">
         <v>61</v>
       </c>
-      <c r="AZ2" s="83" t="s">
+      <c r="AZ2" s="98" t="s">
         <v>62</v>
       </c>
-      <c r="BA2" s="84" t="s">
+      <c r="BA2" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="BB2" s="31" t="s">
+      <c r="BB2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="BC2" s="84" t="s">
+      <c r="BC2" s="99" t="s">
         <v>7</v>
       </c>
-      <c r="BD2" s="83" t="s">
+      <c r="BD2" s="98" t="s">
         <v>5</v>
       </c>
       <c r="BE2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="BF2" s="83" t="s">
+      <c r="BF2" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="BG2" s="66" t="s">
+      <c r="BG2" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="BH2" s="66" t="s">
+      <c r="BH2" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="BI2" s="29" t="s">
+      <c r="BI2" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="BJ2" s="29" t="s">
+      <c r="BJ2" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="BK2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="BL2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="BM2" s="89" t="s">
+      <c r="BK2" s="104" t="s">
+        <v>378</v>
+      </c>
+      <c r="BL2" s="104" t="s">
         <v>366</v>
       </c>
-      <c r="BN2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="BO2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="BP2" s="24" t="s">
+      <c r="BM2" s="104" t="s">
+        <v>367</v>
+      </c>
+      <c r="BN2" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="BO2" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="BQ2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="BR2" s="62" t="s">
+      <c r="BP2" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="BS2" s="62" t="s">
+      <c r="BQ2" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="BR2" s="71" t="s">
         <v>368</v>
+      </c>
+      <c r="BS2" s="71" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:71" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6253,23 +5807,23 @@
         <v>106</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="Q3" s="21"/>
-      <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="AF3" s="55"/>
-      <c r="BG3" s="27"/>
-      <c r="BH3" s="27"/>
-      <c r="BI3" s="27"/>
-      <c r="BJ3" s="27"/>
-      <c r="BK3" s="27"/>
-      <c r="BL3" s="27"/>
-      <c r="BM3" s="27"/>
-      <c r="BN3" s="27"/>
-      <c r="BO3" s="27"/>
-      <c r="BP3" s="27"/>
-      <c r="BQ3" s="27"/>
-      <c r="BR3" s="27"/>
-      <c r="BS3" s="27"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="25"/>
+      <c r="AF3" s="64"/>
+      <c r="BG3" s="36"/>
+      <c r="BH3" s="36"/>
+      <c r="BI3" s="36"/>
+      <c r="BJ3" s="36"/>
+      <c r="BK3" s="36"/>
+      <c r="BL3" s="36"/>
+      <c r="BM3" s="36"/>
+      <c r="BN3" s="36"/>
+      <c r="BO3" s="36"/>
+      <c r="BP3" s="36"/>
+      <c r="BQ3" s="36"/>
+      <c r="BR3" s="36"/>
+      <c r="BS3" s="36"/>
     </row>
     <row r="4" spans="1:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -6374,119 +5928,116 @@
       <c r="BE4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="BG4" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="BH4" s="65" t="s">
+      <c r="BG4" s="74" t="s">
         <v>370</v>
       </c>
+      <c r="BH4" s="74" t="s">
+        <v>371</v>
+      </c>
       <c r="BI4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="BJ4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BK4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="BL4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="BM4" s="88" t="s">
-        <v>480</v>
+        <v>373</v>
+      </c>
+      <c r="BK4" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="BL4" s="103">
+        <v>214517</v>
+      </c>
+      <c r="BM4" s="103" t="s">
+        <v>374</v>
       </c>
       <c r="BN4" t="s">
-        <v>478</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="BQ4" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="BR4" s="63">
+        <v>375</v>
+      </c>
+      <c r="BO4">
+        <v>9039096</v>
+      </c>
+      <c r="BQ4" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="BR4" s="72">
         <v>289</v>
       </c>
-      <c r="BS4" s="63" t="s">
-        <v>374</v>
+      <c r="BS4" s="72" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q1 BB1:BC1 A1:M1 BT1:XFD1">
-    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="31" priority="24" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1">
-    <cfRule type="containsText" dxfId="41" priority="21" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BF1">
-    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BE1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="expression" dxfId="39" priority="15">
+    <cfRule type="expression" dxfId="27" priority="15">
       <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(T$1, FIND(".", T$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="expression" dxfId="38" priority="11">
+    <cfRule type="expression" dxfId="26" priority="11">
       <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(T$1, FIND(".", T$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:AD1">
-    <cfRule type="expression" dxfId="37" priority="9">
+    <cfRule type="expression" dxfId="25" priority="9">
       <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(U$1, FIND(".", U$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:AD1">
-    <cfRule type="expression" dxfId="36" priority="10">
+    <cfRule type="expression" dxfId="24" priority="10">
       <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(U$1, FIND(".", U$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="expression" dxfId="35" priority="7">
+    <cfRule type="expression" dxfId="23" priority="7">
       <formula>IF(COUNTIF($M$4:$M$1048576,"*"&amp;LEFT(N$1, FIND(".", N$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="expression" dxfId="34" priority="8">
+    <cfRule type="expression" dxfId="22" priority="8">
       <formula>IF(COUNTIF($M$4:$M$1048576,"*"&amp;LEFT(N$1, FIND(".", N$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ1:BS1">
-    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BQ1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG1:BH1">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BG1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BJ1">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM1">
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BM1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP1">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BP1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6499,9 +6050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C207F4-C211-4748-AEDC-244AE980111F}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2:AU4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6512,28 +6061,28 @@
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="26.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="25" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="34" customWidth="1"/>
     <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
     <col min="13" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="17" width="15.5703125" style="46" customWidth="1"/>
+    <col min="16" max="17" width="15.5703125" style="55" customWidth="1"/>
     <col min="18" max="19" width="15.5703125" customWidth="1"/>
-    <col min="20" max="21" width="15.5703125" style="46" customWidth="1"/>
-    <col min="22" max="28" width="8.7109375" style="56" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="56"/>
+    <col min="20" max="21" width="15.5703125" style="55" customWidth="1"/>
+    <col min="22" max="28" width="8.7109375" style="65" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="65"/>
     <col min="30" max="36" width="8.7109375" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" style="65" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" style="74" customWidth="1"/>
     <col min="40" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8" customWidth="1"/>
-    <col min="42" max="42" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.140625" style="103" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" style="103" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11" style="72" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13" style="72" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6555,16 +6104,16 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="69" t="s">
         <v>321</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="45" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="45" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="31" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -6582,282 +6131,282 @@
       <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="37" t="s">
+      <c r="P1" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="Q1" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="S1" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="T1" s="37" t="s">
+      <c r="T1" s="46" t="s">
         <v>197</v>
       </c>
-      <c r="U1" s="37" t="s">
+      <c r="U1" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="38" t="s">
+      <c r="V1" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="X1" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="Y1" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="Z1" s="38" t="s">
+      <c r="Z1" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AA1" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AB1" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AC1" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="AD1" s="38" t="s">
+      <c r="AD1" s="47" t="s">
         <v>199</v>
       </c>
-      <c r="AE1" s="38" t="s">
+      <c r="AE1" s="47" t="s">
         <v>200</v>
       </c>
-      <c r="AF1" s="38" t="s">
+      <c r="AF1" s="47" t="s">
         <v>201</v>
       </c>
-      <c r="AG1" s="38" t="s">
+      <c r="AG1" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="AH1" s="38" t="s">
+      <c r="AH1" s="47" t="s">
         <v>203</v>
       </c>
-      <c r="AI1" s="38" t="s">
+      <c r="AI1" s="47" t="s">
         <v>322</v>
       </c>
-      <c r="AJ1" s="38" t="s">
+      <c r="AJ1" s="47" t="s">
         <v>323</v>
       </c>
-      <c r="AK1" s="38" t="s">
+      <c r="AK1" s="47" t="s">
         <v>324</v>
       </c>
-      <c r="AL1" s="64" t="s">
+      <c r="AL1" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="AM1" s="64" t="s">
+      <c r="AM1" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="AN1" s="64" t="s">
+      <c r="AN1" s="73" t="s">
         <v>356</v>
       </c>
-      <c r="AO1" s="64" t="s">
+      <c r="AO1" s="73" t="s">
         <v>357</v>
       </c>
-      <c r="AP1" s="87" t="s">
+      <c r="AP1" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="AQ1" s="87" t="s">
+      <c r="AQ1" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="AR1" s="87" t="s">
+      <c r="AR1" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="AS1" s="87" t="s">
+      <c r="AS1" s="102" t="s">
         <v>358</v>
       </c>
-      <c r="AT1" s="87" t="s">
+      <c r="AT1" s="102" t="s">
         <v>359</v>
       </c>
-      <c r="AU1" s="87" t="s">
+      <c r="AU1" s="102" t="s">
         <v>360</v>
       </c>
-      <c r="AV1" s="61" t="s">
+      <c r="AV1" s="70" t="s">
         <v>361</v>
       </c>
-      <c r="AW1" s="61" t="s">
+      <c r="AW1" s="70" t="s">
         <v>362</v>
       </c>
-      <c r="AX1" s="61" t="s">
+      <c r="AX1" s="70" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:50" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="38" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="38" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="38" t="s">
         <v>326</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="E2" s="33" t="s">
         <v>327</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="38" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="33" t="s">
         <v>329</v>
       </c>
-      <c r="H2" s="24" t="s">
+      <c r="H2" s="33" t="s">
         <v>330</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="I2" s="33" t="s">
         <v>331</v>
       </c>
-      <c r="J2" s="30" t="s">
+      <c r="J2" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="K2" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="31" t="s">
+      <c r="L2" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="29" t="s">
+      <c r="M2" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="N2" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="O2" s="38" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="87" t="s">
         <v>332</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="33" t="s">
         <v>332</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="33" t="s">
         <v>333</v>
       </c>
-      <c r="T2" s="72" t="s">
+      <c r="T2" s="87" t="s">
         <v>332</v>
       </c>
-      <c r="U2" s="72" t="s">
+      <c r="U2" s="87" t="s">
         <v>333</v>
       </c>
-      <c r="V2" s="85" t="s">
+      <c r="V2" s="100" t="s">
         <v>334</v>
       </c>
-      <c r="W2" s="85" t="s">
+      <c r="W2" s="100" t="s">
         <v>335</v>
       </c>
-      <c r="X2" s="86" t="s">
+      <c r="X2" s="101" t="s">
         <v>226</v>
       </c>
-      <c r="Y2" s="86" t="s">
+      <c r="Y2" s="101" t="s">
         <v>227</v>
       </c>
-      <c r="Z2" s="86" t="s">
+      <c r="Z2" s="101" t="s">
         <v>228</v>
       </c>
-      <c r="AA2" s="86" t="s">
+      <c r="AA2" s="101" t="s">
         <v>336</v>
       </c>
-      <c r="AB2" s="86" t="s">
+      <c r="AB2" s="101" t="s">
         <v>337</v>
       </c>
-      <c r="AC2" s="86" t="s">
+      <c r="AC2" s="101" t="s">
         <v>338</v>
       </c>
-      <c r="AD2" s="24" t="s">
+      <c r="AD2" s="33" t="s">
         <v>334</v>
       </c>
-      <c r="AE2" s="24" t="s">
+      <c r="AE2" s="33" t="s">
         <v>335</v>
       </c>
-      <c r="AF2" s="29" t="s">
+      <c r="AF2" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="AG2" s="29" t="s">
+      <c r="AG2" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="AH2" s="29" t="s">
+      <c r="AH2" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="AI2" s="29" t="s">
+      <c r="AI2" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="AJ2" s="29" t="s">
+      <c r="AJ2" s="38" t="s">
         <v>339</v>
       </c>
-      <c r="AK2" s="29" t="s">
+      <c r="AK2" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="AL2" s="66" t="s">
+      <c r="AL2" s="75" t="s">
         <v>364</v>
       </c>
-      <c r="AM2" s="66" t="s">
+      <c r="AM2" s="75" t="s">
         <v>365</v>
       </c>
-      <c r="AN2" s="29" t="s">
+      <c r="AN2" s="38" t="s">
         <v>364</v>
       </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AO2" s="38" t="s">
         <v>365</v>
       </c>
-      <c r="AP2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="AQ2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="AR2" s="89" t="s">
+      <c r="AP2" s="104" t="s">
+        <v>378</v>
+      </c>
+      <c r="AQ2" s="104" t="s">
         <v>366</v>
       </c>
-      <c r="AS2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="AT2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="AU2" s="24" t="s">
+      <c r="AR2" s="104" t="s">
+        <v>367</v>
+      </c>
+      <c r="AS2" s="33" t="s">
+        <v>378</v>
+      </c>
+      <c r="AT2" s="33" t="s">
         <v>366</v>
       </c>
-      <c r="AV2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="AW2" s="62" t="s">
+      <c r="AU2" s="33" t="s">
         <v>367</v>
       </c>
-      <c r="AX2" s="62" t="s">
+      <c r="AV2" s="71" t="s">
+        <v>379</v>
+      </c>
+      <c r="AW2" s="71" t="s">
         <v>368</v>
       </c>
+      <c r="AX2" s="71" t="s">
+        <v>369</v>
+      </c>
     </row>
-    <row r="3" spans="1:50" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:50" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="66" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="59"/>
-      <c r="AL3" s="27"/>
-      <c r="AM3" s="27"/>
-      <c r="AN3" s="27"/>
-      <c r="AO3" s="27"/>
-      <c r="AP3" s="27"/>
-      <c r="AQ3" s="27"/>
-      <c r="AR3" s="27"/>
-      <c r="AS3" s="27"/>
-      <c r="AT3" s="27"/>
-      <c r="AU3" s="27"/>
-      <c r="AV3" s="27"/>
-      <c r="AW3" s="27"/>
-      <c r="AX3" s="27"/>
+      <c r="M3" s="68"/>
+      <c r="AL3" s="36"/>
+      <c r="AM3" s="36"/>
+      <c r="AN3" s="36"/>
+      <c r="AO3" s="36"/>
+      <c r="AP3" s="36"/>
+      <c r="AQ3" s="36"/>
+      <c r="AR3" s="36"/>
+      <c r="AS3" s="36"/>
+      <c r="AT3" s="36"/>
+      <c r="AU3" s="36"/>
+      <c r="AV3" s="36"/>
+      <c r="AW3" s="36"/>
+      <c r="AX3" s="36"/>
     </row>
     <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6887,7 +6436,7 @@
       <c r="I4" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="25" t="s">
+      <c r="J4" s="34" t="s">
         <v>344</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -6899,10 +6448,10 @@
       <c r="N4" t="s">
         <v>347</v>
       </c>
-      <c r="P4" s="46" t="s">
+      <c r="P4" s="55" t="s">
         <v>262</v>
       </c>
-      <c r="Q4" s="46" t="s">
+      <c r="Q4" s="55" t="s">
         <v>263</v>
       </c>
       <c r="R4" t="s">
@@ -6911,34 +6460,34 @@
       <c r="S4" t="s">
         <v>265</v>
       </c>
-      <c r="T4" s="46" t="s">
+      <c r="T4" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="U4" s="46" t="s">
+      <c r="U4" s="55" t="s">
         <v>267</v>
       </c>
-      <c r="V4" s="56" t="s">
+      <c r="V4" s="65" t="s">
         <v>348</v>
       </c>
-      <c r="W4" s="56" t="s">
+      <c r="W4" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="X4" s="56" t="s">
+      <c r="X4" s="65" t="s">
         <v>226</v>
       </c>
-      <c r="Y4" s="56" t="s">
+      <c r="Y4" s="65" t="s">
         <v>274</v>
       </c>
-      <c r="Z4" s="56" t="s">
+      <c r="Z4" s="65" t="s">
         <v>275</v>
       </c>
-      <c r="AA4" s="56" t="s">
+      <c r="AA4" s="65" t="s">
         <v>349</v>
       </c>
-      <c r="AB4" s="56" t="s">
+      <c r="AB4" s="65" t="s">
         <v>350</v>
       </c>
-      <c r="AC4" s="56" t="s">
+      <c r="AC4" s="65" t="s">
         <v>351</v>
       </c>
       <c r="AD4" t="s">
@@ -6965,920 +6514,99 @@
       <c r="AK4" t="s">
         <v>351</v>
       </c>
-      <c r="AL4" s="65" t="s">
-        <v>369</v>
-      </c>
-      <c r="AM4" s="65" t="s">
+      <c r="AL4" s="74" t="s">
         <v>370</v>
       </c>
+      <c r="AM4" s="74" t="s">
+        <v>371</v>
+      </c>
       <c r="AN4" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AO4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="AQ4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="AR4" s="88" t="s">
-        <v>480</v>
+        <v>373</v>
+      </c>
+      <c r="AP4" s="103" t="s">
+        <v>169</v>
+      </c>
+      <c r="AQ4" s="103">
+        <v>214517</v>
+      </c>
+      <c r="AR4" s="103" t="s">
+        <v>374</v>
       </c>
       <c r="AS4" t="s">
-        <v>478</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AV4" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="AW4" s="63">
+        <v>375</v>
+      </c>
+      <c r="AT4">
+        <v>9039096</v>
+      </c>
+      <c r="AV4" s="72" t="s">
+        <v>376</v>
+      </c>
+      <c r="AW4" s="72">
         <v>289</v>
       </c>
-      <c r="AX4" s="63" t="s">
-        <v>374</v>
+      <c r="AX4" s="72" t="s">
+        <v>377</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 K1:L1 V1:AC1 AY1:XFD1 P1:Q1">
-    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1">
-    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AK1">
-    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV1:AX1">
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AV1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AM1">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AL1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AO1">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AN1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR1">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AR1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AU1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063F6330-2473-4301-8FE6-9C4C7B20F42A}">
-  <dimension ref="A1:AH4"/>
-  <sheetViews>
-    <sheetView topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:Y4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="107" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="110" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="3" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
-    <col min="13" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="65" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="63" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="119" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" style="119" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>425</v>
-      </c>
-      <c r="E1" t="s">
-        <v>109</v>
-      </c>
-      <c r="F1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G1" s="105" t="s">
-        <v>426</v>
-      </c>
-      <c r="H1" s="108" t="s">
-        <v>426</v>
-      </c>
-      <c r="I1" s="108" t="s">
-        <v>426</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="Q1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="R1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="T1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="U1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="V1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="W1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="X1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z1" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA1" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB1" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="AC1" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="AD1" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="AE1" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="AF1" s="117" t="s">
-        <v>435</v>
-      </c>
-      <c r="AG1" s="117" t="s">
-        <v>435</v>
-      </c>
-      <c r="AH1" s="117" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>431</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="G2" s="106" t="s">
-        <v>438</v>
-      </c>
-      <c r="H2" s="83" t="s">
-        <v>438</v>
-      </c>
-      <c r="I2" s="116" t="s">
-        <v>438</v>
-      </c>
-      <c r="J2" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="Q2" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="T2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="U2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="V2" s="89" t="s">
-        <v>366</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA2" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB2" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="AC2" s="66" t="s">
-        <v>452</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="AE2" s="66" t="s">
-        <v>452</v>
-      </c>
-      <c r="AF2" s="118" t="s">
-        <v>455</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="AH2" s="118" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="M3" s="28"/>
-    </row>
-    <row r="4" spans="1:34" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="G4" s="106" t="s">
-        <v>245</v>
-      </c>
-      <c r="H4" s="83" t="s">
-        <v>439</v>
-      </c>
-      <c r="I4" s="109" t="s">
-        <v>440</v>
-      </c>
-      <c r="J4" s="111" t="s">
-        <v>443</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>446</v>
-      </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="29" t="s">
-        <v>444</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="P4" s="112" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q4" s="113" t="s">
-        <v>450</v>
-      </c>
-      <c r="R4" s="44" t="s">
-        <v>448</v>
-      </c>
-      <c r="S4" s="114" t="s">
-        <v>449</v>
-      </c>
-      <c r="T4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="U4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="V4" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="W4" t="s">
-        <v>478</v>
-      </c>
-      <c r="X4" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="Z4" s="115" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA4" s="115">
-        <v>289</v>
-      </c>
-      <c r="AB4" s="115" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC4" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>453</v>
-      </c>
-      <c r="AE4" s="66" t="s">
-        <v>454</v>
-      </c>
-      <c r="AF4" s="118" t="s">
-        <v>456</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="AH4" s="118" t="s">
-        <v>458</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="K1:L1 AC1 N1:O1 A1:F1 AF1 AI1:XFD1">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:AB1">
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",Z1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:Q1">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",P1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S1">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",V1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",Y1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE1">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AE1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AH1">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="S4" r:id="rId1" xr:uid="{0A7080A1-871E-4178-B33A-58D688B4251E}"/>
-    <hyperlink ref="Q4" r:id="rId2" xr:uid="{9753B675-5FD4-4255-855F-50989EE18B68}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18643E49-8A37-4797-9848-600A8FF4D18A}">
-  <dimension ref="A1:AL7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="122" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="123" customWidth="1"/>
-    <col min="8" max="10" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="3" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="19" width="8.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="65" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13" style="63" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="9.140625" style="65"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E1" s="120" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1" s="121" t="s">
-        <v>462</v>
-      </c>
-      <c r="G1" s="121" t="s">
-        <v>463</v>
-      </c>
-      <c r="H1" s="121" t="s">
-        <v>461</v>
-      </c>
-      <c r="I1" s="121" t="s">
-        <v>462</v>
-      </c>
-      <c r="J1" s="121" t="s">
-        <v>463</v>
-      </c>
-      <c r="K1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="Q1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="T1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="U1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="V1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="W1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="X1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="AC1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD1" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="AE1" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF1" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="AG1" s="64" t="s">
-        <v>464</v>
-      </c>
-      <c r="AH1" s="64" t="s">
-        <v>465</v>
-      </c>
-      <c r="AI1" s="61" t="s">
-        <v>466</v>
-      </c>
-      <c r="AJ1" s="61" t="s">
-        <v>467</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:38" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>144</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="130" t="s">
-        <v>472</v>
-      </c>
-      <c r="F2" s="131" t="s">
-        <v>470</v>
-      </c>
-      <c r="G2" s="131" t="s">
-        <v>471</v>
-      </c>
-      <c r="H2" s="132" t="s">
-        <v>472</v>
-      </c>
-      <c r="I2" s="132" t="s">
-        <v>470</v>
-      </c>
-      <c r="J2" s="132" t="s">
-        <v>471</v>
-      </c>
-      <c r="K2" s="84" t="s">
-        <v>5</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="M2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="P2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="U2" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="X2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="Z2" s="89" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="AB2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC2" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="AE2" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="AF2" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG2" s="66" t="s">
-        <v>429</v>
-      </c>
-      <c r="AH2" s="66" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="3" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="N3" s="28"/>
-    </row>
-    <row r="4" spans="1:38" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="124" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="133" t="s">
-        <v>473</v>
-      </c>
-      <c r="G4" s="125" t="s">
-        <v>473</v>
-      </c>
-      <c r="H4" s="83" t="s">
-        <v>475</v>
-      </c>
-      <c r="I4" s="134" t="s">
-        <v>474</v>
-      </c>
-      <c r="J4" s="134" t="s">
-        <v>474</v>
-      </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="101" t="s">
-        <v>369</v>
-      </c>
-      <c r="U4" s="101" t="s">
-        <v>370</v>
-      </c>
-      <c r="V4" s="102" t="s">
-        <v>371</v>
-      </c>
-      <c r="W4" s="102" t="s">
-        <v>372</v>
-      </c>
-      <c r="X4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="Y4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="Z4" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AC4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AD4" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE4" s="103">
-        <v>289</v>
-      </c>
-      <c r="AF4" s="103" t="s">
-        <v>374</v>
-      </c>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="A1:D1 L1:M1 AG1:XFD1 F1:G1">
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O1:P1">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",O1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S1">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AF1">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:U1">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",T1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:W1">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",V1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z1">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",Z1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC1">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AC1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I1:J1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",I1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="F4" r:id="rId1" xr:uid="{C1ACC6A8-5B5F-490B-A8BB-00A18859DF33}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{F675D279-66D3-40EB-80D5-3EA7B7E1E707}"/>
-    <hyperlink ref="J4" r:id="rId3" xr:uid="{09245103-29B2-446C-BCB2-1087850DF46A}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
-</worksheet>
 </file>
--- a/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
+++ b/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C0BDEC9-B050-4B9E-9A4E-B614C7DB41EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92128955-D294-4AAC-80CF-78F4B57D1515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="analysis" sheetId="4" r:id="rId4"/>
     <sheet name="experiment" sheetId="1" r:id="rId5"/>
     <sheet name="run" sheetId="6" r:id="rId6"/>
+    <sheet name="dataset" sheetId="7" r:id="rId7"/>
+    <sheet name="submission" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="786" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="484">
   <si>
     <t>Tag</t>
   </si>
@@ -1446,10 +1448,6 @@
     <t>TODO: The internet service link (file:, http:, ftp: etc). If you provide several URL links, repeat the block "URL_LINK.Label" -  "URL_LINK.URL</t>
   </si>
   <si>
-    <t>TODO: Numeric record ID of the related sources, meaningful to the NCBI Entrez system.
- If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
-  </si>
-  <si>
     <t>TODO: How to label the link to the related source.
  If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
   </si>
@@ -1472,20 +1470,10 @@
     <t>http://www.ncbi.nlm.nih.gov/SNP/snp_viewBatch.cgi?sbid=1061891</t>
   </si>
   <si>
-    <t>PRJNA214517</t>
-  </si>
-  <si>
-    <t>pubmed</t>
-  </si>
-  <si>
     <t>biosample</t>
   </si>
   <si>
     <t>SAMN00000289</t>
-  </si>
-  <si>
-    <t>TODO: Database of the related sources (publication, datasets, online databases…). Must be value from the NCBI controlled vocabulary of permitted cross references (see list: http://www.ncbi.nlm.nih.gov/entrez/eutils/einfo.fcgi?). 
- If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
   </si>
   <si>
     <t>TODO: Database of the related sources (publication, datasets, online databases…). Must be value from the NCBI controlled vocabulary of permitted cross references (see list: http://www.ncbi.nlm.nih.gov/entrez/eutils/einfo.fcgi?)</t>
@@ -1735,9 +1723,6 @@
     <t xml:space="preserve">Repeated columns? </t>
   </si>
   <si>
-    <t xml:space="preserve">Within each tab, you will find a dark vertical line, beyond which there will be repeated "blocks" of columns. These blocks can be repeated indefinetely (i.e. add or remove as many of this blocks/columns as you need) but always as a complete block. See the column headers' format below. </t>
-  </si>
-  <si>
     <r>
       <t>For further information, go to "</t>
     </r>
@@ -1843,12 +1828,231 @@
   <si>
     <t>Repeated blocks (each with their own colour): you can add or remove as many "whole" blocks as you want to fulfil your needs, but remember to always work with complete repetitions (e.g. adding three new columns TAG-VALUE-UNITS for a new attribute, but not adding only one or two of them TAG-VALUE)</t>
   </si>
+  <si>
+    <t>Dataset_alias*</t>
+  </si>
+  <si>
+    <t>Dataset_title*</t>
+  </si>
+  <si>
+    <t>Dataset_type</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Within each tab, you will find a dark vertical line, beyond which there will be </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>repeated "blocks" of columns</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. These blocks can be repeated indefinetely (i.e. add or remove as many of this blocks/columns as you need) but always as a complete block. For instance, in many tabs you will see there are several "TAG-VALUE-UNITS" blocks, regarding metadata attributes. You can freely remove them, or add more. See the column headers' format below. </t>
+    </r>
+  </si>
+  <si>
+    <t>POLICY.Accession</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: </t>
+  </si>
+  <si>
+    <t>TODO: Title (free-form string) of the Dataset</t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the 'Dataset' (e.g. 'My_Dataset_HumanMicrobiome'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t>Example!_Human_MicrobiomeDataset</t>
+  </si>
+  <si>
+    <t>Example!_Dataset about human microbiome data related to project X</t>
+  </si>
+  <si>
+    <t>RUN.Alias</t>
+  </si>
+  <si>
+    <t>ANALYSIS.Alias</t>
+  </si>
+  <si>
+    <t>TODO: More extensive free-form description of the Dataset.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This dataset is related to Project X by grant Y and encompasses samples from group Z. </t>
+  </si>
+  <si>
+    <t>TODO: Selects the type of Dataset. In case the dataset is of several types, repeat this column. Must be value from Controlled vocabulary:  
+	Whole genome sequencing
+	Exome sequencing
+	Genotyping by array
+	Transcriptome profiling by high-throughput sequencing
+	Transcriptome profiling by array
+	Amplicon sequencing
+	Methylation binding domain sequencing
+	Methylation profiling by high-throughput sequencing
+	Phenotype information
+	Study summary information
+	Genomic variant calling
+	Chromatin accessibility profiling by high-throughput sequencing
+	Histone modification profiling by high-throughput sequencing
+	Chip-Seq</t>
+  </si>
+  <si>
+    <t>Exome sequencing</t>
+  </si>
+  <si>
+    <t>Genomic variant calling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: The accession ID (EGAP…) of the policy controlling this dataset. </t>
+  </si>
+  <si>
+    <t>EGAP00001000598</t>
+  </si>
+  <si>
+    <t>ENA-SUBMISSION-TOOL</t>
+  </si>
+  <si>
+    <t>Release Name</t>
+  </si>
+  <si>
+    <t>Release_NED13</t>
+  </si>
+  <si>
+    <t>SRA-Webin</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Analysis_protocol</t>
+  </si>
+  <si>
+    <t>https://github.com/EbiEga/ega-metadata-schema</t>
+  </si>
+  <si>
+    <t>https://www.internationalgenome.org</t>
+  </si>
+  <si>
+    <t>TODO: The accession ID of an Analysis (EGAZ…). Identifies the analyses which are part of this dataset. In case the dataset encompasses several analyses, repeat this column.</t>
+  </si>
+  <si>
+    <t>TODO: The alias of a Run (e.g. 'Example!_DJ0001_13'). Identifies the runs which are part of this dataset. In case the dataset encompasses several runs, repeat this column.</t>
+  </si>
+  <si>
+    <t>Example!_DJ0001_14</t>
+  </si>
+  <si>
+    <t>Example!_DJ0001_15</t>
+  </si>
+  <si>
+    <t>TODO: The alias of an Analysis (e.g. ). Identifies the analyses which are part of this dataset. In case the dataset encompasses several analyses, repeat this column.</t>
+  </si>
+  <si>
+    <t>Example!_D13_Liver_treatment_X1</t>
+  </si>
+  <si>
+    <t>Example!_D13_Liver_treatment_X2</t>
+  </si>
+  <si>
+    <t>Example!_D13_Liver_treatment_X3</t>
+  </si>
+  <si>
+    <t>Submission_alias*</t>
+  </si>
+  <si>
+    <t>Submission_title</t>
+  </si>
+  <si>
+    <t>Contact_name</t>
+  </si>
+  <si>
+    <t>Address_ToInformStatus</t>
+  </si>
+  <si>
+    <t>Address_ToInformError</t>
+  </si>
+  <si>
+    <t>ADD.Filepath</t>
+  </si>
+  <si>
+    <t>ADD.Type</t>
+  </si>
+  <si>
+    <t>MODIFY.Filepath</t>
+  </si>
+  <si>
+    <t>MODIFY.Type</t>
+  </si>
+  <si>
+    <t>VALIDATE.Filepath</t>
+  </si>
+  <si>
+    <t>VALIDATE.Type</t>
+  </si>
+  <si>
+    <t>TODO: Internet address of person or service to inform on any status changes for this submission (e.g. flast@yourdomain.com).</t>
+  </si>
+  <si>
+    <t>TODO: Internet address of person or service to inform on any errors for this submission (e.g. flast@yourdomain.com).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Name of contact person for this submission (e.g. "Lastname, Firstname"). </t>
+  </si>
+  <si>
+    <t>flast@yourdomain.com</t>
+  </si>
+  <si>
+    <t>flast2@yourdomain.com</t>
+  </si>
+  <si>
+    <t>Lastname2, Firstname2</t>
+  </si>
+  <si>
+    <t>ENSEMBL</t>
+  </si>
+  <si>
+    <t>ENSG00000007102</t>
+  </si>
+  <si>
+    <t>GDB</t>
+  </si>
+  <si>
+    <t>G00-128-600</t>
+  </si>
+  <si>
+    <t>Genome browser for vertebrate genomes</t>
+  </si>
+  <si>
+    <t>Human Genome Database accession numbers</t>
+  </si>
+  <si>
+    <t>TODO: INSDC database of the permitted cross reference (e.g. ENSEMBL, GDB, GeneDB...). Must be value from the INSDC controlled vocabulary of permitted cross references (see list: http://www.insdc.org/db_xref.html). 
+ If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
+  </si>
+  <si>
+    <t>TODO: Numeric record ID (accession) of the related sources, meaningful to the INSDC cross reference (e.g. ENSG00000007102 for ensembl)
+ If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1925,8 +2129,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="31">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2107,6 +2326,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF75DBFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD1F3FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -2261,7 +2498,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2305,31 +2542,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -2427,22 +2641,6 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2494,13 +2692,116 @@
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="67">
+  <dxfs count="80">
     <dxf>
       <font>
         <strike val="0"/>
@@ -2722,6 +3023,126 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFB7"/>
@@ -2760,6 +3181,16 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3145,15 +3576,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFD8EEC0"/>
       <color rgb="FFFFE5E5"/>
+      <color rgb="FFF2C4E9"/>
+      <color rgb="FFD1F3FF"/>
+      <color rgb="FF75DBFF"/>
+      <color rgb="FFFFD9D9"/>
       <color rgb="FFFF9999"/>
       <color rgb="FFF7DDF2"/>
-      <color rgb="FFF2C4E9"/>
       <color rgb="FFFFF5D5"/>
       <color rgb="FFE0EED6"/>
-      <color rgb="FFD8EEC0"/>
-      <color rgb="FFFFFFB7"/>
-      <color rgb="FFCDACE6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3432,83 +3864,83 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3716877C-2DD6-4C53-9859-D06BF40DA072}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="81.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="83" t="s">
-        <v>409</v>
-      </c>
-      <c r="B2" s="84"/>
+      <c r="A2" s="131" t="s">
+        <v>405</v>
+      </c>
+      <c r="B2" s="132"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="81" t="s">
-        <v>410</v>
-      </c>
-      <c r="B3" s="69" t="s">
-        <v>411</v>
+    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="97" t="s">
+        <v>406</v>
+      </c>
+      <c r="B3" s="99" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="81" t="s">
+      <c r="A4" s="97" t="s">
+        <v>408</v>
+      </c>
+      <c r="B4" s="99" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A5" s="97" t="s">
+        <v>410</v>
+      </c>
+      <c r="B5" s="99" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
         <v>412</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B6" s="99" t="s">
         <v>413</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="82" t="s">
+    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A7" s="97" t="s">
         <v>414</v>
       </c>
-      <c r="B5" s="69" t="s">
+      <c r="B7" s="99" t="s">
         <v>415</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="82" t="s">
+    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A8" s="98" t="s">
         <v>416</v>
       </c>
-      <c r="B6" s="69" t="s">
+      <c r="B8" s="99" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="133" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="82" t="s">
-        <v>418</v>
-      </c>
-      <c r="B7" s="69" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="82" t="s">
-        <v>420</v>
-      </c>
-      <c r="B8" s="69" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="85" t="s">
-        <v>422</v>
-      </c>
-      <c r="B9" s="85"/>
+      <c r="B9" s="133"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="134" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="84"/>
+      <c r="B11" s="132"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
@@ -3519,43 +3951,43 @@
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="28">
+      <c r="A13" s="90">
         <v>1</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="99" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="29">
+    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A14" s="91">
         <v>2</v>
       </c>
-      <c r="B14" t="s">
-        <v>423</v>
+      <c r="B14" s="99" t="s">
+        <v>418</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29">
+      <c r="A15" s="91">
         <v>3</v>
       </c>
-      <c r="B15" t="s">
-        <v>424</v>
+      <c r="B15" s="99" t="s">
+        <v>419</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="B16" t="s">
-        <v>425</v>
+      <c r="B16" s="99" t="s">
+        <v>420</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="86" t="s">
+      <c r="A18" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="B18" s="84"/>
+      <c r="B18" s="132"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -3566,43 +3998,43 @@
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="92" t="s">
         <v>114</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="100" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="23" t="s">
+      <c r="A21" s="93" t="s">
         <v>116</v>
       </c>
-      <c r="B21" s="22" t="s">
-        <v>426</v>
+      <c r="B21" s="100" t="s">
+        <v>421</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="26" t="s">
+    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A22" s="94" t="s">
         <v>130</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="100" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="95" t="s">
         <v>131</v>
       </c>
-      <c r="B23" s="22" t="s">
-        <v>427</v>
+      <c r="B23" s="100" t="s">
+        <v>422</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="96" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="22" t="s">
-        <v>428</v>
+      <c r="B24" s="100" t="s">
+        <v>423</v>
       </c>
     </row>
   </sheetData>
@@ -3620,7 +4052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA4E3C-B110-4DC1-9919-979853C674EC}">
   <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AJ4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -3630,25 +4064,25 @@
     <col min="4" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="25" customWidth="1"/>
     <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
     <col min="13" max="15" width="8.7109375" customWidth="1"/>
     <col min="16" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="22" width="10.85546875" style="44" customWidth="1"/>
+    <col min="19" max="22" width="10.85546875" style="35" customWidth="1"/>
     <col min="23" max="26" width="10.85546875" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="74" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="65" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="103" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="103" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" style="72" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13" style="72" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" style="63" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" style="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -3679,7 +4113,7 @@
       <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -3706,360 +4140,362 @@
       <c r="R1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="S1" s="32" t="s">
+      <c r="S1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="32" t="s">
+      <c r="T1" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="U1" s="32" t="s">
+      <c r="U1" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="V1" s="32" t="s">
+      <c r="V1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="W1" s="32" t="s">
+      <c r="W1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="32" t="s">
+      <c r="X1" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="Y1" s="32" t="s">
+      <c r="Y1" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="Z1" s="32" t="s">
+      <c r="Z1" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="AA1" s="73" t="s">
+      <c r="AA1" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="AB1" s="73" t="s">
+      <c r="AB1" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="AC1" s="73" t="s">
+      <c r="AC1" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="AD1" s="73" t="s">
+      <c r="AD1" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="AE1" s="102" t="s">
+      <c r="AE1" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="AF1" s="102" t="s">
+      <c r="AF1" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="AG1" s="102" t="s">
+      <c r="AG1" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="AH1" s="102" t="s">
+      <c r="AH1" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="AI1" s="102" t="s">
+      <c r="AI1" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="AJ1" s="102" t="s">
+      <c r="AJ1" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="AK1" s="70" t="s">
+      <c r="AK1" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="AL1" s="70" t="s">
+      <c r="AL1" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="AM1" s="70" t="s">
+      <c r="AM1" s="61" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="38" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:39" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="29" t="s">
         <v>149</v>
       </c>
-      <c r="I2" s="38" t="s">
+      <c r="I2" s="29" t="s">
         <v>150</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="Q2" s="40" t="s">
+      <c r="Q2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="93" t="s">
+      <c r="S2" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="93" t="s">
+      <c r="T2" s="78" t="s">
         <v>152</v>
       </c>
-      <c r="U2" s="93" t="s">
+      <c r="U2" s="78" t="s">
         <v>153</v>
       </c>
-      <c r="V2" s="93" t="s">
+      <c r="V2" s="78" t="s">
         <v>154</v>
       </c>
-      <c r="W2" s="33" t="s">
+      <c r="W2" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="33" t="s">
+      <c r="X2" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="Y2" s="33" t="s">
+      <c r="Y2" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="Z2" s="33" t="s">
+      <c r="Z2" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="AA2" s="75" t="s">
+      <c r="AA2" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="AB2" s="75" t="s">
+      <c r="AB2" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="AC2" s="38" t="s">
+      <c r="AC2" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="AD2" s="38" t="s">
+      <c r="AD2" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="AE2" s="104" t="s">
-        <v>378</v>
-      </c>
-      <c r="AF2" s="104" t="s">
+      <c r="AE2" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF2" s="89" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG2" s="89" t="s">
         <v>366</v>
       </c>
-      <c r="AG2" s="104" t="s">
+      <c r="AH2" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="AK2" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL2" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="AH2" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="AI2" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="AJ2" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK2" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="AL2" s="71" t="s">
+      <c r="AM2" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="AM2" s="71" t="s">
+    </row>
+    <row r="3" spans="1:39" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:39" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>160</v>
+      </c>
+      <c r="J4" s="30" t="s">
+        <v>161</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q4" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="R4" s="31"/>
+      <c r="S4" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="T4" s="32">
+        <v>406</v>
+      </c>
+      <c r="U4" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="W4" s="29" t="s">
+        <v>169</v>
+      </c>
+      <c r="X4" s="29">
+        <v>110649</v>
+      </c>
+      <c r="Y4" s="29" t="s">
+        <v>170</v>
+      </c>
+      <c r="Z4" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA4" s="65" t="s">
         <v>369</v>
       </c>
-    </row>
-    <row r="3" spans="1:39" s="36" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="37"/>
-    </row>
-    <row r="4" spans="1:39" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
-        <v>155</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="38" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>157</v>
-      </c>
-      <c r="G4" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="H4" s="38" t="s">
-        <v>159</v>
-      </c>
-      <c r="I4" s="38" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" s="39" t="s">
-        <v>161</v>
-      </c>
-      <c r="K4" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="L4" s="40"/>
-      <c r="M4" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="N4" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="P4" s="40" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q4" s="40" t="s">
-        <v>162</v>
-      </c>
-      <c r="R4" s="40"/>
-      <c r="S4" s="41" t="s">
-        <v>166</v>
-      </c>
-      <c r="T4" s="41">
-        <v>406</v>
-      </c>
-      <c r="U4" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="V4" s="42" t="s">
-        <v>168</v>
-      </c>
-      <c r="W4" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="X4" s="38">
-        <v>110649</v>
-      </c>
-      <c r="Y4" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="Z4" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA4" s="74" t="s">
+      <c r="AB4" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="AB4" s="74" t="s">
+      <c r="AC4" t="s">
         <v>371</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>372</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF4" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG4" s="88" t="s">
+        <v>480</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AK4" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="AE4" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF4" s="103">
-        <v>214517</v>
-      </c>
-      <c r="AG4" s="103" t="s">
+      <c r="AL4" s="63">
+        <v>289</v>
+      </c>
+      <c r="AM4" s="63" t="s">
         <v>374</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI4">
-        <v>9039096</v>
-      </c>
-      <c r="AJ4"/>
-      <c r="AK4" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="AL4" s="72">
-        <v>289</v>
-      </c>
-      <c r="AM4" s="72" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="P7" s="40"/>
-      <c r="Q7" s="40"/>
-      <c r="R7" s="40"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I1 K1:L1 T1:V1 AN1:XFD1">
-    <cfRule type="containsText" dxfId="66" priority="12" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="79" priority="12" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="containsText" dxfId="65" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="78" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="containsText" dxfId="64" priority="10" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="77" priority="10" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",X1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="containsText" dxfId="63" priority="9" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",W1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="containsText" dxfId="62" priority="8" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="75" priority="8" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:R1">
-    <cfRule type="containsText" dxfId="61" priority="7" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="74" priority="7" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AM1">
-    <cfRule type="containsText" dxfId="60" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="73" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AB1">
-    <cfRule type="containsText" dxfId="59" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AD1">
-    <cfRule type="containsText" dxfId="57" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1">
-    <cfRule type="containsText" dxfId="7" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AJ1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4072,7 +4508,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F91026-08D1-4D75-80BD-B4D4E9D96D46}">
   <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AE2" sqref="AE2:AJ4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4093,7 +4531,7 @@
     <col min="15" max="15" width="10.140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" style="34" customWidth="1"/>
+    <col min="18" max="18" width="6.42578125" style="25" customWidth="1"/>
     <col min="19" max="19" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.28515625" style="2" customWidth="1"/>
     <col min="21" max="21" width="6.42578125" customWidth="1"/>
@@ -4102,19 +4540,19 @@
     <col min="24" max="24" width="6.42578125" style="2" customWidth="1"/>
     <col min="25" max="25" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.28515625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="74" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="65" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="103" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="103" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" style="72" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13" style="72" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" style="63" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" style="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -4142,34 +4580,34 @@
       <c r="H1" t="s">
         <v>109</v>
       </c>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="58" t="s">
+      <c r="J1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="59" t="s">
+      <c r="K1" s="50" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="60" t="s">
+      <c r="L1" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="61" t="s">
+      <c r="M1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="62" t="s">
+      <c r="N1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="57" t="s">
+      <c r="O1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="58" t="s">
+      <c r="P1" s="49" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="58" t="s">
+      <c r="Q1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="R1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="S1" s="4" t="s">
@@ -4196,157 +4634,157 @@
       <c r="Z1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="73" t="s">
+      <c r="AA1" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="AB1" s="73" t="s">
+      <c r="AB1" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="AC1" s="73" t="s">
+      <c r="AC1" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="AD1" s="73" t="s">
+      <c r="AD1" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="AE1" s="102" t="s">
+      <c r="AE1" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="AF1" s="102" t="s">
+      <c r="AF1" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="AG1" s="102" t="s">
+      <c r="AG1" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="AH1" s="102" t="s">
+      <c r="AH1" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="AI1" s="102" t="s">
+      <c r="AI1" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="AJ1" s="102" t="s">
+      <c r="AJ1" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="AK1" s="70" t="s">
+      <c r="AK1" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="AL1" s="70" t="s">
+      <c r="AL1" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="AM1" s="70" t="s">
+      <c r="AM1" s="61" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:39" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:39" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="E2" s="38" t="s">
+      <c r="E2" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>292</v>
       </c>
-      <c r="G2" s="38" t="s">
+      <c r="G2" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="J2" s="40" t="s">
+      <c r="J2" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40" t="s">
+      <c r="K2" s="31"/>
+      <c r="L2" s="31" t="s">
         <v>297</v>
       </c>
-      <c r="M2" s="63" t="s">
+      <c r="M2" s="54" t="s">
         <v>298</v>
       </c>
-      <c r="N2" s="40"/>
-      <c r="O2" s="40" t="s">
+      <c r="N2" s="31"/>
+      <c r="O2" s="31" t="s">
         <v>299</v>
       </c>
-      <c r="P2" s="40" t="s">
+      <c r="P2" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="Q2" s="40"/>
-      <c r="R2" s="39" t="s">
+      <c r="Q2" s="31"/>
+      <c r="R2" s="30" t="s">
         <v>301</v>
       </c>
-      <c r="S2" s="40" t="s">
+      <c r="S2" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="T2" s="40" t="s">
+      <c r="T2" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="U2" s="29" t="s">
         <v>301</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="V2" s="29" t="s">
         <v>302</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="W2" s="29" t="s">
         <v>303</v>
       </c>
-      <c r="X2" s="40" t="s">
+      <c r="X2" s="31" t="s">
         <v>301</v>
       </c>
-      <c r="Y2" s="40" t="s">
+      <c r="Y2" s="31" t="s">
         <v>302</v>
       </c>
-      <c r="Z2" s="40" t="s">
+      <c r="Z2" s="31" t="s">
         <v>303</v>
       </c>
-      <c r="AA2" s="75" t="s">
+      <c r="AA2" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="AB2" s="75" t="s">
+      <c r="AB2" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="AC2" s="38" t="s">
+      <c r="AC2" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="AD2" s="38" t="s">
+      <c r="AD2" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="AE2" s="104" t="s">
-        <v>378</v>
-      </c>
-      <c r="AF2" s="104" t="s">
+      <c r="AE2" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF2" s="89" t="s">
+        <v>483</v>
+      </c>
+      <c r="AG2" s="89" t="s">
         <v>366</v>
       </c>
-      <c r="AG2" s="104" t="s">
+      <c r="AH2" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="AK2" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="AL2" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="AH2" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="AI2" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="AJ2" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="AK2" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="AL2" s="71" t="s">
+      <c r="AM2" s="62" t="s">
         <v>368</v>
-      </c>
-      <c r="AM2" s="71" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -4354,20 +4792,20 @@
         <v>106</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="R3" s="64"/>
-      <c r="AA3" s="36"/>
-      <c r="AB3" s="36"/>
-      <c r="AC3" s="36"/>
-      <c r="AD3" s="36"/>
-      <c r="AE3" s="36"/>
-      <c r="AF3" s="36"/>
-      <c r="AG3" s="36"/>
-      <c r="AH3" s="36"/>
-      <c r="AI3" s="36"/>
-      <c r="AJ3" s="36"/>
-      <c r="AK3" s="36"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
+      <c r="R3" s="55"/>
+      <c r="AA3" s="27"/>
+      <c r="AB3" s="27"/>
+      <c r="AC3" s="27"/>
+      <c r="AD3" s="27"/>
+      <c r="AE3" s="27"/>
+      <c r="AF3" s="27"/>
+      <c r="AG3" s="27"/>
+      <c r="AH3" s="27"/>
+      <c r="AI3" s="27"/>
+      <c r="AJ3" s="27"/>
+      <c r="AK3" s="27"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -4412,7 +4850,7 @@
       <c r="P4" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="R4" s="34" t="s">
+      <c r="R4" s="25" t="s">
         <v>311</v>
       </c>
       <c r="S4" s="2" t="s">
@@ -4436,76 +4874,79 @@
       <c r="Y4" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="AA4" s="74" t="s">
+      <c r="AA4" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="AB4" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="AB4" s="74" t="s">
+      <c r="AC4" t="s">
         <v>371</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>372</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="AF4" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="AG4" s="88" t="s">
+        <v>480</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AK4" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="AE4" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="AF4" s="103">
-        <v>214517</v>
-      </c>
-      <c r="AG4" s="103" t="s">
+      <c r="AL4" s="63">
+        <v>289</v>
+      </c>
+      <c r="AM4" s="63" t="s">
         <v>374</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AI4">
-        <v>9039096</v>
-      </c>
-      <c r="AK4" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="AL4" s="72">
-        <v>289</v>
-      </c>
-      <c r="AM4" s="72" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:T1 AN1:XFD1">
-    <cfRule type="containsText" dxfId="56" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:W1">
-    <cfRule type="containsText" dxfId="55" priority="10" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="67" priority="10" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",U1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="containsText" dxfId="54" priority="9" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",X1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AM1">
-    <cfRule type="containsText" dxfId="53" priority="4" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1 AA1:AB1">
-    <cfRule type="containsText" dxfId="52" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1">
-    <cfRule type="containsText" dxfId="51" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AJ1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AD1">
-    <cfRule type="containsText" dxfId="50" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4515,9 +4956,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B3225A-CA96-4372-AB7E-97999D11252D}">
-  <dimension ref="A1:BV17"/>
+  <dimension ref="A1:BV16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AW1" workbookViewId="0">
+      <selection activeCell="BC2" sqref="BC2:BH4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4529,32 +4972,32 @@
     <col min="6" max="6" width="15.5703125" customWidth="1"/>
     <col min="7" max="7" width="20.28515625" customWidth="1"/>
     <col min="8" max="29" width="15.5703125" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" style="34" customWidth="1"/>
+    <col min="30" max="30" width="8.7109375" style="25" customWidth="1"/>
     <col min="31" max="32" width="8.7109375" style="2" customWidth="1"/>
-    <col min="33" max="34" width="15.5703125" style="55" customWidth="1"/>
+    <col min="33" max="34" width="15.5703125" style="46" customWidth="1"/>
     <col min="35" max="36" width="15.5703125" customWidth="1"/>
-    <col min="37" max="38" width="15.5703125" style="55" customWidth="1"/>
-    <col min="39" max="44" width="8.7109375" style="50" customWidth="1"/>
+    <col min="37" max="38" width="15.5703125" style="46" customWidth="1"/>
+    <col min="39" max="44" width="8.7109375" style="41" customWidth="1"/>
     <col min="45" max="50" width="8.7109375" customWidth="1"/>
-    <col min="51" max="51" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8" style="74" customWidth="1"/>
+    <col min="51" max="51" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8" style="65" customWidth="1"/>
     <col min="53" max="53" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="8" customWidth="1"/>
-    <col min="55" max="55" width="8.7109375" style="103" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.140625" style="103" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11" style="72" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13" style="72" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="8.7109375" style="51" customWidth="1"/>
+    <col min="61" max="61" width="11" style="63" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="64" max="65" width="8.7109375" style="42" customWidth="1"/>
     <col min="66" max="67" width="8.7109375" customWidth="1"/>
-    <col min="68" max="69" width="8.7109375" style="51" customWidth="1"/>
-    <col min="70" max="71" width="8.7109375" style="77" customWidth="1"/>
-    <col min="72" max="73" width="8.7109375" style="103" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.7109375" style="78" customWidth="1"/>
+    <col min="68" max="69" width="8.7109375" style="42" customWidth="1"/>
+    <col min="70" max="71" width="8.7109375" style="68" customWidth="1"/>
+    <col min="72" max="73" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.7109375" style="69" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4585,67 +5028,67 @@
       <c r="I1" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="45" t="s">
+      <c r="J1" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="45" t="s">
+      <c r="K1" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="45" t="s">
+      <c r="L1" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="45" t="s">
+      <c r="M1" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" s="45" t="s">
+      <c r="Q1" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="45" t="s">
+      <c r="R1" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="S1" s="45" t="s">
+      <c r="S1" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="T1" s="45" t="s">
+      <c r="T1" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="U1" s="45" t="s">
+      <c r="U1" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="V1" s="45" t="s">
+      <c r="V1" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="W1" s="45" t="s">
+      <c r="W1" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="X1" s="45" t="s">
+      <c r="X1" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="Y1" s="45" t="s">
+      <c r="Y1" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="Z1" s="45" t="s">
+      <c r="Z1" s="36" t="s">
         <v>193</v>
       </c>
-      <c r="AA1" s="45" t="s">
+      <c r="AA1" s="36" t="s">
         <v>194</v>
       </c>
-      <c r="AB1" s="45" t="s">
+      <c r="AB1" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="AC1" s="45" t="s">
+      <c r="AC1" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="AD1" s="31" t="s">
+      <c r="AD1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="AE1" s="4" t="s">
@@ -4654,354 +5097,354 @@
       <c r="AF1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AG1" s="46" t="s">
+      <c r="AG1" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="AH1" s="46" t="s">
+      <c r="AH1" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="AI1" s="46" t="s">
+      <c r="AI1" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="AJ1" s="46" t="s">
+      <c r="AJ1" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="AK1" s="46" t="s">
+      <c r="AK1" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="AL1" s="46" t="s">
+      <c r="AL1" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="AM1" s="47" t="s">
+      <c r="AM1" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="AN1" s="47" t="s">
+      <c r="AN1" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AO1" s="47" t="s">
+      <c r="AO1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="AP1" s="47" t="s">
+      <c r="AP1" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="AQ1" s="47" t="s">
+      <c r="AQ1" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="AR1" s="47" t="s">
+      <c r="AR1" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="AS1" s="47" t="s">
+      <c r="AS1" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="AT1" s="47" t="s">
+      <c r="AT1" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AU1" s="47" t="s">
+      <c r="AU1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="AV1" s="47" t="s">
+      <c r="AV1" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="AW1" s="47" t="s">
+      <c r="AW1" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="AX1" s="47" t="s">
+      <c r="AX1" s="38" t="s">
         <v>204</v>
       </c>
-      <c r="AY1" s="73" t="s">
+      <c r="AY1" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="AZ1" s="73" t="s">
+      <c r="AZ1" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="BA1" s="73" t="s">
+      <c r="BA1" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="BB1" s="73" t="s">
+      <c r="BB1" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="BC1" s="102" t="s">
+      <c r="BC1" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="BD1" s="102" t="s">
+      <c r="BD1" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="BE1" s="102" t="s">
+      <c r="BE1" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="BF1" s="102" t="s">
+      <c r="BF1" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="BG1" s="102" t="s">
+      <c r="BG1" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="BH1" s="102" t="s">
+      <c r="BH1" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="BI1" s="70" t="s">
+      <c r="BI1" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="BJ1" s="70" t="s">
+      <c r="BJ1" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="BK1" s="70" t="s">
+      <c r="BK1" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="BL1" s="48" t="s">
+      <c r="BL1" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="BM1" s="48" t="s">
+      <c r="BM1" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="BN1" s="48" t="s">
+      <c r="BN1" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="BO1" s="48" t="s">
+      <c r="BO1" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="BP1" s="48" t="s">
+      <c r="BP1" s="39" t="s">
         <v>205</v>
       </c>
-      <c r="BQ1" s="48" t="s">
+      <c r="BQ1" s="39" t="s">
         <v>206</v>
       </c>
-      <c r="BR1" s="49" t="s">
+      <c r="BR1" s="40" t="s">
         <v>207</v>
       </c>
-      <c r="BS1" s="49" t="s">
+      <c r="BS1" s="40" t="s">
         <v>208</v>
       </c>
-      <c r="BT1" s="102" t="s">
+      <c r="BT1" s="87" t="s">
         <v>209</v>
       </c>
-      <c r="BU1" s="102" t="s">
+      <c r="BU1" s="87" t="s">
         <v>210</v>
       </c>
-      <c r="BV1" s="76" t="s">
+      <c r="BV1" s="67" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:74" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:74" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="29" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="H2" s="38" t="s">
+      <c r="H2" s="29" t="s">
         <v>217</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="33" t="s">
+      <c r="J2" s="24" t="s">
         <v>219</v>
       </c>
-      <c r="K2" s="33" t="s">
+      <c r="K2" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="L2" s="33" t="s">
+      <c r="L2" s="24" t="s">
         <v>221</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="29" t="s">
+        <v>376</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>377</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q2" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="R2" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="S2" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="P2" s="33" t="s">
+      <c r="T2" s="24" t="s">
         <v>383</v>
       </c>
-      <c r="Q2" s="38" t="s">
+      <c r="U2" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="R2" s="38" t="s">
+      <c r="V2" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="S2" s="38" t="s">
+      <c r="W2" s="29" t="s">
         <v>386</v>
       </c>
-      <c r="T2" s="33" t="s">
+      <c r="X2" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="U2" s="38" t="s">
+      <c r="Y2" s="29" t="s">
         <v>388</v>
       </c>
-      <c r="V2" s="38" t="s">
+      <c r="Z2" s="29" t="s">
         <v>389</v>
       </c>
-      <c r="W2" s="38" t="s">
+      <c r="AA2" s="24" t="s">
         <v>390</v>
       </c>
-      <c r="X2" s="38" t="s">
+      <c r="AB2" s="29" t="s">
         <v>391</v>
       </c>
-      <c r="Y2" s="38" t="s">
+      <c r="AC2" s="29" t="s">
         <v>392</v>
       </c>
-      <c r="Z2" s="38" t="s">
-        <v>393</v>
-      </c>
-      <c r="AA2" s="33" t="s">
-        <v>394</v>
-      </c>
-      <c r="AB2" s="38" t="s">
-        <v>395</v>
-      </c>
-      <c r="AC2" s="38" t="s">
-        <v>396</v>
-      </c>
-      <c r="AD2" s="39" t="s">
+      <c r="AD2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="AE2" s="40" t="s">
+      <c r="AE2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="AF2" s="40" t="s">
+      <c r="AF2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="87" t="s">
+      <c r="AG2" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="AH2" s="87" t="s">
+      <c r="AH2" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="AI2" s="33" t="s">
+      <c r="AI2" s="24" t="s">
         <v>222</v>
       </c>
-      <c r="AJ2" s="33" t="s">
+      <c r="AJ2" s="24" t="s">
         <v>223</v>
       </c>
-      <c r="AK2" s="87" t="s">
+      <c r="AK2" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="AL2" s="87" t="s">
+      <c r="AL2" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="AM2" s="88" t="s">
+      <c r="AM2" s="73" t="s">
         <v>224</v>
       </c>
-      <c r="AN2" s="89" t="s">
+      <c r="AN2" s="74" t="s">
         <v>225</v>
       </c>
-      <c r="AO2" s="88" t="s">
+      <c r="AO2" s="73" t="s">
         <v>226</v>
       </c>
-      <c r="AP2" s="88" t="s">
+      <c r="AP2" s="73" t="s">
         <v>227</v>
       </c>
-      <c r="AQ2" s="88" t="s">
+      <c r="AQ2" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="AR2" s="88" t="s">
+      <c r="AR2" s="73" t="s">
         <v>229</v>
       </c>
-      <c r="AS2" s="38" t="s">
+      <c r="AS2" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="AT2" s="33" t="s">
+      <c r="AT2" s="24" t="s">
         <v>230</v>
       </c>
-      <c r="AU2" s="38" t="s">
+      <c r="AU2" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AV2" s="38" t="s">
+      <c r="AV2" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="AW2" s="38" t="s">
+      <c r="AW2" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="AX2" s="38" t="s">
+      <c r="AX2" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="AY2" s="75" t="s">
+      <c r="AY2" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="AZ2" s="75" t="s">
+      <c r="AZ2" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="BA2" s="38" t="s">
+      <c r="BA2" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="BB2" s="38" t="s">
+      <c r="BB2" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="BC2" s="104" t="s">
-        <v>378</v>
-      </c>
-      <c r="BD2" s="104" t="s">
+      <c r="BC2" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="BD2" s="89" t="s">
+        <v>483</v>
+      </c>
+      <c r="BE2" s="89" t="s">
         <v>366</v>
       </c>
-      <c r="BE2" s="104" t="s">
+      <c r="BF2" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="BG2" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="BH2" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="BI2" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="BJ2" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="BF2" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="BG2" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="BH2" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="BI2" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="BJ2" s="71" t="s">
+      <c r="BK2" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="BK2" s="71" t="s">
-        <v>369</v>
-      </c>
-      <c r="BL2" s="90" t="s">
+      <c r="BL2" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="BM2" s="90" t="s">
+      <c r="BM2" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="BN2" s="38" t="s">
+      <c r="BN2" s="29" t="s">
         <v>231</v>
       </c>
-      <c r="BO2" s="38" t="s">
+      <c r="BO2" s="29" t="s">
         <v>232</v>
       </c>
-      <c r="BP2" s="90" t="s">
+      <c r="BP2" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="BQ2" s="90" t="s">
+      <c r="BQ2" s="75" t="s">
         <v>232</v>
       </c>
-      <c r="BR2" s="91" t="s">
+      <c r="BR2" s="76" t="s">
         <v>233</v>
       </c>
-      <c r="BS2" s="91" t="s">
+      <c r="BS2" s="76" t="s">
         <v>234</v>
       </c>
-      <c r="BT2" s="104" t="s">
+      <c r="BT2" s="89" t="s">
         <v>235</v>
       </c>
-      <c r="BU2" s="104" t="s">
+      <c r="BU2" s="89" t="s">
         <v>236</v>
       </c>
-      <c r="BV2" s="92" t="s">
+      <c r="BV2" s="77" t="s">
         <v>237</v>
       </c>
     </row>
@@ -5010,22 +5453,22 @@
         <v>106</v>
       </c>
       <c r="L3" s="18"/>
-      <c r="AD3" s="64"/>
-      <c r="AY3" s="36"/>
-      <c r="AZ3" s="36"/>
-      <c r="BA3" s="36"/>
-      <c r="BB3" s="36"/>
-      <c r="BC3" s="36"/>
-      <c r="BD3" s="36"/>
-      <c r="BE3" s="36"/>
-      <c r="BF3" s="36"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BT3" s="36"/>
-      <c r="BU3" s="36"/>
+      <c r="AD3" s="55"/>
+      <c r="AY3" s="27"/>
+      <c r="AZ3" s="27"/>
+      <c r="BA3" s="27"/>
+      <c r="BB3" s="27"/>
+      <c r="BC3" s="27"/>
+      <c r="BD3" s="27"/>
+      <c r="BE3" s="27"/>
+      <c r="BF3" s="27"/>
+      <c r="BG3" s="27"/>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="27"/>
+      <c r="BJ3" s="27"/>
+      <c r="BK3" s="27"/>
+      <c r="BT3" s="27"/>
+      <c r="BU3" s="27"/>
     </row>
     <row r="4" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -5091,10 +5534,10 @@
       <c r="U4" t="s">
         <v>252</v>
       </c>
-      <c r="V4" s="52" t="s">
+      <c r="V4" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="W4" s="53" t="s">
+      <c r="W4" s="44" t="s">
         <v>253</v>
       </c>
       <c r="X4" t="s">
@@ -5115,16 +5558,16 @@
       <c r="AC4" t="s">
         <v>259</v>
       </c>
-      <c r="AD4" s="34" t="s">
+      <c r="AD4" s="25" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="54" t="s">
+      <c r="AE4" s="45" t="s">
         <v>261</v>
       </c>
-      <c r="AG4" s="55" t="s">
+      <c r="AG4" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="AH4" s="55" t="s">
+      <c r="AH4" s="46" t="s">
         <v>263</v>
       </c>
       <c r="AI4" t="s">
@@ -5133,25 +5576,25 @@
       <c r="AJ4" t="s">
         <v>265</v>
       </c>
-      <c r="AK4" s="55" t="s">
+      <c r="AK4" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="AL4" s="55" t="s">
+      <c r="AL4" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="AM4" s="50" t="s">
+      <c r="AM4" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AN4" s="50" t="s">
+      <c r="AN4" s="41" t="s">
         <v>269</v>
       </c>
-      <c r="AO4" s="50" t="s">
+      <c r="AO4" s="41" t="s">
         <v>226</v>
       </c>
-      <c r="AP4" s="50" t="s">
+      <c r="AP4" s="41" t="s">
         <v>270</v>
       </c>
-      <c r="AQ4" s="50" t="s">
+      <c r="AQ4" s="41" t="s">
         <v>271</v>
       </c>
       <c r="AS4" t="s">
@@ -5169,43 +5612,46 @@
       <c r="AW4" t="s">
         <v>275</v>
       </c>
-      <c r="AY4" s="74" t="s">
+      <c r="AY4" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="AZ4" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="AZ4" s="74" t="s">
+      <c r="BA4" t="s">
         <v>371</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>372</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="BD4" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="BE4" s="88" t="s">
+        <v>480</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>478</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="BI4" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="BC4" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="BD4" s="103">
-        <v>214517</v>
-      </c>
-      <c r="BE4" s="103" t="s">
+      <c r="BJ4" s="63">
+        <v>289</v>
+      </c>
+      <c r="BK4" s="63" t="s">
         <v>374</v>
       </c>
-      <c r="BF4" t="s">
-        <v>375</v>
-      </c>
-      <c r="BG4">
-        <v>9039096</v>
-      </c>
-      <c r="BI4" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="BJ4" s="72">
-        <v>289</v>
-      </c>
-      <c r="BK4" s="72" t="s">
-        <v>377</v>
-      </c>
-      <c r="BL4" s="51" t="s">
+      <c r="BL4" s="42" t="s">
         <v>276</v>
       </c>
       <c r="BN4" t="s">
@@ -5214,113 +5660,113 @@
       <c r="BO4" t="s">
         <v>278</v>
       </c>
-      <c r="BP4" s="51" t="s">
+      <c r="BP4" s="42" t="s">
         <v>279</v>
       </c>
-      <c r="BR4" s="77" t="s">
+      <c r="BR4" s="68" t="s">
         <v>280</v>
       </c>
-      <c r="BT4" s="103" t="s">
+      <c r="BT4" s="88" t="s">
         <v>281</v>
       </c>
-      <c r="BU4" s="103" t="s">
+      <c r="BU4" s="88" t="s">
         <v>282</v>
       </c>
-      <c r="BV4" s="78" t="s">
+      <c r="BV4" s="69" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="17" spans="6:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F17" s="56"/>
+    <row r="16" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="47"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1 AE1:AF1 AM1:AR1 BV1:XFD1 BL1:BM1 H1:I1 M1:AC1">
-    <cfRule type="containsText" dxfId="49" priority="20" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="61" priority="20" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR1:BS1">
-    <cfRule type="containsText" dxfId="48" priority="19" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="60" priority="19" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BR1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AH1">
-    <cfRule type="containsText" dxfId="46" priority="17" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="59" priority="17" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN1:BO1">
-    <cfRule type="containsText" dxfId="45" priority="16" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="58" priority="16" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BN1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP1:BQ1">
-    <cfRule type="containsText" dxfId="44" priority="15" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BP1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS1:AX1">
-    <cfRule type="containsText" dxfId="43" priority="14" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AS1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="42" priority="13" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="55" priority="13" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AJ1">
-    <cfRule type="containsText" dxfId="41" priority="12" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AL1">
-    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:AC1">
-    <cfRule type="expression" dxfId="39" priority="9">
+    <cfRule type="expression" dxfId="52" priority="9">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*"&amp;LEFT(L$1, FIND(".", L$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:AC1">
-    <cfRule type="expression" dxfId="38" priority="10">
+    <cfRule type="expression" dxfId="51" priority="10">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*"&amp;LEFT(L$1, FIND(".", L$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="expression" dxfId="37" priority="8">
+    <cfRule type="expression" dxfId="50" priority="8">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*REFERENCE_ALIGNMENT*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_VARIATION*") + COUNTIF($I$4:$I$1048576,"*PROCESSED_READS*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_ANNOTATION*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="expression" dxfId="36" priority="7">
+    <cfRule type="expression" dxfId="49" priority="7">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*REFERENCE_ALIGNMENT*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_VARIATION*") + COUNTIF($I$4:$I$1048576,"*PROCESSED_READS*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_ANNOTATION*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BK1">
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:AZ1">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AY1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1">
-    <cfRule type="containsText" dxfId="32" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1">
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BE1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH1">
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BH1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5335,9 +5781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BS4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="BA1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="BK2" sqref="BK2:BP4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5351,25 +5797,25 @@
     <col min="15" max="15" width="15.5703125" style="7" customWidth="1"/>
     <col min="16" max="19" width="15.5703125" style="8" customWidth="1"/>
     <col min="20" max="31" width="15.5703125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" style="80" customWidth="1"/>
+    <col min="32" max="32" width="8.7109375" style="71" customWidth="1"/>
     <col min="33" max="42" width="8.7109375" style="11" customWidth="1"/>
     <col min="43" max="47" width="8.7109375" style="13" customWidth="1"/>
     <col min="48" max="52" width="8.7109375" style="9" customWidth="1"/>
     <col min="53" max="55" width="8.7109375" style="3" customWidth="1"/>
     <col min="56" max="56" width="9.140625" style="10"/>
-    <col min="59" max="59" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8" style="74" customWidth="1"/>
+    <col min="59" max="59" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="8" style="65" customWidth="1"/>
     <col min="61" max="61" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="62" max="62" width="8" customWidth="1"/>
-    <col min="63" max="63" width="8.7109375" style="103" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.140625" style="103" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="8.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11" style="72" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13" style="72" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="11" style="63" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="13" style="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:71" x14ac:dyDescent="0.25">
@@ -5466,38 +5912,38 @@
       <c r="AE1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="79" t="s">
+      <c r="AF1" s="70" t="s">
+        <v>393</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
         <v>397</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>398</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>399</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>400</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>401</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>402</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AP1" s="12" t="s">
         <v>403</v>
-      </c>
-      <c r="AM1" s="12" t="s">
-        <v>404</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>405</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>406</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>407</v>
       </c>
       <c r="AQ1" s="14" t="s">
         <v>53</v>
@@ -5547,47 +5993,47 @@
       <c r="BF1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="BG1" s="73" t="s">
+      <c r="BG1" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="BH1" s="73" t="s">
+      <c r="BH1" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="BI1" s="73" t="s">
+      <c r="BI1" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="BJ1" s="73" t="s">
+      <c r="BJ1" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="BK1" s="102" t="s">
+      <c r="BK1" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="BL1" s="102" t="s">
+      <c r="BL1" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="BM1" s="102" t="s">
+      <c r="BM1" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="BN1" s="102" t="s">
+      <c r="BN1" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="BO1" s="102" t="s">
+      <c r="BO1" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="BP1" s="102" t="s">
+      <c r="BP1" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="BQ1" s="70" t="s">
+      <c r="BQ1" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="BR1" s="70" t="s">
+      <c r="BR1" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="BS1" s="70" t="s">
+      <c r="BS1" s="61" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:71" s="38" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:71" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>83</v>
       </c>
@@ -5630,7 +6076,7 @@
       <c r="N2" s="8" t="s">
         <v>124</v>
       </c>
-      <c r="O2" s="94" t="s">
+      <c r="O2" s="79" t="s">
         <v>125</v>
       </c>
       <c r="P2" s="15" t="s">
@@ -5681,125 +6127,125 @@
       <c r="AE2" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="AF2" s="95" t="s">
+      <c r="AF2" s="80" t="s">
         <v>85</v>
       </c>
-      <c r="AG2" s="96" t="s">
+      <c r="AG2" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="AH2" s="96" t="s">
+      <c r="AH2" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="AI2" s="96" t="s">
-        <v>408</v>
-      </c>
-      <c r="AJ2" s="96" t="s">
+      <c r="AI2" s="81" t="s">
+        <v>404</v>
+      </c>
+      <c r="AJ2" s="81" t="s">
         <v>102</v>
       </c>
-      <c r="AK2" s="96" t="s">
+      <c r="AK2" s="81" t="s">
         <v>73</v>
       </c>
-      <c r="AL2" s="96" t="s">
+      <c r="AL2" s="81" t="s">
         <v>72</v>
       </c>
-      <c r="AM2" s="96" t="s">
+      <c r="AM2" s="81" t="s">
         <v>86</v>
       </c>
-      <c r="AN2" s="96" t="s">
+      <c r="AN2" s="81" t="s">
         <v>71</v>
       </c>
-      <c r="AO2" s="96" t="s">
+      <c r="AO2" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="AP2" s="96" t="s">
+      <c r="AP2" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="AQ2" s="97" t="s">
+      <c r="AQ2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="AR2" s="97" t="s">
+      <c r="AR2" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="AS2" s="97" t="s">
+      <c r="AS2" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="AT2" s="97" t="s">
+      <c r="AT2" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="AU2" s="97" t="s">
+      <c r="AU2" s="82" t="s">
         <v>62</v>
       </c>
-      <c r="AV2" s="98" t="s">
+      <c r="AV2" s="83" t="s">
         <v>59</v>
       </c>
-      <c r="AW2" s="98" t="s">
+      <c r="AW2" s="83" t="s">
         <v>58</v>
       </c>
-      <c r="AX2" s="98" t="s">
+      <c r="AX2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="AY2" s="98" t="s">
+      <c r="AY2" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="AZ2" s="98" t="s">
+      <c r="AZ2" s="83" t="s">
         <v>62</v>
       </c>
-      <c r="BA2" s="99" t="s">
+      <c r="BA2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="BB2" s="40" t="s">
+      <c r="BB2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BC2" s="99" t="s">
+      <c r="BC2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="BD2" s="98" t="s">
+      <c r="BD2" s="83" t="s">
         <v>5</v>
       </c>
       <c r="BE2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="BF2" s="98" t="s">
+      <c r="BF2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="BG2" s="75" t="s">
+      <c r="BG2" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="BH2" s="75" t="s">
+      <c r="BH2" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="BI2" s="38" t="s">
+      <c r="BI2" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="BJ2" s="38" t="s">
+      <c r="BJ2" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="BK2" s="104" t="s">
-        <v>378</v>
-      </c>
-      <c r="BL2" s="104" t="s">
+      <c r="BK2" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="BL2" s="89" t="s">
+        <v>483</v>
+      </c>
+      <c r="BM2" s="89" t="s">
         <v>366</v>
       </c>
-      <c r="BM2" s="104" t="s">
+      <c r="BN2" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="BO2" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="BP2" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="BQ2" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="BR2" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="BN2" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="BO2" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="BP2" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="BQ2" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="BR2" s="71" t="s">
+      <c r="BS2" s="62" t="s">
         <v>368</v>
-      </c>
-      <c r="BS2" s="71" t="s">
-        <v>369</v>
       </c>
     </row>
     <row r="3" spans="1:71" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5807,23 +6253,23 @@
         <v>106</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="25"/>
-      <c r="AF3" s="64"/>
-      <c r="BG3" s="36"/>
-      <c r="BH3" s="36"/>
-      <c r="BI3" s="36"/>
-      <c r="BJ3" s="36"/>
-      <c r="BK3" s="36"/>
-      <c r="BL3" s="36"/>
-      <c r="BM3" s="36"/>
-      <c r="BN3" s="36"/>
-      <c r="BO3" s="36"/>
-      <c r="BP3" s="36"/>
-      <c r="BQ3" s="36"/>
-      <c r="BR3" s="36"/>
-      <c r="BS3" s="36"/>
+      <c r="Q3" s="21"/>
+      <c r="R3" s="21"/>
+      <c r="S3" s="21"/>
+      <c r="AF3" s="55"/>
+      <c r="BG3" s="27"/>
+      <c r="BH3" s="27"/>
+      <c r="BI3" s="27"/>
+      <c r="BJ3" s="27"/>
+      <c r="BK3" s="27"/>
+      <c r="BL3" s="27"/>
+      <c r="BM3" s="27"/>
+      <c r="BN3" s="27"/>
+      <c r="BO3" s="27"/>
+      <c r="BP3" s="27"/>
+      <c r="BQ3" s="27"/>
+      <c r="BR3" s="27"/>
+      <c r="BS3" s="27"/>
     </row>
     <row r="4" spans="1:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -5928,116 +6374,119 @@
       <c r="BE4" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="BG4" s="74" t="s">
+      <c r="BG4" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="BH4" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="BH4" s="74" t="s">
+      <c r="BI4" t="s">
         <v>371</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" t="s">
         <v>372</v>
       </c>
-      <c r="BJ4" t="s">
+      <c r="BK4" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="BL4" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="BM4" s="88" t="s">
+        <v>480</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>478</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>479</v>
+      </c>
+      <c r="BP4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="BQ4" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="BK4" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="BL4" s="103">
-        <v>214517</v>
-      </c>
-      <c r="BM4" s="103" t="s">
+      <c r="BR4" s="63">
+        <v>289</v>
+      </c>
+      <c r="BS4" s="63" t="s">
         <v>374</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>375</v>
-      </c>
-      <c r="BO4">
-        <v>9039096</v>
-      </c>
-      <c r="BQ4" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="BR4" s="72">
-        <v>289</v>
-      </c>
-      <c r="BS4" s="72" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="Q1 BB1:BC1 A1:M1 BT1:XFD1">
-    <cfRule type="containsText" dxfId="31" priority="24" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1">
-    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1">
-    <cfRule type="containsText" dxfId="29" priority="21" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="41" priority="21" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1:BF1">
-    <cfRule type="containsText" dxfId="28" priority="20" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BE1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="expression" dxfId="27" priority="15">
+    <cfRule type="expression" dxfId="39" priority="15">
       <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(T$1, FIND(".", T$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1">
-    <cfRule type="expression" dxfId="26" priority="11">
+    <cfRule type="expression" dxfId="38" priority="11">
       <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(T$1, FIND(".", T$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:AD1">
-    <cfRule type="expression" dxfId="25" priority="9">
+    <cfRule type="expression" dxfId="37" priority="9">
       <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(U$1, FIND(".", U$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:AD1">
-    <cfRule type="expression" dxfId="24" priority="10">
+    <cfRule type="expression" dxfId="36" priority="10">
       <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(U$1, FIND(".", U$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="expression" dxfId="23" priority="7">
+    <cfRule type="expression" dxfId="35" priority="7">
       <formula>IF(COUNTIF($M$4:$M$1048576,"*"&amp;LEFT(N$1, FIND(".", N$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="expression" dxfId="22" priority="8">
+    <cfRule type="expression" dxfId="34" priority="8">
       <formula>IF(COUNTIF($M$4:$M$1048576,"*"&amp;LEFT(N$1, FIND(".", N$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BQ1:BS1">
-    <cfRule type="containsText" dxfId="21" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BQ1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BG1:BH1">
-    <cfRule type="containsText" dxfId="20" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BG1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BJ1">
-    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BM1">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BM1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP1">
-    <cfRule type="containsText" dxfId="2" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BP1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6050,7 +6499,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C207F4-C211-4748-AEDC-244AE980111F}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="AG1" workbookViewId="0">
+      <selection activeCell="AP2" sqref="AP2:AU4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6061,28 +6512,28 @@
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
     <col min="6" max="8" width="15.5703125" customWidth="1"/>
     <col min="9" max="9" width="26.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="34" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="25" customWidth="1"/>
     <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
     <col min="13" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="17" width="15.5703125" style="55" customWidth="1"/>
+    <col min="16" max="17" width="15.5703125" style="46" customWidth="1"/>
     <col min="18" max="19" width="15.5703125" customWidth="1"/>
-    <col min="20" max="21" width="15.5703125" style="55" customWidth="1"/>
-    <col min="22" max="28" width="8.7109375" style="65" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="65"/>
+    <col min="20" max="21" width="15.5703125" style="46" customWidth="1"/>
+    <col min="22" max="28" width="8.7109375" style="56" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="56"/>
     <col min="30" max="36" width="8.7109375" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" style="74" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" style="74" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" style="65" customWidth="1"/>
     <col min="40" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8" customWidth="1"/>
-    <col min="42" max="42" width="8.7109375" style="103" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.140625" style="103" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.7109375" style="103" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11" style="72" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.42578125" style="72" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" style="72" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11" style="63" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13" style="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -6104,16 +6555,16 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="69" t="s">
+      <c r="G1" s="60" t="s">
         <v>321</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="I1" s="45" t="s">
+      <c r="I1" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="J1" s="31" t="s">
+      <c r="J1" s="22" t="s">
         <v>0</v>
       </c>
       <c r="K1" s="4" t="s">
@@ -6131,282 +6582,282 @@
       <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="46" t="s">
+      <c r="P1" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" s="46" t="s">
+      <c r="Q1" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="R1" s="46" t="s">
+      <c r="R1" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="46" t="s">
+      <c r="S1" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="T1" s="46" t="s">
+      <c r="T1" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="U1" s="46" t="s">
+      <c r="U1" s="37" t="s">
         <v>198</v>
       </c>
-      <c r="V1" s="47" t="s">
+      <c r="V1" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="W1" s="47" t="s">
+      <c r="W1" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="X1" s="47" t="s">
+      <c r="X1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="Y1" s="47" t="s">
+      <c r="Y1" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="Z1" s="47" t="s">
+      <c r="Z1" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="AA1" s="47" t="s">
+      <c r="AA1" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="AB1" s="47" t="s">
+      <c r="AB1" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="AC1" s="47" t="s">
+      <c r="AC1" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="AD1" s="47" t="s">
+      <c r="AD1" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="AE1" s="47" t="s">
+      <c r="AE1" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AF1" s="47" t="s">
+      <c r="AF1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="AG1" s="47" t="s">
+      <c r="AG1" s="38" t="s">
         <v>202</v>
       </c>
-      <c r="AH1" s="47" t="s">
+      <c r="AH1" s="38" t="s">
         <v>203</v>
       </c>
-      <c r="AI1" s="47" t="s">
+      <c r="AI1" s="38" t="s">
         <v>322</v>
       </c>
-      <c r="AJ1" s="47" t="s">
+      <c r="AJ1" s="38" t="s">
         <v>323</v>
       </c>
-      <c r="AK1" s="47" t="s">
+      <c r="AK1" s="38" t="s">
         <v>324</v>
       </c>
-      <c r="AL1" s="73" t="s">
+      <c r="AL1" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="AM1" s="73" t="s">
+      <c r="AM1" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="AN1" s="73" t="s">
+      <c r="AN1" s="64" t="s">
         <v>356</v>
       </c>
-      <c r="AO1" s="73" t="s">
+      <c r="AO1" s="64" t="s">
         <v>357</v>
       </c>
-      <c r="AP1" s="102" t="s">
+      <c r="AP1" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="AQ1" s="102" t="s">
+      <c r="AQ1" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="AR1" s="102" t="s">
+      <c r="AR1" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="AS1" s="102" t="s">
+      <c r="AS1" s="87" t="s">
         <v>358</v>
       </c>
-      <c r="AT1" s="102" t="s">
+      <c r="AT1" s="87" t="s">
         <v>359</v>
       </c>
-      <c r="AU1" s="102" t="s">
+      <c r="AU1" s="87" t="s">
         <v>360</v>
       </c>
-      <c r="AV1" s="70" t="s">
+      <c r="AV1" s="61" t="s">
         <v>361</v>
       </c>
-      <c r="AW1" s="70" t="s">
+      <c r="AW1" s="61" t="s">
         <v>362</v>
       </c>
-      <c r="AX1" s="70" t="s">
+      <c r="AX1" s="61" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="2" spans="1:50" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:50" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="D2" s="38" t="s">
+      <c r="D2" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="24" t="s">
         <v>327</v>
       </c>
-      <c r="F2" s="38" t="s">
+      <c r="F2" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="G2" s="33" t="s">
+      <c r="G2" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="H2" s="33" t="s">
+      <c r="H2" s="24" t="s">
         <v>330</v>
       </c>
-      <c r="I2" s="33" t="s">
+      <c r="I2" s="24" t="s">
         <v>331</v>
       </c>
-      <c r="J2" s="39" t="s">
+      <c r="J2" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="38" t="s">
+      <c r="M2" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N2" s="38" t="s">
+      <c r="N2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="O2" s="38" t="s">
+      <c r="O2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="87" t="s">
+      <c r="P2" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="Q2" s="87" t="s">
+      <c r="Q2" s="72" t="s">
         <v>333</v>
       </c>
-      <c r="R2" s="33" t="s">
+      <c r="R2" s="24" t="s">
         <v>332</v>
       </c>
-      <c r="S2" s="33" t="s">
+      <c r="S2" s="24" t="s">
         <v>333</v>
       </c>
-      <c r="T2" s="87" t="s">
+      <c r="T2" s="72" t="s">
         <v>332</v>
       </c>
-      <c r="U2" s="87" t="s">
+      <c r="U2" s="72" t="s">
         <v>333</v>
       </c>
-      <c r="V2" s="100" t="s">
+      <c r="V2" s="85" t="s">
         <v>334</v>
       </c>
-      <c r="W2" s="100" t="s">
+      <c r="W2" s="85" t="s">
         <v>335</v>
       </c>
-      <c r="X2" s="101" t="s">
+      <c r="X2" s="86" t="s">
         <v>226</v>
       </c>
-      <c r="Y2" s="101" t="s">
+      <c r="Y2" s="86" t="s">
         <v>227</v>
       </c>
-      <c r="Z2" s="101" t="s">
+      <c r="Z2" s="86" t="s">
         <v>228</v>
       </c>
-      <c r="AA2" s="101" t="s">
+      <c r="AA2" s="86" t="s">
         <v>336</v>
       </c>
-      <c r="AB2" s="101" t="s">
+      <c r="AB2" s="86" t="s">
         <v>337</v>
       </c>
-      <c r="AC2" s="101" t="s">
+      <c r="AC2" s="86" t="s">
         <v>338</v>
       </c>
-      <c r="AD2" s="33" t="s">
+      <c r="AD2" s="24" t="s">
         <v>334</v>
       </c>
-      <c r="AE2" s="33" t="s">
+      <c r="AE2" s="24" t="s">
         <v>335</v>
       </c>
-      <c r="AF2" s="38" t="s">
+      <c r="AF2" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AG2" s="38" t="s">
+      <c r="AG2" s="29" t="s">
         <v>227</v>
       </c>
-      <c r="AH2" s="38" t="s">
+      <c r="AH2" s="29" t="s">
         <v>228</v>
       </c>
-      <c r="AI2" s="38" t="s">
+      <c r="AI2" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="AJ2" s="38" t="s">
+      <c r="AJ2" s="29" t="s">
         <v>339</v>
       </c>
-      <c r="AK2" s="38" t="s">
+      <c r="AK2" s="29" t="s">
         <v>338</v>
       </c>
-      <c r="AL2" s="75" t="s">
+      <c r="AL2" s="66" t="s">
         <v>364</v>
       </c>
-      <c r="AM2" s="75" t="s">
+      <c r="AM2" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="AN2" s="38" t="s">
+      <c r="AN2" s="29" t="s">
         <v>364</v>
       </c>
-      <c r="AO2" s="38" t="s">
+      <c r="AO2" s="29" t="s">
         <v>365</v>
       </c>
-      <c r="AP2" s="104" t="s">
-        <v>378</v>
-      </c>
-      <c r="AQ2" s="104" t="s">
+      <c r="AP2" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="AQ2" s="89" t="s">
+        <v>483</v>
+      </c>
+      <c r="AR2" s="89" t="s">
         <v>366</v>
       </c>
-      <c r="AR2" s="104" t="s">
+      <c r="AS2" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="AU2" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="AV2" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="AW2" s="62" t="s">
         <v>367</v>
       </c>
-      <c r="AS2" s="33" t="s">
-        <v>378</v>
-      </c>
-      <c r="AT2" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="AU2" s="33" t="s">
-        <v>367</v>
-      </c>
-      <c r="AV2" s="71" t="s">
-        <v>379</v>
-      </c>
-      <c r="AW2" s="71" t="s">
+      <c r="AX2" s="62" t="s">
         <v>368</v>
       </c>
-      <c r="AX2" s="71" t="s">
-        <v>369</v>
-      </c>
     </row>
-    <row r="3" spans="1:50" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+    <row r="3" spans="1:50" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="M3" s="68"/>
-      <c r="AL3" s="36"/>
-      <c r="AM3" s="36"/>
-      <c r="AN3" s="36"/>
-      <c r="AO3" s="36"/>
-      <c r="AP3" s="36"/>
-      <c r="AQ3" s="36"/>
-      <c r="AR3" s="36"/>
-      <c r="AS3" s="36"/>
-      <c r="AT3" s="36"/>
-      <c r="AU3" s="36"/>
-      <c r="AV3" s="36"/>
-      <c r="AW3" s="36"/>
-      <c r="AX3" s="36"/>
+      <c r="M3" s="59"/>
+      <c r="AL3" s="27"/>
+      <c r="AM3" s="27"/>
+      <c r="AN3" s="27"/>
+      <c r="AO3" s="27"/>
+      <c r="AP3" s="27"/>
+      <c r="AQ3" s="27"/>
+      <c r="AR3" s="27"/>
+      <c r="AS3" s="27"/>
+      <c r="AT3" s="27"/>
+      <c r="AU3" s="27"/>
+      <c r="AV3" s="27"/>
+      <c r="AW3" s="27"/>
+      <c r="AX3" s="27"/>
     </row>
     <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -6436,7 +6887,7 @@
       <c r="I4" t="s">
         <v>244</v>
       </c>
-      <c r="J4" s="34" t="s">
+      <c r="J4" s="25" t="s">
         <v>344</v>
       </c>
       <c r="K4" s="2" t="s">
@@ -6448,10 +6899,10 @@
       <c r="N4" t="s">
         <v>347</v>
       </c>
-      <c r="P4" s="55" t="s">
+      <c r="P4" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="Q4" s="55" t="s">
+      <c r="Q4" s="46" t="s">
         <v>263</v>
       </c>
       <c r="R4" t="s">
@@ -6460,34 +6911,34 @@
       <c r="S4" t="s">
         <v>265</v>
       </c>
-      <c r="T4" s="55" t="s">
+      <c r="T4" s="46" t="s">
         <v>266</v>
       </c>
-      <c r="U4" s="55" t="s">
+      <c r="U4" s="46" t="s">
         <v>267</v>
       </c>
-      <c r="V4" s="65" t="s">
+      <c r="V4" s="56" t="s">
         <v>348</v>
       </c>
-      <c r="W4" s="65" t="s">
+      <c r="W4" s="56" t="s">
         <v>269</v>
       </c>
-      <c r="X4" s="65" t="s">
+      <c r="X4" s="56" t="s">
         <v>226</v>
       </c>
-      <c r="Y4" s="65" t="s">
+      <c r="Y4" s="56" t="s">
         <v>274</v>
       </c>
-      <c r="Z4" s="65" t="s">
+      <c r="Z4" s="56" t="s">
         <v>275</v>
       </c>
-      <c r="AA4" s="65" t="s">
+      <c r="AA4" s="56" t="s">
         <v>349</v>
       </c>
-      <c r="AB4" s="65" t="s">
+      <c r="AB4" s="56" t="s">
         <v>350</v>
       </c>
-      <c r="AC4" s="65" t="s">
+      <c r="AC4" s="56" t="s">
         <v>351</v>
       </c>
       <c r="AD4" t="s">
@@ -6514,99 +6965,920 @@
       <c r="AK4" t="s">
         <v>351</v>
       </c>
-      <c r="AL4" s="74" t="s">
+      <c r="AL4" s="65" t="s">
+        <v>369</v>
+      </c>
+      <c r="AM4" s="65" t="s">
         <v>370</v>
       </c>
-      <c r="AM4" s="74" t="s">
+      <c r="AN4" t="s">
         <v>371</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>372</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="AQ4" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="AR4" s="88" t="s">
+        <v>480</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AV4" s="63" t="s">
         <v>373</v>
       </c>
-      <c r="AP4" s="103" t="s">
-        <v>169</v>
-      </c>
-      <c r="AQ4" s="103">
-        <v>214517</v>
-      </c>
-      <c r="AR4" s="103" t="s">
+      <c r="AW4" s="63">
+        <v>289</v>
+      </c>
+      <c r="AX4" s="63" t="s">
         <v>374</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>375</v>
-      </c>
-      <c r="AT4">
-        <v>9039096</v>
-      </c>
-      <c r="AV4" s="72" t="s">
-        <v>376</v>
-      </c>
-      <c r="AW4" s="72">
-        <v>289</v>
-      </c>
-      <c r="AX4" s="72" t="s">
-        <v>377</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 K1:L1 V1:AC1 AY1:XFD1 P1:Q1">
-    <cfRule type="containsText" dxfId="17" priority="12" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1">
-    <cfRule type="containsText" dxfId="16" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1">
-    <cfRule type="containsText" dxfId="15" priority="10" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="containsText" dxfId="14" priority="9" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AK1">
-    <cfRule type="containsText" dxfId="13" priority="8" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="containsText" dxfId="12" priority="7" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV1:AX1">
-    <cfRule type="containsText" dxfId="11" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AV1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AM1">
-    <cfRule type="containsText" dxfId="10" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AL1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AO1">
-    <cfRule type="containsText" dxfId="8" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AN1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR1">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AR1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AU1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063F6330-2473-4301-8FE6-9C4C7B20F42A}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AF1" sqref="AF1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="107" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="110" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="3" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
+    <col min="13" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="65" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="63" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="119" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" style="119" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>425</v>
+      </c>
+      <c r="E1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F1" t="s">
+        <v>428</v>
+      </c>
+      <c r="G1" s="105" t="s">
+        <v>426</v>
+      </c>
+      <c r="H1" s="108" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1" s="108" t="s">
+        <v>426</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>358</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>359</v>
+      </c>
+      <c r="V1" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="W1" s="87" t="s">
+        <v>358</v>
+      </c>
+      <c r="X1" s="87" t="s">
+        <v>359</v>
+      </c>
+      <c r="Y1" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="Z1" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="AA1" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="AB1" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="AC1" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD1" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="AE1" s="64" t="s">
+        <v>434</v>
+      </c>
+      <c r="AF1" s="117" t="s">
+        <v>435</v>
+      </c>
+      <c r="AG1" s="117" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH1" s="117" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>441</v>
+      </c>
+      <c r="G2" s="106" t="s">
+        <v>438</v>
+      </c>
+      <c r="H2" s="83" t="s">
+        <v>438</v>
+      </c>
+      <c r="I2" s="116" t="s">
+        <v>438</v>
+      </c>
+      <c r="J2" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q2" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="T2" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="U2" s="89" t="s">
+        <v>483</v>
+      </c>
+      <c r="V2" s="89" t="s">
+        <v>366</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="Z2" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="AA2" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="AB2" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="AC2" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="AE2" s="66" t="s">
+        <v>452</v>
+      </c>
+      <c r="AF2" s="118" t="s">
+        <v>455</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>451</v>
+      </c>
+      <c r="AH2" s="118" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="G3" s="104"/>
+      <c r="H3" s="104"/>
+      <c r="I3" s="104"/>
+      <c r="J3" s="104"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:34" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>432</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>433</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>437</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>442</v>
+      </c>
+      <c r="G4" s="106" t="s">
+        <v>245</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>439</v>
+      </c>
+      <c r="I4" s="109" t="s">
+        <v>440</v>
+      </c>
+      <c r="J4" s="111" t="s">
+        <v>443</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>446</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="29" t="s">
+        <v>444</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>445</v>
+      </c>
+      <c r="P4" s="112" t="s">
+        <v>447</v>
+      </c>
+      <c r="Q4" s="113" t="s">
+        <v>450</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>448</v>
+      </c>
+      <c r="S4" s="114" t="s">
+        <v>449</v>
+      </c>
+      <c r="T4" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="U4" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="V4" s="88" t="s">
+        <v>480</v>
+      </c>
+      <c r="W4" t="s">
+        <v>478</v>
+      </c>
+      <c r="X4" t="s">
+        <v>479</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="Z4" s="115" t="s">
+        <v>373</v>
+      </c>
+      <c r="AA4" s="115">
+        <v>289</v>
+      </c>
+      <c r="AB4" s="115" t="s">
+        <v>374</v>
+      </c>
+      <c r="AC4" s="66" t="s">
+        <v>340</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>453</v>
+      </c>
+      <c r="AE4" s="66" t="s">
+        <v>454</v>
+      </c>
+      <c r="AF4" s="118" t="s">
+        <v>456</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>457</v>
+      </c>
+      <c r="AH4" s="118" t="s">
+        <v>458</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1:L1 AC1 N1:O1 A1:F1 AF1 AI1:XFD1">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:AB1">
+    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",Z1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:Q1">
+    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:S1">
+    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1">
+    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",V1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1">
+    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",Y1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD1">
+    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE1">
+    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AE1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG1:AH1">
+    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="S4" r:id="rId1" xr:uid="{0A7080A1-871E-4178-B33A-58D688B4251E}"/>
+    <hyperlink ref="Q4" r:id="rId2" xr:uid="{9753B675-5FD4-4255-855F-50989EE18B68}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18643E49-8A37-4797-9848-600A8FF4D18A}">
+  <dimension ref="A1:AL7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="122" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" style="123" customWidth="1"/>
+    <col min="8" max="10" width="8.7109375" style="9" customWidth="1"/>
+    <col min="11" max="11" width="8.7109375" style="3" customWidth="1"/>
+    <col min="12" max="13" width="8.7109375" style="2" customWidth="1"/>
+    <col min="14" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="19" width="8.7109375" style="2" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="65" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" customWidth="1"/>
+    <col min="24" max="24" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11" style="63" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="33" max="34" width="9.140625" style="65"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>460</v>
+      </c>
+      <c r="E1" s="120" t="s">
+        <v>461</v>
+      </c>
+      <c r="F1" s="121" t="s">
+        <v>462</v>
+      </c>
+      <c r="G1" s="121" t="s">
+        <v>463</v>
+      </c>
+      <c r="H1" s="121" t="s">
+        <v>461</v>
+      </c>
+      <c r="I1" s="121" t="s">
+        <v>462</v>
+      </c>
+      <c r="J1" s="121" t="s">
+        <v>463</v>
+      </c>
+      <c r="K1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="U1" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="V1" s="64" t="s">
+        <v>356</v>
+      </c>
+      <c r="W1" s="64" t="s">
+        <v>357</v>
+      </c>
+      <c r="X1" s="87" t="s">
+        <v>358</v>
+      </c>
+      <c r="Y1" s="87" t="s">
+        <v>359</v>
+      </c>
+      <c r="Z1" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA1" s="87" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB1" s="87" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC1" s="87" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD1" s="61" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE1" s="61" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF1" s="61" t="s">
+        <v>363</v>
+      </c>
+      <c r="AG1" s="64" t="s">
+        <v>464</v>
+      </c>
+      <c r="AH1" s="64" t="s">
+        <v>465</v>
+      </c>
+      <c r="AI1" s="61" t="s">
+        <v>466</v>
+      </c>
+      <c r="AJ1" s="61" t="s">
+        <v>467</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>468</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="2" spans="1:38" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>145</v>
+      </c>
+      <c r="E2" s="126" t="s">
+        <v>472</v>
+      </c>
+      <c r="F2" s="127" t="s">
+        <v>470</v>
+      </c>
+      <c r="G2" s="127" t="s">
+        <v>471</v>
+      </c>
+      <c r="H2" s="128" t="s">
+        <v>472</v>
+      </c>
+      <c r="I2" s="128" t="s">
+        <v>470</v>
+      </c>
+      <c r="J2" s="128" t="s">
+        <v>471</v>
+      </c>
+      <c r="K2" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="M2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="P2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>5</v>
+      </c>
+      <c r="R2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="S2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="T2" s="66" t="s">
+        <v>364</v>
+      </c>
+      <c r="U2" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>364</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>365</v>
+      </c>
+      <c r="X2" s="89" t="s">
+        <v>482</v>
+      </c>
+      <c r="Y2" s="89" t="s">
+        <v>483</v>
+      </c>
+      <c r="Z2" s="89" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA2" s="24" t="s">
+        <v>482</v>
+      </c>
+      <c r="AB2" s="24" t="s">
+        <v>483</v>
+      </c>
+      <c r="AC2" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="AD2" s="62" t="s">
+        <v>375</v>
+      </c>
+      <c r="AE2" s="62" t="s">
+        <v>367</v>
+      </c>
+      <c r="AF2" s="62" t="s">
+        <v>368</v>
+      </c>
+      <c r="AG2" s="66" t="s">
+        <v>429</v>
+      </c>
+      <c r="AH2" s="66" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>106</v>
+      </c>
+      <c r="H3" s="104"/>
+      <c r="K3" s="104"/>
+      <c r="N3" s="28"/>
+    </row>
+    <row r="4" spans="1:38" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="F4" s="129" t="s">
+        <v>473</v>
+      </c>
+      <c r="G4" s="125" t="s">
+        <v>473</v>
+      </c>
+      <c r="H4" s="83" t="s">
+        <v>475</v>
+      </c>
+      <c r="I4" s="130" t="s">
+        <v>474</v>
+      </c>
+      <c r="J4" s="130" t="s">
+        <v>474</v>
+      </c>
+      <c r="K4" s="84"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="101" t="s">
+        <v>369</v>
+      </c>
+      <c r="U4" s="101" t="s">
+        <v>370</v>
+      </c>
+      <c r="V4" s="102" t="s">
+        <v>371</v>
+      </c>
+      <c r="W4" s="102" t="s">
+        <v>372</v>
+      </c>
+      <c r="X4" s="88" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y4" s="88" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z4" s="88" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>478</v>
+      </c>
+      <c r="AB4" t="s">
+        <v>479</v>
+      </c>
+      <c r="AC4" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="AD4" s="103" t="s">
+        <v>373</v>
+      </c>
+      <c r="AE4" s="103">
+        <v>289</v>
+      </c>
+      <c r="AF4" s="103" t="s">
+        <v>374</v>
+      </c>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+    </row>
+    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="Q7" s="31"/>
+      <c r="R7" s="31"/>
+      <c r="S7" s="31"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:D1 L1:M1 AG1:XFD1 F1:G1">
+    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O1:P1">
+    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:S1">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD1:AF1">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:U1">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",T1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:W1">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",V1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",Z1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AC1">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AC1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1:J1">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="F4" r:id="rId1" xr:uid="{C1ACC6A8-5B5F-490B-A8BB-00A18859DF33}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{F675D279-66D3-40EB-80D5-3EA7B7E1E707}"/>
+    <hyperlink ref="J4" r:id="rId3" xr:uid="{09245103-29B2-446C-BCB2-1087850DF46A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+</worksheet>
 </file>
--- a/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
+++ b/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92128955-D294-4AAC-80CF-78F4B57D1515}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5A1BE9-3E9C-4135-9C01-A7E32563A09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="11620" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
@@ -21,6 +21,8 @@
     <sheet name="run" sheetId="6" r:id="rId6"/>
     <sheet name="dataset" sheetId="7" r:id="rId7"/>
     <sheet name="submission" sheetId="8" r:id="rId8"/>
+    <sheet name="dac" sheetId="9" r:id="rId9"/>
+    <sheet name="policy" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="561">
   <si>
     <t>Tag</t>
   </si>
@@ -111,9 +113,6 @@
     <t>Study_refname*</t>
   </si>
   <si>
-    <t>Study_refCenter*</t>
-  </si>
-  <si>
     <t>Design_description*</t>
   </si>
   <si>
@@ -144,9 +143,6 @@
     <t>TODO: Free form text describing the protocol by which the sequencing library was constructed</t>
   </si>
   <si>
-    <t>GEO</t>
-  </si>
-  <si>
     <t>EGA</t>
   </si>
   <si>
@@ -274,9 +270,6 @@
   </si>
   <si>
     <t>TODO: The center name (its acronym) of the broker (e.g. EGA)</t>
-  </si>
-  <si>
-    <t>TODO: Acronym of the center name used to submit the referenced study (e.g. EBI-TEST).</t>
   </si>
   <si>
     <t>TODO: Goal and setup of the individual library including library was constructed (e.g. 'Whole genome sequencing  - genomic library')</t>
@@ -1308,9 +1301,6 @@
   </si>
   <si>
     <t>TODO: Short free-form text that can be used to define submissions in searches or in displays.</t>
-  </si>
-  <si>
-    <t>TODO: Name (string) that identifies the parent experiment (that encompasses this run) within the namespace defined by attribute 'ExperimentReference_Center'.</t>
   </si>
   <si>
     <t>TODO: Standard genome assembly name (e.g. GRCh37). Use this column exclusively if the Run is a Reference Alignment.</t>
@@ -1867,9 +1857,6 @@
     <t>POLICY.Accession</t>
   </si>
   <si>
-    <t xml:space="preserve">TODO: </t>
-  </si>
-  <si>
     <t>TODO: Title (free-form string) of the Dataset</t>
   </si>
   <si>
@@ -2004,15 +1991,6 @@
     <t>VALIDATE.Type</t>
   </si>
   <si>
-    <t>TODO: Internet address of person or service to inform on any status changes for this submission (e.g. flast@yourdomain.com).</t>
-  </si>
-  <si>
-    <t>TODO: Internet address of person or service to inform on any errors for this submission (e.g. flast@yourdomain.com).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: Name of contact person for this submission (e.g. "Lastname, Firstname"). </t>
-  </si>
-  <si>
     <t>flast@yourdomain.com</t>
   </si>
   <si>
@@ -2046,6 +2024,299 @@
   <si>
     <t>TODO: Numeric record ID (accession) of the related sources, meaningful to the INSDC cross reference (e.g. ENSG00000007102 for ensembl)
  If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
+  </si>
+  <si>
+    <t>CONTACT.name</t>
+  </si>
+  <si>
+    <t>CONTACT.address_Status</t>
+  </si>
+  <si>
+    <t>CONTACT.address_Error</t>
+  </si>
+  <si>
+    <t>Submission Site</t>
+  </si>
+  <si>
+    <t>NCBI_PUBLIC</t>
+  </si>
+  <si>
+    <t>Submission Project Id</t>
+  </si>
+  <si>
+    <t>ERA:58497a9d0cf25cfbf0588f6e</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>xmls/samples_from_projectX.xml</t>
+  </si>
+  <si>
+    <t>xmls/analyses_from_projectX.xml</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>xmls_toBe_modified/runs_from_projectX.xml</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>xmls_toBe_modified/studies.xml</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>xmls_toBe_validated/studies.xml</t>
+  </si>
+  <si>
+    <t>xmls_toBe_validated/samples1-14.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Filename or relative path to the XML file being modified (e.g. 'path/to/file.xml'). Repeat the block "MODIFY…" (2 columns) as many times as pre-existing submissions you want to modify. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: The type of the XML file being modified. Repeat the block "MODIFY…" (2 columns) as many times as pre-existing submissions you want to modify. Must be value from Controlled Vocabulary:  
+      study      
+      experiment      
+      sample      
+      run      
+      analysis      
+      dataset      
+      policy      
+      dac      
+      project      
+      checklist      
+      sampleGroup    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Filename or relative path to the XML file being modified (e.g. 'path/to/file.xml'). Repeat the block "VALIDATE…" (2 columns) as many times as pre-existing submissions you want to validate without submitting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: The type of the XML file being modified. Repeat the block "VALIDATE…" (2 columns) as many times as pre-existing submissions you want to validate without submitting. Must be value from Controlled Vocabulary:  
+      study      
+      experiment      
+      sample      
+      run      
+      analysis      
+      dataset      
+      policy      
+      dac      
+      project      
+      checklist      
+      sampleGroup    </t>
+  </si>
+  <si>
+    <t>TODO: Filename or relative path to the XML file being submitted (e.g. 'path/to/file.xml').  Repeat the block "ADD…" (2 columns) as many times as new metadata XMLs you want to submit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: The type of the XML file being submitted. Repeat the block "ADD…" (2 columns) as many times as new metadata XMLs you want to submit. Must be value from Controlled Vocabulary:  
+      study      
+      experiment      
+      sample      
+      run      
+      analysis      
+      dataset      
+      policy      
+      dac      
+      project      
+      checklist      
+      sampleGroup    </t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the 'Submission' (e.g. 'My_submission_HumanMicrobiome'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t>Example!_Submission for human data</t>
+  </si>
+  <si>
+    <t>TODO: Title (free-form string) of the submission.</t>
+  </si>
+  <si>
+    <t>DAC_alias*</t>
+  </si>
+  <si>
+    <t>DAC_title</t>
+  </si>
+  <si>
+    <t>TODO: Title (free-form string) of the DAC that can be used to call out DAC records in searches or in displays.</t>
+  </si>
+  <si>
+    <t>CONTACT.telephone_number</t>
+  </si>
+  <si>
+    <t>CONTACT.organisation</t>
+  </si>
+  <si>
+    <t>CONTACT.main_contact?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Center or institution name (e.g. 'British Columbia Cancer Agency') of the contanct. </t>
+  </si>
+  <si>
+    <t>TODO: Telephone number (e.g. +34 666 666 666) of the person to contact.</t>
+  </si>
+  <si>
+    <t>+34 000 000 000</t>
+  </si>
+  <si>
+    <t>EBI</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>+34 000 010 000</t>
+  </si>
+  <si>
+    <t>TODO: Name of contact person (e.g. Lastname, Firstname) for this DAC.</t>
+  </si>
+  <si>
+    <t>TODO: Email (e.g. flast@yourdomain.com) of the person to contact.</t>
+  </si>
+  <si>
+    <t>TODO: If 'True', then this is the main contact. If not the main contact, either leave this column empty or use 'False'.</t>
+  </si>
+  <si>
+    <t>Data Access Agreement</t>
+  </si>
+  <si>
+    <t>http://mywebsite.de/DataAccessAgreement.html</t>
+  </si>
+  <si>
+    <t>Official Homepage</t>
+  </si>
+  <si>
+    <t>Example!_DAC for Human Samples metadata access</t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the 'DAC' (e.g. 'My_dac_HumanMicrobiome'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t>Example!_EBI Data Access Committee</t>
+  </si>
+  <si>
+    <t>CONTACT.email</t>
+  </si>
+  <si>
+    <t>Policy_alias*</t>
+  </si>
+  <si>
+    <t>Policy_title</t>
+  </si>
+  <si>
+    <t>Policy_source*</t>
+  </si>
+  <si>
+    <t>POLICY_TEXT</t>
+  </si>
+  <si>
+    <t>POLICY_FILE</t>
+  </si>
+  <si>
+    <t>Data_use.Ontology</t>
+  </si>
+  <si>
+    <t>Data_use.Code</t>
+  </si>
+  <si>
+    <t>Data_use.Version</t>
+  </si>
+  <si>
+    <t>Data_use.URL</t>
+  </si>
+  <si>
+    <t>DUO</t>
+  </si>
+  <si>
+    <t>0000014</t>
+  </si>
+  <si>
+    <t>2019-01-07</t>
+  </si>
+  <si>
+    <t>0000028</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DUO_0000028</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DUO_0000014</t>
+  </si>
+  <si>
+    <t>Can I leave empty fields?</t>
+  </si>
+  <si>
+    <t>Example!_Policy for Human Samples metadata access</t>
+  </si>
+  <si>
+    <t>Example!_EBI Policy for human controlled access data</t>
+  </si>
+  <si>
+    <t>http://docs.icgc.org/portal/access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can indeed leave empty fields, but only for those columns that are not marked with a '*' within its column name (it will also be displayed in bright yellow) and those that are required depending on another column choice (take a look at their formats below). In essence, all columns that are not 'required' (including repeated columns) can be left empty and they will be ignored when constructing the XML. </t>
+  </si>
+  <si>
+    <t>DAC_accession*</t>
+  </si>
+  <si>
+    <t>EGAC00001003356</t>
+  </si>
+  <si>
+    <t>TODO: Name (string) that identifies the parent experiment (that encompasses this run) within the namespace defined by 'Center_name*'.</t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the 'Policy' (e.g. 'My_dac_HumanMicrobiome'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t>TODO: Title (free-form string) of the Policy that can be used to call out DAC records in searches or in displays.</t>
+  </si>
+  <si>
+    <t>TODO: Accession ID (starts by EGAC...) of the data access committee (DAC) to which this policy pertains (e.g. EGAC00001003356).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Selects the way in which you will provide the policy text. Must be value of Controlled Vocabullary: 'POLICY_TEXT' or 'POLICY_FILE'. You can either provide its text (use POLICY_TEXT) or an URL in which the policy text is displayed (use POLICY_FILE). 
+Based on your choice, provide the text or such URL in the adyacent columns. </t>
+  </si>
+  <si>
+    <t>TODO: Ontology abbreviation (e.g. 'DUO' for Data Use Ontology). Search for yours at: https://www.ebi.ac.uk/ols/ontologies/duo.
+If you provide several Data uses, repeat the block of Data_use... (4 columns: Ontology, Code, Version and URL).</t>
+  </si>
+  <si>
+    <t>TODO: Code for the ontology (e.g. 0000014)
+If you provide several Data uses, repeat the block of Data_use... (4 columns: Ontology, Code, Version and URL).</t>
+  </si>
+  <si>
+    <t>TODO: Data Use Ontology code version (e.g. 2019-01-07)
+If you provide several Data uses, repeat the block of Data_use... (4 columns: Ontology, Code, Version and URL).</t>
+  </si>
+  <si>
+    <t>TODO: Link to URL describing the Data Use (e.g. http://purl.obolibrary.org/obo/DUO_0000014)
+If you provide several Data uses, repeat the block of Data_use... (4 columns: Ontology, Code, Version and URL).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Text containing the policy (e.g. 'Data can be accessed through this method, under these circumstances, following these criteria...' ). Use this column if you chose 'POLICY_TEXT' as Policy_source*. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: File containing the policy text, it can be a remotely hosted file (e.g. https://docs.icgc.org/portal/access/). Use this column if you chose 'POLICY_FILE' as Policy_source*. </t>
+  </si>
+  <si>
+    <t>TODO: Name of contact person for this submission (e.g. "Lastname, Firstname"). In case there are several contacts, add new blocks of "CONTACT…." (three columns: name, address_Status and address_Error).</t>
+  </si>
+  <si>
+    <t>TODO: Internet address of person or service to inform on any status changes for this submission (e.g. flast@yourdomain.com). In case there are several contacts, add new blocks of "CONTACT…." (three columns: name, address_Status and address_Error).</t>
+  </si>
+  <si>
+    <t>TODO: Internet address of person or service to inform on any errors for this submission (e.g. flast@yourdomain.com). In case there are several contacts, add new blocks of "CONTACT…." (three columns: name, address_Status and address_Error).</t>
   </si>
 </sst>
 </file>
@@ -2145,7 +2416,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2344,6 +2615,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF7DD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -2498,7 +2781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="159">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2726,9 +3009,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2759,7 +3039,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -2784,6 +3063,48 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="25" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="30" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="30" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2795,353 +3116,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="80">
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="111">
     <dxf>
       <fill>
         <patternFill>
@@ -3157,6 +3170,456 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFB7"/>
@@ -3185,96 +3648,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFB7"/>
@@ -3289,6 +3662,96 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFFB7"/>
@@ -3303,232 +3766,408 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFFB7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3576,16 +4215,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FFD8EEC0"/>
       <color rgb="FFFFE5E5"/>
       <color rgb="FFF2C4E9"/>
+      <color rgb="FFFFF7DD"/>
+      <color rgb="FFF7DDF2"/>
+      <color rgb="FFD8EEC0"/>
       <color rgb="FFD1F3FF"/>
       <color rgb="FF75DBFF"/>
       <color rgb="FFFFD9D9"/>
       <color rgb="FFFF9999"/>
-      <color rgb="FFF7DDF2"/>
       <color rgb="FFFFF5D5"/>
-      <color rgb="FFE0EED6"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3862,189 +4501,486 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3716877C-2DD6-4C53-9859-D06BF40DA072}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
     <col min="2" max="2" width="81.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="131" t="s">
-        <v>405</v>
-      </c>
-      <c r="B2" s="132"/>
+      <c r="A2" s="143" t="s">
+        <v>401</v>
+      </c>
+      <c r="B2" s="144"/>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="97" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B3" s="99" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="97" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="B4" s="99" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="97" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="B5" s="99" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="97" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B6" s="99" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="97" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="B7" s="99" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A8" s="98" t="s">
-        <v>416</v>
+    <row r="8" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="97" t="s">
+        <v>540</v>
       </c>
       <c r="B8" s="99" t="s">
-        <v>427</v>
+        <v>544</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="133" t="s">
-        <v>417</v>
-      </c>
-      <c r="B9" s="133"/>
+    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A9" s="98" t="s">
+        <v>412</v>
+      </c>
+      <c r="B9" s="99" t="s">
+        <v>423</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="134" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11" s="132"/>
+    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="145" t="s">
+        <v>413</v>
+      </c>
+      <c r="B10" s="145"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>109</v>
-      </c>
+    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="146" t="s">
+        <v>104</v>
+      </c>
+      <c r="B12" s="144"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="90">
+      <c r="A13" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="90">
         <v>1</v>
       </c>
-      <c r="B13" s="99" t="s">
-        <v>110</v>
+      <c r="B14" s="99" t="s">
+        <v>107</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A14" s="91">
+    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A15" s="91">
         <v>2</v>
       </c>
-      <c r="B14" s="99" t="s">
-        <v>418</v>
+      <c r="B15" s="99" t="s">
+        <v>414</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="91">
         <v>3</v>
       </c>
-      <c r="B15" s="99" t="s">
-        <v>419</v>
+      <c r="B16" s="99" t="s">
+        <v>415</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="B16" s="99" t="s">
-        <v>420</v>
+    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="99" t="s">
+        <v>416</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="134" t="s">
-        <v>112</v>
-      </c>
-      <c r="B18" s="132"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="19" t="s">
-        <v>113</v>
-      </c>
-      <c r="B19" s="20" t="s">
+    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="146" t="s">
         <v>109</v>
       </c>
+      <c r="B19" s="144"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
-        <v>114</v>
-      </c>
-      <c r="B20" s="100" t="s">
-        <v>115</v>
+      <c r="A20" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="93" t="s">
-        <v>116</v>
+      <c r="A21" s="92" t="s">
+        <v>111</v>
       </c>
       <c r="B21" s="100" t="s">
-        <v>421</v>
+        <v>112</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A22" s="94" t="s">
-        <v>130</v>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="93" t="s">
+        <v>113</v>
       </c>
       <c r="B22" s="100" t="s">
-        <v>132</v>
+        <v>417</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="95" t="s">
-        <v>131</v>
+    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A23" s="94" t="s">
+        <v>127</v>
       </c>
       <c r="B23" s="100" t="s">
-        <v>422</v>
+        <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="96" t="s">
-        <v>117</v>
+    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="95" t="s">
+        <v>128</v>
       </c>
       <c r="B24" s="100" t="s">
-        <v>423</v>
+        <v>418</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A25" s="96" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="100" t="s">
+        <v>419</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A19:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B3B2160-80E0-4904-86DD-E973C60B8C3E}">
+  <dimension ref="A1:W4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="8" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="25" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="88" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" style="151" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="88" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" style="1" customWidth="1"/>
+    <col min="17" max="18" width="8.7109375" style="155" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="65" customWidth="1"/>
+    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>524</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>525</v>
+      </c>
+      <c r="E1" t="s">
+        <v>545</v>
+      </c>
+      <c r="F1" t="s">
+        <v>526</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>528</v>
+      </c>
+      <c r="I1" s="22" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="M1" s="148" t="s">
+        <v>530</v>
+      </c>
+      <c r="N1" s="148" t="s">
+        <v>531</v>
+      </c>
+      <c r="O1" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="P1" s="23" t="s">
+        <v>529</v>
+      </c>
+      <c r="Q1" s="148" t="s">
+        <v>530</v>
+      </c>
+      <c r="R1" s="148" t="s">
+        <v>531</v>
+      </c>
+      <c r="S1" s="23" t="s">
+        <v>532</v>
+      </c>
+      <c r="T1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="U1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="V1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="W1" s="64" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="133" t="s">
+        <v>548</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="133" t="s">
+        <v>549</v>
+      </c>
+      <c r="E2" s="133" t="s">
+        <v>550</v>
+      </c>
+      <c r="F2" s="157" t="s">
+        <v>551</v>
+      </c>
+      <c r="G2" s="133" t="s">
+        <v>556</v>
+      </c>
+      <c r="H2" s="133" t="s">
+        <v>557</v>
+      </c>
+      <c r="I2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="89" t="s">
+        <v>552</v>
+      </c>
+      <c r="M2" s="158" t="s">
+        <v>553</v>
+      </c>
+      <c r="N2" s="158" t="s">
+        <v>554</v>
+      </c>
+      <c r="O2" s="89" t="s">
+        <v>555</v>
+      </c>
+      <c r="P2" s="8" t="s">
+        <v>552</v>
+      </c>
+      <c r="Q2" s="153" t="s">
+        <v>553</v>
+      </c>
+      <c r="R2" s="153" t="s">
+        <v>554</v>
+      </c>
+      <c r="S2" s="15" t="s">
+        <v>555</v>
+      </c>
+      <c r="T2" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="U2" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="V2" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="I3" s="134"/>
+      <c r="M3" s="150"/>
+      <c r="N3" s="150"/>
+      <c r="Q3" s="150"/>
+      <c r="R3" s="150"/>
+    </row>
+    <row r="4" spans="1:23" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>541</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>542</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>546</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>528</v>
+      </c>
+      <c r="H4" s="156" t="s">
+        <v>543</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>438</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>441</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="147" t="s">
+        <v>533</v>
+      </c>
+      <c r="M4" s="149" t="s">
+        <v>534</v>
+      </c>
+      <c r="N4" s="149" t="s">
+        <v>535</v>
+      </c>
+      <c r="O4" s="152" t="s">
+        <v>539</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q4" s="153" t="s">
+        <v>536</v>
+      </c>
+      <c r="R4" s="153" t="s">
+        <v>537</v>
+      </c>
+      <c r="S4" s="154" t="s">
+        <v>538</v>
+      </c>
+      <c r="T4" s="109" t="s">
+        <v>517</v>
+      </c>
+      <c r="U4" s="140" t="s">
+        <v>518</v>
+      </c>
+      <c r="V4" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="W4" s="111" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="X1:XFD1 J1:O1 A1:F1">
+    <cfRule type="containsText" dxfId="5" priority="13" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:U1">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",T1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1:W1">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",V1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:S1">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>IF(COUNTIF($F$4:$F$1048576, G$1),"FALSE","TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:H1">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>IF(COUNTIF($F$4:$F$1048576, G$1),"TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="W4" r:id="rId1" xr:uid="{27239017-8D7F-470F-840F-F6C2FD2E54B6}"/>
+    <hyperlink ref="U4" r:id="rId2" xr:uid="{B4336EC9-EE3D-4966-B772-E02509E96549}"/>
+    <hyperlink ref="S4" r:id="rId3" xr:uid="{1E590CD4-DABF-4F4C-9F01-A40C33B07C13}"/>
+    <hyperlink ref="O4" r:id="rId4" xr:uid="{B2093654-1293-4AED-98AE-978212F2BB5C}"/>
+    <hyperlink ref="H4" r:id="rId5" xr:uid="{E452C941-D572-4EA4-B469-D3F703E001EE}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 
@@ -4052,8 +4988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C2EA4E3C-B110-4DC1-9919-979853C674EC}">
   <dimension ref="A1:AM7"/>
   <sheetViews>
-    <sheetView topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AJ4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4087,7 +5023,7 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -4096,22 +5032,22 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>131</v>
+      </c>
+      <c r="E1" t="s">
+        <v>132</v>
+      </c>
+      <c r="F1" t="s">
+        <v>133</v>
+      </c>
+      <c r="G1" t="s">
         <v>134</v>
       </c>
-      <c r="E1" t="s">
+      <c r="H1" t="s">
         <v>135</v>
       </c>
-      <c r="F1" t="s">
+      <c r="I1" t="s">
         <v>136</v>
-      </c>
-      <c r="G1" t="s">
-        <v>137</v>
-      </c>
-      <c r="H1" t="s">
-        <v>138</v>
-      </c>
-      <c r="I1" t="s">
-        <v>139</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>0</v>
@@ -4141,96 +5077,96 @@
         <v>2</v>
       </c>
       <c r="S1" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="T1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="U1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="V1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="T1" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="U1" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="V1" s="23" t="s">
-        <v>143</v>
-      </c>
       <c r="W1" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="Z1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="X1" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>143</v>
-      </c>
       <c r="AA1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE1" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF1" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG1" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AH1" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI1" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ1" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="AK1" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="AC1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE1" s="87" t="s">
+      <c r="AL1" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="AF1" s="87" t="s">
+      <c r="AM1" s="61" t="s">
         <v>359</v>
-      </c>
-      <c r="AG1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="AH1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="AI1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="AJ1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="AK1" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="AL1" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="AM1" s="61" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="24" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="H2" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="I2" s="29" t="s">
         <v>147</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>149</v>
-      </c>
-      <c r="I2" s="29" t="s">
-        <v>150</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>5</v>
@@ -4260,182 +5196,182 @@
         <v>7</v>
       </c>
       <c r="S2" s="78" t="s">
+        <v>148</v>
+      </c>
+      <c r="T2" s="78" t="s">
+        <v>149</v>
+      </c>
+      <c r="U2" s="78" t="s">
+        <v>150</v>
+      </c>
+      <c r="V2" s="78" t="s">
         <v>151</v>
       </c>
-      <c r="T2" s="78" t="s">
-        <v>152</v>
-      </c>
-      <c r="U2" s="78" t="s">
-        <v>153</v>
-      </c>
-      <c r="V2" s="78" t="s">
-        <v>154</v>
-      </c>
       <c r="W2" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z2" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="X2" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="Z2" s="24" t="s">
-        <v>154</v>
-      </c>
       <c r="AA2" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB2" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE2" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="AF2" s="89" t="s">
+        <v>475</v>
+      </c>
+      <c r="AG2" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK2" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL2" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="AM2" s="62" t="s">
         <v>364</v>
-      </c>
-      <c r="AB2" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC2" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="AD2" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="AF2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG2" s="89" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="AI2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="AK2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="AL2" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="AM2" s="62" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:39" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>153</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>157</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="J4" s="30" t="s">
         <v>158</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="K4" s="31" t="s">
         <v>159</v>
-      </c>
-      <c r="I4" s="29" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>161</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>162</v>
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="N4" s="29" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Q4" s="31" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="R4" s="31"/>
       <c r="S4" s="32" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="T4" s="32">
         <v>406</v>
       </c>
       <c r="U4" s="32" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="V4" s="33" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="W4" s="29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="X4" s="29">
         <v>110649</v>
       </c>
       <c r="Y4" s="29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="Z4" s="34" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="AA4" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB4" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE4" s="88" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF4" s="88" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG4" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>470</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AK4" s="63" t="s">
         <v>369</v>
-      </c>
-      <c r="AB4" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="AF4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="AG4" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>478</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AK4" s="63" t="s">
-        <v>373</v>
       </c>
       <c r="AL4" s="63">
         <v>289</v>
       </c>
       <c r="AM4" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
@@ -4445,57 +5381,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I1 K1:L1 T1:V1 AN1:XFD1">
-    <cfRule type="containsText" dxfId="79" priority="12" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="92" priority="12" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="containsText" dxfId="78" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="containsText" dxfId="77" priority="10" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="90" priority="10" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",X1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="containsText" dxfId="76" priority="9" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="89" priority="9" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",W1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="containsText" dxfId="75" priority="8" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:R1">
-    <cfRule type="containsText" dxfId="74" priority="7" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="87" priority="7" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AM1">
-    <cfRule type="containsText" dxfId="73" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="86" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AB1">
-    <cfRule type="containsText" dxfId="72" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AD1">
-    <cfRule type="containsText" dxfId="71" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="84" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1">
-    <cfRule type="containsText" dxfId="70" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="83" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1">
-    <cfRule type="containsText" dxfId="69" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AJ1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4508,8 +5444,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44F91026-08D1-4D75-80BD-B4D4E9D96D46}">
   <dimension ref="A1:AM4"/>
   <sheetViews>
-    <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="AE2" sqref="AE2:AJ4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4557,7 +5493,7 @@
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -4566,19 +5502,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>282</v>
+      </c>
+      <c r="E1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F1" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" t="s">
         <v>285</v>
       </c>
-      <c r="E1" t="s">
-        <v>286</v>
-      </c>
-      <c r="F1" t="s">
-        <v>287</v>
-      </c>
-      <c r="G1" t="s">
-        <v>288</v>
-      </c>
       <c r="H1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="I1" s="48" t="s">
         <v>0</v>
@@ -4635,161 +5571,161 @@
         <v>2</v>
       </c>
       <c r="AA1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="AB1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="AC1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="AD1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="AE1" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="AF1" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="AG1" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AH1" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="AI1" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="AJ1" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="AK1" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="AC1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="AD1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="AE1" s="87" t="s">
+      <c r="AL1" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="AF1" s="87" t="s">
+      <c r="AM1" s="61" t="s">
         <v>359</v>
-      </c>
-      <c r="AG1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="AH1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="AI1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="AJ1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="AK1" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="AL1" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="AM1" s="61" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>287</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>290</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>291</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="I2" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="J2" s="31" t="s">
         <v>293</v>
-      </c>
-      <c r="H2" s="29" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="31" t="s">
-        <v>295</v>
-      </c>
-      <c r="J2" s="31" t="s">
-        <v>296</v>
       </c>
       <c r="K2" s="31"/>
       <c r="L2" s="31" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="M2" s="54" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="N2" s="31"/>
       <c r="O2" s="31" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="P2" s="31" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q2" s="31"/>
       <c r="R2" s="30" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Y2" s="31" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Z2" s="31" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AA2" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB2" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC2" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="AE2" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="AF2" s="89" t="s">
+        <v>475</v>
+      </c>
+      <c r="AG2" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="AH2" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="AK2" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="AL2" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="AM2" s="62" t="s">
         <v>364</v>
-      </c>
-      <c r="AB2" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="AC2" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="AD2" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="AE2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="AF2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="AG2" s="89" t="s">
-        <v>366</v>
-      </c>
-      <c r="AH2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="AI2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="AK2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="AL2" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="AM2" s="62" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M3" s="18"/>
       <c r="R3" s="55"/>
@@ -4809,144 +5745,144 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E4">
         <v>9606</v>
       </c>
       <c r="F4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G4" t="s">
+        <v>304</v>
+      </c>
+      <c r="H4" t="s">
+        <v>305</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="M4" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="G4" t="s">
+      <c r="O4" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="H4" t="s">
+      <c r="R4" s="25" t="s">
         <v>308</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>295</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="S4" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>299</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="U4" t="s">
         <v>311</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="V4" t="s">
         <v>312</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="W4" t="s">
+        <v>310</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Y4" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="V4" t="s">
-        <v>315</v>
-      </c>
-      <c r="W4" t="s">
-        <v>313</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>316</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="AA4" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="AB4" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AE4" s="88" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF4" s="88" t="s">
+        <v>469</v>
+      </c>
+      <c r="AG4" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>470</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AK4" s="63" t="s">
         <v>369</v>
-      </c>
-      <c r="AB4" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>371</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AE4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="AF4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="AG4" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>478</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AK4" s="63" t="s">
-        <v>373</v>
       </c>
       <c r="AL4" s="63">
         <v>289</v>
       </c>
       <c r="AM4" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:T1 AN1:XFD1">
-    <cfRule type="containsText" dxfId="68" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:W1">
-    <cfRule type="containsText" dxfId="67" priority="10" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="80" priority="10" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",U1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="containsText" dxfId="66" priority="9" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",X1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AM1">
-    <cfRule type="containsText" dxfId="65" priority="4" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="78" priority="4" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1 AA1:AB1">
-    <cfRule type="containsText" dxfId="64" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1">
-    <cfRule type="containsText" dxfId="63" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AJ1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AD1">
-    <cfRule type="containsText" dxfId="62" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4958,8 +5894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B3225A-CA96-4372-AB7E-97999D11252D}">
   <dimension ref="A1:BV16"/>
   <sheetViews>
-    <sheetView topLeftCell="AW1" workbookViewId="0">
-      <selection activeCell="BC2" sqref="BC2:BH4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5002,7 +5938,7 @@
   <sheetData>
     <row r="1" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -5011,82 +5947,82 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H1" t="s">
+        <v>172</v>
+      </c>
+      <c r="I1" t="s">
+        <v>173</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="K1" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="I1" t="s">
+      <c r="L1" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="Z1" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>191</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="AB1" s="36" t="s">
         <v>192</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AC1" s="36" t="s">
         <v>193</v>
-      </c>
-      <c r="AA1" s="36" t="s">
-        <v>194</v>
-      </c>
-      <c r="AB1" s="36" t="s">
-        <v>195</v>
-      </c>
-      <c r="AC1" s="36" t="s">
-        <v>196</v>
       </c>
       <c r="AD1" s="22" t="s">
         <v>0</v>
@@ -5098,219 +6034,219 @@
         <v>2</v>
       </c>
       <c r="AG1" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="AM1" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AN1" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AO1" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AP1" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="AQ1" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR1" s="38" t="s">
+        <v>201</v>
+      </c>
+      <c r="AS1" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AT1" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AU1" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="AK1" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="AL1" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="AM1" s="38" t="s">
+      <c r="AV1" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="AN1" s="38" t="s">
+      <c r="AW1" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="AO1" s="38" t="s">
+      <c r="AX1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="AP1" s="38" t="s">
+      <c r="AY1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="AZ1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="BA1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="BB1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="BC1" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="BD1" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="BE1" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="BF1" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="BG1" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="BH1" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="BI1" s="61" t="s">
+        <v>357</v>
+      </c>
+      <c r="BJ1" s="61" t="s">
+        <v>358</v>
+      </c>
+      <c r="BK1" s="61" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL1" s="39" t="s">
         <v>202</v>
       </c>
-      <c r="AQ1" s="38" t="s">
+      <c r="BM1" s="39" t="s">
         <v>203</v>
       </c>
-      <c r="AR1" s="38" t="s">
+      <c r="BN1" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BO1" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BP1" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="BQ1" s="39" t="s">
+        <v>203</v>
+      </c>
+      <c r="BR1" s="40" t="s">
         <v>204</v>
       </c>
-      <c r="AS1" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="AT1" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="AU1" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="AV1" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="AW1" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="AX1" s="38" t="s">
-        <v>204</v>
-      </c>
-      <c r="AY1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="AZ1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="BA1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="BB1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="BC1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="BD1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="BE1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="BF1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="BG1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="BH1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="BI1" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="BJ1" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="BK1" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="BL1" s="39" t="s">
+      <c r="BS1" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="BM1" s="39" t="s">
+      <c r="BT1" s="87" t="s">
         <v>206</v>
       </c>
-      <c r="BN1" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="BO1" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="BP1" s="39" t="s">
-        <v>205</v>
-      </c>
-      <c r="BQ1" s="39" t="s">
-        <v>206</v>
-      </c>
-      <c r="BR1" s="40" t="s">
+      <c r="BU1" s="87" t="s">
         <v>207</v>
       </c>
-      <c r="BS1" s="40" t="s">
+      <c r="BV1" s="67" t="s">
         <v>208</v>
-      </c>
-      <c r="BT1" s="87" t="s">
-        <v>209</v>
-      </c>
-      <c r="BU1" s="87" t="s">
-        <v>210</v>
-      </c>
-      <c r="BV1" s="67" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:74" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>210</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="H2" s="29" t="s">
         <v>214</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="I2" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="K2" s="24" t="s">
         <v>217</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="L2" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="J2" s="24" t="s">
-        <v>219</v>
-      </c>
-      <c r="K2" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>221</v>
-      </c>
       <c r="M2" s="29" t="s">
+        <v>372</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>373</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>374</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q2" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="R2" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="S2" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="T2" s="24" t="s">
         <v>379</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="U2" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="V2" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="W2" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="X2" s="29" t="s">
         <v>383</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="Y2" s="29" t="s">
         <v>384</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="Z2" s="29" t="s">
         <v>385</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="AA2" s="24" t="s">
         <v>386</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="AB2" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="AC2" s="29" t="s">
         <v>388</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>389</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>390</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>391</v>
-      </c>
-      <c r="AC2" s="29" t="s">
-        <v>392</v>
       </c>
       <c r="AD2" s="30" t="s">
         <v>5</v>
@@ -5322,135 +6258,135 @@
         <v>7</v>
       </c>
       <c r="AG2" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="AH2" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>219</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>220</v>
+      </c>
+      <c r="AK2" s="72" t="s">
+        <v>219</v>
+      </c>
+      <c r="AL2" s="72" t="s">
+        <v>220</v>
+      </c>
+      <c r="AM2" s="73" t="s">
+        <v>221</v>
+      </c>
+      <c r="AN2" s="74" t="s">
         <v>222</v>
       </c>
-      <c r="AH2" s="72" t="s">
+      <c r="AO2" s="73" t="s">
         <v>223</v>
       </c>
-      <c r="AI2" s="24" t="s">
-        <v>222</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AP2" s="73" t="s">
+        <v>224</v>
+      </c>
+      <c r="AQ2" s="73" t="s">
+        <v>225</v>
+      </c>
+      <c r="AR2" s="73" t="s">
+        <v>226</v>
+      </c>
+      <c r="AS2" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>227</v>
+      </c>
+      <c r="AU2" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="AK2" s="72" t="s">
-        <v>222</v>
-      </c>
-      <c r="AL2" s="72" t="s">
-        <v>223</v>
-      </c>
-      <c r="AM2" s="73" t="s">
+      <c r="AV2" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="AN2" s="74" t="s">
+      <c r="AW2" s="29" t="s">
         <v>225</v>
       </c>
-      <c r="AO2" s="73" t="s">
+      <c r="AX2" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AP2" s="73" t="s">
-        <v>227</v>
-      </c>
-      <c r="AQ2" s="73" t="s">
+      <c r="AY2" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ2" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="BA2" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="BB2" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="BC2" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="BD2" s="89" t="s">
+        <v>475</v>
+      </c>
+      <c r="BE2" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="BF2" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="BG2" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="BH2" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="BI2" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="BJ2" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="BK2" s="62" t="s">
+        <v>364</v>
+      </c>
+      <c r="BL2" s="75" t="s">
         <v>228</v>
       </c>
-      <c r="AR2" s="73" t="s">
+      <c r="BM2" s="75" t="s">
         <v>229</v>
       </c>
-      <c r="AS2" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="AT2" s="24" t="s">
+      <c r="BN2" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="BO2" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="BP2" s="75" t="s">
+        <v>228</v>
+      </c>
+      <c r="BQ2" s="75" t="s">
+        <v>229</v>
+      </c>
+      <c r="BR2" s="76" t="s">
         <v>230</v>
       </c>
-      <c r="AU2" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="AV2" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="AW2" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="AX2" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="AY2" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="AZ2" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="BA2" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="BB2" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="BC2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="BD2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="BE2" s="89" t="s">
-        <v>366</v>
-      </c>
-      <c r="BF2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="BG2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="BH2" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="BI2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="BJ2" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="BK2" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="BL2" s="75" t="s">
+      <c r="BS2" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="BM2" s="75" t="s">
+      <c r="BT2" s="89" t="s">
         <v>232</v>
       </c>
-      <c r="BN2" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="BO2" s="29" t="s">
-        <v>232</v>
-      </c>
-      <c r="BP2" s="75" t="s">
-        <v>231</v>
-      </c>
-      <c r="BQ2" s="75" t="s">
-        <v>232</v>
-      </c>
-      <c r="BR2" s="76" t="s">
+      <c r="BU2" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="BS2" s="76" t="s">
+      <c r="BV2" s="77" t="s">
         <v>234</v>
-      </c>
-      <c r="BT2" s="89" t="s">
-        <v>235</v>
-      </c>
-      <c r="BU2" s="89" t="s">
-        <v>236</v>
-      </c>
-      <c r="BV2" s="77" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="3" spans="1:74" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="L3" s="18"/>
       <c r="AD3" s="55"/>
@@ -5472,208 +6408,208 @@
     </row>
     <row r="4" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>235</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>236</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>237</v>
+      </c>
+      <c r="G4" t="s">
         <v>238</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="H4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" t="s">
         <v>239</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>240</v>
       </c>
-      <c r="G4" t="s">
+      <c r="K4" t="s">
         <v>241</v>
       </c>
-      <c r="H4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>242</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="s">
         <v>243</v>
       </c>
-      <c r="K4" t="s">
+      <c r="N4" t="s">
         <v>244</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>245</v>
       </c>
-      <c r="M4" t="s">
+      <c r="P4" t="s">
         <v>246</v>
-      </c>
-      <c r="N4" t="s">
-        <v>247</v>
-      </c>
-      <c r="O4" t="s">
-        <v>248</v>
-      </c>
-      <c r="P4" t="s">
-        <v>249</v>
       </c>
       <c r="Q4">
         <v>80</v>
       </c>
       <c r="R4" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="S4">
         <v>10</v>
       </c>
       <c r="T4" t="s">
+        <v>248</v>
+      </c>
+      <c r="U4" t="s">
+        <v>249</v>
+      </c>
+      <c r="V4" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="W4" s="44" t="s">
+        <v>250</v>
+      </c>
+      <c r="X4" t="s">
         <v>251</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Y4" t="s">
         <v>252</v>
       </c>
-      <c r="V4" s="43" t="s">
-        <v>171</v>
-      </c>
-      <c r="W4" s="44" t="s">
+      <c r="Z4" t="s">
         <v>253</v>
       </c>
-      <c r="X4" t="s">
+      <c r="AA4" t="s">
         <v>254</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AB4" t="s">
         <v>255</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AC4" t="s">
         <v>256</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AD4" s="25" t="s">
         <v>257</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AE4" s="45" t="s">
         <v>258</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AG4" s="46" t="s">
         <v>259</v>
       </c>
-      <c r="AD4" s="25" t="s">
+      <c r="AH4" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="AE4" s="45" t="s">
+      <c r="AI4" t="s">
         <v>261</v>
       </c>
-      <c r="AG4" s="46" t="s">
+      <c r="AJ4" t="s">
         <v>262</v>
       </c>
-      <c r="AH4" s="46" t="s">
+      <c r="AK4" s="46" t="s">
         <v>263</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AL4" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AM4" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="AK4" s="46" t="s">
+      <c r="AN4" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="AL4" s="46" t="s">
+      <c r="AO4" s="41" t="s">
+        <v>223</v>
+      </c>
+      <c r="AP4" s="41" t="s">
         <v>267</v>
       </c>
-      <c r="AM4" s="41" t="s">
+      <c r="AQ4" s="41" t="s">
         <v>268</v>
       </c>
-      <c r="AN4" s="41" t="s">
+      <c r="AS4" t="s">
         <v>269</v>
       </c>
-      <c r="AO4" s="41" t="s">
-        <v>226</v>
-      </c>
-      <c r="AP4" s="41" t="s">
+      <c r="AT4" t="s">
         <v>270</v>
       </c>
-      <c r="AQ4" s="41" t="s">
+      <c r="AU4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AV4" t="s">
         <v>271</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AW4" t="s">
         <v>272</v>
       </c>
-      <c r="AT4" t="s">
-        <v>273</v>
-      </c>
-      <c r="AU4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AV4" t="s">
-        <v>274</v>
-      </c>
-      <c r="AW4" t="s">
-        <v>275</v>
-      </c>
       <c r="AY4" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="AZ4" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>367</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>368</v>
+      </c>
+      <c r="BC4" s="88" t="s">
+        <v>468</v>
+      </c>
+      <c r="BD4" s="88" t="s">
+        <v>469</v>
+      </c>
+      <c r="BE4" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>470</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>471</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="BI4" s="63" t="s">
         <v>369</v>
-      </c>
-      <c r="AZ4" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>371</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BC4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="BD4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="BE4" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>478</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="BI4" s="63" t="s">
-        <v>373</v>
       </c>
       <c r="BJ4" s="63">
         <v>289</v>
       </c>
       <c r="BK4" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="BL4" s="42" t="s">
+        <v>273</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>274</v>
+      </c>
+      <c r="BO4" t="s">
+        <v>275</v>
+      </c>
+      <c r="BP4" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BR4" s="68" t="s">
         <v>277</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BT4" s="88" t="s">
         <v>278</v>
       </c>
-      <c r="BP4" s="42" t="s">
+      <c r="BU4" s="88" t="s">
         <v>279</v>
       </c>
-      <c r="BR4" s="68" t="s">
+      <c r="BV4" s="69" t="s">
         <v>280</v>
-      </c>
-      <c r="BT4" s="88" t="s">
-        <v>281</v>
-      </c>
-      <c r="BU4" s="88" t="s">
-        <v>282</v>
-      </c>
-      <c r="BV4" s="69" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5681,92 +6617,92 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1 AE1:AF1 AM1:AR1 BV1:XFD1 BL1:BM1 H1:I1 M1:AC1">
-    <cfRule type="containsText" dxfId="61" priority="20" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="74" priority="20" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR1:BS1">
-    <cfRule type="containsText" dxfId="60" priority="19" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BR1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AH1">
-    <cfRule type="containsText" dxfId="59" priority="17" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN1:BO1">
-    <cfRule type="containsText" dxfId="58" priority="16" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="71" priority="16" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BN1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP1:BQ1">
-    <cfRule type="containsText" dxfId="57" priority="15" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="70" priority="15" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BP1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS1:AX1">
-    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AS1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="55" priority="13" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AJ1">
-    <cfRule type="containsText" dxfId="54" priority="12" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="67" priority="12" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AL1">
-    <cfRule type="containsText" dxfId="53" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="66" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:AC1">
-    <cfRule type="expression" dxfId="52" priority="9">
+    <cfRule type="expression" dxfId="65" priority="9">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*"&amp;LEFT(L$1, FIND(".", L$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:AC1">
-    <cfRule type="expression" dxfId="51" priority="10">
+    <cfRule type="expression" dxfId="64" priority="10">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*"&amp;LEFT(L$1, FIND(".", L$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="expression" dxfId="50" priority="8">
+    <cfRule type="expression" dxfId="63" priority="8">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*REFERENCE_ALIGNMENT*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_VARIATION*") + COUNTIF($I$4:$I$1048576,"*PROCESSED_READS*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_ANNOTATION*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="expression" dxfId="49" priority="7">
+    <cfRule type="expression" dxfId="62" priority="7">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*REFERENCE_ALIGNMENT*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_VARIATION*") + COUNTIF($I$4:$I$1048576,"*PROCESSED_READS*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_ANNOTATION*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BK1">
-    <cfRule type="containsText" dxfId="48" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="61" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:AZ1">
-    <cfRule type="containsText" dxfId="47" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AY1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1">
-    <cfRule type="containsText" dxfId="46" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1">
-    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BE1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH1">
-    <cfRule type="containsText" dxfId="44" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BH1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5779,11 +6715,11 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BS4"/>
+  <dimension ref="A1:BR4"/>
   <sheetViews>
-    <sheetView topLeftCell="BA1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BK2" sqref="BK2:BP4"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5791,34 +6727,34 @@
     <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="12" width="15.5703125" style="1" customWidth="1"/>
-    <col min="13" max="13" width="19" style="1" customWidth="1"/>
-    <col min="14" max="14" width="21.7109375" style="7" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" style="7" customWidth="1"/>
-    <col min="16" max="19" width="15.5703125" style="8" customWidth="1"/>
-    <col min="20" max="31" width="15.5703125" style="1" customWidth="1"/>
-    <col min="32" max="32" width="8.7109375" style="71" customWidth="1"/>
-    <col min="33" max="42" width="8.7109375" style="11" customWidth="1"/>
-    <col min="43" max="47" width="8.7109375" style="13" customWidth="1"/>
-    <col min="48" max="52" width="8.7109375" style="9" customWidth="1"/>
-    <col min="53" max="55" width="8.7109375" style="3" customWidth="1"/>
-    <col min="56" max="56" width="9.140625" style="10"/>
-    <col min="59" max="59" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="8" style="65" customWidth="1"/>
-    <col min="61" max="61" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="8" customWidth="1"/>
-    <col min="63" max="63" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="12" max="12" width="19" style="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7109375" style="7" customWidth="1"/>
+    <col min="14" max="14" width="15.5703125" style="7" customWidth="1"/>
+    <col min="15" max="18" width="15.5703125" style="8" customWidth="1"/>
+    <col min="19" max="30" width="15.5703125" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="71" customWidth="1"/>
+    <col min="32" max="41" width="8.7109375" style="11" customWidth="1"/>
+    <col min="42" max="46" width="8.7109375" style="13" customWidth="1"/>
+    <col min="47" max="51" width="8.7109375" style="9" customWidth="1"/>
+    <col min="52" max="54" width="8.7109375" style="3" customWidth="1"/>
+    <col min="55" max="55" width="9.140625" style="10"/>
+    <col min="58" max="58" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8" style="65" customWidth="1"/>
+    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8" customWidth="1"/>
+    <col min="62" max="62" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.140625" style="88" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11" style="63" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13" style="63" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:71" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -5840,7 +6776,7 @@
       <c r="G1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I1" s="7" t="s">
@@ -5853,16 +6789,16 @@
         <v>28</v>
       </c>
       <c r="L1" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="O1" s="8" t="s">
         <v>29</v>
-      </c>
-      <c r="M1" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="P1" s="8" t="s">
         <v>30</v>
@@ -5871,392 +6807,387 @@
         <v>31</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="W1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="X1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="Y1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="Z1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA1" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AC1" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="AE1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AE1" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>390</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>391</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>392</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>393</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
+        <v>394</v>
+      </c>
+      <c r="AK1" s="12" t="s">
+        <v>395</v>
+      </c>
+      <c r="AL1" s="12" t="s">
+        <v>396</v>
+      </c>
+      <c r="AM1" s="12" t="s">
+        <v>397</v>
+      </c>
+      <c r="AN1" s="12" t="s">
+        <v>398</v>
+      </c>
+      <c r="AO1" s="12" t="s">
+        <v>399</v>
+      </c>
+      <c r="AP1" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ1" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="AF1" s="70" t="s">
-        <v>393</v>
-      </c>
-      <c r="AG1" s="12" t="s">
-        <v>394</v>
-      </c>
-      <c r="AH1" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="AI1" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="AJ1" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>399</v>
-      </c>
-      <c r="AM1" s="12" t="s">
-        <v>400</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>401</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>402</v>
-      </c>
-      <c r="AP1" s="12" t="s">
-        <v>403</v>
-      </c>
-      <c r="AQ1" s="14" t="s">
+      <c r="AR1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AR1" s="14" t="s">
+      <c r="AS1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AS1" s="14" t="s">
+      <c r="AT1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AT1" s="14" t="s">
-        <v>56</v>
-      </c>
       <c r="AU1" s="14" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="AV1" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW1" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="AW1" s="14" t="s">
+      <c r="AX1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AX1" s="14" t="s">
+      <c r="AY1" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="AY1" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="AZ1" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="BA1" s="5" t="s">
+      <c r="AZ1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="BB1" s="4" t="s">
+      <c r="BA1" s="4" t="s">
         <v>1</v>
       </c>
+      <c r="BB1" s="5" t="s">
+        <v>2</v>
+      </c>
       <c r="BC1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="BD1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="BE1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="BD1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="BE1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="BF1" s="5" t="s">
-        <v>2</v>
+      <c r="BF1" s="64" t="s">
+        <v>352</v>
       </c>
       <c r="BG1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="BH1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="BI1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="BJ1" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="BK1" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="BL1" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="BH1" s="64" t="s">
+      <c r="BM1" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="BN1" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="BO1" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="BP1" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="BI1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="BJ1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="BK1" s="87" t="s">
+      <c r="BQ1" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="BL1" s="87" t="s">
+      <c r="BR1" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="BM1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="BN1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="BO1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="BP1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="BQ1" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="BR1" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="BS1" s="61" t="s">
-        <v>363</v>
-      </c>
     </row>
-    <row r="2" spans="1:71" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
       <c r="E2" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="J2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="K2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="L2" s="15" t="s">
+        <v>119</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="N2" s="79" t="s">
+        <v>122</v>
+      </c>
+      <c r="O2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P2" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="H2" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="I2" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="K2" s="15" t="s">
+      <c r="Q2" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="S2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="T2" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="M2" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="O2" s="79" t="s">
-        <v>125</v>
-      </c>
-      <c r="P2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="Q2" s="8" t="s">
+      <c r="V2" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="W2" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="Y2" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="Z2" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA2" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC2" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AD2" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE2" s="80" t="s">
         <v>82</v>
       </c>
-      <c r="R2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="T2" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="U2" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>93</v>
-      </c>
-      <c r="W2" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="X2" s="15" t="s">
-        <v>95</v>
-      </c>
-      <c r="Y2" s="15" t="s">
-        <v>96</v>
-      </c>
-      <c r="Z2" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="AA2" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AF2" s="81" t="s">
+        <v>73</v>
+      </c>
+      <c r="AG2" s="81" t="s">
+        <v>72</v>
+      </c>
+      <c r="AH2" s="81" t="s">
+        <v>400</v>
+      </c>
+      <c r="AI2" s="81" t="s">
         <v>99</v>
       </c>
-      <c r="AC2" s="15" t="s">
+      <c r="AJ2" s="81" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK2" s="81" t="s">
+        <v>70</v>
+      </c>
+      <c r="AL2" s="81" t="s">
+        <v>83</v>
+      </c>
+      <c r="AM2" s="81" t="s">
+        <v>69</v>
+      </c>
+      <c r="AN2" s="81" t="s">
+        <v>68</v>
+      </c>
+      <c r="AO2" s="81" t="s">
         <v>100</v>
       </c>
-      <c r="AD2" s="15" t="s">
-        <v>101</v>
-      </c>
-      <c r="AE2" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="AF2" s="80" t="s">
-        <v>85</v>
-      </c>
-      <c r="AG2" s="81" t="s">
-        <v>75</v>
-      </c>
-      <c r="AH2" s="81" t="s">
-        <v>74</v>
-      </c>
-      <c r="AI2" s="81" t="s">
-        <v>404</v>
-      </c>
-      <c r="AJ2" s="81" t="s">
-        <v>102</v>
-      </c>
-      <c r="AK2" s="81" t="s">
-        <v>73</v>
-      </c>
-      <c r="AL2" s="81" t="s">
-        <v>72</v>
-      </c>
-      <c r="AM2" s="81" t="s">
-        <v>86</v>
-      </c>
-      <c r="AN2" s="81" t="s">
-        <v>71</v>
-      </c>
-      <c r="AO2" s="81" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP2" s="81" t="s">
-        <v>103</v>
+      <c r="AP2" s="82" t="s">
+        <v>57</v>
       </c>
       <c r="AQ2" s="82" t="s">
+        <v>126</v>
+      </c>
+      <c r="AR2" s="82" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="AR2" s="82" t="s">
-        <v>129</v>
-      </c>
-      <c r="AS2" s="82" t="s">
+      <c r="AT2" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="AT2" s="82" t="s">
-        <v>61</v>
-      </c>
-      <c r="AU2" s="82" t="s">
-        <v>62</v>
+      <c r="AU2" s="83" t="s">
+        <v>57</v>
       </c>
       <c r="AV2" s="83" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AW2" s="83" t="s">
         <v>58</v>
       </c>
       <c r="AX2" s="83" t="s">
+        <v>59</v>
+      </c>
+      <c r="AY2" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="AY2" s="83" t="s">
-        <v>61</v>
-      </c>
-      <c r="AZ2" s="83" t="s">
-        <v>62</v>
-      </c>
-      <c r="BA2" s="84" t="s">
+      <c r="AZ2" s="84" t="s">
         <v>5</v>
       </c>
-      <c r="BB2" s="31" t="s">
+      <c r="BA2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BC2" s="84" t="s">
+      <c r="BB2" s="84" t="s">
         <v>7</v>
       </c>
-      <c r="BD2" s="83" t="s">
+      <c r="BC2" s="83" t="s">
         <v>5</v>
       </c>
-      <c r="BE2" s="8" t="s">
+      <c r="BD2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="BF2" s="83" t="s">
+      <c r="BE2" s="83" t="s">
         <v>7</v>
       </c>
+      <c r="BF2" s="66" t="s">
+        <v>360</v>
+      </c>
       <c r="BG2" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="BH2" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="BI2" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="BJ2" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="BK2" s="89" t="s">
+        <v>475</v>
+      </c>
+      <c r="BL2" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="BM2" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="BN2" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="BO2" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="BP2" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="BQ2" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="BR2" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="BH2" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="BI2" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="BJ2" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="BK2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="BL2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="BM2" s="89" t="s">
-        <v>366</v>
-      </c>
-      <c r="BN2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="BO2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="BP2" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="BQ2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="BR2" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="BS2" s="62" t="s">
-        <v>368</v>
-      </c>
     </row>
-    <row r="3" spans="1:71" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
-        <v>106</v>
-      </c>
-      <c r="M3" s="18"/>
+        <v>103</v>
+      </c>
+      <c r="L3" s="18"/>
+      <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
-      <c r="S3" s="21"/>
-      <c r="AF3" s="55"/>
+      <c r="AE3" s="55"/>
+      <c r="BF3" s="27"/>
       <c r="BG3" s="27"/>
       <c r="BH3" s="27"/>
       <c r="BI3" s="27"/>
@@ -6269,225 +7200,221 @@
       <c r="BP3" s="27"/>
       <c r="BQ3" s="27"/>
       <c r="BR3" s="27"/>
-      <c r="BS3" s="27"/>
     </row>
-    <row r="4" spans="1:71" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="J4" s="1" t="s">
         <v>38</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M4" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
+      </c>
+      <c r="M4" s="7">
+        <v>390</v>
       </c>
       <c r="N4" s="7">
-        <v>390</v>
-      </c>
-      <c r="O4" s="7">
         <v>50.22</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="O4" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q4" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="Q4" s="8" t="s">
-        <v>50</v>
-      </c>
       <c r="R4" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="S4" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="U4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP4" s="13">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="AR4" s="13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AS4" s="13" t="s">
+        <v>61</v>
+      </c>
+      <c r="AT4" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="AU4" s="9">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="9">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="AX4" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY4" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="AZ4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA4" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="AQ4" s="13">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="AS4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="AT4" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="AU4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="AV4" s="9">
-        <v>2</v>
-      </c>
-      <c r="AW4" s="9">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="AY4" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="AZ4" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="BA4" s="3" t="s">
+      <c r="BC4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="BB4" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="BD4" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="BE4" s="9" t="s">
-        <v>47</v>
+      <c r="BF4" s="65" t="s">
+        <v>365</v>
       </c>
       <c r="BG4" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>367</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>368</v>
+      </c>
+      <c r="BJ4" s="88" t="s">
+        <v>468</v>
+      </c>
+      <c r="BK4" s="88" t="s">
+        <v>469</v>
+      </c>
+      <c r="BL4" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>470</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>471</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="BP4" s="63" t="s">
         <v>369</v>
       </c>
-      <c r="BH4" s="65" t="s">
+      <c r="BQ4" s="63">
+        <v>289</v>
+      </c>
+      <c r="BR4" s="63" t="s">
         <v>370</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>371</v>
-      </c>
-      <c r="BJ4" t="s">
-        <v>372</v>
-      </c>
-      <c r="BK4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="BL4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="BM4" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>478</v>
-      </c>
-      <c r="BO4" t="s">
-        <v>479</v>
-      </c>
-      <c r="BP4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="BQ4" s="63" t="s">
-        <v>373</v>
-      </c>
-      <c r="BR4" s="63">
-        <v>289</v>
-      </c>
-      <c r="BS4" s="63" t="s">
-        <v>374</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="Q1 BB1:BC1 A1:M1 BT1:XFD1">
-    <cfRule type="containsText" dxfId="43" priority="24" operator="containsText" text="~*">
+  <conditionalFormatting sqref="P1 BA1:BB1 BS1:XFD1 A1:L1">
+    <cfRule type="containsText" dxfId="56" priority="24" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P1">
-    <cfRule type="containsText" dxfId="42" priority="22" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",P1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S1">
-    <cfRule type="containsText" dxfId="41" priority="21" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BE1:BF1">
-    <cfRule type="containsText" dxfId="40" priority="20" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",BE1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1">
-    <cfRule type="expression" dxfId="39" priority="15">
-      <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(T$1, FIND(".", T$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1">
-    <cfRule type="expression" dxfId="38" priority="11">
-      <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(T$1, FIND(".", T$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:AD1">
-    <cfRule type="expression" dxfId="37" priority="9">
-      <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(U$1, FIND(".", U$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="U1:AD1">
-    <cfRule type="expression" dxfId="36" priority="10">
-      <formula>IF(COUNTIF($S$4:$S$1048576,"*"&amp;LEFT(U$1, FIND(".", U$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:O1">
-    <cfRule type="expression" dxfId="35" priority="7">
-      <formula>IF(COUNTIF($M$4:$M$1048576,"*"&amp;LEFT(N$1, FIND(".", N$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N1:O1">
-    <cfRule type="expression" dxfId="34" priority="8">
-      <formula>IF(COUNTIF($M$4:$M$1048576,"*"&amp;LEFT(N$1, FIND(".", N$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BQ1:BS1">
-    <cfRule type="containsText" dxfId="33" priority="6" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",BQ1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BG1:BH1">
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",BG1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BI1:BJ1">
-    <cfRule type="containsText" dxfId="31" priority="3" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",BI1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BM1">
-    <cfRule type="containsText" dxfId="30" priority="2" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",BM1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="BP1">
-    <cfRule type="containsText" dxfId="29" priority="1" operator="containsText" text="~*">
+  <conditionalFormatting sqref="O1">
+    <cfRule type="containsText" dxfId="55" priority="22" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",O1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q1:R1">
+    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",Q1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BD1:BE1">
+    <cfRule type="containsText" dxfId="53" priority="20" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",BD1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1">
+    <cfRule type="expression" dxfId="52" priority="15">
+      <formula>IF(COUNTIF($R$4:$R$1048576,"*"&amp;LEFT(S$1, FIND(".", S$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1">
+    <cfRule type="expression" dxfId="51" priority="11">
+      <formula>IF(COUNTIF($R$4:$R$1048576,"*"&amp;LEFT(S$1, FIND(".", S$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:AC1">
+    <cfRule type="expression" dxfId="50" priority="9">
+      <formula>IF(COUNTIF($R$4:$R$1048576,"*"&amp;LEFT(T$1, FIND(".", T$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T1:AC1">
+    <cfRule type="expression" dxfId="49" priority="10">
+      <formula>IF(COUNTIF($R$4:$R$1048576,"*"&amp;LEFT(T$1, FIND(".", T$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:N1">
+    <cfRule type="expression" dxfId="48" priority="7">
+      <formula>IF(COUNTIF($L$4:$L$1048576,"*"&amp;LEFT(M$1, FIND(".", M$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1:N1">
+    <cfRule type="expression" dxfId="47" priority="8">
+      <formula>IF(COUNTIF($L$4:$L$1048576,"*"&amp;LEFT(M$1, FIND(".", M$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BP1:BR1">
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BP1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BF1:BG1">
+    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",BF1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BH1:BI1">
+    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",BH1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BL1">
+    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",BL1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="BO1">
+    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",BO1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6499,8 +7426,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C207F4-C211-4748-AEDC-244AE980111F}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
-    <sheetView topLeftCell="AG1" workbookViewId="0">
-      <selection activeCell="AP2" sqref="AP2:AU4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6538,7 +7465,7 @@
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -6547,22 +7474,22 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="E1" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="60" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>0</v>
@@ -6583,138 +7510,138 @@
         <v>2</v>
       </c>
       <c r="P1" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>194</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="X1" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="Y1" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>319</v>
+      </c>
+      <c r="AB1" s="38" t="s">
+        <v>320</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>321</v>
+      </c>
+      <c r="AD1" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AE1" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="AF1" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="T1" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="V1" s="38" t="s">
+      <c r="AG1" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>200</v>
       </c>
-      <c r="X1" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="Y1" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="Z1" s="38" t="s">
-        <v>203</v>
-      </c>
-      <c r="AA1" s="38" t="s">
-        <v>322</v>
-      </c>
-      <c r="AB1" s="38" t="s">
-        <v>323</v>
-      </c>
-      <c r="AC1" s="38" t="s">
-        <v>324</v>
-      </c>
-      <c r="AD1" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="AE1" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="AF1" s="38" t="s">
-        <v>201</v>
-      </c>
-      <c r="AG1" s="38" t="s">
-        <v>202</v>
-      </c>
-      <c r="AH1" s="38" t="s">
-        <v>203</v>
-      </c>
       <c r="AI1" s="38" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="AJ1" s="38" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AK1" s="38" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="AL1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="AN1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="AO1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="AP1" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="AQ1" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="AR1" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="AM1" s="64" t="s">
+      <c r="AS1" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="AT1" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="AU1" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="AV1" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="AN1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="AO1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="AP1" s="87" t="s">
+      <c r="AW1" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="AQ1" s="87" t="s">
+      <c r="AX1" s="61" t="s">
         <v>359</v>
-      </c>
-      <c r="AR1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="AS1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="AT1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="AU1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="AV1" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="AW1" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="AX1" s="61" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="2" spans="1:50" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>323</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>325</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="29" t="s">
+      <c r="G2" s="24" t="s">
+        <v>547</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>326</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>327</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>328</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>329</v>
-      </c>
-      <c r="H2" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>331</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>5</v>
@@ -6735,114 +7662,114 @@
         <v>7</v>
       </c>
       <c r="P2" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="Q2" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>328</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>329</v>
+      </c>
+      <c r="T2" s="72" t="s">
+        <v>328</v>
+      </c>
+      <c r="U2" s="72" t="s">
+        <v>329</v>
+      </c>
+      <c r="V2" s="85" t="s">
+        <v>330</v>
+      </c>
+      <c r="W2" s="85" t="s">
+        <v>331</v>
+      </c>
+      <c r="X2" s="86" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y2" s="86" t="s">
+        <v>224</v>
+      </c>
+      <c r="Z2" s="86" t="s">
+        <v>225</v>
+      </c>
+      <c r="AA2" s="86" t="s">
         <v>332</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="AB2" s="86" t="s">
         <v>333</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="AC2" s="86" t="s">
+        <v>334</v>
+      </c>
+      <c r="AD2" s="24" t="s">
+        <v>330</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="AF2" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG2" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="AH2" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="AI2" s="29" t="s">
         <v>332</v>
       </c>
-      <c r="S2" s="24" t="s">
-        <v>333</v>
-      </c>
-      <c r="T2" s="72" t="s">
-        <v>332</v>
-      </c>
-      <c r="U2" s="72" t="s">
-        <v>333</v>
-      </c>
-      <c r="V2" s="85" t="s">
+      <c r="AJ2" s="29" t="s">
+        <v>335</v>
+      </c>
+      <c r="AK2" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="W2" s="85" t="s">
-        <v>335</v>
-      </c>
-      <c r="X2" s="86" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y2" s="86" t="s">
-        <v>227</v>
-      </c>
-      <c r="Z2" s="86" t="s">
-        <v>228</v>
-      </c>
-      <c r="AA2" s="86" t="s">
-        <v>336</v>
-      </c>
-      <c r="AB2" s="86" t="s">
-        <v>337</v>
-      </c>
-      <c r="AC2" s="86" t="s">
-        <v>338</v>
-      </c>
-      <c r="AD2" s="24" t="s">
-        <v>334</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>335</v>
-      </c>
-      <c r="AF2" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG2" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="AH2" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="AI2" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>339</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>338</v>
-      </c>
       <c r="AL2" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM2" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="AN2" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="AO2" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="AP2" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="AQ2" s="89" t="s">
+        <v>475</v>
+      </c>
+      <c r="AR2" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="AS2" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="AU2" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="AV2" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="AW2" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="AX2" s="62" t="s">
         <v>364</v>
-      </c>
-      <c r="AM2" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="AN2" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="AO2" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="AP2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="AQ2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="AR2" s="89" t="s">
-        <v>366</v>
-      </c>
-      <c r="AS2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="AT2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="AU2" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="AV2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="AW2" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="AX2" s="62" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="3" spans="1:50" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="57" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="M3" s="59"/>
       <c r="AL3" s="27"/>
@@ -6861,203 +7788,203 @@
     </row>
     <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>336</v>
+      </c>
+      <c r="B4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G4" t="s">
+        <v>339</v>
+      </c>
+      <c r="H4" t="s">
+        <v>240</v>
+      </c>
+      <c r="I4" t="s">
+        <v>241</v>
+      </c>
+      <c r="J4" s="25" t="s">
         <v>340</v>
       </c>
-      <c r="B4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="K4" s="2" t="s">
         <v>341</v>
       </c>
-      <c r="E4" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="M4" t="s">
         <v>342</v>
       </c>
-      <c r="G4" t="s">
+      <c r="N4" t="s">
         <v>343</v>
       </c>
-      <c r="H4" t="s">
-        <v>243</v>
-      </c>
-      <c r="I4" t="s">
-        <v>244</v>
-      </c>
-      <c r="J4" s="25" t="s">
+      <c r="P4" s="46" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="R4" t="s">
+        <v>261</v>
+      </c>
+      <c r="S4" t="s">
+        <v>262</v>
+      </c>
+      <c r="T4" s="46" t="s">
+        <v>263</v>
+      </c>
+      <c r="U4" s="46" t="s">
+        <v>264</v>
+      </c>
+      <c r="V4" s="56" t="s">
         <v>344</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="W4" s="56" t="s">
+        <v>266</v>
+      </c>
+      <c r="X4" s="56" t="s">
+        <v>223</v>
+      </c>
+      <c r="Y4" s="56" t="s">
+        <v>271</v>
+      </c>
+      <c r="Z4" s="56" t="s">
+        <v>272</v>
+      </c>
+      <c r="AA4" s="56" t="s">
         <v>345</v>
       </c>
-      <c r="M4" t="s">
+      <c r="AB4" s="56" t="s">
         <v>346</v>
       </c>
-      <c r="N4" t="s">
+      <c r="AC4" s="56" t="s">
         <v>347</v>
       </c>
-      <c r="P4" s="46" t="s">
-        <v>262</v>
-      </c>
-      <c r="Q4" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="R4" t="s">
-        <v>264</v>
-      </c>
-      <c r="S4" t="s">
-        <v>265</v>
-      </c>
-      <c r="T4" s="46" t="s">
-        <v>266</v>
-      </c>
-      <c r="U4" s="46" t="s">
-        <v>267</v>
-      </c>
-      <c r="V4" s="56" t="s">
+      <c r="AD4" t="s">
         <v>348</v>
       </c>
-      <c r="W4" s="56" t="s">
-        <v>269</v>
-      </c>
-      <c r="X4" s="56" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y4" s="56" t="s">
-        <v>274</v>
-      </c>
-      <c r="Z4" s="56" t="s">
-        <v>275</v>
-      </c>
-      <c r="AA4" s="56" t="s">
+      <c r="AE4" t="s">
         <v>349</v>
       </c>
-      <c r="AB4" s="56" t="s">
+      <c r="AF4" t="s">
+        <v>223</v>
+      </c>
+      <c r="AG4" t="s">
         <v>350</v>
       </c>
-      <c r="AC4" s="56" t="s">
+      <c r="AH4" t="s">
         <v>351</v>
       </c>
-      <c r="AD4" t="s">
-        <v>352</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>353</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>226</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>354</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>355</v>
-      </c>
       <c r="AI4" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="AJ4" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="AK4" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="AL4" s="65" t="s">
+        <v>365</v>
+      </c>
+      <c r="AM4" s="65" t="s">
+        <v>366</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>367</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>368</v>
+      </c>
+      <c r="AP4" s="88" t="s">
+        <v>468</v>
+      </c>
+      <c r="AQ4" s="88" t="s">
+        <v>469</v>
+      </c>
+      <c r="AR4" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>470</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>471</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="AV4" s="63" t="s">
         <v>369</v>
-      </c>
-      <c r="AM4" s="65" t="s">
-        <v>370</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>371</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>372</v>
-      </c>
-      <c r="AP4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="AQ4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="AR4" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>478</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="AV4" s="63" t="s">
-        <v>373</v>
       </c>
       <c r="AW4" s="63">
         <v>289</v>
       </c>
       <c r="AX4" s="63" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 K1:L1 V1:AC1 AY1:XFD1 P1:Q1">
-    <cfRule type="containsText" dxfId="28" priority="12" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="41" priority="12" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1">
-    <cfRule type="containsText" dxfId="27" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1">
-    <cfRule type="containsText" dxfId="26" priority="10" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="containsText" dxfId="25" priority="9" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AK1">
-    <cfRule type="containsText" dxfId="24" priority="8" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="containsText" dxfId="23" priority="7" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV1:AX1">
-    <cfRule type="containsText" dxfId="22" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AV1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AM1">
-    <cfRule type="containsText" dxfId="21" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AL1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AO1">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AN1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR1">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AR1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AU1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7069,8 +7996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063F6330-2473-4301-8FE6-9C4C7B20F42A}">
   <dimension ref="A1:AH4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AF1" sqref="AF1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7079,9 +8006,9 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="107" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="104" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="110" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="107" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="3" customWidth="1"/>
     <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
     <col min="13" max="15" width="8.7109375" customWidth="1"/>
@@ -7101,15 +8028,15 @@
     <col min="29" max="29" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="119" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="116" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" style="119" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" style="116" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -7118,22 +8045,22 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="E1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F1" t="s">
-        <v>428</v>
-      </c>
-      <c r="G1" s="105" t="s">
-        <v>426</v>
-      </c>
-      <c r="H1" s="108" t="s">
-        <v>426</v>
-      </c>
-      <c r="I1" s="108" t="s">
-        <v>426</v>
+        <v>424</v>
+      </c>
+      <c r="G1" s="102" t="s">
+        <v>422</v>
+      </c>
+      <c r="H1" s="105" t="s">
+        <v>422</v>
+      </c>
+      <c r="I1" s="105" t="s">
+        <v>422</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>0</v>
@@ -7154,90 +8081,90 @@
         <v>2</v>
       </c>
       <c r="P1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="Q1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="T1" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="U1" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="V1" s="87" t="s">
         <v>356</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="W1" s="87" t="s">
+        <v>354</v>
+      </c>
+      <c r="X1" s="87" t="s">
+        <v>355</v>
+      </c>
+      <c r="Y1" s="87" t="s">
+        <v>356</v>
+      </c>
+      <c r="Z1" s="61" t="s">
         <v>357</v>
       </c>
-      <c r="R1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="S1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="T1" s="87" t="s">
+      <c r="AA1" s="61" t="s">
         <v>358</v>
       </c>
-      <c r="U1" s="87" t="s">
+      <c r="AB1" s="61" t="s">
         <v>359</v>
       </c>
-      <c r="V1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="W1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="X1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="Y1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="Z1" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="AA1" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="AB1" s="61" t="s">
-        <v>363</v>
-      </c>
       <c r="AC1" s="64" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AD1" s="64" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="AE1" s="64" t="s">
-        <v>434</v>
-      </c>
-      <c r="AF1" s="117" t="s">
-        <v>435</v>
-      </c>
-      <c r="AG1" s="117" t="s">
-        <v>435</v>
-      </c>
-      <c r="AH1" s="117" t="s">
-        <v>435</v>
+        <v>429</v>
+      </c>
+      <c r="AF1" s="114" t="s">
+        <v>430</v>
+      </c>
+      <c r="AG1" s="114" t="s">
+        <v>430</v>
+      </c>
+      <c r="AH1" s="114" t="s">
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:34" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
+        <v>426</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>425</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>431</v>
       </c>
-      <c r="B2" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>430</v>
-      </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="F2" s="8" t="s">
-        <v>441</v>
-      </c>
-      <c r="G2" s="106" t="s">
-        <v>438</v>
+      <c r="G2" s="103" t="s">
+        <v>433</v>
       </c>
       <c r="H2" s="83" t="s">
-        <v>438</v>
-      </c>
-      <c r="I2" s="116" t="s">
-        <v>438</v>
+        <v>433</v>
+      </c>
+      <c r="I2" s="113" t="s">
+        <v>433</v>
       </c>
       <c r="J2" s="84" t="s">
         <v>5</v>
@@ -7258,215 +8185,215 @@
         <v>7</v>
       </c>
       <c r="P2" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="Q2" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>361</v>
+      </c>
+      <c r="T2" s="89" t="s">
+        <v>474</v>
+      </c>
+      <c r="U2" s="89" t="s">
+        <v>475</v>
+      </c>
+      <c r="V2" s="89" t="s">
+        <v>362</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>474</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>475</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>362</v>
+      </c>
+      <c r="Z2" s="62" t="s">
+        <v>371</v>
+      </c>
+      <c r="AA2" s="62" t="s">
+        <v>363</v>
+      </c>
+      <c r="AB2" s="62" t="s">
         <v>364</v>
       </c>
-      <c r="Q2" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="T2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="U2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="V2" s="89" t="s">
-        <v>366</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="Z2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="AA2" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="AB2" s="62" t="s">
-        <v>368</v>
-      </c>
       <c r="AC2" s="66" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="AE2" s="66" t="s">
-        <v>452</v>
-      </c>
-      <c r="AF2" s="118" t="s">
-        <v>455</v>
+        <v>447</v>
+      </c>
+      <c r="AF2" s="115" t="s">
+        <v>450</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>451</v>
-      </c>
-      <c r="AH2" s="118" t="s">
-        <v>451</v>
+        <v>446</v>
+      </c>
+      <c r="AH2" s="115" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="3" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
+        <v>103</v>
+      </c>
+      <c r="G3" s="101"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:34" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>432</v>
       </c>
-      <c r="B4" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>433</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="F4" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="F4" s="29" t="s">
-        <v>442</v>
-      </c>
-      <c r="G4" s="106" t="s">
-        <v>245</v>
+      <c r="G4" s="103" t="s">
+        <v>242</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>439</v>
-      </c>
-      <c r="I4" s="109" t="s">
-        <v>440</v>
-      </c>
-      <c r="J4" s="111" t="s">
-        <v>443</v>
+        <v>434</v>
+      </c>
+      <c r="I4" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="J4" s="108" t="s">
+        <v>438</v>
       </c>
       <c r="K4" s="31" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="29" t="s">
+        <v>439</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>440</v>
+      </c>
+      <c r="P4" s="109" t="s">
+        <v>442</v>
+      </c>
+      <c r="Q4" s="110" t="s">
+        <v>445</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>443</v>
+      </c>
+      <c r="S4" s="111" t="s">
         <v>444</v>
       </c>
-      <c r="N4" s="29" t="s">
-        <v>445</v>
-      </c>
-      <c r="P4" s="112" t="s">
-        <v>447</v>
-      </c>
-      <c r="Q4" s="113" t="s">
-        <v>450</v>
-      </c>
-      <c r="R4" s="44" t="s">
+      <c r="T4" s="88" t="s">
+        <v>468</v>
+      </c>
+      <c r="U4" s="88" t="s">
+        <v>469</v>
+      </c>
+      <c r="V4" s="88" t="s">
+        <v>472</v>
+      </c>
+      <c r="W4" t="s">
+        <v>470</v>
+      </c>
+      <c r="X4" t="s">
+        <v>471</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="Z4" s="112" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA4" s="112">
+        <v>289</v>
+      </c>
+      <c r="AB4" s="112" t="s">
+        <v>370</v>
+      </c>
+      <c r="AC4" s="66" t="s">
+        <v>336</v>
+      </c>
+      <c r="AD4" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="S4" s="114" t="s">
+      <c r="AE4" s="66" t="s">
         <v>449</v>
       </c>
-      <c r="T4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="U4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="V4" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="W4" t="s">
-        <v>478</v>
-      </c>
-      <c r="X4" t="s">
-        <v>479</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>481</v>
-      </c>
-      <c r="Z4" s="115" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA4" s="115">
-        <v>289</v>
-      </c>
-      <c r="AB4" s="115" t="s">
-        <v>374</v>
-      </c>
-      <c r="AC4" s="66" t="s">
-        <v>340</v>
-      </c>
-      <c r="AD4" s="8" t="s">
+      <c r="AF4" s="115" t="s">
+        <v>451</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>452</v>
+      </c>
+      <c r="AH4" s="115" t="s">
         <v>453</v>
-      </c>
-      <c r="AE4" s="66" t="s">
-        <v>454</v>
-      </c>
-      <c r="AF4" s="118" t="s">
-        <v>456</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>457</v>
-      </c>
-      <c r="AH4" s="118" t="s">
-        <v>458</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K1:L1 AC1 N1:O1 A1:F1 AF1 AI1:XFD1">
-    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z1:AB1">
-    <cfRule type="containsText" dxfId="16" priority="8" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",Z1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P1:Q1">
-    <cfRule type="containsText" dxfId="15" priority="7" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",P1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1">
-    <cfRule type="containsText" dxfId="14" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V1">
-    <cfRule type="containsText" dxfId="13" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",V1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y1">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",Y1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1">
-    <cfRule type="containsText" dxfId="11" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE1">
-    <cfRule type="containsText" dxfId="10" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AE1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AH1">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7480,7 +8407,7 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18643E49-8A37-4797-9848-600A8FF4D18A}">
-  <dimension ref="A1:AL7"/>
+  <dimension ref="A1:AB4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7492,32 +8419,23 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="122" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="123" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="118" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" style="119" customWidth="1"/>
     <col min="8" max="10" width="8.7109375" style="9" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="3" customWidth="1"/>
     <col min="12" max="13" width="8.7109375" style="2" customWidth="1"/>
     <col min="14" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="19" width="8.7109375" style="2" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="65" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8" customWidth="1"/>
-    <col min="24" max="24" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="13" style="63" bestFit="1" customWidth="1"/>
-    <col min="33" max="34" width="9.140625" style="65"/>
+    <col min="17" max="18" width="9.140625" style="65"/>
+    <col min="19" max="20" width="9.140625" style="1"/>
+    <col min="21" max="22" width="9.140625" style="69"/>
+    <col min="23" max="24" width="9.140625" style="1"/>
+    <col min="25" max="26" width="9.140625" style="131"/>
+    <col min="27" max="28" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -7525,26 +8443,26 @@
       <c r="C1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
-        <v>460</v>
-      </c>
-      <c r="E1" s="120" t="s">
-        <v>461</v>
-      </c>
-      <c r="F1" s="121" t="s">
-        <v>462</v>
-      </c>
-      <c r="G1" s="121" t="s">
-        <v>463</v>
-      </c>
-      <c r="H1" s="121" t="s">
-        <v>461</v>
-      </c>
-      <c r="I1" s="121" t="s">
-        <v>462</v>
-      </c>
-      <c r="J1" s="121" t="s">
-        <v>463</v>
+      <c r="D1" s="36" t="s">
+        <v>455</v>
+      </c>
+      <c r="E1" s="141" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1" s="135" t="s">
+        <v>477</v>
+      </c>
+      <c r="G1" s="135" t="s">
+        <v>478</v>
+      </c>
+      <c r="H1" s="117" t="s">
+        <v>456</v>
+      </c>
+      <c r="I1" s="117" t="s">
+        <v>457</v>
+      </c>
+      <c r="J1" s="117" t="s">
+        <v>458</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>0</v>
@@ -7564,103 +8482,73 @@
       <c r="P1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>2</v>
+      <c r="Q1" s="64" t="s">
+        <v>459</v>
+      </c>
+      <c r="R1" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="S1" s="64" t="s">
+        <v>459</v>
       </c>
       <c r="T1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="U1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="V1" s="64" t="s">
-        <v>356</v>
-      </c>
-      <c r="W1" s="64" t="s">
-        <v>357</v>
-      </c>
-      <c r="X1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="Y1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="Z1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA1" s="87" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB1" s="87" t="s">
-        <v>359</v>
-      </c>
-      <c r="AC1" s="87" t="s">
-        <v>360</v>
-      </c>
-      <c r="AD1" s="61" t="s">
-        <v>361</v>
-      </c>
-      <c r="AE1" s="61" t="s">
-        <v>362</v>
-      </c>
-      <c r="AF1" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="AG1" s="64" t="s">
+        <v>460</v>
+      </c>
+      <c r="U1" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="V1" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="W1" s="61" t="s">
+        <v>461</v>
+      </c>
+      <c r="X1" s="61" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y1" s="129" t="s">
+        <v>463</v>
+      </c>
+      <c r="Z1" s="129" t="s">
         <v>464</v>
       </c>
-      <c r="AH1" s="64" t="s">
-        <v>465</v>
-      </c>
-      <c r="AI1" s="61" t="s">
-        <v>466</v>
-      </c>
-      <c r="AJ1" s="61" t="s">
-        <v>467</v>
-      </c>
-      <c r="AK1" t="s">
-        <v>468</v>
-      </c>
-      <c r="AL1" t="s">
-        <v>469</v>
+      <c r="AA1" s="129" t="s">
+        <v>463</v>
+      </c>
+      <c r="AB1" s="129" t="s">
+        <v>464</v>
       </c>
     </row>
-    <row r="2" spans="1:38" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>144</v>
+        <v>499</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="126" t="s">
-        <v>472</v>
-      </c>
-      <c r="F2" s="127" t="s">
-        <v>470</v>
-      </c>
-      <c r="G2" s="127" t="s">
-        <v>471</v>
-      </c>
-      <c r="H2" s="128" t="s">
-        <v>472</v>
-      </c>
-      <c r="I2" s="128" t="s">
-        <v>470</v>
-      </c>
-      <c r="J2" s="128" t="s">
-        <v>471</v>
+        <v>501</v>
+      </c>
+      <c r="E2" s="122" t="s">
+        <v>558</v>
+      </c>
+      <c r="F2" s="123" t="s">
+        <v>559</v>
+      </c>
+      <c r="G2" s="123" t="s">
+        <v>560</v>
+      </c>
+      <c r="H2" s="124" t="s">
+        <v>558</v>
+      </c>
+      <c r="I2" s="124" t="s">
+        <v>559</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>560</v>
       </c>
       <c r="K2" s="84" t="s">
         <v>5</v>
@@ -7680,197 +8568,161 @@
       <c r="P2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="R2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="T2" s="66" t="s">
-        <v>364</v>
-      </c>
-      <c r="U2" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="V2" s="29" t="s">
-        <v>364</v>
-      </c>
-      <c r="W2" s="29" t="s">
-        <v>365</v>
-      </c>
-      <c r="X2" s="89" t="s">
-        <v>482</v>
-      </c>
-      <c r="Y2" s="89" t="s">
-        <v>483</v>
-      </c>
-      <c r="Z2" s="89" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>482</v>
-      </c>
-      <c r="AB2" s="24" t="s">
-        <v>483</v>
-      </c>
-      <c r="AC2" s="24" t="s">
-        <v>366</v>
-      </c>
-      <c r="AD2" s="62" t="s">
-        <v>375</v>
-      </c>
-      <c r="AE2" s="62" t="s">
-        <v>367</v>
-      </c>
-      <c r="AF2" s="62" t="s">
-        <v>368</v>
-      </c>
-      <c r="AG2" s="66" t="s">
-        <v>429</v>
-      </c>
-      <c r="AH2" s="66" t="s">
-        <v>429</v>
+      <c r="Q2" s="66" t="s">
+        <v>497</v>
+      </c>
+      <c r="R2" s="127" t="s">
+        <v>498</v>
+      </c>
+      <c r="S2" s="8" t="s">
+        <v>497</v>
+      </c>
+      <c r="T2" s="15" t="s">
+        <v>498</v>
+      </c>
+      <c r="U2" s="77" t="s">
+        <v>493</v>
+      </c>
+      <c r="V2" s="128" t="s">
+        <v>494</v>
+      </c>
+      <c r="W2" s="8" t="s">
+        <v>493</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y2" s="130" t="s">
+        <v>495</v>
+      </c>
+      <c r="Z2" s="132" t="s">
+        <v>496</v>
+      </c>
+      <c r="AA2" s="8" t="s">
+        <v>495</v>
+      </c>
+      <c r="AB2" s="8" t="s">
+        <v>496</v>
       </c>
     </row>
-    <row r="3" spans="1:38" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="H3" s="104"/>
-      <c r="K3" s="104"/>
+        <v>103</v>
+      </c>
+      <c r="H3" s="101"/>
+      <c r="K3" s="101"/>
       <c r="N3" s="28"/>
     </row>
-    <row r="4" spans="1:38" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>155</v>
+        <v>500</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C4" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="124" t="s">
-        <v>162</v>
-      </c>
-      <c r="F4" s="129" t="s">
-        <v>473</v>
-      </c>
-      <c r="G4" s="125" t="s">
-        <v>473</v>
+        <v>153</v>
+      </c>
+      <c r="E4" s="120" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="125" t="s">
+        <v>465</v>
+      </c>
+      <c r="G4" s="121" t="s">
+        <v>465</v>
       </c>
       <c r="H4" s="83" t="s">
-        <v>475</v>
-      </c>
-      <c r="I4" s="130" t="s">
-        <v>474</v>
-      </c>
-      <c r="J4" s="130" t="s">
-        <v>474</v>
-      </c>
-      <c r="K4" s="84"/>
-      <c r="L4" s="31"/>
+        <v>467</v>
+      </c>
+      <c r="I4" s="126" t="s">
+        <v>466</v>
+      </c>
+      <c r="J4" s="126" t="s">
+        <v>466</v>
+      </c>
+      <c r="K4" s="84" t="s">
+        <v>479</v>
+      </c>
+      <c r="L4" s="31" t="s">
+        <v>480</v>
+      </c>
       <c r="M4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="101" t="s">
-        <v>369</v>
-      </c>
-      <c r="U4" s="101" t="s">
-        <v>370</v>
-      </c>
-      <c r="V4" s="102" t="s">
-        <v>371</v>
-      </c>
-      <c r="W4" s="102" t="s">
-        <v>372</v>
-      </c>
-      <c r="X4" s="88" t="s">
-        <v>476</v>
-      </c>
-      <c r="Y4" s="88" t="s">
-        <v>477</v>
-      </c>
-      <c r="Z4" s="88" t="s">
-        <v>480</v>
-      </c>
-      <c r="AA4" t="s">
-        <v>478</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>479</v>
-      </c>
-      <c r="AC4" s="1" t="s">
+      <c r="N4" s="29" t="s">
         <v>481</v>
       </c>
-      <c r="AD4" s="103" t="s">
-        <v>373</v>
-      </c>
-      <c r="AE4" s="103">
-        <v>289</v>
-      </c>
-      <c r="AF4" s="103" t="s">
-        <v>374</v>
-      </c>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-    </row>
-    <row r="7" spans="1:38" x14ac:dyDescent="0.25">
-      <c r="Q7" s="31"/>
-      <c r="R7" s="31"/>
-      <c r="S7" s="31"/>
+      <c r="O4" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="Q4" s="66" t="s">
+        <v>484</v>
+      </c>
+      <c r="R4" s="66" t="s">
+        <v>483</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>485</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>486</v>
+      </c>
+      <c r="U4" s="77" t="s">
+        <v>487</v>
+      </c>
+      <c r="V4" s="77" t="s">
+        <v>488</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>489</v>
+      </c>
+      <c r="X4" s="8" t="s">
+        <v>490</v>
+      </c>
+      <c r="Y4" s="130" t="s">
+        <v>491</v>
+      </c>
+      <c r="Z4" s="130" t="s">
+        <v>490</v>
+      </c>
+      <c r="AA4" s="8" t="s">
+        <v>492</v>
+      </c>
+      <c r="AB4" s="8" t="s">
+        <v>483</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D1 L1:M1 AG1:XFD1 F1:G1">
-    <cfRule type="containsText" dxfId="8" priority="12" operator="containsText" text="~*">
+  <conditionalFormatting sqref="A1:D1 L1:M1 Q1:R1 F1:G1 U1:V1 Y1:Z1 AC1:XFD1">
+    <cfRule type="containsText" dxfId="21" priority="15" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1:P1">
-    <cfRule type="containsText" dxfId="7" priority="8" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="20" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S1">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1:AF1">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:U1">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",T1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1:W1">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",V1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z1">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",Z1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AC1">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AC1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="I1:J1">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="19" priority="4" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:T1">
+    <cfRule type="containsText" dxfId="18" priority="3" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",S1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:X1">
+    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",W1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA1:AB1">
+    <cfRule type="containsText" dxfId="16" priority="1" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
@@ -7881,4 +8733,324 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{05CC9959-D397-42E2-869B-561EB00EE432}">
+  <dimension ref="A1:X4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="118" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="119" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="119" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="119" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="119" customWidth="1"/>
+    <col min="10" max="11" width="8.7109375" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.85546875" style="9" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="9" customWidth="1"/>
+    <col min="14" max="14" width="13.42578125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="3" customWidth="1"/>
+    <col min="16" max="17" width="8.7109375" style="2" customWidth="1"/>
+    <col min="18" max="20" width="8.7109375" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" style="65" customWidth="1"/>
+    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>502</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>503</v>
+      </c>
+      <c r="E1" s="141" t="s">
+        <v>476</v>
+      </c>
+      <c r="F1" s="142" t="s">
+        <v>523</v>
+      </c>
+      <c r="G1" s="135" t="s">
+        <v>505</v>
+      </c>
+      <c r="H1" s="142" t="s">
+        <v>506</v>
+      </c>
+      <c r="I1" s="135" t="s">
+        <v>507</v>
+      </c>
+      <c r="J1" s="135" t="s">
+        <v>476</v>
+      </c>
+      <c r="K1" s="142" t="s">
+        <v>523</v>
+      </c>
+      <c r="L1" s="135" t="s">
+        <v>505</v>
+      </c>
+      <c r="M1" s="142" t="s">
+        <v>506</v>
+      </c>
+      <c r="N1" s="135" t="s">
+        <v>507</v>
+      </c>
+      <c r="O1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="Q1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="S1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="T1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="U1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="V1" s="64" t="s">
+        <v>353</v>
+      </c>
+      <c r="W1" s="64" t="s">
+        <v>352</v>
+      </c>
+      <c r="X1" s="64" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="133" t="s">
+        <v>521</v>
+      </c>
+      <c r="B2" s="133" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="133" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="133" t="s">
+        <v>504</v>
+      </c>
+      <c r="E2" s="122" t="s">
+        <v>514</v>
+      </c>
+      <c r="F2" s="123" t="s">
+        <v>515</v>
+      </c>
+      <c r="G2" s="123" t="s">
+        <v>509</v>
+      </c>
+      <c r="H2" s="123" t="s">
+        <v>508</v>
+      </c>
+      <c r="I2" s="123" t="s">
+        <v>516</v>
+      </c>
+      <c r="J2" s="124" t="s">
+        <v>514</v>
+      </c>
+      <c r="K2" s="124" t="s">
+        <v>515</v>
+      </c>
+      <c r="L2" s="124" t="s">
+        <v>509</v>
+      </c>
+      <c r="M2" s="124" t="s">
+        <v>508</v>
+      </c>
+      <c r="N2" s="124" t="s">
+        <v>516</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="T2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="U2" s="66" t="s">
+        <v>360</v>
+      </c>
+      <c r="V2" s="66" t="s">
+        <v>361</v>
+      </c>
+      <c r="W2" s="29" t="s">
+        <v>360</v>
+      </c>
+      <c r="X2" s="29" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="E3" s="134"/>
+      <c r="H3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="M3" s="101"/>
+      <c r="O3" s="101"/>
+      <c r="R3" s="28"/>
+    </row>
+    <row r="4" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>520</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>522</v>
+      </c>
+      <c r="E4" s="120" t="s">
+        <v>159</v>
+      </c>
+      <c r="F4" s="125" t="s">
+        <v>465</v>
+      </c>
+      <c r="G4" s="136" t="s">
+        <v>510</v>
+      </c>
+      <c r="H4" s="121" t="s">
+        <v>511</v>
+      </c>
+      <c r="I4" s="138" t="s">
+        <v>512</v>
+      </c>
+      <c r="J4" s="83" t="s">
+        <v>467</v>
+      </c>
+      <c r="K4" s="126" t="s">
+        <v>466</v>
+      </c>
+      <c r="L4" s="139" t="s">
+        <v>513</v>
+      </c>
+      <c r="M4" s="83" t="s">
+        <v>511</v>
+      </c>
+      <c r="N4" s="137"/>
+      <c r="O4" s="84" t="s">
+        <v>479</v>
+      </c>
+      <c r="P4" s="31" t="s">
+        <v>480</v>
+      </c>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="29" t="s">
+        <v>481</v>
+      </c>
+      <c r="S4" s="29" t="s">
+        <v>482</v>
+      </c>
+      <c r="U4" s="109" t="s">
+        <v>517</v>
+      </c>
+      <c r="V4" s="140" t="s">
+        <v>518</v>
+      </c>
+      <c r="W4" s="44" t="s">
+        <v>519</v>
+      </c>
+      <c r="X4" s="111" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:D1 P1:Q1 Y1:XFD1">
+    <cfRule type="containsText" dxfId="15" priority="17" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S1:T1">
+    <cfRule type="containsText" dxfId="14" priority="16" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",S1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",I1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1">
+    <cfRule type="containsText" dxfId="12" priority="9" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",H1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F1">
+    <cfRule type="containsText" dxfId="11" priority="10" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",E1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M1">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",M1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N1">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",N1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1:K1">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",J1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U1:V1">
+    <cfRule type="containsText" dxfId="7" priority="4" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",U1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="W1:X1">
+    <cfRule type="containsText" dxfId="6" priority="3" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",W1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="K4" r:id="rId1" xr:uid="{4CFFB723-5BD0-425B-8F87-3FC71B9D5375}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{13A28884-8FDF-4367-ABA4-D76FA00AE600}"/>
+    <hyperlink ref="X4" r:id="rId3" xr:uid="{FCBB541C-98AC-47F2-8F37-417CF811885C}"/>
+    <hyperlink ref="V4" r:id="rId4" xr:uid="{55F317FA-BC6D-4553-966A-0E470F0BEA3C}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+</worksheet>
 </file>
--- a/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
+++ b/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A5A1BE9-3E9C-4135-9C01-A7E32563A09B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736BA5D3-E7F2-43D4-8469-10048A091CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2781,7 +2781,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="159">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2877,7 +2877,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
@@ -3105,18 +3104,6 @@
     <xf numFmtId="0" fontId="0" fillId="26" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3148,13 +3135,25 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="111">
+  <dxfs count="93">
     <dxf>
       <fill>
         <patternFill>
@@ -4006,168 +4005,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4515,79 +4352,79 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="143" t="s">
+      <c r="A2" s="154" t="s">
         <v>401</v>
       </c>
-      <c r="B2" s="144"/>
+      <c r="B2" s="155"/>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="96" t="s">
         <v>402</v>
       </c>
-      <c r="B3" s="99" t="s">
+      <c r="B3" s="98" t="s">
         <v>403</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="97" t="s">
+      <c r="A4" s="96" t="s">
         <v>404</v>
       </c>
-      <c r="B4" s="99" t="s">
+      <c r="B4" s="98" t="s">
         <v>405</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="97" t="s">
+      <c r="A5" s="96" t="s">
         <v>406</v>
       </c>
-      <c r="B5" s="99" t="s">
+      <c r="B5" s="98" t="s">
         <v>407</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="97" t="s">
+      <c r="A6" s="96" t="s">
         <v>408</v>
       </c>
-      <c r="B6" s="99" t="s">
+      <c r="B6" s="98" t="s">
         <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="97" t="s">
+      <c r="A7" s="96" t="s">
         <v>410</v>
       </c>
-      <c r="B7" s="99" t="s">
+      <c r="B7" s="98" t="s">
         <v>411</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="97" t="s">
+      <c r="A8" s="96" t="s">
         <v>540</v>
       </c>
-      <c r="B8" s="99" t="s">
+      <c r="B8" s="98" t="s">
         <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="98" t="s">
+      <c r="A9" s="97" t="s">
         <v>412</v>
       </c>
-      <c r="B9" s="99" t="s">
+      <c r="B9" s="98" t="s">
         <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="145" t="s">
+      <c r="A10" s="156" t="s">
         <v>413</v>
       </c>
-      <c r="B10" s="145"/>
+      <c r="B10" s="156"/>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="146" t="s">
+      <c r="A12" s="157" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="144"/>
+      <c r="B12" s="155"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
@@ -4598,43 +4435,43 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="90">
+      <c r="A14" s="89">
         <v>1</v>
       </c>
-      <c r="B14" s="99" t="s">
+      <c r="B14" s="98" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="91">
+      <c r="A15" s="90">
         <v>2</v>
       </c>
-      <c r="B15" s="99" t="s">
+      <c r="B15" s="98" t="s">
         <v>414</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="91">
+      <c r="A16" s="90">
         <v>3</v>
       </c>
-      <c r="B16" s="99" t="s">
+      <c r="B16" s="98" t="s">
         <v>415</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="91" t="s">
+      <c r="A17" s="90" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="99" t="s">
+      <c r="B17" s="98" t="s">
         <v>416</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="146" t="s">
+      <c r="A19" s="157" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="144"/>
+      <c r="B19" s="155"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
@@ -4645,42 +4482,42 @@
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="92" t="s">
+      <c r="A21" s="91" t="s">
         <v>111</v>
       </c>
-      <c r="B21" s="100" t="s">
+      <c r="B21" s="99" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="93" t="s">
+      <c r="A22" s="92" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="100" t="s">
+      <c r="B22" s="99" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="94" t="s">
+      <c r="A23" s="93" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="100" t="s">
+      <c r="B23" s="99" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="95" t="s">
+      <c r="A24" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="100" t="s">
+      <c r="B24" s="99" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="96" t="s">
+      <c r="A25" s="95" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="100" t="s">
+      <c r="B25" s="99" t="s">
         <v>419</v>
       </c>
     </row>
@@ -4711,14 +4548,14 @@
     <col min="4" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" style="25" customWidth="1"/>
     <col min="10" max="11" width="8.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="88" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" style="151" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="88" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="87" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" style="146" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="87" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="8.7109375" style="155" customWidth="1"/>
+    <col min="17" max="18" width="8.7109375" style="150" customWidth="1"/>
     <col min="19" max="19" width="8.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="65" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="64" customWidth="1"/>
     <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
   </cols>
@@ -4760,10 +4597,10 @@
       <c r="L1" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="M1" s="148" t="s">
+      <c r="M1" s="143" t="s">
         <v>530</v>
       </c>
-      <c r="N1" s="148" t="s">
+      <c r="N1" s="143" t="s">
         <v>531</v>
       </c>
       <c r="O1" s="23" t="s">
@@ -4772,51 +4609,51 @@
       <c r="P1" s="23" t="s">
         <v>529</v>
       </c>
-      <c r="Q1" s="148" t="s">
+      <c r="Q1" s="143" t="s">
         <v>530</v>
       </c>
-      <c r="R1" s="148" t="s">
+      <c r="R1" s="143" t="s">
         <v>531</v>
       </c>
       <c r="S1" s="23" t="s">
         <v>532</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="63" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="132" t="s">
         <v>548</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="132" t="s">
         <v>549</v>
       </c>
-      <c r="E2" s="133" t="s">
+      <c r="E2" s="132" t="s">
         <v>550</v>
       </c>
-      <c r="F2" s="157" t="s">
+      <c r="F2" s="152" t="s">
         <v>551</v>
       </c>
-      <c r="G2" s="133" t="s">
+      <c r="G2" s="132" t="s">
         <v>556</v>
       </c>
-      <c r="H2" s="133" t="s">
+      <c r="H2" s="132" t="s">
         <v>557</v>
       </c>
       <c r="I2" s="30" t="s">
@@ -4828,34 +4665,34 @@
       <c r="K2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="88" t="s">
         <v>552</v>
       </c>
-      <c r="M2" s="158" t="s">
+      <c r="M2" s="153" t="s">
         <v>553</v>
       </c>
-      <c r="N2" s="158" t="s">
+      <c r="N2" s="153" t="s">
         <v>554</v>
       </c>
-      <c r="O2" s="89" t="s">
+      <c r="O2" s="88" t="s">
         <v>555</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>552</v>
       </c>
-      <c r="Q2" s="153" t="s">
+      <c r="Q2" s="148" t="s">
         <v>553</v>
       </c>
-      <c r="R2" s="153" t="s">
+      <c r="R2" s="148" t="s">
         <v>554</v>
       </c>
       <c r="S2" s="15" t="s">
         <v>555</v>
       </c>
-      <c r="T2" s="66" t="s">
+      <c r="T2" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="U2" s="66" t="s">
+      <c r="U2" s="65" t="s">
         <v>361</v>
       </c>
       <c r="V2" s="29" t="s">
@@ -4869,11 +4706,11 @@
       <c r="A3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="134"/>
-      <c r="M3" s="150"/>
-      <c r="N3" s="150"/>
-      <c r="Q3" s="150"/>
-      <c r="R3" s="150"/>
+      <c r="I3" s="133"/>
+      <c r="M3" s="145"/>
+      <c r="N3" s="145"/>
+      <c r="Q3" s="145"/>
+      <c r="R3" s="145"/>
     </row>
     <row r="4" spans="1:23" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
@@ -4894,7 +4731,7 @@
       <c r="F4" s="29" t="s">
         <v>528</v>
       </c>
-      <c r="H4" s="156" t="s">
+      <c r="H4" s="151" t="s">
         <v>543</v>
       </c>
       <c r="I4" s="30" t="s">
@@ -4904,40 +4741,40 @@
         <v>441</v>
       </c>
       <c r="K4" s="31"/>
-      <c r="L4" s="147" t="s">
+      <c r="L4" s="142" t="s">
         <v>533</v>
       </c>
-      <c r="M4" s="149" t="s">
+      <c r="M4" s="144" t="s">
         <v>534</v>
       </c>
-      <c r="N4" s="149" t="s">
+      <c r="N4" s="144" t="s">
         <v>535</v>
       </c>
-      <c r="O4" s="152" t="s">
+      <c r="O4" s="147" t="s">
         <v>539</v>
       </c>
       <c r="P4" s="8" t="s">
         <v>533</v>
       </c>
-      <c r="Q4" s="153" t="s">
+      <c r="Q4" s="148" t="s">
         <v>536</v>
       </c>
-      <c r="R4" s="153" t="s">
+      <c r="R4" s="148" t="s">
         <v>537</v>
       </c>
-      <c r="S4" s="154" t="s">
+      <c r="S4" s="149" t="s">
         <v>538</v>
       </c>
-      <c r="T4" s="109" t="s">
+      <c r="T4" s="108" t="s">
         <v>517</v>
       </c>
-      <c r="U4" s="140" t="s">
+      <c r="U4" s="139" t="s">
         <v>518</v>
       </c>
       <c r="V4" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="W4" s="111" t="s">
+      <c r="W4" s="110" t="s">
         <v>444</v>
       </c>
     </row>
@@ -5006,19 +4843,19 @@
     <col min="16" max="18" width="8.7109375" style="2" customWidth="1"/>
     <col min="19" max="22" width="10.85546875" style="35" customWidth="1"/>
     <col min="23" max="26" width="10.85546875" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="65" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="64" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" style="62" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" style="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -5100,43 +4937,43 @@
       <c r="Z1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AA1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AB1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AD1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="AE1" s="87" t="s">
+      <c r="AE1" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="AF1" s="87" t="s">
+      <c r="AF1" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="AG1" s="87" t="s">
+      <c r="AG1" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="AH1" s="87" t="s">
+      <c r="AH1" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="AI1" s="87" t="s">
+      <c r="AI1" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="AJ1" s="87" t="s">
+      <c r="AJ1" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="AK1" s="61" t="s">
+      <c r="AK1" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="AL1" s="61" t="s">
+      <c r="AL1" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="AM1" s="61" t="s">
+      <c r="AM1" s="60" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5195,16 +5032,16 @@
       <c r="R2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="78" t="s">
+      <c r="S2" s="77" t="s">
         <v>148</v>
       </c>
-      <c r="T2" s="78" t="s">
+      <c r="T2" s="77" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="78" t="s">
+      <c r="U2" s="77" t="s">
         <v>150</v>
       </c>
-      <c r="V2" s="78" t="s">
+      <c r="V2" s="77" t="s">
         <v>151</v>
       </c>
       <c r="W2" s="24" t="s">
@@ -5219,10 +5056,10 @@
       <c r="Z2" s="24" t="s">
         <v>151</v>
       </c>
-      <c r="AA2" s="66" t="s">
+      <c r="AA2" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="AB2" s="66" t="s">
+      <c r="AB2" s="65" t="s">
         <v>361</v>
       </c>
       <c r="AC2" s="29" t="s">
@@ -5231,13 +5068,13 @@
       <c r="AD2" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="AE2" s="89" t="s">
+      <c r="AE2" s="88" t="s">
         <v>474</v>
       </c>
-      <c r="AF2" s="89" t="s">
+      <c r="AF2" s="88" t="s">
         <v>475</v>
       </c>
-      <c r="AG2" s="89" t="s">
+      <c r="AG2" s="88" t="s">
         <v>362</v>
       </c>
       <c r="AH2" s="24" t="s">
@@ -5249,13 +5086,13 @@
       <c r="AJ2" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="AK2" s="62" t="s">
+      <c r="AK2" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="AL2" s="62" t="s">
+      <c r="AL2" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="AM2" s="62" t="s">
+      <c r="AM2" s="61" t="s">
         <v>364</v>
       </c>
     </row>
@@ -5334,10 +5171,10 @@
       <c r="Z4" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="AA4" s="65" t="s">
+      <c r="AA4" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="AB4" s="65" t="s">
+      <c r="AB4" s="64" t="s">
         <v>366</v>
       </c>
       <c r="AC4" t="s">
@@ -5346,13 +5183,13 @@
       <c r="AD4" t="s">
         <v>368</v>
       </c>
-      <c r="AE4" s="88" t="s">
+      <c r="AE4" s="87" t="s">
         <v>468</v>
       </c>
-      <c r="AF4" s="88" t="s">
+      <c r="AF4" s="87" t="s">
         <v>469</v>
       </c>
-      <c r="AG4" s="88" t="s">
+      <c r="AG4" s="87" t="s">
         <v>472</v>
       </c>
       <c r="AH4" t="s">
@@ -5364,13 +5201,13 @@
       <c r="AJ4" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="AK4" s="63" t="s">
+      <c r="AK4" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="AL4" s="63">
+      <c r="AL4" s="62">
         <v>289</v>
       </c>
-      <c r="AM4" s="63" t="s">
+      <c r="AM4" s="62" t="s">
         <v>370</v>
       </c>
     </row>
@@ -5476,19 +5313,19 @@
     <col min="24" max="24" width="6.42578125" style="2" customWidth="1"/>
     <col min="25" max="25" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.28515625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="65" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="64" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" style="62" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" style="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -5516,31 +5353,31 @@
       <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="I1" s="48" t="s">
+      <c r="I1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="49" t="s">
+      <c r="J1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="50" t="s">
+      <c r="K1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="51" t="s">
+      <c r="L1" s="50" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="52" t="s">
+      <c r="M1" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="53" t="s">
+      <c r="N1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="O1" s="48" t="s">
+      <c r="O1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="49" t="s">
+      <c r="P1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="Q1" s="49" t="s">
+      <c r="Q1" s="48" t="s">
         <v>2</v>
       </c>
       <c r="R1" s="22" t="s">
@@ -5570,43 +5407,43 @@
       <c r="Z1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="64" t="s">
+      <c r="AA1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="AB1" s="64" t="s">
+      <c r="AB1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AD1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="AE1" s="87" t="s">
+      <c r="AE1" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="AF1" s="87" t="s">
+      <c r="AF1" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="AG1" s="87" t="s">
+      <c r="AG1" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="AH1" s="87" t="s">
+      <c r="AH1" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="AI1" s="87" t="s">
+      <c r="AI1" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="AJ1" s="87" t="s">
+      <c r="AJ1" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="AK1" s="61" t="s">
+      <c r="AK1" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="AL1" s="61" t="s">
+      <c r="AL1" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="AM1" s="61" t="s">
+      <c r="AM1" s="60" t="s">
         <v>359</v>
       </c>
     </row>
@@ -5645,7 +5482,7 @@
       <c r="L2" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="M2" s="54" t="s">
+      <c r="M2" s="53" t="s">
         <v>295</v>
       </c>
       <c r="N2" s="31"/>
@@ -5683,10 +5520,10 @@
       <c r="Z2" s="31" t="s">
         <v>300</v>
       </c>
-      <c r="AA2" s="66" t="s">
+      <c r="AA2" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="AB2" s="66" t="s">
+      <c r="AB2" s="65" t="s">
         <v>361</v>
       </c>
       <c r="AC2" s="29" t="s">
@@ -5695,13 +5532,13 @@
       <c r="AD2" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="AE2" s="89" t="s">
+      <c r="AE2" s="88" t="s">
         <v>474</v>
       </c>
-      <c r="AF2" s="89" t="s">
+      <c r="AF2" s="88" t="s">
         <v>475</v>
       </c>
-      <c r="AG2" s="89" t="s">
+      <c r="AG2" s="88" t="s">
         <v>362</v>
       </c>
       <c r="AH2" s="24" t="s">
@@ -5713,13 +5550,13 @@
       <c r="AJ2" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="AK2" s="62" t="s">
+      <c r="AK2" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="AL2" s="62" t="s">
+      <c r="AL2" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="AM2" s="62" t="s">
+      <c r="AM2" s="61" t="s">
         <v>364</v>
       </c>
     </row>
@@ -5728,7 +5565,7 @@
         <v>103</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="R3" s="55"/>
+      <c r="R3" s="54"/>
       <c r="AA3" s="27"/>
       <c r="AB3" s="27"/>
       <c r="AC3" s="27"/>
@@ -5810,10 +5647,10 @@
       <c r="Y4" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="AA4" s="65" t="s">
+      <c r="AA4" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="AB4" s="65" t="s">
+      <c r="AB4" s="64" t="s">
         <v>366</v>
       </c>
       <c r="AC4" t="s">
@@ -5822,13 +5659,13 @@
       <c r="AD4" t="s">
         <v>368</v>
       </c>
-      <c r="AE4" s="88" t="s">
+      <c r="AE4" s="87" t="s">
         <v>468</v>
       </c>
-      <c r="AF4" s="88" t="s">
+      <c r="AF4" s="87" t="s">
         <v>469</v>
       </c>
-      <c r="AG4" s="88" t="s">
+      <c r="AG4" s="87" t="s">
         <v>472</v>
       </c>
       <c r="AH4" t="s">
@@ -5840,13 +5677,13 @@
       <c r="AJ4" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="AK4" s="63" t="s">
+      <c r="AK4" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="AL4" s="63">
+      <c r="AL4" s="62">
         <v>289</v>
       </c>
-      <c r="AM4" s="63" t="s">
+      <c r="AM4" s="62" t="s">
         <v>370</v>
       </c>
     </row>
@@ -5892,7 +5729,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B3225A-CA96-4372-AB7E-97999D11252D}">
-  <dimension ref="A1:BV16"/>
+  <dimension ref="A1:BV4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -5915,25 +5752,25 @@
     <col min="37" max="38" width="15.5703125" style="46" customWidth="1"/>
     <col min="39" max="44" width="8.7109375" style="41" customWidth="1"/>
     <col min="45" max="50" width="8.7109375" customWidth="1"/>
-    <col min="51" max="51" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8" style="65" customWidth="1"/>
+    <col min="51" max="51" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8" style="64" customWidth="1"/>
     <col min="53" max="53" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="8" customWidth="1"/>
-    <col min="55" max="55" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11" style="62" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13" style="62" bestFit="1" customWidth="1"/>
     <col min="64" max="65" width="8.7109375" style="42" customWidth="1"/>
     <col min="66" max="67" width="8.7109375" customWidth="1"/>
     <col min="68" max="69" width="8.7109375" style="42" customWidth="1"/>
-    <col min="70" max="71" width="8.7109375" style="68" customWidth="1"/>
-    <col min="72" max="73" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.7109375" style="69" customWidth="1"/>
+    <col min="70" max="71" width="8.7109375" style="67" customWidth="1"/>
+    <col min="72" max="73" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.7109375" style="68" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6087,43 +5924,43 @@
       <c r="AX1" s="38" t="s">
         <v>201</v>
       </c>
-      <c r="AY1" s="64" t="s">
+      <c r="AY1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="AZ1" s="64" t="s">
+      <c r="AZ1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="BA1" s="64" t="s">
+      <c r="BA1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="BB1" s="64" t="s">
+      <c r="BB1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="BC1" s="87" t="s">
+      <c r="BC1" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="BD1" s="87" t="s">
+      <c r="BD1" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="BE1" s="87" t="s">
+      <c r="BE1" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="BF1" s="87" t="s">
+      <c r="BF1" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="BG1" s="87" t="s">
+      <c r="BG1" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="BH1" s="87" t="s">
+      <c r="BH1" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="BI1" s="61" t="s">
+      <c r="BI1" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="BJ1" s="61" t="s">
+      <c r="BJ1" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="BK1" s="61" t="s">
+      <c r="BK1" s="60" t="s">
         <v>359</v>
       </c>
       <c r="BL1" s="39" t="s">
@@ -6150,13 +5987,13 @@
       <c r="BS1" s="40" t="s">
         <v>205</v>
       </c>
-      <c r="BT1" s="87" t="s">
+      <c r="BT1" s="86" t="s">
         <v>206</v>
       </c>
-      <c r="BU1" s="87" t="s">
+      <c r="BU1" s="86" t="s">
         <v>207</v>
       </c>
-      <c r="BV1" s="67" t="s">
+      <c r="BV1" s="66" t="s">
         <v>208</v>
       </c>
     </row>
@@ -6182,7 +6019,7 @@
       <c r="G2" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="H2" s="34" t="s">
         <v>214</v>
       </c>
       <c r="I2" s="24" t="s">
@@ -6257,10 +6094,10 @@
       <c r="AF2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="72" t="s">
+      <c r="AG2" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="AH2" s="72" t="s">
+      <c r="AH2" s="71" t="s">
         <v>220</v>
       </c>
       <c r="AI2" s="24" t="s">
@@ -6269,28 +6106,28 @@
       <c r="AJ2" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="AK2" s="72" t="s">
+      <c r="AK2" s="71" t="s">
         <v>219</v>
       </c>
-      <c r="AL2" s="72" t="s">
+      <c r="AL2" s="71" t="s">
         <v>220</v>
       </c>
-      <c r="AM2" s="73" t="s">
+      <c r="AM2" s="72" t="s">
         <v>221</v>
       </c>
-      <c r="AN2" s="74" t="s">
+      <c r="AN2" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="AO2" s="73" t="s">
+      <c r="AO2" s="72" t="s">
         <v>223</v>
       </c>
-      <c r="AP2" s="73" t="s">
+      <c r="AP2" s="72" t="s">
         <v>224</v>
       </c>
-      <c r="AQ2" s="73" t="s">
+      <c r="AQ2" s="72" t="s">
         <v>225</v>
       </c>
-      <c r="AR2" s="73" t="s">
+      <c r="AR2" s="72" t="s">
         <v>226</v>
       </c>
       <c r="AS2" s="29" t="s">
@@ -6311,10 +6148,10 @@
       <c r="AX2" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AY2" s="66" t="s">
+      <c r="AY2" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="AZ2" s="66" t="s">
+      <c r="AZ2" s="65" t="s">
         <v>361</v>
       </c>
       <c r="BA2" s="29" t="s">
@@ -6323,13 +6160,13 @@
       <c r="BB2" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="BC2" s="89" t="s">
+      <c r="BC2" s="88" t="s">
         <v>474</v>
       </c>
-      <c r="BD2" s="89" t="s">
+      <c r="BD2" s="88" t="s">
         <v>475</v>
       </c>
-      <c r="BE2" s="89" t="s">
+      <c r="BE2" s="88" t="s">
         <v>362</v>
       </c>
       <c r="BF2" s="24" t="s">
@@ -6341,19 +6178,19 @@
       <c r="BH2" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="BI2" s="62" t="s">
+      <c r="BI2" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="BJ2" s="62" t="s">
+      <c r="BJ2" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="BK2" s="62" t="s">
+      <c r="BK2" s="61" t="s">
         <v>364</v>
       </c>
-      <c r="BL2" s="75" t="s">
+      <c r="BL2" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="BM2" s="75" t="s">
+      <c r="BM2" s="74" t="s">
         <v>229</v>
       </c>
       <c r="BN2" s="29" t="s">
@@ -6362,25 +6199,25 @@
       <c r="BO2" s="29" t="s">
         <v>229</v>
       </c>
-      <c r="BP2" s="75" t="s">
+      <c r="BP2" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="BQ2" s="75" t="s">
+      <c r="BQ2" s="74" t="s">
         <v>229</v>
       </c>
-      <c r="BR2" s="76" t="s">
+      <c r="BR2" s="75" t="s">
         <v>230</v>
       </c>
-      <c r="BS2" s="76" t="s">
+      <c r="BS2" s="75" t="s">
         <v>231</v>
       </c>
-      <c r="BT2" s="89" t="s">
+      <c r="BT2" s="88" t="s">
         <v>232</v>
       </c>
-      <c r="BU2" s="89" t="s">
+      <c r="BU2" s="88" t="s">
         <v>233</v>
       </c>
-      <c r="BV2" s="77" t="s">
+      <c r="BV2" s="76" t="s">
         <v>234</v>
       </c>
     </row>
@@ -6389,7 +6226,7 @@
         <v>103</v>
       </c>
       <c r="L3" s="18"/>
-      <c r="AD3" s="55"/>
+      <c r="AD3" s="54"/>
       <c r="AY3" s="27"/>
       <c r="AZ3" s="27"/>
       <c r="BA3" s="27"/>
@@ -6431,7 +6268,7 @@
       <c r="H4" t="s">
         <v>40</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="43" t="s">
         <v>239</v>
       </c>
       <c r="J4" t="s">
@@ -6548,10 +6385,10 @@
       <c r="AW4" t="s">
         <v>272</v>
       </c>
-      <c r="AY4" s="65" t="s">
+      <c r="AY4" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="AZ4" s="65" t="s">
+      <c r="AZ4" s="64" t="s">
         <v>366</v>
       </c>
       <c r="BA4" t="s">
@@ -6560,13 +6397,13 @@
       <c r="BB4" t="s">
         <v>368</v>
       </c>
-      <c r="BC4" s="88" t="s">
+      <c r="BC4" s="87" t="s">
         <v>468</v>
       </c>
-      <c r="BD4" s="88" t="s">
+      <c r="BD4" s="87" t="s">
         <v>469</v>
       </c>
-      <c r="BE4" s="88" t="s">
+      <c r="BE4" s="87" t="s">
         <v>472</v>
       </c>
       <c r="BF4" t="s">
@@ -6578,13 +6415,13 @@
       <c r="BH4" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="BI4" s="63" t="s">
+      <c r="BI4" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="BJ4" s="63">
+      <c r="BJ4" s="62">
         <v>289</v>
       </c>
-      <c r="BK4" s="63" t="s">
+      <c r="BK4" s="62" t="s">
         <v>370</v>
       </c>
       <c r="BL4" s="42" t="s">
@@ -6599,21 +6436,18 @@
       <c r="BP4" s="42" t="s">
         <v>276</v>
       </c>
-      <c r="BR4" s="68" t="s">
+      <c r="BR4" s="67" t="s">
         <v>277</v>
       </c>
-      <c r="BT4" s="88" t="s">
+      <c r="BT4" s="87" t="s">
         <v>278</v>
       </c>
-      <c r="BU4" s="88" t="s">
+      <c r="BU4" s="87" t="s">
         <v>279</v>
       </c>
-      <c r="BV4" s="69" t="s">
+      <c r="BV4" s="68" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="16" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F16" s="47"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1 AE1:AF1 AM1:AR1 BV1:XFD1 BL1:BM1 H1:I1 M1:AC1">
@@ -6733,25 +6567,25 @@
     <col min="14" max="14" width="15.5703125" style="7" customWidth="1"/>
     <col min="15" max="18" width="15.5703125" style="8" customWidth="1"/>
     <col min="19" max="30" width="15.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="71" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="70" customWidth="1"/>
     <col min="32" max="41" width="8.7109375" style="11" customWidth="1"/>
     <col min="42" max="46" width="8.7109375" style="13" customWidth="1"/>
     <col min="47" max="51" width="8.7109375" style="9" customWidth="1"/>
     <col min="52" max="54" width="8.7109375" style="3" customWidth="1"/>
     <col min="55" max="55" width="9.140625" style="10"/>
-    <col min="58" max="58" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8" style="65" customWidth="1"/>
+    <col min="58" max="58" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8" style="64" customWidth="1"/>
     <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="8" customWidth="1"/>
-    <col min="62" max="62" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11" style="62" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13" style="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
@@ -6845,7 +6679,7 @@
       <c r="AD1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="70" t="s">
+      <c r="AE1" s="69" t="s">
         <v>389</v>
       </c>
       <c r="AF1" s="12" t="s">
@@ -6926,43 +6760,43 @@
       <c r="BE1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="BF1" s="64" t="s">
+      <c r="BF1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="BG1" s="64" t="s">
+      <c r="BG1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="BH1" s="64" t="s">
+      <c r="BH1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="BI1" s="64" t="s">
+      <c r="BI1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="BJ1" s="87" t="s">
+      <c r="BJ1" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="BK1" s="87" t="s">
+      <c r="BK1" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="BL1" s="87" t="s">
+      <c r="BL1" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="BM1" s="87" t="s">
+      <c r="BM1" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="BN1" s="87" t="s">
+      <c r="BN1" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="BO1" s="87" t="s">
+      <c r="BO1" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="BP1" s="61" t="s">
+      <c r="BP1" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="BQ1" s="61" t="s">
+      <c r="BQ1" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="BR1" s="61" t="s">
+      <c r="BR1" s="60" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7006,7 +6840,7 @@
       <c r="M2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="79" t="s">
+      <c r="N2" s="78" t="s">
         <v>122</v>
       </c>
       <c r="O2" s="15" t="s">
@@ -7057,91 +6891,91 @@
       <c r="AD2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AE2" s="80" t="s">
+      <c r="AE2" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="AF2" s="81" t="s">
+      <c r="AF2" s="80" t="s">
         <v>73</v>
       </c>
-      <c r="AG2" s="81" t="s">
+      <c r="AG2" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="81" t="s">
+      <c r="AH2" s="80" t="s">
         <v>400</v>
       </c>
-      <c r="AI2" s="81" t="s">
+      <c r="AI2" s="80" t="s">
         <v>99</v>
       </c>
-      <c r="AJ2" s="81" t="s">
+      <c r="AJ2" s="80" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="81" t="s">
+      <c r="AK2" s="80" t="s">
         <v>70</v>
       </c>
-      <c r="AL2" s="81" t="s">
+      <c r="AL2" s="80" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" s="81" t="s">
+      <c r="AM2" s="80" t="s">
         <v>69</v>
       </c>
-      <c r="AN2" s="81" t="s">
+      <c r="AN2" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="AO2" s="81" t="s">
+      <c r="AO2" s="80" t="s">
         <v>100</v>
       </c>
-      <c r="AP2" s="82" t="s">
+      <c r="AP2" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="AQ2" s="82" t="s">
+      <c r="AQ2" s="81" t="s">
         <v>126</v>
       </c>
-      <c r="AR2" s="82" t="s">
+      <c r="AR2" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="AS2" s="82" t="s">
+      <c r="AS2" s="81" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" s="82" t="s">
+      <c r="AT2" s="81" t="s">
         <v>60</v>
       </c>
-      <c r="AU2" s="83" t="s">
+      <c r="AU2" s="82" t="s">
         <v>57</v>
       </c>
-      <c r="AV2" s="83" t="s">
+      <c r="AV2" s="82" t="s">
         <v>56</v>
       </c>
-      <c r="AW2" s="83" t="s">
+      <c r="AW2" s="82" t="s">
         <v>58</v>
       </c>
-      <c r="AX2" s="83" t="s">
+      <c r="AX2" s="82" t="s">
         <v>59</v>
       </c>
-      <c r="AY2" s="83" t="s">
+      <c r="AY2" s="82" t="s">
         <v>60</v>
       </c>
-      <c r="AZ2" s="84" t="s">
+      <c r="AZ2" s="83" t="s">
         <v>5</v>
       </c>
       <c r="BA2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="84" t="s">
+      <c r="BB2" s="83" t="s">
         <v>7</v>
       </c>
-      <c r="BC2" s="83" t="s">
+      <c r="BC2" s="82" t="s">
         <v>5</v>
       </c>
       <c r="BD2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="BE2" s="83" t="s">
+      <c r="BE2" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="BF2" s="66" t="s">
+      <c r="BF2" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="BG2" s="66" t="s">
+      <c r="BG2" s="65" t="s">
         <v>361</v>
       </c>
       <c r="BH2" s="29" t="s">
@@ -7150,13 +6984,13 @@
       <c r="BI2" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="BJ2" s="89" t="s">
+      <c r="BJ2" s="88" t="s">
         <v>474</v>
       </c>
-      <c r="BK2" s="89" t="s">
+      <c r="BK2" s="88" t="s">
         <v>475</v>
       </c>
-      <c r="BL2" s="89" t="s">
+      <c r="BL2" s="88" t="s">
         <v>362</v>
       </c>
       <c r="BM2" s="24" t="s">
@@ -7168,13 +7002,13 @@
       <c r="BO2" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="BP2" s="62" t="s">
+      <c r="BP2" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="BQ2" s="62" t="s">
+      <c r="BQ2" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="BR2" s="62" t="s">
+      <c r="BR2" s="61" t="s">
         <v>364</v>
       </c>
     </row>
@@ -7186,7 +7020,7 @@
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
-      <c r="AE3" s="55"/>
+      <c r="AE3" s="54"/>
       <c r="BF3" s="27"/>
       <c r="BG3" s="27"/>
       <c r="BH3" s="27"/>
@@ -7301,10 +7135,10 @@
       <c r="BD4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="BF4" s="65" t="s">
+      <c r="BF4" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="BG4" s="65" t="s">
+      <c r="BG4" s="64" t="s">
         <v>366</v>
       </c>
       <c r="BH4" t="s">
@@ -7313,13 +7147,13 @@
       <c r="BI4" t="s">
         <v>368</v>
       </c>
-      <c r="BJ4" s="88" t="s">
+      <c r="BJ4" s="87" t="s">
         <v>468</v>
       </c>
-      <c r="BK4" s="88" t="s">
+      <c r="BK4" s="87" t="s">
         <v>469</v>
       </c>
-      <c r="BL4" s="88" t="s">
+      <c r="BL4" s="87" t="s">
         <v>472</v>
       </c>
       <c r="BM4" t="s">
@@ -7331,13 +7165,13 @@
       <c r="BO4" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="BP4" s="63" t="s">
+      <c r="BP4" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="BQ4" s="63">
+      <c r="BQ4" s="62">
         <v>289</v>
       </c>
-      <c r="BR4" s="63" t="s">
+      <c r="BR4" s="62" t="s">
         <v>370</v>
       </c>
     </row>
@@ -7445,22 +7279,22 @@
     <col min="16" max="17" width="15.5703125" style="46" customWidth="1"/>
     <col min="18" max="19" width="15.5703125" customWidth="1"/>
     <col min="20" max="21" width="15.5703125" style="46" customWidth="1"/>
-    <col min="22" max="28" width="8.7109375" style="56" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="56"/>
+    <col min="22" max="28" width="8.7109375" style="55" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="55"/>
     <col min="30" max="36" width="8.7109375" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" style="65" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" style="64" customWidth="1"/>
     <col min="40" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8" customWidth="1"/>
-    <col min="42" max="42" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" style="63" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11" style="62" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13" style="62" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -7482,7 +7316,7 @@
       <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="59" t="s">
         <v>318</v>
       </c>
       <c r="H1" s="36" t="s">
@@ -7575,43 +7409,43 @@
       <c r="AK1" s="38" t="s">
         <v>321</v>
       </c>
-      <c r="AL1" s="64" t="s">
+      <c r="AL1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="AM1" s="64" t="s">
+      <c r="AM1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="AN1" s="64" t="s">
+      <c r="AN1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="AO1" s="64" t="s">
+      <c r="AO1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="AP1" s="87" t="s">
+      <c r="AP1" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="AQ1" s="87" t="s">
+      <c r="AQ1" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="AR1" s="87" t="s">
+      <c r="AR1" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="AS1" s="87" t="s">
+      <c r="AS1" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="AT1" s="87" t="s">
+      <c r="AT1" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="AU1" s="87" t="s">
+      <c r="AU1" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="AV1" s="61" t="s">
+      <c r="AV1" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="AW1" s="61" t="s">
+      <c r="AW1" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="AX1" s="61" t="s">
+      <c r="AX1" s="60" t="s">
         <v>359</v>
       </c>
     </row>
@@ -7661,10 +7495,10 @@
       <c r="O2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="72" t="s">
+      <c r="P2" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="Q2" s="72" t="s">
+      <c r="Q2" s="71" t="s">
         <v>329</v>
       </c>
       <c r="R2" s="24" t="s">
@@ -7673,34 +7507,34 @@
       <c r="S2" s="24" t="s">
         <v>329</v>
       </c>
-      <c r="T2" s="72" t="s">
+      <c r="T2" s="71" t="s">
         <v>328</v>
       </c>
-      <c r="U2" s="72" t="s">
+      <c r="U2" s="71" t="s">
         <v>329</v>
       </c>
-      <c r="V2" s="85" t="s">
+      <c r="V2" s="84" t="s">
         <v>330</v>
       </c>
-      <c r="W2" s="85" t="s">
+      <c r="W2" s="84" t="s">
         <v>331</v>
       </c>
-      <c r="X2" s="86" t="s">
+      <c r="X2" s="85" t="s">
         <v>223</v>
       </c>
-      <c r="Y2" s="86" t="s">
+      <c r="Y2" s="85" t="s">
         <v>224</v>
       </c>
-      <c r="Z2" s="86" t="s">
+      <c r="Z2" s="85" t="s">
         <v>225</v>
       </c>
-      <c r="AA2" s="86" t="s">
+      <c r="AA2" s="85" t="s">
         <v>332</v>
       </c>
-      <c r="AB2" s="86" t="s">
+      <c r="AB2" s="85" t="s">
         <v>333</v>
       </c>
-      <c r="AC2" s="86" t="s">
+      <c r="AC2" s="85" t="s">
         <v>334</v>
       </c>
       <c r="AD2" s="24" t="s">
@@ -7727,10 +7561,10 @@
       <c r="AK2" s="29" t="s">
         <v>334</v>
       </c>
-      <c r="AL2" s="66" t="s">
+      <c r="AL2" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="AM2" s="66" t="s">
+      <c r="AM2" s="65" t="s">
         <v>361</v>
       </c>
       <c r="AN2" s="29" t="s">
@@ -7739,13 +7573,13 @@
       <c r="AO2" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="AP2" s="89" t="s">
+      <c r="AP2" s="88" t="s">
         <v>474</v>
       </c>
-      <c r="AQ2" s="89" t="s">
+      <c r="AQ2" s="88" t="s">
         <v>475</v>
       </c>
-      <c r="AR2" s="89" t="s">
+      <c r="AR2" s="88" t="s">
         <v>362</v>
       </c>
       <c r="AS2" s="24" t="s">
@@ -7757,21 +7591,21 @@
       <c r="AU2" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="AV2" s="62" t="s">
+      <c r="AV2" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="AW2" s="62" t="s">
+      <c r="AW2" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="AX2" s="62" t="s">
+      <c r="AX2" s="61" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="58" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:50" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="56" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="59"/>
+      <c r="M3" s="58"/>
       <c r="AL3" s="27"/>
       <c r="AM3" s="27"/>
       <c r="AN3" s="27"/>
@@ -7844,28 +7678,28 @@
       <c r="U4" s="46" t="s">
         <v>264</v>
       </c>
-      <c r="V4" s="56" t="s">
+      <c r="V4" s="55" t="s">
         <v>344</v>
       </c>
-      <c r="W4" s="56" t="s">
+      <c r="W4" s="55" t="s">
         <v>266</v>
       </c>
-      <c r="X4" s="56" t="s">
+      <c r="X4" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="Y4" s="56" t="s">
+      <c r="Y4" s="55" t="s">
         <v>271</v>
       </c>
-      <c r="Z4" s="56" t="s">
+      <c r="Z4" s="55" t="s">
         <v>272</v>
       </c>
-      <c r="AA4" s="56" t="s">
+      <c r="AA4" s="55" t="s">
         <v>345</v>
       </c>
-      <c r="AB4" s="56" t="s">
+      <c r="AB4" s="55" t="s">
         <v>346</v>
       </c>
-      <c r="AC4" s="56" t="s">
+      <c r="AC4" s="55" t="s">
         <v>347</v>
       </c>
       <c r="AD4" t="s">
@@ -7892,10 +7726,10 @@
       <c r="AK4" t="s">
         <v>347</v>
       </c>
-      <c r="AL4" s="65" t="s">
+      <c r="AL4" s="64" t="s">
         <v>365</v>
       </c>
-      <c r="AM4" s="65" t="s">
+      <c r="AM4" s="64" t="s">
         <v>366</v>
       </c>
       <c r="AN4" t="s">
@@ -7904,13 +7738,13 @@
       <c r="AO4" t="s">
         <v>368</v>
       </c>
-      <c r="AP4" s="88" t="s">
+      <c r="AP4" s="87" t="s">
         <v>468</v>
       </c>
-      <c r="AQ4" s="88" t="s">
+      <c r="AQ4" s="87" t="s">
         <v>469</v>
       </c>
-      <c r="AR4" s="88" t="s">
+      <c r="AR4" s="87" t="s">
         <v>472</v>
       </c>
       <c r="AS4" t="s">
@@ -7922,13 +7756,13 @@
       <c r="AU4" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="AV4" s="63" t="s">
+      <c r="AV4" s="62" t="s">
         <v>369</v>
       </c>
-      <c r="AW4" s="63">
+      <c r="AW4" s="62">
         <v>289</v>
       </c>
-      <c r="AX4" s="63" t="s">
+      <c r="AX4" s="62" t="s">
         <v>370</v>
       </c>
     </row>
@@ -8006,31 +7840,31 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="104" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="103" customWidth="1"/>
     <col min="8" max="8" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="107" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="106" customWidth="1"/>
     <col min="10" max="10" width="8.7109375" style="3" customWidth="1"/>
     <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
     <col min="13" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="65" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="64" customWidth="1"/>
     <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="88" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="88" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="88" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="87" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="63" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" style="63" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="63" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="62" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="62" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="116" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="115" bestFit="1" customWidth="1"/>
     <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" style="116" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" style="115" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8053,13 +7887,13 @@
       <c r="F1" t="s">
         <v>424</v>
       </c>
-      <c r="G1" s="102" t="s">
+      <c r="G1" s="101" t="s">
         <v>422</v>
       </c>
-      <c r="H1" s="105" t="s">
+      <c r="H1" s="104" t="s">
         <v>422</v>
       </c>
-      <c r="I1" s="105" t="s">
+      <c r="I1" s="104" t="s">
         <v>422</v>
       </c>
       <c r="J1" s="5" t="s">
@@ -8080,61 +7914,61 @@
       <c r="O1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="64" t="s">
+      <c r="P1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="T1" s="87" t="s">
+      <c r="T1" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="U1" s="87" t="s">
+      <c r="U1" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="V1" s="87" t="s">
+      <c r="V1" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="W1" s="87" t="s">
+      <c r="W1" s="86" t="s">
         <v>354</v>
       </c>
-      <c r="X1" s="87" t="s">
+      <c r="X1" s="86" t="s">
         <v>355</v>
       </c>
-      <c r="Y1" s="87" t="s">
+      <c r="Y1" s="86" t="s">
         <v>356</v>
       </c>
-      <c r="Z1" s="61" t="s">
+      <c r="Z1" s="60" t="s">
         <v>357</v>
       </c>
-      <c r="AA1" s="61" t="s">
+      <c r="AA1" s="60" t="s">
         <v>358</v>
       </c>
-      <c r="AB1" s="61" t="s">
+      <c r="AB1" s="60" t="s">
         <v>359</v>
       </c>
-      <c r="AC1" s="64" t="s">
+      <c r="AC1" s="63" t="s">
         <v>429</v>
       </c>
-      <c r="AD1" s="64" t="s">
+      <c r="AD1" s="63" t="s">
         <v>429</v>
       </c>
-      <c r="AE1" s="64" t="s">
+      <c r="AE1" s="63" t="s">
         <v>429</v>
       </c>
-      <c r="AF1" s="114" t="s">
+      <c r="AF1" s="113" t="s">
         <v>430</v>
       </c>
-      <c r="AG1" s="114" t="s">
+      <c r="AG1" s="113" t="s">
         <v>430</v>
       </c>
-      <c r="AH1" s="114" t="s">
+      <c r="AH1" s="113" t="s">
         <v>430</v>
       </c>
     </row>
@@ -8157,16 +7991,16 @@
       <c r="F2" s="8" t="s">
         <v>436</v>
       </c>
-      <c r="G2" s="103" t="s">
+      <c r="G2" s="102" t="s">
         <v>433</v>
       </c>
-      <c r="H2" s="83" t="s">
+      <c r="H2" s="82" t="s">
         <v>433</v>
       </c>
-      <c r="I2" s="113" t="s">
+      <c r="I2" s="112" t="s">
         <v>433</v>
       </c>
-      <c r="J2" s="84" t="s">
+      <c r="J2" s="83" t="s">
         <v>5</v>
       </c>
       <c r="K2" s="31" t="s">
@@ -8184,10 +8018,10 @@
       <c r="O2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="66" t="s">
+      <c r="P2" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="65" t="s">
         <v>361</v>
       </c>
       <c r="R2" s="29" t="s">
@@ -8196,13 +8030,13 @@
       <c r="S2" s="29" t="s">
         <v>361</v>
       </c>
-      <c r="T2" s="89" t="s">
+      <c r="T2" s="88" t="s">
         <v>474</v>
       </c>
-      <c r="U2" s="89" t="s">
+      <c r="U2" s="88" t="s">
         <v>475</v>
       </c>
-      <c r="V2" s="89" t="s">
+      <c r="V2" s="88" t="s">
         <v>362</v>
       </c>
       <c r="W2" s="24" t="s">
@@ -8214,31 +8048,31 @@
       <c r="Y2" s="24" t="s">
         <v>362</v>
       </c>
-      <c r="Z2" s="62" t="s">
+      <c r="Z2" s="61" t="s">
         <v>371</v>
       </c>
-      <c r="AA2" s="62" t="s">
+      <c r="AA2" s="61" t="s">
         <v>363</v>
       </c>
-      <c r="AB2" s="62" t="s">
+      <c r="AB2" s="61" t="s">
         <v>364</v>
       </c>
-      <c r="AC2" s="66" t="s">
+      <c r="AC2" s="65" t="s">
         <v>447</v>
       </c>
       <c r="AD2" s="8" t="s">
         <v>447</v>
       </c>
-      <c r="AE2" s="66" t="s">
+      <c r="AE2" s="65" t="s">
         <v>447</v>
       </c>
-      <c r="AF2" s="115" t="s">
+      <c r="AF2" s="114" t="s">
         <v>450</v>
       </c>
       <c r="AG2" s="8" t="s">
         <v>446</v>
       </c>
-      <c r="AH2" s="115" t="s">
+      <c r="AH2" s="114" t="s">
         <v>446</v>
       </c>
     </row>
@@ -8246,10 +8080,10 @@
       <c r="A3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="101"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
+      <c r="G3" s="100"/>
+      <c r="H3" s="100"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:34" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8271,16 +8105,16 @@
       <c r="F4" s="29" t="s">
         <v>437</v>
       </c>
-      <c r="G4" s="103" t="s">
+      <c r="G4" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="82" t="s">
         <v>434</v>
       </c>
-      <c r="I4" s="106" t="s">
+      <c r="I4" s="105" t="s">
         <v>435</v>
       </c>
-      <c r="J4" s="108" t="s">
+      <c r="J4" s="107" t="s">
         <v>438</v>
       </c>
       <c r="K4" s="31" t="s">
@@ -8293,25 +8127,25 @@
       <c r="N4" s="29" t="s">
         <v>440</v>
       </c>
-      <c r="P4" s="109" t="s">
+      <c r="P4" s="108" t="s">
         <v>442</v>
       </c>
-      <c r="Q4" s="110" t="s">
+      <c r="Q4" s="109" t="s">
         <v>445</v>
       </c>
       <c r="R4" s="44" t="s">
         <v>443</v>
       </c>
-      <c r="S4" s="111" t="s">
+      <c r="S4" s="110" t="s">
         <v>444</v>
       </c>
-      <c r="T4" s="88" t="s">
+      <c r="T4" s="87" t="s">
         <v>468</v>
       </c>
-      <c r="U4" s="88" t="s">
+      <c r="U4" s="87" t="s">
         <v>469</v>
       </c>
-      <c r="V4" s="88" t="s">
+      <c r="V4" s="87" t="s">
         <v>472</v>
       </c>
       <c r="W4" t="s">
@@ -8323,31 +8157,31 @@
       <c r="Y4" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="Z4" s="112" t="s">
+      <c r="Z4" s="111" t="s">
         <v>369</v>
       </c>
-      <c r="AA4" s="112">
+      <c r="AA4" s="111">
         <v>289</v>
       </c>
-      <c r="AB4" s="112" t="s">
+      <c r="AB4" s="111" t="s">
         <v>370</v>
       </c>
-      <c r="AC4" s="66" t="s">
+      <c r="AC4" s="65" t="s">
         <v>336</v>
       </c>
       <c r="AD4" s="8" t="s">
         <v>448</v>
       </c>
-      <c r="AE4" s="66" t="s">
+      <c r="AE4" s="65" t="s">
         <v>449</v>
       </c>
-      <c r="AF4" s="115" t="s">
+      <c r="AF4" s="114" t="s">
         <v>451</v>
       </c>
       <c r="AG4" s="8" t="s">
         <v>452</v>
       </c>
-      <c r="AH4" s="115" t="s">
+      <c r="AH4" s="114" t="s">
         <v>453</v>
       </c>
     </row>
@@ -8419,17 +8253,17 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="118" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="119" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="117" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" style="118" customWidth="1"/>
     <col min="8" max="10" width="8.7109375" style="9" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="3" customWidth="1"/>
     <col min="12" max="13" width="8.7109375" style="2" customWidth="1"/>
     <col min="14" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="65"/>
+    <col min="17" max="18" width="9.140625" style="64"/>
     <col min="19" max="20" width="9.140625" style="1"/>
-    <col min="21" max="22" width="9.140625" style="69"/>
+    <col min="21" max="22" width="9.140625" style="68"/>
     <col min="23" max="24" width="9.140625" style="1"/>
-    <col min="25" max="26" width="9.140625" style="131"/>
+    <col min="25" max="26" width="9.140625" style="130"/>
     <col min="27" max="28" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -8446,22 +8280,22 @@
       <c r="D1" s="36" t="s">
         <v>455</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="E1" s="140" t="s">
         <v>476</v>
       </c>
-      <c r="F1" s="135" t="s">
+      <c r="F1" s="134" t="s">
         <v>477</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="134" t="s">
         <v>478</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="116" t="s">
         <v>456</v>
       </c>
-      <c r="I1" s="117" t="s">
+      <c r="I1" s="116" t="s">
         <v>457</v>
       </c>
-      <c r="J1" s="117" t="s">
+      <c r="J1" s="116" t="s">
         <v>458</v>
       </c>
       <c r="K1" s="5" t="s">
@@ -8482,40 +8316,40 @@
       <c r="P1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="64" t="s">
+      <c r="Q1" s="63" t="s">
         <v>459</v>
       </c>
-      <c r="R1" s="64" t="s">
+      <c r="R1" s="63" t="s">
         <v>460</v>
       </c>
-      <c r="S1" s="64" t="s">
+      <c r="S1" s="63" t="s">
         <v>459</v>
       </c>
-      <c r="T1" s="64" t="s">
+      <c r="T1" s="63" t="s">
         <v>460</v>
       </c>
-      <c r="U1" s="61" t="s">
+      <c r="U1" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="V1" s="61" t="s">
+      <c r="V1" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="W1" s="61" t="s">
+      <c r="W1" s="60" t="s">
         <v>461</v>
       </c>
-      <c r="X1" s="61" t="s">
+      <c r="X1" s="60" t="s">
         <v>462</v>
       </c>
-      <c r="Y1" s="129" t="s">
+      <c r="Y1" s="128" t="s">
         <v>463</v>
       </c>
-      <c r="Z1" s="129" t="s">
+      <c r="Z1" s="128" t="s">
         <v>464</v>
       </c>
-      <c r="AA1" s="129" t="s">
+      <c r="AA1" s="128" t="s">
         <v>463</v>
       </c>
-      <c r="AB1" s="129" t="s">
+      <c r="AB1" s="128" t="s">
         <v>464</v>
       </c>
     </row>
@@ -8532,25 +8366,25 @@
       <c r="D2" s="29" t="s">
         <v>501</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="121" t="s">
         <v>558</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="122" t="s">
         <v>559</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="122" t="s">
         <v>560</v>
       </c>
-      <c r="H2" s="124" t="s">
+      <c r="H2" s="123" t="s">
         <v>558</v>
       </c>
-      <c r="I2" s="124" t="s">
+      <c r="I2" s="123" t="s">
         <v>559</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="123" t="s">
         <v>560</v>
       </c>
-      <c r="K2" s="84" t="s">
+      <c r="K2" s="83" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="31" t="s">
@@ -8568,10 +8402,10 @@
       <c r="P2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="66" t="s">
+      <c r="Q2" s="65" t="s">
         <v>497</v>
       </c>
-      <c r="R2" s="127" t="s">
+      <c r="R2" s="126" t="s">
         <v>498</v>
       </c>
       <c r="S2" s="8" t="s">
@@ -8580,10 +8414,10 @@
       <c r="T2" s="15" t="s">
         <v>498</v>
       </c>
-      <c r="U2" s="77" t="s">
+      <c r="U2" s="76" t="s">
         <v>493</v>
       </c>
-      <c r="V2" s="128" t="s">
+      <c r="V2" s="127" t="s">
         <v>494</v>
       </c>
       <c r="W2" s="8" t="s">
@@ -8592,10 +8426,10 @@
       <c r="X2" s="15" t="s">
         <v>494</v>
       </c>
-      <c r="Y2" s="130" t="s">
+      <c r="Y2" s="129" t="s">
         <v>495</v>
       </c>
-      <c r="Z2" s="132" t="s">
+      <c r="Z2" s="131" t="s">
         <v>496</v>
       </c>
       <c r="AA2" s="8" t="s">
@@ -8609,8 +8443,8 @@
       <c r="A3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="101"/>
-      <c r="K3" s="101"/>
+      <c r="H3" s="100"/>
+      <c r="K3" s="100"/>
       <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:28" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8626,25 +8460,25 @@
       <c r="D4" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="124" t="s">
         <v>465</v>
       </c>
-      <c r="G4" s="121" t="s">
+      <c r="G4" s="120" t="s">
         <v>465</v>
       </c>
-      <c r="H4" s="83" t="s">
+      <c r="H4" s="82" t="s">
         <v>467</v>
       </c>
-      <c r="I4" s="126" t="s">
+      <c r="I4" s="125" t="s">
         <v>466</v>
       </c>
-      <c r="J4" s="126" t="s">
+      <c r="J4" s="125" t="s">
         <v>466</v>
       </c>
-      <c r="K4" s="84" t="s">
+      <c r="K4" s="83" t="s">
         <v>479</v>
       </c>
       <c r="L4" s="31" t="s">
@@ -8657,10 +8491,10 @@
       <c r="O4" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="Q4" s="66" t="s">
+      <c r="Q4" s="65" t="s">
         <v>484</v>
       </c>
-      <c r="R4" s="66" t="s">
+      <c r="R4" s="65" t="s">
         <v>483</v>
       </c>
       <c r="S4" s="8" t="s">
@@ -8669,10 +8503,10 @@
       <c r="T4" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="U4" s="77" t="s">
+      <c r="U4" s="76" t="s">
         <v>487</v>
       </c>
-      <c r="V4" s="77" t="s">
+      <c r="V4" s="76" t="s">
         <v>488</v>
       </c>
       <c r="W4" s="8" t="s">
@@ -8681,10 +8515,10 @@
       <c r="X4" s="8" t="s">
         <v>490</v>
       </c>
-      <c r="Y4" s="130" t="s">
+      <c r="Y4" s="129" t="s">
         <v>491</v>
       </c>
-      <c r="Z4" s="130" t="s">
+      <c r="Z4" s="129" t="s">
         <v>490</v>
       </c>
       <c r="AA4" s="8" t="s">
@@ -8749,11 +8583,11 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="118" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="119" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="119" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="119" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="119" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="117" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="118" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="118" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="118" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="118" customWidth="1"/>
     <col min="10" max="11" width="8.7109375" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="9" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" style="9" customWidth="1"/>
@@ -8761,8 +8595,8 @@
     <col min="15" max="15" width="8.7109375" style="3" customWidth="1"/>
     <col min="16" max="17" width="8.7109375" style="2" customWidth="1"/>
     <col min="18" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" style="65" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8" style="65" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" style="64" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" customWidth="1"/>
   </cols>
@@ -8780,34 +8614,34 @@
       <c r="D1" t="s">
         <v>503</v>
       </c>
-      <c r="E1" s="141" t="s">
+      <c r="E1" s="140" t="s">
         <v>476</v>
       </c>
-      <c r="F1" s="142" t="s">
+      <c r="F1" s="141" t="s">
         <v>523</v>
       </c>
-      <c r="G1" s="135" t="s">
+      <c r="G1" s="134" t="s">
         <v>505</v>
       </c>
-      <c r="H1" s="142" t="s">
+      <c r="H1" s="141" t="s">
         <v>506</v>
       </c>
-      <c r="I1" s="135" t="s">
+      <c r="I1" s="134" t="s">
         <v>507</v>
       </c>
-      <c r="J1" s="135" t="s">
+      <c r="J1" s="134" t="s">
         <v>476</v>
       </c>
-      <c r="K1" s="142" t="s">
+      <c r="K1" s="141" t="s">
         <v>523</v>
       </c>
-      <c r="L1" s="135" t="s">
+      <c r="L1" s="134" t="s">
         <v>505</v>
       </c>
-      <c r="M1" s="142" t="s">
+      <c r="M1" s="141" t="s">
         <v>506</v>
       </c>
-      <c r="N1" s="135" t="s">
+      <c r="N1" s="134" t="s">
         <v>507</v>
       </c>
       <c r="O1" s="5" t="s">
@@ -8828,63 +8662,63 @@
       <c r="T1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="64" t="s">
+      <c r="U1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="V1" s="64" t="s">
+      <c r="V1" s="63" t="s">
         <v>353</v>
       </c>
-      <c r="W1" s="64" t="s">
+      <c r="W1" s="63" t="s">
         <v>352</v>
       </c>
-      <c r="X1" s="64" t="s">
+      <c r="X1" s="63" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="133" t="s">
+      <c r="A2" s="132" t="s">
         <v>521</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="132" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="133" t="s">
+      <c r="C2" s="132" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="133" t="s">
+      <c r="D2" s="132" t="s">
         <v>504</v>
       </c>
-      <c r="E2" s="122" t="s">
+      <c r="E2" s="121" t="s">
         <v>514</v>
       </c>
-      <c r="F2" s="123" t="s">
+      <c r="F2" s="122" t="s">
         <v>515</v>
       </c>
-      <c r="G2" s="123" t="s">
+      <c r="G2" s="122" t="s">
         <v>509</v>
       </c>
-      <c r="H2" s="123" t="s">
+      <c r="H2" s="122" t="s">
         <v>508</v>
       </c>
-      <c r="I2" s="123" t="s">
+      <c r="I2" s="122" t="s">
         <v>516</v>
       </c>
-      <c r="J2" s="124" t="s">
+      <c r="J2" s="123" t="s">
         <v>514</v>
       </c>
-      <c r="K2" s="124" t="s">
+      <c r="K2" s="123" t="s">
         <v>515</v>
       </c>
-      <c r="L2" s="124" t="s">
+      <c r="L2" s="123" t="s">
         <v>509</v>
       </c>
-      <c r="M2" s="124" t="s">
+      <c r="M2" s="123" t="s">
         <v>508</v>
       </c>
-      <c r="N2" s="124" t="s">
+      <c r="N2" s="123" t="s">
         <v>516</v>
       </c>
-      <c r="O2" s="84" t="s">
+      <c r="O2" s="83" t="s">
         <v>5</v>
       </c>
       <c r="P2" s="31" t="s">
@@ -8902,10 +8736,10 @@
       <c r="T2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="66" t="s">
+      <c r="U2" s="65" t="s">
         <v>360</v>
       </c>
-      <c r="V2" s="66" t="s">
+      <c r="V2" s="65" t="s">
         <v>361</v>
       </c>
       <c r="W2" s="29" t="s">
@@ -8919,11 +8753,11 @@
       <c r="A3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="134"/>
-      <c r="H3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="M3" s="101"/>
-      <c r="O3" s="101"/>
+      <c r="E3" s="133"/>
+      <c r="H3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="M3" s="100"/>
+      <c r="O3" s="100"/>
       <c r="R3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -8939,35 +8773,35 @@
       <c r="D4" s="29" t="s">
         <v>522</v>
       </c>
-      <c r="E4" s="120" t="s">
+      <c r="E4" s="119" t="s">
         <v>159</v>
       </c>
-      <c r="F4" s="125" t="s">
+      <c r="F4" s="124" t="s">
         <v>465</v>
       </c>
-      <c r="G4" s="136" t="s">
+      <c r="G4" s="135" t="s">
         <v>510</v>
       </c>
-      <c r="H4" s="121" t="s">
+      <c r="H4" s="120" t="s">
         <v>511</v>
       </c>
-      <c r="I4" s="138" t="s">
+      <c r="I4" s="137" t="s">
         <v>512</v>
       </c>
-      <c r="J4" s="83" t="s">
+      <c r="J4" s="82" t="s">
         <v>467</v>
       </c>
-      <c r="K4" s="126" t="s">
+      <c r="K4" s="125" t="s">
         <v>466</v>
       </c>
-      <c r="L4" s="139" t="s">
+      <c r="L4" s="138" t="s">
         <v>513</v>
       </c>
-      <c r="M4" s="83" t="s">
+      <c r="M4" s="82" t="s">
         <v>511</v>
       </c>
-      <c r="N4" s="137"/>
-      <c r="O4" s="84" t="s">
+      <c r="N4" s="136"/>
+      <c r="O4" s="83" t="s">
         <v>479</v>
       </c>
       <c r="P4" s="31" t="s">
@@ -8980,16 +8814,16 @@
       <c r="S4" s="29" t="s">
         <v>482</v>
       </c>
-      <c r="U4" s="109" t="s">
+      <c r="U4" s="108" t="s">
         <v>517</v>
       </c>
-      <c r="V4" s="140" t="s">
+      <c r="V4" s="139" t="s">
         <v>518</v>
       </c>
       <c r="W4" s="44" t="s">
         <v>519</v>
       </c>
-      <c r="X4" s="111" t="s">
+      <c r="X4" s="110" t="s">
         <v>444</v>
       </c>
     </row>

--- a/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
+++ b/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{736BA5D3-E7F2-43D4-8469-10048A091CAC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8B9E9B-4DDA-454D-94D0-8D841627A2F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,10 +16,10 @@
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
     <sheet name="study" sheetId="3" r:id="rId2"/>
     <sheet name="sample" sheetId="5" r:id="rId3"/>
-    <sheet name="analysis" sheetId="4" r:id="rId4"/>
-    <sheet name="experiment" sheetId="1" r:id="rId5"/>
-    <sheet name="run" sheetId="6" r:id="rId6"/>
-    <sheet name="dataset" sheetId="7" r:id="rId7"/>
+    <sheet name="dataset" sheetId="7" r:id="rId4"/>
+    <sheet name="analysis" sheetId="4" r:id="rId5"/>
+    <sheet name="experiment" sheetId="1" r:id="rId6"/>
+    <sheet name="run" sheetId="6" r:id="rId7"/>
     <sheet name="submission" sheetId="8" r:id="rId8"/>
     <sheet name="dac" sheetId="9" r:id="rId9"/>
     <sheet name="policy" sheetId="10" r:id="rId10"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1121" uniqueCount="561">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="563">
   <si>
     <t>Tag</t>
   </si>
@@ -653,9 +653,6 @@
     <t>TODO: Submitter designated name for the 'Study' (e.g. 'My_study_HumanMicrobiome'). The name must be unique within the submission account.</t>
   </si>
   <si>
-    <t>TODO: Title (free-form string) of the study as would be used in a publication</t>
-  </si>
-  <si>
     <t>TODO: Overall purpose of the study. Must be value from Controlled vocabulary: 
     Whole Genome Sequencing
     Metagenomics
@@ -681,9 +678,6 @@
   </si>
   <si>
     <t>TODO: Submitter defined project name (e.g. 'Absiella dolichum DSM 3991').  This field is intended for backward tracking of the study record to the submitter's LIMS.</t>
-  </si>
-  <si>
-    <t>TODO: More extensive free-form description of the study.</t>
   </si>
   <si>
     <t>TODO: Database of the related study (e.g. 'bioproject'). This value has to match with the NCBI controlled vocabulary of permitted cross references (see list: http://www.ncbi.nlm.nih.gov/entrez/eutils/einfo.fcgi?)
@@ -1203,20 +1197,10 @@
     <t>subject_id</t>
   </si>
   <si>
-    <t>TODO: Subject ID of the sample (e.g. HG03464)</t>
-  </si>
-  <si>
     <t>sex</t>
   </si>
   <si>
-    <t>TODO: specify the sex of the sample. Must be value from Controlled vocabulary: 'male', 'female', 'unknown'. 
-If you want to explicitly provide the sample’s combination of sexual chromosomes, you can give them as the &lt;VALUE&gt; of an additional &lt;SAMPLE_ATTRIBUTE&gt;, whose &lt;TAG&gt; would be 'sex chromosomes'</t>
-  </si>
-  <si>
     <t>phenotype</t>
-  </si>
-  <si>
-    <t>TODO: Phenotype definition. Make use of Ontologies like EFO terms (e.g. "EFO:0000574"). Provide the full compact URI (CURIE): use both the preffix (e.g. EFO) and identifier (e.g. 0000574). Search for the EFO associated to your phenotype here: https://www.ebi.ac.uk/efo/</t>
   </si>
   <si>
     <t>TODO: Name of the custom attribute (e.g. age, height, BioSample, additional notes, etc.)</t>
@@ -1707,9 +1691,6 @@
     </r>
   </si>
   <si>
-    <t>You simply have to fill out the rows and columns of the tabs that are relevant to your submission (i.e. if you are only submitting samples' metadata, other tabs can be left empty). In each tab you will find a grey line at the third row, below which you shall enter your real metadata. In the begining, the template will contain a "mock" example at row 4 for you to visualise (contains things like "Example!_..."), remove it and use your real metadata there.</t>
-  </si>
-  <si>
     <t xml:space="preserve">Repeated columns? </t>
   </si>
   <si>
@@ -1828,6 +1809,629 @@
     <t>Dataset_type</t>
   </si>
   <si>
+    <t>POLICY.Accession</t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the 'Dataset' (e.g. 'My_Dataset_HumanMicrobiome'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t>Example!_Human_MicrobiomeDataset</t>
+  </si>
+  <si>
+    <t>Example!_Dataset about human microbiome data related to project X</t>
+  </si>
+  <si>
+    <t>RUN.Alias</t>
+  </si>
+  <si>
+    <t>ANALYSIS.Alias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This dataset is related to Project X by grant Y and encompasses samples from group Z. </t>
+  </si>
+  <si>
+    <t>TODO: Selects the type of Dataset. In case the dataset is of several types, repeat this column. Must be value from Controlled vocabulary:  
+	Whole genome sequencing
+	Exome sequencing
+	Genotyping by array
+	Transcriptome profiling by high-throughput sequencing
+	Transcriptome profiling by array
+	Amplicon sequencing
+	Methylation binding domain sequencing
+	Methylation profiling by high-throughput sequencing
+	Phenotype information
+	Study summary information
+	Genomic variant calling
+	Chromatin accessibility profiling by high-throughput sequencing
+	Histone modification profiling by high-throughput sequencing
+	Chip-Seq</t>
+  </si>
+  <si>
+    <t>Exome sequencing</t>
+  </si>
+  <si>
+    <t>Genomic variant calling</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: The accession ID (EGAP…) of the policy controlling this dataset. </t>
+  </si>
+  <si>
+    <t>EGAP00001000598</t>
+  </si>
+  <si>
+    <t>ENA-SUBMISSION-TOOL</t>
+  </si>
+  <si>
+    <t>Release Name</t>
+  </si>
+  <si>
+    <t>Release_NED13</t>
+  </si>
+  <si>
+    <t>SRA-Webin</t>
+  </si>
+  <si>
+    <t>Project</t>
+  </si>
+  <si>
+    <t>Analysis_protocol</t>
+  </si>
+  <si>
+    <t>https://github.com/EbiEga/ega-metadata-schema</t>
+  </si>
+  <si>
+    <t>https://www.internationalgenome.org</t>
+  </si>
+  <si>
+    <t>TODO: The accession ID of an Analysis (EGAZ…). Identifies the analyses which are part of this dataset. In case the dataset encompasses several analyses, repeat this column.</t>
+  </si>
+  <si>
+    <t>TODO: The alias of a Run (e.g. 'Example!_DJ0001_13'). Identifies the runs which are part of this dataset. In case the dataset encompasses several runs, repeat this column.</t>
+  </si>
+  <si>
+    <t>Example!_DJ0001_14</t>
+  </si>
+  <si>
+    <t>Example!_DJ0001_15</t>
+  </si>
+  <si>
+    <t>TODO: The alias of an Analysis (e.g. ). Identifies the analyses which are part of this dataset. In case the dataset encompasses several analyses, repeat this column.</t>
+  </si>
+  <si>
+    <t>Example!_D13_Liver_treatment_X1</t>
+  </si>
+  <si>
+    <t>Example!_D13_Liver_treatment_X2</t>
+  </si>
+  <si>
+    <t>Example!_D13_Liver_treatment_X3</t>
+  </si>
+  <si>
+    <t>Submission_alias*</t>
+  </si>
+  <si>
+    <t>Submission_title</t>
+  </si>
+  <si>
+    <t>Contact_name</t>
+  </si>
+  <si>
+    <t>Address_ToInformStatus</t>
+  </si>
+  <si>
+    <t>Address_ToInformError</t>
+  </si>
+  <si>
+    <t>ADD.Filepath</t>
+  </si>
+  <si>
+    <t>ADD.Type</t>
+  </si>
+  <si>
+    <t>MODIFY.Filepath</t>
+  </si>
+  <si>
+    <t>MODIFY.Type</t>
+  </si>
+  <si>
+    <t>VALIDATE.Filepath</t>
+  </si>
+  <si>
+    <t>VALIDATE.Type</t>
+  </si>
+  <si>
+    <t>flast@yourdomain.com</t>
+  </si>
+  <si>
+    <t>flast2@yourdomain.com</t>
+  </si>
+  <si>
+    <t>Lastname2, Firstname2</t>
+  </si>
+  <si>
+    <t>ENSEMBL</t>
+  </si>
+  <si>
+    <t>ENSG00000007102</t>
+  </si>
+  <si>
+    <t>GDB</t>
+  </si>
+  <si>
+    <t>G00-128-600</t>
+  </si>
+  <si>
+    <t>Genome browser for vertebrate genomes</t>
+  </si>
+  <si>
+    <t>Human Genome Database accession numbers</t>
+  </si>
+  <si>
+    <t>TODO: INSDC database of the permitted cross reference (e.g. ENSEMBL, GDB, GeneDB...). Must be value from the INSDC controlled vocabulary of permitted cross references (see list: http://www.insdc.org/db_xref.html). 
+ If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
+  </si>
+  <si>
+    <t>TODO: Numeric record ID (accession) of the related sources, meaningful to the INSDC cross reference (e.g. ENSG00000007102 for ensembl)
+ If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
+  </si>
+  <si>
+    <t>CONTACT.name</t>
+  </si>
+  <si>
+    <t>CONTACT.address_Status</t>
+  </si>
+  <si>
+    <t>CONTACT.address_Error</t>
+  </si>
+  <si>
+    <t>Submission Site</t>
+  </si>
+  <si>
+    <t>NCBI_PUBLIC</t>
+  </si>
+  <si>
+    <t>Submission Project Id</t>
+  </si>
+  <si>
+    <t>ERA:58497a9d0cf25cfbf0588f6e</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>xmls/samples_from_projectX.xml</t>
+  </si>
+  <si>
+    <t>xmls/analyses_from_projectX.xml</t>
+  </si>
+  <si>
+    <t>analysis</t>
+  </si>
+  <si>
+    <t>xmls_toBe_modified/runs_from_projectX.xml</t>
+  </si>
+  <si>
+    <t>run</t>
+  </si>
+  <si>
+    <t>xmls_toBe_modified/studies.xml</t>
+  </si>
+  <si>
+    <t>study</t>
+  </si>
+  <si>
+    <t>xmls_toBe_validated/studies.xml</t>
+  </si>
+  <si>
+    <t>xmls_toBe_validated/samples1-14.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Filename or relative path to the XML file being modified (e.g. 'path/to/file.xml'). Repeat the block "MODIFY…" (2 columns) as many times as pre-existing submissions you want to modify. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: The type of the XML file being modified. Repeat the block "MODIFY…" (2 columns) as many times as pre-existing submissions you want to modify. Must be value from Controlled Vocabulary:  
+      study      
+      experiment      
+      sample      
+      run      
+      analysis      
+      dataset      
+      policy      
+      dac      
+      project      
+      checklist      
+      sampleGroup    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Filename or relative path to the XML file being modified (e.g. 'path/to/file.xml'). Repeat the block "VALIDATE…" (2 columns) as many times as pre-existing submissions you want to validate without submitting. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: The type of the XML file being modified. Repeat the block "VALIDATE…" (2 columns) as many times as pre-existing submissions you want to validate without submitting. Must be value from Controlled Vocabulary:  
+      study      
+      experiment      
+      sample      
+      run      
+      analysis      
+      dataset      
+      policy      
+      dac      
+      project      
+      checklist      
+      sampleGroup    </t>
+  </si>
+  <si>
+    <t>TODO: Filename or relative path to the XML file being submitted (e.g. 'path/to/file.xml').  Repeat the block "ADD…" (2 columns) as many times as new metadata XMLs you want to submit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: The type of the XML file being submitted. Repeat the block "ADD…" (2 columns) as many times as new metadata XMLs you want to submit. Must be value from Controlled Vocabulary:  
+      study      
+      experiment      
+      sample      
+      run      
+      analysis      
+      dataset      
+      policy      
+      dac      
+      project      
+      checklist      
+      sampleGroup    </t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the 'Submission' (e.g. 'My_submission_HumanMicrobiome'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t>Example!_Submission for human data</t>
+  </si>
+  <si>
+    <t>TODO: Title (free-form string) of the submission.</t>
+  </si>
+  <si>
+    <t>DAC_alias*</t>
+  </si>
+  <si>
+    <t>DAC_title</t>
+  </si>
+  <si>
+    <t>TODO: Title (free-form string) of the DAC that can be used to call out DAC records in searches or in displays.</t>
+  </si>
+  <si>
+    <t>CONTACT.telephone_number</t>
+  </si>
+  <si>
+    <t>CONTACT.organisation</t>
+  </si>
+  <si>
+    <t>CONTACT.main_contact?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Center or institution name (e.g. 'British Columbia Cancer Agency') of the contanct. </t>
+  </si>
+  <si>
+    <t>TODO: Telephone number (e.g. +34 666 666 666) of the person to contact.</t>
+  </si>
+  <si>
+    <t>+34 000 000 000</t>
+  </si>
+  <si>
+    <t>EBI</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>+34 000 010 000</t>
+  </si>
+  <si>
+    <t>TODO: Name of contact person (e.g. Lastname, Firstname) for this DAC.</t>
+  </si>
+  <si>
+    <t>TODO: Email (e.g. flast@yourdomain.com) of the person to contact.</t>
+  </si>
+  <si>
+    <t>TODO: If 'True', then this is the main contact. If not the main contact, either leave this column empty or use 'False'.</t>
+  </si>
+  <si>
+    <t>Data Access Agreement</t>
+  </si>
+  <si>
+    <t>http://mywebsite.de/DataAccessAgreement.html</t>
+  </si>
+  <si>
+    <t>Official Homepage</t>
+  </si>
+  <si>
+    <t>Example!_DAC for Human Samples metadata access</t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the 'DAC' (e.g. 'My_dac_HumanMicrobiome'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t>Example!_EBI Data Access Committee</t>
+  </si>
+  <si>
+    <t>CONTACT.email</t>
+  </si>
+  <si>
+    <t>Policy_alias*</t>
+  </si>
+  <si>
+    <t>Policy_title</t>
+  </si>
+  <si>
+    <t>Policy_source*</t>
+  </si>
+  <si>
+    <t>POLICY_TEXT</t>
+  </si>
+  <si>
+    <t>POLICY_FILE</t>
+  </si>
+  <si>
+    <t>Data_use.Ontology</t>
+  </si>
+  <si>
+    <t>Data_use.Code</t>
+  </si>
+  <si>
+    <t>Data_use.Version</t>
+  </si>
+  <si>
+    <t>Data_use.URL</t>
+  </si>
+  <si>
+    <t>DUO</t>
+  </si>
+  <si>
+    <t>0000014</t>
+  </si>
+  <si>
+    <t>2019-01-07</t>
+  </si>
+  <si>
+    <t>0000028</t>
+  </si>
+  <si>
+    <t>2017-10-16</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DUO_0000028</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/DUO_0000014</t>
+  </si>
+  <si>
+    <t>Can I leave empty fields?</t>
+  </si>
+  <si>
+    <t>Example!_Policy for Human Samples metadata access</t>
+  </si>
+  <si>
+    <t>Example!_EBI Policy for human controlled access data</t>
+  </si>
+  <si>
+    <t>http://docs.icgc.org/portal/access</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You can indeed leave empty fields, but only for those columns that are not marked with a '*' within its column name (it will also be displayed in bright yellow) and those that are required depending on another column choice (take a look at their formats below). In essence, all columns that are not 'required' (including repeated columns) can be left empty and they will be ignored when constructing the XML. </t>
+  </si>
+  <si>
+    <t>DAC_accession*</t>
+  </si>
+  <si>
+    <t>EGAC00001003356</t>
+  </si>
+  <si>
+    <t>TODO: Name (string) that identifies the parent experiment (that encompasses this run) within the namespace defined by 'Center_name*'.</t>
+  </si>
+  <si>
+    <t>TODO: Submitter designated name for the 'Policy' (e.g. 'My_dac_HumanMicrobiome'). The name must be unique within the submission account.</t>
+  </si>
+  <si>
+    <t>TODO: Title (free-form string) of the Policy that can be used to call out DAC records in searches or in displays.</t>
+  </si>
+  <si>
+    <t>TODO: Accession ID (starts by EGAC...) of the data access committee (DAC) to which this policy pertains (e.g. EGAC00001003356).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Selects the way in which you will provide the policy text. Must be value of Controlled Vocabullary: 'POLICY_TEXT' or 'POLICY_FILE'. You can either provide its text (use POLICY_TEXT) or an URL in which the policy text is displayed (use POLICY_FILE). 
+Based on your choice, provide the text or such URL in the adyacent columns. </t>
+  </si>
+  <si>
+    <t>TODO: Ontology abbreviation (e.g. 'DUO' for Data Use Ontology). Search for yours at: https://www.ebi.ac.uk/ols/ontologies/duo.
+If you provide several Data uses, repeat the block of Data_use... (4 columns: Ontology, Code, Version and URL).</t>
+  </si>
+  <si>
+    <t>TODO: Code for the ontology (e.g. 0000014)
+If you provide several Data uses, repeat the block of Data_use... (4 columns: Ontology, Code, Version and URL).</t>
+  </si>
+  <si>
+    <t>TODO: Data Use Ontology code version (e.g. 2019-01-07)
+If you provide several Data uses, repeat the block of Data_use... (4 columns: Ontology, Code, Version and URL).</t>
+  </si>
+  <si>
+    <t>TODO: Link to URL describing the Data Use (e.g. http://purl.obolibrary.org/obo/DUO_0000014)
+If you provide several Data uses, repeat the block of Data_use... (4 columns: Ontology, Code, Version and URL).</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: Text containing the policy (e.g. 'Data can be accessed through this method, under these circumstances, following these criteria...' ). Use this column if you chose 'POLICY_TEXT' as Policy_source*. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TODO: File containing the policy text, it can be a remotely hosted file (e.g. https://docs.icgc.org/portal/access/). Use this column if you chose 'POLICY_FILE' as Policy_source*. </t>
+  </si>
+  <si>
+    <t>TODO: Name of contact person for this submission (e.g. "Lastname, Firstname"). In case there are several contacts, add new blocks of "CONTACT…." (three columns: name, address_Status and address_Error).</t>
+  </si>
+  <si>
+    <t>TODO: Internet address of person or service to inform on any status changes for this submission (e.g. flast@yourdomain.com). In case there are several contacts, add new blocks of "CONTACT…." (three columns: name, address_Status and address_Error).</t>
+  </si>
+  <si>
+    <t>TODO: Internet address of person or service to inform on any errors for this submission (e.g. flast@yourdomain.com). In case there are several contacts, add new blocks of "CONTACT…." (three columns: name, address_Status and address_Error).</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TODO: Subject ID of the sample (e.g. HG03464) - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notice that this is one of the three public attributes of a Sample (Subject ID, Sex and Phenotype), and thus no personal identifiable data should be entered here.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TODO: specify the sex of the sample. Must be value from Controlled vocabulary: 'male', 'female', 'unknown'. - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notice that this is one of the three public attributes of a Sample (Subject ID, Sex and Phenotype), and thus no personal identifiable data should be entered here.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+If you want to explicitly provide the sample’s combination of sexual chromosomes, you can give them as the &lt;VALUE&gt; of an additional &lt;SAMPLE_ATTRIBUTE&gt;, whose &lt;TAG&gt; would be 'sex chromosomes'</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">TODO: Phenotype definition. Make use of Ontologies like EFO terms (e.g. "EFO:0000574"). Provide the full compact URI (CURIE): use both the preffix (e.g. EFO) and identifier (e.g. 0000574). Search for the EFO associated to your phenotype here: https://www.ebi.ac.uk/efo/ - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Notice that this is one of the three public attributes of a Sample (Subject ID, Sex and Phenotype), and thus no personal identifiable data should be entered here.</t>
+    </r>
+  </si>
+  <si>
+    <t>Sample public attributes</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please keep in mind that the EGA is a controlled access resource </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>but still displays three public attributes for all samples</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. These are </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Subject ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sex</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Phenotype</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In other words, the "value" of these attributes will be accessed freely within the EGA by any type of user, and thus no personal or identifiable data should be entered in such fields. That said, we highly recommend that the information provided is complete and complies with scientific standards, since this metadata is what most commonly other researchers will look first when searching for data.</t>
+    </r>
+  </si>
+  <si>
+    <t>You simply have to fill out the rows and columns of the tabs that are relevant to your submission (i.e. if you are only submitting samples' metadata, other tabs can be left empty). In each tab you will find a grey line at the third row, below which you shall enter your real metadata. In the beginning, the template will contain a "mock" example at row 4 for you to visualise (contains things like "Example!_..."), remove it and use your real metadata there.</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve">Within each tab, you will find a dark vertical line, beyond which there will be </t>
     </r>
@@ -1850,473 +2454,20 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">. These blocks can be repeated indefinetely (i.e. add or remove as many of this blocks/columns as you need) but always as a complete block. For instance, in many tabs you will see there are several "TAG-VALUE-UNITS" blocks, regarding metadata attributes. You can freely remove them, or add more. See the column headers' format below. </t>
+      <t xml:space="preserve">. These blocks can be repeated indefinitely (i.e. add or remove as many of this blocks/columns as you need) but always as a complete block. For instance, in many tabs you will see there are several "TAG-VALUE-UNITS" blocks, regarding metadata attributes. You can freely remove or add more. See the column headers' format below. </t>
     </r>
   </si>
   <si>
-    <t>POLICY.Accession</t>
-  </si>
-  <si>
-    <t>TODO: Title (free-form string) of the Dataset</t>
-  </si>
-  <si>
-    <t>TODO: Submitter designated name for the 'Dataset' (e.g. 'My_Dataset_HumanMicrobiome'). The name must be unique within the submission account.</t>
-  </si>
-  <si>
-    <t>Example!_Human_MicrobiomeDataset</t>
-  </si>
-  <si>
-    <t>Example!_Dataset about human microbiome data related to project X</t>
-  </si>
-  <si>
-    <t>RUN.Alias</t>
-  </si>
-  <si>
-    <t>ANALYSIS.Alias</t>
-  </si>
-  <si>
-    <t>TODO: More extensive free-form description of the Dataset.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This dataset is related to Project X by grant Y and encompasses samples from group Z. </t>
-  </si>
-  <si>
-    <t>TODO: Selects the type of Dataset. In case the dataset is of several types, repeat this column. Must be value from Controlled vocabulary:  
-	Whole genome sequencing
-	Exome sequencing
-	Genotyping by array
-	Transcriptome profiling by high-throughput sequencing
-	Transcriptome profiling by array
-	Amplicon sequencing
-	Methylation binding domain sequencing
-	Methylation profiling by high-throughput sequencing
-	Phenotype information
-	Study summary information
-	Genomic variant calling
-	Chromatin accessibility profiling by high-throughput sequencing
-	Histone modification profiling by high-throughput sequencing
-	Chip-Seq</t>
-  </si>
-  <si>
-    <t>Exome sequencing</t>
-  </si>
-  <si>
-    <t>Genomic variant calling</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: The accession ID (EGAP…) of the policy controlling this dataset. </t>
-  </si>
-  <si>
-    <t>EGAP00001000598</t>
-  </si>
-  <si>
-    <t>ENA-SUBMISSION-TOOL</t>
-  </si>
-  <si>
-    <t>Release Name</t>
-  </si>
-  <si>
-    <t>Release_NED13</t>
-  </si>
-  <si>
-    <t>SRA-Webin</t>
-  </si>
-  <si>
-    <t>Project</t>
-  </si>
-  <si>
-    <t>Analysis_protocol</t>
-  </si>
-  <si>
-    <t>https://github.com/EbiEga/ega-metadata-schema</t>
-  </si>
-  <si>
-    <t>https://www.internationalgenome.org</t>
-  </si>
-  <si>
-    <t>TODO: The accession ID of an Analysis (EGAZ…). Identifies the analyses which are part of this dataset. In case the dataset encompasses several analyses, repeat this column.</t>
-  </si>
-  <si>
-    <t>TODO: The alias of a Run (e.g. 'Example!_DJ0001_13'). Identifies the runs which are part of this dataset. In case the dataset encompasses several runs, repeat this column.</t>
-  </si>
-  <si>
-    <t>Example!_DJ0001_14</t>
-  </si>
-  <si>
-    <t>Example!_DJ0001_15</t>
-  </si>
-  <si>
-    <t>TODO: The alias of an Analysis (e.g. ). Identifies the analyses which are part of this dataset. In case the dataset encompasses several analyses, repeat this column.</t>
-  </si>
-  <si>
-    <t>Example!_D13_Liver_treatment_X1</t>
-  </si>
-  <si>
-    <t>Example!_D13_Liver_treatment_X2</t>
-  </si>
-  <si>
-    <t>Example!_D13_Liver_treatment_X3</t>
-  </si>
-  <si>
-    <t>Submission_alias*</t>
-  </si>
-  <si>
-    <t>Submission_title</t>
-  </si>
-  <si>
-    <t>Contact_name</t>
-  </si>
-  <si>
-    <t>Address_ToInformStatus</t>
-  </si>
-  <si>
-    <t>Address_ToInformError</t>
-  </si>
-  <si>
-    <t>ADD.Filepath</t>
-  </si>
-  <si>
-    <t>ADD.Type</t>
-  </si>
-  <si>
-    <t>MODIFY.Filepath</t>
-  </si>
-  <si>
-    <t>MODIFY.Type</t>
-  </si>
-  <si>
-    <t>VALIDATE.Filepath</t>
-  </si>
-  <si>
-    <t>VALIDATE.Type</t>
-  </si>
-  <si>
-    <t>flast@yourdomain.com</t>
-  </si>
-  <si>
-    <t>flast2@yourdomain.com</t>
-  </si>
-  <si>
-    <t>Lastname2, Firstname2</t>
-  </si>
-  <si>
-    <t>ENSEMBL</t>
-  </si>
-  <si>
-    <t>ENSG00000007102</t>
-  </si>
-  <si>
-    <t>GDB</t>
-  </si>
-  <si>
-    <t>G00-128-600</t>
-  </si>
-  <si>
-    <t>Genome browser for vertebrate genomes</t>
-  </si>
-  <si>
-    <t>Human Genome Database accession numbers</t>
-  </si>
-  <si>
-    <t>TODO: INSDC database of the permitted cross reference (e.g. ENSEMBL, GDB, GeneDB...). Must be value from the INSDC controlled vocabulary of permitted cross references (see list: http://www.insdc.org/db_xref.html). 
- If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
-  </si>
-  <si>
-    <t>TODO: Numeric record ID (accession) of the related sources, meaningful to the INSDC cross reference (e.g. ENSG00000007102 for ensembl)
- If you provide several XREF links, repeat the block "XREF_LINK.DB" - "XREF_LINK.ID"  - "XREF_LINK.label".</t>
-  </si>
-  <si>
-    <t>CONTACT.name</t>
-  </si>
-  <si>
-    <t>CONTACT.address_Status</t>
-  </si>
-  <si>
-    <t>CONTACT.address_Error</t>
-  </si>
-  <si>
-    <t>Submission Site</t>
-  </si>
-  <si>
-    <t>NCBI_PUBLIC</t>
-  </si>
-  <si>
-    <t>Submission Project Id</t>
-  </si>
-  <si>
-    <t>ERA:58497a9d0cf25cfbf0588f6e</t>
-  </si>
-  <si>
-    <t>sample</t>
-  </si>
-  <si>
-    <t>xmls/samples_from_projectX.xml</t>
-  </si>
-  <si>
-    <t>xmls/analyses_from_projectX.xml</t>
-  </si>
-  <si>
-    <t>analysis</t>
-  </si>
-  <si>
-    <t>xmls_toBe_modified/runs_from_projectX.xml</t>
-  </si>
-  <si>
-    <t>run</t>
-  </si>
-  <si>
-    <t>xmls_toBe_modified/studies.xml</t>
-  </si>
-  <si>
-    <t>study</t>
-  </si>
-  <si>
-    <t>xmls_toBe_validated/studies.xml</t>
-  </si>
-  <si>
-    <t>xmls_toBe_validated/samples1-14.xml</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: Filename or relative path to the XML file being modified (e.g. 'path/to/file.xml'). Repeat the block "MODIFY…" (2 columns) as many times as pre-existing submissions you want to modify. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: The type of the XML file being modified. Repeat the block "MODIFY…" (2 columns) as many times as pre-existing submissions you want to modify. Must be value from Controlled Vocabulary:  
-      study      
-      experiment      
-      sample      
-      run      
-      analysis      
-      dataset      
-      policy      
-      dac      
-      project      
-      checklist      
-      sampleGroup    </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: Filename or relative path to the XML file being modified (e.g. 'path/to/file.xml'). Repeat the block "VALIDATE…" (2 columns) as many times as pre-existing submissions you want to validate without submitting. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: The type of the XML file being modified. Repeat the block "VALIDATE…" (2 columns) as many times as pre-existing submissions you want to validate without submitting. Must be value from Controlled Vocabulary:  
-      study      
-      experiment      
-      sample      
-      run      
-      analysis      
-      dataset      
-      policy      
-      dac      
-      project      
-      checklist      
-      sampleGroup    </t>
-  </si>
-  <si>
-    <t>TODO: Filename or relative path to the XML file being submitted (e.g. 'path/to/file.xml').  Repeat the block "ADD…" (2 columns) as many times as new metadata XMLs you want to submit.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: The type of the XML file being submitted. Repeat the block "ADD…" (2 columns) as many times as new metadata XMLs you want to submit. Must be value from Controlled Vocabulary:  
-      study      
-      experiment      
-      sample      
-      run      
-      analysis      
-      dataset      
-      policy      
-      dac      
-      project      
-      checklist      
-      sampleGroup    </t>
-  </si>
-  <si>
-    <t>TODO: Submitter designated name for the 'Submission' (e.g. 'My_submission_HumanMicrobiome'). The name must be unique within the submission account.</t>
-  </si>
-  <si>
-    <t>Example!_Submission for human data</t>
-  </si>
-  <si>
-    <t>TODO: Title (free-form string) of the submission.</t>
-  </si>
-  <si>
-    <t>DAC_alias*</t>
-  </si>
-  <si>
-    <t>DAC_title</t>
-  </si>
-  <si>
-    <t>TODO: Title (free-form string) of the DAC that can be used to call out DAC records in searches or in displays.</t>
-  </si>
-  <si>
-    <t>CONTACT.telephone_number</t>
-  </si>
-  <si>
-    <t>CONTACT.organisation</t>
-  </si>
-  <si>
-    <t>CONTACT.main_contact?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: Center or institution name (e.g. 'British Columbia Cancer Agency') of the contanct. </t>
-  </si>
-  <si>
-    <t>TODO: Telephone number (e.g. +34 666 666 666) of the person to contact.</t>
-  </si>
-  <si>
-    <t>+34 000 000 000</t>
-  </si>
-  <si>
-    <t>EBI</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>+34 000 010 000</t>
-  </si>
-  <si>
-    <t>TODO: Name of contact person (e.g. Lastname, Firstname) for this DAC.</t>
-  </si>
-  <si>
-    <t>TODO: Email (e.g. flast@yourdomain.com) of the person to contact.</t>
-  </si>
-  <si>
-    <t>TODO: If 'True', then this is the main contact. If not the main contact, either leave this column empty or use 'False'.</t>
-  </si>
-  <si>
-    <t>Data Access Agreement</t>
-  </si>
-  <si>
-    <t>http://mywebsite.de/DataAccessAgreement.html</t>
-  </si>
-  <si>
-    <t>Official Homepage</t>
-  </si>
-  <si>
-    <t>Example!_DAC for Human Samples metadata access</t>
-  </si>
-  <si>
-    <t>TODO: Submitter designated name for the 'DAC' (e.g. 'My_dac_HumanMicrobiome'). The name must be unique within the submission account.</t>
-  </si>
-  <si>
-    <t>Example!_EBI Data Access Committee</t>
-  </si>
-  <si>
-    <t>CONTACT.email</t>
-  </si>
-  <si>
-    <t>Policy_alias*</t>
-  </si>
-  <si>
-    <t>Policy_title</t>
-  </si>
-  <si>
-    <t>Policy_source*</t>
-  </si>
-  <si>
-    <t>POLICY_TEXT</t>
-  </si>
-  <si>
-    <t>POLICY_FILE</t>
-  </si>
-  <si>
-    <t>Data_use.Ontology</t>
-  </si>
-  <si>
-    <t>Data_use.Code</t>
-  </si>
-  <si>
-    <t>Data_use.Version</t>
-  </si>
-  <si>
-    <t>Data_use.URL</t>
-  </si>
-  <si>
-    <t>DUO</t>
-  </si>
-  <si>
-    <t>0000014</t>
-  </si>
-  <si>
-    <t>2019-01-07</t>
-  </si>
-  <si>
-    <t>0000028</t>
-  </si>
-  <si>
-    <t>2017-10-16</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DUO_0000028</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/DUO_0000014</t>
-  </si>
-  <si>
-    <t>Can I leave empty fields?</t>
-  </si>
-  <si>
-    <t>Example!_Policy for Human Samples metadata access</t>
-  </si>
-  <si>
-    <t>Example!_EBI Policy for human controlled access data</t>
-  </si>
-  <si>
-    <t>http://docs.icgc.org/portal/access</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You can indeed leave empty fields, but only for those columns that are not marked with a '*' within its column name (it will also be displayed in bright yellow) and those that are required depending on another column choice (take a look at their formats below). In essence, all columns that are not 'required' (including repeated columns) can be left empty and they will be ignored when constructing the XML. </t>
-  </si>
-  <si>
-    <t>DAC_accession*</t>
-  </si>
-  <si>
-    <t>EGAC00001003356</t>
-  </si>
-  <si>
-    <t>TODO: Name (string) that identifies the parent experiment (that encompasses this run) within the namespace defined by 'Center_name*'.</t>
-  </si>
-  <si>
-    <t>TODO: Submitter designated name for the 'Policy' (e.g. 'My_dac_HumanMicrobiome'). The name must be unique within the submission account.</t>
-  </si>
-  <si>
-    <t>TODO: Title (free-form string) of the Policy that can be used to call out DAC records in searches or in displays.</t>
-  </si>
-  <si>
-    <t>TODO: Accession ID (starts by EGAC...) of the data access committee (DAC) to which this policy pertains (e.g. EGAC00001003356).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: Selects the way in which you will provide the policy text. Must be value of Controlled Vocabullary: 'POLICY_TEXT' or 'POLICY_FILE'. You can either provide its text (use POLICY_TEXT) or an URL in which the policy text is displayed (use POLICY_FILE). 
-Based on your choice, provide the text or such URL in the adyacent columns. </t>
-  </si>
-  <si>
-    <t>TODO: Ontology abbreviation (e.g. 'DUO' for Data Use Ontology). Search for yours at: https://www.ebi.ac.uk/ols/ontologies/duo.
-If you provide several Data uses, repeat the block of Data_use... (4 columns: Ontology, Code, Version and URL).</t>
-  </si>
-  <si>
-    <t>TODO: Code for the ontology (e.g. 0000014)
-If you provide several Data uses, repeat the block of Data_use... (4 columns: Ontology, Code, Version and URL).</t>
-  </si>
-  <si>
-    <t>TODO: Data Use Ontology code version (e.g. 2019-01-07)
-If you provide several Data uses, repeat the block of Data_use... (4 columns: Ontology, Code, Version and URL).</t>
-  </si>
-  <si>
-    <t>TODO: Link to URL describing the Data Use (e.g. http://purl.obolibrary.org/obo/DUO_0000014)
-If you provide several Data uses, repeat the block of Data_use... (4 columns: Ontology, Code, Version and URL).</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: Text containing the policy (e.g. 'Data can be accessed through this method, under these circumstances, following these criteria...' ). Use this column if you chose 'POLICY_TEXT' as Policy_source*. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">TODO: File containing the policy text, it can be a remotely hosted file (e.g. https://docs.icgc.org/portal/access/). Use this column if you chose 'POLICY_FILE' as Policy_source*. </t>
-  </si>
-  <si>
-    <t>TODO: Name of contact person for this submission (e.g. "Lastname, Firstname"). In case there are several contacts, add new blocks of "CONTACT…." (three columns: name, address_Status and address_Error).</t>
-  </si>
-  <si>
-    <t>TODO: Internet address of person or service to inform on any status changes for this submission (e.g. flast@yourdomain.com). In case there are several contacts, add new blocks of "CONTACT…." (three columns: name, address_Status and address_Error).</t>
-  </si>
-  <si>
-    <t>TODO: Internet address of person or service to inform on any errors for this submission (e.g. flast@yourdomain.com). In case there are several contacts, add new blocks of "CONTACT…." (three columns: name, address_Status and address_Error).</t>
+    <t>TODO: Title (free-form string) of the study as would be used in a publication. It should be the first picture of the project and not contain more than 30 words.</t>
+  </si>
+  <si>
+    <t>TODO: More extensive free-form description of the study. It should include the goal and approach of the project itself in a summarised way and not contain more than 5 sentences.</t>
+  </si>
+  <si>
+    <t>TODO: Title (free-form string) of the Dataset.  It should be the first picture of the dataset content and not contain more than 30 words.</t>
+  </si>
+  <si>
+    <t>TODO: More extensive free-form description of the Dataset.  It should include the content of the dataset (number of samples, file types, technology/protocol used to obtain the data…) and not contain more than 4 sentences.</t>
   </si>
 </sst>
 </file>
@@ -2781,7 +2932,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -2880,12 +3031,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -3136,6 +3281,9 @@
     <xf numFmtId="49" fontId="0" fillId="30" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3153,7 +3301,7 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="91">
     <dxf>
       <fill>
         <patternFill>
@@ -3165,96 +3313,6 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3647,20 +3705,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFFFB7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="2" tint="-9.9948118533890809E-2"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
       </font>
@@ -3775,6 +3819,96 @@
       <fill>
         <patternFill>
           <bgColor theme="2" tint="-9.9948118533890809E-2"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4338,7 +4472,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3716877C-2DD6-4C53-9859-D06BF40DA072}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
@@ -4352,181 +4486,189 @@
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="154" t="s">
-        <v>401</v>
-      </c>
-      <c r="B2" s="155"/>
+      <c r="A2" s="151" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" s="152"/>
     </row>
     <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="96" t="s">
-        <v>402</v>
-      </c>
-      <c r="B3" s="98" t="s">
-        <v>403</v>
+      <c r="A3" s="92" t="s">
+        <v>397</v>
+      </c>
+      <c r="B3" s="94" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="96" t="s">
-        <v>404</v>
-      </c>
-      <c r="B4" s="98" t="s">
-        <v>405</v>
+      <c r="A4" s="92" t="s">
+        <v>399</v>
+      </c>
+      <c r="B4" s="94" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="96" t="s">
-        <v>406</v>
-      </c>
-      <c r="B5" s="98" t="s">
-        <v>407</v>
+      <c r="A5" s="92" t="s">
+        <v>401</v>
+      </c>
+      <c r="B5" s="94" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="96" t="s">
-        <v>408</v>
-      </c>
-      <c r="B6" s="98" t="s">
-        <v>409</v>
+      <c r="A6" s="92" t="s">
+        <v>403</v>
+      </c>
+      <c r="B6" s="94" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="96" t="s">
-        <v>410</v>
-      </c>
-      <c r="B7" s="98" t="s">
-        <v>411</v>
+      <c r="A7" s="92" t="s">
+        <v>405</v>
+      </c>
+      <c r="B7" s="94" t="s">
+        <v>557</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="96" t="s">
-        <v>540</v>
-      </c>
-      <c r="B8" s="98" t="s">
-        <v>544</v>
+      <c r="A8" s="92" t="s">
+        <v>531</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="97" t="s">
-        <v>412</v>
-      </c>
-      <c r="B9" s="98" t="s">
-        <v>423</v>
+      <c r="A9" s="93" t="s">
+        <v>406</v>
+      </c>
+      <c r="B9" s="94" t="s">
+        <v>558</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="156" t="s">
-        <v>413</v>
-      </c>
-      <c r="B10" s="156"/>
+    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
+      <c r="A10" s="150" t="s">
+        <v>555</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>556</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="157" t="s">
+    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="153" t="s">
+        <v>407</v>
+      </c>
+      <c r="B11" s="153"/>
+    </row>
+    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="154" t="s">
         <v>104</v>
       </c>
-      <c r="B12" s="155"/>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="B13" s="152"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="89">
+      <c r="A14" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="85">
         <v>1</v>
       </c>
-      <c r="B14" s="98" t="s">
+      <c r="B15" s="94" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="90">
+    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="86">
         <v>2</v>
       </c>
-      <c r="B15" s="98" t="s">
-        <v>414</v>
+      <c r="B16" s="94" t="s">
+        <v>408</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="90">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="86">
         <v>3</v>
       </c>
-      <c r="B16" s="98" t="s">
-        <v>415</v>
+      <c r="B17" s="94" t="s">
+        <v>409</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="90" t="s">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="B17" s="98" t="s">
-        <v>416</v>
+      <c r="B18" s="94" t="s">
+        <v>410</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="157" t="s">
+    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="154" t="s">
         <v>109</v>
       </c>
-      <c r="B19" s="155"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>106</v>
-      </c>
+      <c r="B20" s="152"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="91" t="s">
-        <v>111</v>
-      </c>
-      <c r="B21" s="99" t="s">
-        <v>112</v>
+      <c r="A21" s="19" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="92" t="s">
+      <c r="A22" s="87" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" s="95" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="88" t="s">
         <v>113</v>
       </c>
-      <c r="B22" s="99" t="s">
-        <v>417</v>
+      <c r="B23" s="95" t="s">
+        <v>411</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A23" s="93" t="s">
+    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" s="89" t="s">
         <v>127</v>
       </c>
-      <c r="B23" s="99" t="s">
+      <c r="B24" s="95" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="94" t="s">
+    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="B24" s="99" t="s">
-        <v>418</v>
+      <c r="B25" s="95" t="s">
+        <v>412</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A25" s="95" t="s">
+    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A26" s="91" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="99" t="s">
-        <v>419</v>
+      <c r="B26" s="95" t="s">
+        <v>413</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A12:B12"/>
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A20:B20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4548,21 +4690,21 @@
     <col min="4" max="8" width="12.140625" customWidth="1"/>
     <col min="9" max="9" width="8.7109375" style="25" customWidth="1"/>
     <col min="10" max="11" width="8.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="87" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" style="146" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="87" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="83" customWidth="1"/>
+    <col min="13" max="14" width="8.7109375" style="142" customWidth="1"/>
+    <col min="15" max="15" width="8.7109375" style="83" customWidth="1"/>
     <col min="16" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="8.7109375" style="150" customWidth="1"/>
+    <col min="17" max="18" width="8.7109375" style="146" customWidth="1"/>
     <col min="19" max="19" width="8.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8" style="64" customWidth="1"/>
+    <col min="20" max="20" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8" style="60" customWidth="1"/>
     <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -4571,19 +4713,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="E1" t="s">
-        <v>545</v>
+        <v>536</v>
       </c>
       <c r="F1" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>0</v>
@@ -4595,66 +4737,66 @@
         <v>2</v>
       </c>
       <c r="L1" s="23" t="s">
-        <v>529</v>
-      </c>
-      <c r="M1" s="143" t="s">
-        <v>530</v>
-      </c>
-      <c r="N1" s="143" t="s">
-        <v>531</v>
+        <v>520</v>
+      </c>
+      <c r="M1" s="139" t="s">
+        <v>521</v>
+      </c>
+      <c r="N1" s="139" t="s">
+        <v>522</v>
       </c>
       <c r="O1" s="23" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="P1" s="23" t="s">
-        <v>529</v>
-      </c>
-      <c r="Q1" s="143" t="s">
-        <v>530</v>
-      </c>
-      <c r="R1" s="143" t="s">
-        <v>531</v>
+        <v>520</v>
+      </c>
+      <c r="Q1" s="139" t="s">
+        <v>521</v>
+      </c>
+      <c r="R1" s="139" t="s">
+        <v>522</v>
       </c>
       <c r="S1" s="23" t="s">
-        <v>532</v>
-      </c>
-      <c r="T1" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="U1" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="V1" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="W1" s="63" t="s">
-        <v>353</v>
+        <v>523</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="U1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="V1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="W1" s="59" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:23" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
+      <c r="A2" s="128" t="s">
+        <v>539</v>
+      </c>
+      <c r="B2" s="128" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="128" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="128" t="s">
+        <v>540</v>
+      </c>
+      <c r="E2" s="128" t="s">
+        <v>541</v>
+      </c>
+      <c r="F2" s="148" t="s">
+        <v>542</v>
+      </c>
+      <c r="G2" s="128" t="s">
+        <v>547</v>
+      </c>
+      <c r="H2" s="128" t="s">
         <v>548</v>
-      </c>
-      <c r="B2" s="132" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="132" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="132" t="s">
-        <v>549</v>
-      </c>
-      <c r="E2" s="132" t="s">
-        <v>550</v>
-      </c>
-      <c r="F2" s="152" t="s">
-        <v>551</v>
-      </c>
-      <c r="G2" s="132" t="s">
-        <v>556</v>
-      </c>
-      <c r="H2" s="132" t="s">
-        <v>557</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>5</v>
@@ -4665,56 +4807,56 @@
       <c r="K2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="88" t="s">
-        <v>552</v>
-      </c>
-      <c r="M2" s="153" t="s">
-        <v>553</v>
-      </c>
-      <c r="N2" s="153" t="s">
-        <v>554</v>
-      </c>
-      <c r="O2" s="88" t="s">
-        <v>555</v>
+      <c r="L2" s="84" t="s">
+        <v>543</v>
+      </c>
+      <c r="M2" s="149" t="s">
+        <v>544</v>
+      </c>
+      <c r="N2" s="149" t="s">
+        <v>545</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>546</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>552</v>
-      </c>
-      <c r="Q2" s="148" t="s">
-        <v>553</v>
-      </c>
-      <c r="R2" s="148" t="s">
-        <v>554</v>
+        <v>543</v>
+      </c>
+      <c r="Q2" s="144" t="s">
+        <v>544</v>
+      </c>
+      <c r="R2" s="144" t="s">
+        <v>545</v>
       </c>
       <c r="S2" s="15" t="s">
-        <v>555</v>
-      </c>
-      <c r="T2" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="U2" s="65" t="s">
-        <v>361</v>
+        <v>546</v>
+      </c>
+      <c r="T2" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="U2" s="61" t="s">
+        <v>356</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="I3" s="133"/>
-      <c r="M3" s="145"/>
-      <c r="N3" s="145"/>
-      <c r="Q3" s="145"/>
-      <c r="R3" s="145"/>
+      <c r="I3" s="129"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
     </row>
     <row r="4" spans="1:23" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>41</v>
@@ -4723,59 +4865,59 @@
         <v>33</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>546</v>
+        <v>537</v>
       </c>
       <c r="F4" s="29" t="s">
+        <v>519</v>
+      </c>
+      <c r="H4" s="147" t="s">
+        <v>534</v>
+      </c>
+      <c r="I4" s="30" t="s">
+        <v>429</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="K4" s="31"/>
+      <c r="L4" s="138" t="s">
+        <v>524</v>
+      </c>
+      <c r="M4" s="140" t="s">
+        <v>525</v>
+      </c>
+      <c r="N4" s="140" t="s">
+        <v>526</v>
+      </c>
+      <c r="O4" s="143" t="s">
+        <v>530</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>524</v>
+      </c>
+      <c r="Q4" s="144" t="s">
+        <v>527</v>
+      </c>
+      <c r="R4" s="144" t="s">
         <v>528</v>
       </c>
-      <c r="H4" s="151" t="s">
-        <v>543</v>
-      </c>
-      <c r="I4" s="30" t="s">
-        <v>438</v>
-      </c>
-      <c r="J4" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="K4" s="31"/>
-      <c r="L4" s="142" t="s">
-        <v>533</v>
-      </c>
-      <c r="M4" s="144" t="s">
-        <v>534</v>
-      </c>
-      <c r="N4" s="144" t="s">
-        <v>535</v>
-      </c>
-      <c r="O4" s="147" t="s">
-        <v>539</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q4" s="148" t="s">
-        <v>536</v>
-      </c>
-      <c r="R4" s="148" t="s">
-        <v>537</v>
-      </c>
-      <c r="S4" s="149" t="s">
-        <v>538</v>
-      </c>
-      <c r="T4" s="108" t="s">
-        <v>517</v>
-      </c>
-      <c r="U4" s="139" t="s">
-        <v>518</v>
+      <c r="S4" s="145" t="s">
+        <v>529</v>
+      </c>
+      <c r="T4" s="104" t="s">
+        <v>508</v>
+      </c>
+      <c r="U4" s="135" t="s">
+        <v>509</v>
       </c>
       <c r="V4" s="44" t="s">
-        <v>519</v>
-      </c>
-      <c r="W4" s="110" t="s">
-        <v>444</v>
+        <v>510</v>
+      </c>
+      <c r="W4" s="106" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>
@@ -4843,19 +4985,19 @@
     <col min="16" max="18" width="8.7109375" style="2" customWidth="1"/>
     <col min="19" max="22" width="10.85546875" style="35" customWidth="1"/>
     <col min="23" max="26" width="10.85546875" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="64" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="60" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" style="62" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13" style="62" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
@@ -4937,44 +5079,44 @@
       <c r="Z1" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="AA1" s="63" t="s">
+      <c r="AA1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG1" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ1" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK1" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="AB1" s="63" t="s">
+      <c r="AL1" s="56" t="s">
         <v>353</v>
       </c>
-      <c r="AC1" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="AD1" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE1" s="86" t="s">
+      <c r="AM1" s="56" t="s">
         <v>354</v>
-      </c>
-      <c r="AF1" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG1" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="AH1" s="86" t="s">
-        <v>354</v>
-      </c>
-      <c r="AI1" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="AJ1" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="AK1" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="AL1" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="AM1" s="60" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -4988,22 +5130,22 @@
         <v>75</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>559</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>142</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="29" t="s">
         <v>143</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="24" t="s">
         <v>144</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="29" t="s">
         <v>145</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>146</v>
-      </c>
       <c r="I2" s="29" t="s">
-        <v>147</v>
+        <v>560</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>5</v>
@@ -5032,68 +5174,68 @@
       <c r="R2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="S2" s="77" t="s">
+      <c r="S2" s="73" t="s">
+        <v>146</v>
+      </c>
+      <c r="T2" s="73" t="s">
+        <v>147</v>
+      </c>
+      <c r="U2" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="T2" s="77" t="s">
+      <c r="V2" s="73" t="s">
         <v>149</v>
       </c>
-      <c r="U2" s="77" t="s">
-        <v>150</v>
-      </c>
-      <c r="V2" s="77" t="s">
-        <v>151</v>
-      </c>
       <c r="W2" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y2" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="Z2" s="24" t="s">
         <v>149</v>
       </c>
-      <c r="Y2" s="24" t="s">
-        <v>150</v>
-      </c>
-      <c r="Z2" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="AA2" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB2" s="65" t="s">
-        <v>361</v>
+      <c r="AA2" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB2" s="61" t="s">
+        <v>356</v>
       </c>
       <c r="AC2" s="29" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AD2" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="AE2" s="88" t="s">
-        <v>474</v>
-      </c>
-      <c r="AF2" s="88" t="s">
-        <v>475</v>
-      </c>
-      <c r="AG2" s="88" t="s">
-        <v>362</v>
+        <v>356</v>
+      </c>
+      <c r="AE2" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF2" s="84" t="s">
+        <v>466</v>
+      </c>
+      <c r="AG2" s="84" t="s">
+        <v>357</v>
       </c>
       <c r="AH2" s="24" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AI2" s="24" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AJ2" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="AK2" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="AL2" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="AM2" s="61" t="s">
-        <v>364</v>
+        <v>357</v>
+      </c>
+      <c r="AK2" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL2" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="AM2" s="57" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="27" customFormat="1" x14ac:dyDescent="0.25">
@@ -5104,7 +5246,7 @@
     </row>
     <row r="4" spans="1:39" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>41</v>
@@ -5113,102 +5255,102 @@
         <v>33</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>152</v>
+      </c>
+      <c r="G4" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="H4" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="I4" s="29" t="s">
         <v>155</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>156</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="K4" s="31" t="s">
         <v>157</v>
-      </c>
-      <c r="J4" s="30" t="s">
-        <v>158</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>159</v>
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>159</v>
+      </c>
+      <c r="P4" s="31" t="s">
         <v>160</v>
       </c>
-      <c r="N4" s="29" t="s">
-        <v>161</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>162</v>
-      </c>
       <c r="Q4" s="31" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="R4" s="31"/>
       <c r="S4" s="32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="T4" s="32">
         <v>406</v>
       </c>
       <c r="U4" s="32" t="s">
+        <v>162</v>
+      </c>
+      <c r="V4" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="W4" s="29" t="s">
         <v>164</v>
-      </c>
-      <c r="V4" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="W4" s="29" t="s">
-        <v>166</v>
       </c>
       <c r="X4" s="29">
         <v>110649</v>
       </c>
       <c r="Y4" s="29" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="Z4" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="AA4" s="64" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA4" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB4" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE4" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF4" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="AG4" s="83" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>462</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AK4" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL4" s="58">
+        <v>289</v>
+      </c>
+      <c r="AM4" s="58" t="s">
         <v>365</v>
-      </c>
-      <c r="AB4" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE4" s="87" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF4" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="AG4" s="87" t="s">
-        <v>472</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>470</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>471</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AK4" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="AL4" s="62">
-        <v>289</v>
-      </c>
-      <c r="AM4" s="62" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:39" x14ac:dyDescent="0.25">
@@ -5218,57 +5360,57 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:I1 K1:L1 T1:V1 AN1:XFD1">
-    <cfRule type="containsText" dxfId="92" priority="12" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="90" priority="12" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S1">
-    <cfRule type="containsText" dxfId="91" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="89" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",S1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="containsText" dxfId="90" priority="10" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="88" priority="10" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",X1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W1">
-    <cfRule type="containsText" dxfId="89" priority="9" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="87" priority="9" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",W1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="containsText" dxfId="88" priority="8" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="86" priority="8" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:R1">
-    <cfRule type="containsText" dxfId="87" priority="7" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="85" priority="7" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AM1">
-    <cfRule type="containsText" dxfId="86" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="84" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA1:AB1">
-    <cfRule type="containsText" dxfId="85" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="83" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AD1">
-    <cfRule type="containsText" dxfId="84" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="82" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1">
-    <cfRule type="containsText" dxfId="83" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="81" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1">
-    <cfRule type="containsText" dxfId="82" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="80" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AJ1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5298,9 +5440,9 @@
     <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.140625" style="2" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="2" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="6.140625" style="2" hidden="1" customWidth="1"/>
@@ -5313,24 +5455,24 @@
     <col min="24" max="24" width="6.42578125" style="2" customWidth="1"/>
     <col min="25" max="25" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="7.28515625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8" style="64" customWidth="1"/>
+    <col min="27" max="27" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="8" style="60" customWidth="1"/>
     <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
     <col min="34" max="34" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11" style="62" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="13" style="62" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="13" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -5339,16 +5481,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" t="s">
+        <v>281</v>
+      </c>
+      <c r="F1" t="s">
         <v>282</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>283</v>
-      </c>
-      <c r="F1" t="s">
-        <v>284</v>
-      </c>
-      <c r="G1" t="s">
-        <v>285</v>
       </c>
       <c r="H1" t="s">
         <v>106</v>
@@ -5362,13 +5504,13 @@
       <c r="K1" s="49" t="s">
         <v>2</v>
       </c>
-      <c r="L1" s="50" t="s">
+      <c r="L1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="M1" s="51" t="s">
+      <c r="M1" s="48" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="52" t="s">
+      <c r="N1" s="49" t="s">
         <v>2</v>
       </c>
       <c r="O1" s="47" t="s">
@@ -5407,49 +5549,49 @@
       <c r="Z1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="AA1" s="63" t="s">
+      <c r="AA1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AB1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="AC1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AD1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="AE1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="AF1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="AG1" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="AH1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="AI1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="AJ1" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="AK1" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="AB1" s="63" t="s">
+      <c r="AL1" s="56" t="s">
         <v>353</v>
       </c>
-      <c r="AC1" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="AD1" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="AE1" s="86" t="s">
+      <c r="AM1" s="56" t="s">
         <v>354</v>
-      </c>
-      <c r="AF1" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="AG1" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="AH1" s="86" t="s">
-        <v>354</v>
-      </c>
-      <c r="AI1" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="AJ1" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="AK1" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="AL1" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="AM1" s="60" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:39" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>74</v>
@@ -5458,106 +5600,106 @@
         <v>75</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>289</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="I2" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="J2" s="31" t="s">
+        <v>552</v>
+      </c>
+      <c r="K2" s="31"/>
+      <c r="L2" s="8" t="s">
         <v>291</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="M2" s="15" t="s">
+        <v>553</v>
+      </c>
+      <c r="N2" s="8"/>
+      <c r="O2" s="31" t="s">
         <v>292</v>
       </c>
-      <c r="J2" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31" t="s">
-        <v>294</v>
-      </c>
-      <c r="M2" s="53" t="s">
-        <v>295</v>
-      </c>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31" t="s">
-        <v>296</v>
-      </c>
       <c r="P2" s="31" t="s">
-        <v>297</v>
+        <v>554</v>
       </c>
       <c r="Q2" s="31"/>
       <c r="R2" s="30" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="S2" s="31" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="T2" s="31" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="U2" s="29" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="V2" s="29" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="X2" s="31" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="Y2" s="31" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="Z2" s="31" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA2" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="AB2" s="65" t="s">
-        <v>361</v>
+        <v>295</v>
+      </c>
+      <c r="AA2" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="AB2" s="61" t="s">
+        <v>356</v>
       </c>
       <c r="AC2" s="29" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AD2" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="AE2" s="88" t="s">
-        <v>474</v>
-      </c>
-      <c r="AF2" s="88" t="s">
-        <v>475</v>
-      </c>
-      <c r="AG2" s="88" t="s">
-        <v>362</v>
+        <v>356</v>
+      </c>
+      <c r="AE2" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF2" s="84" t="s">
+        <v>466</v>
+      </c>
+      <c r="AG2" s="84" t="s">
+        <v>357</v>
       </c>
       <c r="AH2" s="24" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AI2" s="24" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AJ2" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="AK2" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="AL2" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="AM2" s="61" t="s">
-        <v>364</v>
+        <v>357</v>
+      </c>
+      <c r="AK2" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="AL2" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="AM2" s="57" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:39" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -5565,7 +5707,7 @@
         <v>103</v>
       </c>
       <c r="M3" s="18"/>
-      <c r="R3" s="54"/>
+      <c r="R3" s="50"/>
       <c r="AA3" s="27"/>
       <c r="AB3" s="27"/>
       <c r="AC3" s="27"/>
@@ -5582,7 +5724,7 @@
     </row>
     <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -5591,143 +5733,557 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="E4">
         <v>9606</v>
       </c>
       <c r="F4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G4" t="s">
+        <v>299</v>
+      </c>
+      <c r="H4" t="s">
+        <v>300</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="R4" s="25" t="s">
         <v>303</v>
       </c>
-      <c r="G4" t="s">
+      <c r="S4" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="H4" t="s">
+      <c r="T4" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>273</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="U4" t="s">
         <v>306</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>296</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="V4" t="s">
         <v>307</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="W4" t="s">
+        <v>305</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="T4" s="2" t="s">
-        <v>310</v>
-      </c>
-      <c r="U4" t="s">
-        <v>311</v>
-      </c>
-      <c r="V4" t="s">
-        <v>312</v>
-      </c>
-      <c r="W4" t="s">
-        <v>310</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA4" s="64" t="s">
+      <c r="AA4" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="AB4" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AE4" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="AF4" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="AG4" s="83" t="s">
+        <v>463</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>462</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AK4" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="AL4" s="58">
+        <v>289</v>
+      </c>
+      <c r="AM4" s="58" t="s">
         <v>365</v>
-      </c>
-      <c r="AB4" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="AC4" t="s">
-        <v>367</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>368</v>
-      </c>
-      <c r="AE4" s="87" t="s">
-        <v>468</v>
-      </c>
-      <c r="AF4" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="AG4" s="87" t="s">
-        <v>472</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>470</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>471</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AK4" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="AL4" s="62">
-        <v>289</v>
-      </c>
-      <c r="AM4" s="62" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:T1 AN1:XFD1">
-    <cfRule type="containsText" dxfId="81" priority="11" operator="containsText" text="~*">
+  <conditionalFormatting sqref="AN1:XFD1 A1:T1">
+    <cfRule type="containsText" dxfId="79" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U1:W1">
-    <cfRule type="containsText" dxfId="80" priority="10" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="78" priority="10" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",U1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X1:Z1">
-    <cfRule type="containsText" dxfId="79" priority="9" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="77" priority="9" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",X1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AM1">
-    <cfRule type="containsText" dxfId="78" priority="4" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="76" priority="4" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1 AA1:AB1">
-    <cfRule type="containsText" dxfId="77" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="75" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ1">
-    <cfRule type="containsText" dxfId="76" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="74" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AJ1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC1:AD1">
-    <cfRule type="containsText" dxfId="75" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="73" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AC1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063F6330-2473-4301-8FE6-9C4C7B20F42A}">
+  <dimension ref="A1:AH4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="6" width="12.140625" customWidth="1"/>
+    <col min="7" max="7" width="8.7109375" style="99" customWidth="1"/>
+    <col min="8" max="8" width="8.7109375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.7109375" style="102" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="3" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
+    <col min="13" max="15" width="8.7109375" customWidth="1"/>
+    <col min="16" max="16" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8" style="60" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8" customWidth="1"/>
+    <col min="20" max="20" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13" style="58" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.42578125" style="111" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.42578125" style="111" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>415</v>
+      </c>
+      <c r="E1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" t="s">
+        <v>417</v>
+      </c>
+      <c r="G1" s="97" t="s">
+        <v>416</v>
+      </c>
+      <c r="H1" s="100" t="s">
+        <v>416</v>
+      </c>
+      <c r="I1" s="100" t="s">
+        <v>416</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="P1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="T1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="U1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="V1" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="W1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="X1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="Y1" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="Z1" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="AA1" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="AB1" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="AC1" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="AD1" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="AE1" s="59" t="s">
+        <v>421</v>
+      </c>
+      <c r="AF1" s="109" t="s">
+        <v>422</v>
+      </c>
+      <c r="AG1" s="109" t="s">
+        <v>422</v>
+      </c>
+      <c r="AH1" s="109" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>418</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>561</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G2" s="98" t="s">
+        <v>424</v>
+      </c>
+      <c r="H2" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="I2" s="108" t="s">
+        <v>424</v>
+      </c>
+      <c r="J2" s="79" t="s">
+        <v>5</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="L2" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="M2" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="Q2" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="R2" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>466</v>
+      </c>
+      <c r="V2" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="W2" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="Y2" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="Z2" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="AA2" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="AB2" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="AC2" s="61" t="s">
+        <v>438</v>
+      </c>
+      <c r="AD2" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE2" s="61" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF2" s="110" t="s">
+        <v>441</v>
+      </c>
+      <c r="AG2" s="8" t="s">
+        <v>437</v>
+      </c>
+      <c r="AH2" s="110" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="M3" s="28"/>
+    </row>
+    <row r="4" spans="1:34" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>420</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>423</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>428</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>240</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>425</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>426</v>
+      </c>
+      <c r="J4" s="103" t="s">
+        <v>429</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>432</v>
+      </c>
+      <c r="L4" s="31"/>
+      <c r="M4" s="29" t="s">
+        <v>430</v>
+      </c>
+      <c r="N4" s="29" t="s">
+        <v>431</v>
+      </c>
+      <c r="P4" s="104" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q4" s="105" t="s">
+        <v>436</v>
+      </c>
+      <c r="R4" s="44" t="s">
+        <v>434</v>
+      </c>
+      <c r="S4" s="106" t="s">
+        <v>435</v>
+      </c>
+      <c r="T4" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="U4" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="V4" s="83" t="s">
+        <v>463</v>
+      </c>
+      <c r="W4" t="s">
+        <v>461</v>
+      </c>
+      <c r="X4" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z4" s="107" t="s">
+        <v>364</v>
+      </c>
+      <c r="AA4" s="107">
+        <v>289</v>
+      </c>
+      <c r="AB4" s="107" t="s">
+        <v>365</v>
+      </c>
+      <c r="AC4" s="61" t="s">
+        <v>331</v>
+      </c>
+      <c r="AD4" s="8" t="s">
+        <v>439</v>
+      </c>
+      <c r="AE4" s="61" t="s">
+        <v>440</v>
+      </c>
+      <c r="AF4" s="110" t="s">
+        <v>442</v>
+      </c>
+      <c r="AG4" s="8" t="s">
+        <v>443</v>
+      </c>
+      <c r="AH4" s="110" t="s">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K1:L1 AC1 N1:O1 A1:F1 AF1 AI1:XFD1">
+    <cfRule type="containsText" dxfId="72" priority="14" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Z1:AB1">
+    <cfRule type="containsText" dxfId="71" priority="8" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",Z1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P1:Q1">
+    <cfRule type="containsText" dxfId="70" priority="7" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",P1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R1:S1">
+    <cfRule type="containsText" dxfId="69" priority="6" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V1">
+    <cfRule type="containsText" dxfId="68" priority="5" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",V1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1">
+    <cfRule type="containsText" dxfId="67" priority="4" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",Y1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AD1">
+    <cfRule type="containsText" dxfId="66" priority="3" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AE1">
+    <cfRule type="containsText" dxfId="65" priority="2" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AE1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AG1:AH1">
+    <cfRule type="containsText" dxfId="64" priority="1" operator="containsText" text="~*">
+      <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="S4" r:id="rId1" xr:uid="{0A7080A1-871E-4178-B33A-58D688B4251E}"/>
+    <hyperlink ref="Q4" r:id="rId2" xr:uid="{9753B675-5FD4-4255-855F-50989EE18B68}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21B3225A-CA96-4372-AB7E-97999D11252D}">
   <dimension ref="A1:BV4"/>
   <sheetViews>
@@ -5752,30 +6308,30 @@
     <col min="37" max="38" width="15.5703125" style="46" customWidth="1"/>
     <col min="39" max="44" width="8.7109375" style="41" customWidth="1"/>
     <col min="45" max="50" width="8.7109375" customWidth="1"/>
-    <col min="51" max="51" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="52" max="52" width="8" style="64" customWidth="1"/>
+    <col min="51" max="51" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="8" style="60" customWidth="1"/>
     <col min="53" max="53" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="8" customWidth="1"/>
-    <col min="55" max="55" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
     <col min="58" max="58" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="60" max="60" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="11" style="62" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="13" style="62" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="13" style="58" bestFit="1" customWidth="1"/>
     <col min="64" max="65" width="8.7109375" style="42" customWidth="1"/>
     <col min="66" max="67" width="8.7109375" customWidth="1"/>
     <col min="68" max="69" width="8.7109375" style="42" customWidth="1"/>
-    <col min="70" max="71" width="8.7109375" style="67" customWidth="1"/>
-    <col min="72" max="73" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.7109375" style="68" customWidth="1"/>
+    <col min="70" max="71" width="8.7109375" style="63" customWidth="1"/>
+    <col min="72" max="73" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.7109375" style="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -5784,10 +6340,10 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
@@ -5796,70 +6352,70 @@
         <v>106</v>
       </c>
       <c r="H1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I1" t="s">
+        <v>171</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="Z1" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AB1" s="36" t="s">
         <v>190</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AC1" s="36" t="s">
         <v>191</v>
-      </c>
-      <c r="AB1" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="AC1" s="36" t="s">
-        <v>193</v>
       </c>
       <c r="AD1" s="22" t="s">
         <v>0</v>
@@ -5871,135 +6427,135 @@
         <v>2</v>
       </c>
       <c r="AG1" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AH1" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="AI1" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="AM1" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AN1" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="AI1" s="37" t="s">
+      <c r="AO1" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AP1" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="AQ1" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="AR1" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="AS1" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AT1" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="AK1" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="AL1" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="AM1" s="38" t="s">
+      <c r="AU1" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="AN1" s="38" t="s">
+      <c r="AV1" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="AO1" s="38" t="s">
+      <c r="AW1" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="AP1" s="38" t="s">
+      <c r="AX1" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="AQ1" s="38" t="s">
+      <c r="AY1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AZ1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="BA1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="BB1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="BC1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="BD1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="BE1" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="BF1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="BG1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="BH1" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="BI1" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="BJ1" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="BK1" s="56" t="s">
+        <v>354</v>
+      </c>
+      <c r="BL1" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="AR1" s="38" t="s">
+      <c r="BM1" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="AS1" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="AT1" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="AU1" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="AV1" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="AW1" s="38" t="s">
+      <c r="BN1" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="AX1" s="38" t="s">
+      <c r="BO1" s="39" t="s">
         <v>201</v>
       </c>
-      <c r="AY1" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="AZ1" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="BA1" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="BB1" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="BC1" s="86" t="s">
-        <v>354</v>
-      </c>
-      <c r="BD1" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="BE1" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="BF1" s="86" t="s">
-        <v>354</v>
-      </c>
-      <c r="BG1" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="BH1" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="BI1" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="BJ1" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="BK1" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="BL1" s="39" t="s">
+      <c r="BP1" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="BQ1" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="BR1" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="BM1" s="39" t="s">
+      <c r="BS1" s="40" t="s">
         <v>203</v>
       </c>
-      <c r="BN1" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="BO1" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="BP1" s="39" t="s">
-        <v>202</v>
-      </c>
-      <c r="BQ1" s="39" t="s">
-        <v>203</v>
-      </c>
-      <c r="BR1" s="40" t="s">
+      <c r="BT1" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="BS1" s="40" t="s">
+      <c r="BU1" s="82" t="s">
         <v>205</v>
       </c>
-      <c r="BT1" s="86" t="s">
+      <c r="BV1" s="62" t="s">
         <v>206</v>
-      </c>
-      <c r="BU1" s="86" t="s">
-        <v>207</v>
-      </c>
-      <c r="BV1" s="66" t="s">
-        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:74" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>74</v>
@@ -6008,82 +6564,82 @@
         <v>75</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="E2" s="24" t="s">
+        <v>209</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>210</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>211</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="H2" s="34" t="s">
         <v>212</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="J2" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="K2" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="L2" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="K2" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="L2" s="24" t="s">
-        <v>218</v>
-      </c>
       <c r="M2" s="29" t="s">
+        <v>367</v>
+      </c>
+      <c r="N2" s="29" t="s">
+        <v>368</v>
+      </c>
+      <c r="O2" s="29" t="s">
+        <v>369</v>
+      </c>
+      <c r="P2" s="24" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q2" s="29" t="s">
+        <v>371</v>
+      </c>
+      <c r="R2" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="S2" s="29" t="s">
         <v>373</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="T2" s="24" t="s">
         <v>374</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="U2" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="V2" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="W2" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="X2" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="Y2" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="Z2" s="29" t="s">
         <v>380</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="AA2" s="24" t="s">
         <v>381</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="AB2" s="29" t="s">
         <v>382</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="AC2" s="29" t="s">
         <v>383</v>
-      </c>
-      <c r="Y2" s="29" t="s">
-        <v>384</v>
-      </c>
-      <c r="Z2" s="29" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA2" s="24" t="s">
-        <v>386</v>
-      </c>
-      <c r="AB2" s="29" t="s">
-        <v>387</v>
-      </c>
-      <c r="AC2" s="29" t="s">
-        <v>388</v>
       </c>
       <c r="AD2" s="30" t="s">
         <v>5</v>
@@ -6094,131 +6650,131 @@
       <c r="AF2" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AG2" s="71" t="s">
+      <c r="AG2" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="AH2" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>218</v>
+      </c>
+      <c r="AK2" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="AL2" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="AM2" s="68" t="s">
         <v>219</v>
       </c>
-      <c r="AH2" s="71" t="s">
+      <c r="AN2" s="69" t="s">
         <v>220</v>
       </c>
-      <c r="AI2" s="24" t="s">
+      <c r="AO2" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP2" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="AQ2" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="AR2" s="68" t="s">
+        <v>224</v>
+      </c>
+      <c r="AS2" s="29" t="s">
         <v>219</v>
       </c>
-      <c r="AJ2" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="AK2" s="71" t="s">
-        <v>219</v>
-      </c>
-      <c r="AL2" s="71" t="s">
-        <v>220</v>
-      </c>
-      <c r="AM2" s="72" t="s">
+      <c r="AT2" s="24" t="s">
+        <v>225</v>
+      </c>
+      <c r="AU2" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="AN2" s="73" t="s">
+      <c r="AV2" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="AO2" s="72" t="s">
+      <c r="AW2" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="AP2" s="72" t="s">
+      <c r="AX2" s="29" t="s">
         <v>224</v>
       </c>
-      <c r="AQ2" s="72" t="s">
-        <v>225</v>
-      </c>
-      <c r="AR2" s="72" t="s">
+      <c r="AY2" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="AZ2" s="61" t="s">
+        <v>356</v>
+      </c>
+      <c r="BA2" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="BB2" s="29" t="s">
+        <v>356</v>
+      </c>
+      <c r="BC2" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="BD2" s="84" t="s">
+        <v>466</v>
+      </c>
+      <c r="BE2" s="84" t="s">
+        <v>357</v>
+      </c>
+      <c r="BF2" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="BG2" s="24" t="s">
+        <v>466</v>
+      </c>
+      <c r="BH2" s="24" t="s">
+        <v>357</v>
+      </c>
+      <c r="BI2" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="BJ2" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="BK2" s="57" t="s">
+        <v>359</v>
+      </c>
+      <c r="BL2" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="AS2" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="AT2" s="24" t="s">
+      <c r="BM2" s="70" t="s">
         <v>227</v>
       </c>
-      <c r="AU2" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="AV2" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="AW2" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="AX2" s="29" t="s">
+      <c r="BN2" s="29" t="s">
         <v>226</v>
       </c>
-      <c r="AY2" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="AZ2" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="BA2" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="BB2" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="BC2" s="88" t="s">
-        <v>474</v>
-      </c>
-      <c r="BD2" s="88" t="s">
-        <v>475</v>
-      </c>
-      <c r="BE2" s="88" t="s">
-        <v>362</v>
-      </c>
-      <c r="BF2" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="BG2" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="BH2" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="BI2" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="BJ2" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="BK2" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="BL2" s="74" t="s">
+      <c r="BO2" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="BP2" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="BQ2" s="70" t="s">
+        <v>227</v>
+      </c>
+      <c r="BR2" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="BM2" s="74" t="s">
+      <c r="BS2" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="BN2" s="29" t="s">
-        <v>228</v>
-      </c>
-      <c r="BO2" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="BP2" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="BQ2" s="74" t="s">
-        <v>229</v>
-      </c>
-      <c r="BR2" s="75" t="s">
+      <c r="BT2" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="BS2" s="75" t="s">
+      <c r="BU2" s="84" t="s">
         <v>231</v>
       </c>
-      <c r="BT2" s="88" t="s">
+      <c r="BV2" s="72" t="s">
         <v>232</v>
-      </c>
-      <c r="BU2" s="88" t="s">
-        <v>233</v>
-      </c>
-      <c r="BV2" s="76" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="3" spans="1:74" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -6226,7 +6782,7 @@
         <v>103</v>
       </c>
       <c r="L3" s="18"/>
-      <c r="AD3" s="54"/>
+      <c r="AD3" s="50"/>
       <c r="AY3" s="27"/>
       <c r="AZ3" s="27"/>
       <c r="BA3" s="27"/>
@@ -6245,7 +6801,7 @@
     </row>
     <row r="4" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -6254,289 +6810,289 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="J4" t="s">
+        <v>238</v>
+      </c>
+      <c r="K4" t="s">
         <v>239</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>240</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>241</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>242</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>243</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>244</v>
-      </c>
-      <c r="O4" t="s">
-        <v>245</v>
-      </c>
-      <c r="P4" t="s">
-        <v>246</v>
       </c>
       <c r="Q4">
         <v>80</v>
       </c>
       <c r="R4" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="S4">
         <v>10</v>
       </c>
       <c r="T4" t="s">
+        <v>246</v>
+      </c>
+      <c r="U4" t="s">
+        <v>247</v>
+      </c>
+      <c r="V4" s="43" t="s">
+        <v>166</v>
+      </c>
+      <c r="W4" s="44" t="s">
         <v>248</v>
       </c>
-      <c r="U4" t="s">
+      <c r="X4" t="s">
         <v>249</v>
       </c>
-      <c r="V4" s="43" t="s">
-        <v>168</v>
-      </c>
-      <c r="W4" s="44" t="s">
+      <c r="Y4" t="s">
         <v>250</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Z4" t="s">
         <v>251</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AA4" t="s">
         <v>252</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AB4" t="s">
         <v>253</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AC4" t="s">
         <v>254</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AD4" s="25" t="s">
         <v>255</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AE4" s="45" t="s">
         <v>256</v>
       </c>
-      <c r="AD4" s="25" t="s">
+      <c r="AG4" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="AE4" s="45" t="s">
+      <c r="AH4" s="46" t="s">
         <v>258</v>
       </c>
-      <c r="AG4" s="46" t="s">
+      <c r="AI4" t="s">
         <v>259</v>
       </c>
-      <c r="AH4" s="46" t="s">
+      <c r="AJ4" t="s">
         <v>260</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AK4" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AL4" s="46" t="s">
         <v>262</v>
       </c>
-      <c r="AK4" s="46" t="s">
+      <c r="AM4" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="AL4" s="46" t="s">
+      <c r="AN4" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="AM4" s="41" t="s">
+      <c r="AO4" s="41" t="s">
+        <v>221</v>
+      </c>
+      <c r="AP4" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="AN4" s="41" t="s">
+      <c r="AQ4" s="41" t="s">
         <v>266</v>
       </c>
-      <c r="AO4" s="41" t="s">
-        <v>223</v>
-      </c>
-      <c r="AP4" s="41" t="s">
+      <c r="AS4" t="s">
         <v>267</v>
       </c>
-      <c r="AQ4" s="41" t="s">
+      <c r="AT4" t="s">
         <v>268</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AU4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV4" t="s">
         <v>269</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AW4" t="s">
         <v>270</v>
       </c>
-      <c r="AU4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AV4" t="s">
+      <c r="AY4" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="AZ4" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="BA4" t="s">
+        <v>362</v>
+      </c>
+      <c r="BB4" t="s">
+        <v>363</v>
+      </c>
+      <c r="BC4" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="BD4" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="BE4" s="83" t="s">
+        <v>463</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>461</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>462</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="BI4" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="BJ4" s="58">
+        <v>289</v>
+      </c>
+      <c r="BK4" s="58" t="s">
+        <v>365</v>
+      </c>
+      <c r="BL4" s="42" t="s">
         <v>271</v>
       </c>
-      <c r="AW4" t="s">
+      <c r="BN4" t="s">
         <v>272</v>
       </c>
-      <c r="AY4" s="64" t="s">
-        <v>365</v>
-      </c>
-      <c r="AZ4" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="BA4" t="s">
-        <v>367</v>
-      </c>
-      <c r="BB4" t="s">
-        <v>368</v>
-      </c>
-      <c r="BC4" s="87" t="s">
-        <v>468</v>
-      </c>
-      <c r="BD4" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="BE4" s="87" t="s">
-        <v>472</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>470</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>471</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="BI4" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="BJ4" s="62">
-        <v>289</v>
-      </c>
-      <c r="BK4" s="62" t="s">
-        <v>370</v>
-      </c>
-      <c r="BL4" s="42" t="s">
+      <c r="BO4" t="s">
         <v>273</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BP4" s="42" t="s">
         <v>274</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BR4" s="63" t="s">
         <v>275</v>
       </c>
-      <c r="BP4" s="42" t="s">
+      <c r="BT4" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="BR4" s="67" t="s">
+      <c r="BU4" s="83" t="s">
         <v>277</v>
       </c>
-      <c r="BT4" s="87" t="s">
+      <c r="BV4" s="64" t="s">
         <v>278</v>
-      </c>
-      <c r="BU4" s="87" t="s">
-        <v>279</v>
-      </c>
-      <c r="BV4" s="68" t="s">
-        <v>280</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:F1 AE1:AF1 AM1:AR1 BV1:XFD1 BL1:BM1 H1:I1 M1:AC1">
-    <cfRule type="containsText" dxfId="74" priority="20" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="63" priority="20" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BR1:BS1">
-    <cfRule type="containsText" dxfId="73" priority="19" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BR1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG1:AH1">
-    <cfRule type="containsText" dxfId="72" priority="17" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="61" priority="17" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BN1:BO1">
-    <cfRule type="containsText" dxfId="71" priority="16" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="60" priority="16" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BN1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP1:BQ1">
-    <cfRule type="containsText" dxfId="70" priority="15" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="59" priority="15" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BP1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS1:AX1">
-    <cfRule type="containsText" dxfId="69" priority="14" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="58" priority="14" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AS1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G1">
-    <cfRule type="containsText" dxfId="68" priority="13" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="57" priority="13" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",G1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI1:AJ1">
-    <cfRule type="containsText" dxfId="67" priority="12" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="56" priority="12" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK1:AL1">
-    <cfRule type="containsText" dxfId="66" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="55" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AK1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:AC1">
-    <cfRule type="expression" dxfId="65" priority="9">
+    <cfRule type="expression" dxfId="54" priority="9">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*"&amp;LEFT(L$1, FIND(".", L$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L1:AC1">
-    <cfRule type="expression" dxfId="64" priority="10">
+    <cfRule type="expression" dxfId="53" priority="10">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*"&amp;LEFT(L$1, FIND(".", L$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="expression" dxfId="63" priority="8">
+    <cfRule type="expression" dxfId="52" priority="8">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*REFERENCE_ALIGNMENT*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_VARIATION*") + COUNTIF($I$4:$I$1048576,"*PROCESSED_READS*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_ANNOTATION*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:K1">
-    <cfRule type="expression" dxfId="62" priority="7">
+    <cfRule type="expression" dxfId="51" priority="7">
       <formula>IF(COUNTIF($I$4:$I$1048576,"*REFERENCE_ALIGNMENT*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_VARIATION*") + COUNTIF($I$4:$I$1048576,"*PROCESSED_READS*") + COUNTIF($I$4:$I$1048576,"*SEQUENCE_ANNOTATION*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BI1:BK1">
-    <cfRule type="containsText" dxfId="61" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="50" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BI1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AY1:AZ1">
-    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="49" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AY1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BA1:BB1">
-    <cfRule type="containsText" dxfId="59" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="48" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BA1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BE1">
-    <cfRule type="containsText" dxfId="58" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="47" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BE1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH1">
-    <cfRule type="containsText" dxfId="57" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="46" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BH1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6547,7 +7103,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BR4"/>
   <sheetViews>
@@ -6567,25 +7123,25 @@
     <col min="14" max="14" width="15.5703125" style="7" customWidth="1"/>
     <col min="15" max="18" width="15.5703125" style="8" customWidth="1"/>
     <col min="19" max="30" width="15.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="70" customWidth="1"/>
+    <col min="31" max="31" width="8.7109375" style="66" customWidth="1"/>
     <col min="32" max="41" width="8.7109375" style="11" customWidth="1"/>
     <col min="42" max="46" width="8.7109375" style="13" customWidth="1"/>
     <col min="47" max="51" width="8.7109375" style="9" customWidth="1"/>
     <col min="52" max="54" width="8.7109375" style="3" customWidth="1"/>
     <col min="55" max="55" width="9.140625" style="10"/>
-    <col min="58" max="58" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8" style="64" customWidth="1"/>
+    <col min="58" max="58" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8" style="60" customWidth="1"/>
     <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="8" customWidth="1"/>
-    <col min="62" max="62" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
     <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="66" max="66" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="67" max="67" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="11" style="62" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="13" style="62" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="13" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:70" x14ac:dyDescent="0.25">
@@ -6679,38 +7235,38 @@
       <c r="AD1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AE1" s="69" t="s">
+      <c r="AE1" s="65" t="s">
+        <v>384</v>
+      </c>
+      <c r="AF1" s="12" t="s">
+        <v>385</v>
+      </c>
+      <c r="AG1" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="AH1" s="12" t="s">
+        <v>387</v>
+      </c>
+      <c r="AI1" s="12" t="s">
+        <v>388</v>
+      </c>
+      <c r="AJ1" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>393</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>394</v>
-      </c>
-      <c r="AK1" s="12" t="s">
-        <v>395</v>
-      </c>
-      <c r="AL1" s="12" t="s">
-        <v>396</v>
-      </c>
-      <c r="AM1" s="12" t="s">
-        <v>397</v>
-      </c>
-      <c r="AN1" s="12" t="s">
-        <v>398</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>399</v>
       </c>
       <c r="AP1" s="14" t="s">
         <v>51</v>
@@ -6760,44 +7316,44 @@
       <c r="BE1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="BF1" s="63" t="s">
+      <c r="BF1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="BG1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="BH1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="BI1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="BJ1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="BK1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="BL1" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="BM1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="BN1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="BO1" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="BP1" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="BG1" s="63" t="s">
+      <c r="BQ1" s="56" t="s">
         <v>353</v>
       </c>
-      <c r="BH1" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="BI1" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="BJ1" s="86" t="s">
+      <c r="BR1" s="56" t="s">
         <v>354</v>
-      </c>
-      <c r="BK1" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="BL1" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="BM1" s="86" t="s">
-        <v>354</v>
-      </c>
-      <c r="BN1" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="BO1" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="BP1" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="BQ1" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="BR1" s="60" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:70" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -6840,7 +7396,7 @@
       <c r="M2" s="8" t="s">
         <v>121</v>
       </c>
-      <c r="N2" s="78" t="s">
+      <c r="N2" s="74" t="s">
         <v>122</v>
       </c>
       <c r="O2" s="15" t="s">
@@ -6891,125 +7447,125 @@
       <c r="AD2" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="AE2" s="79" t="s">
+      <c r="AE2" s="75" t="s">
         <v>82</v>
       </c>
-      <c r="AF2" s="80" t="s">
+      <c r="AF2" s="76" t="s">
         <v>73</v>
       </c>
-      <c r="AG2" s="80" t="s">
+      <c r="AG2" s="76" t="s">
         <v>72</v>
       </c>
-      <c r="AH2" s="80" t="s">
-        <v>400</v>
-      </c>
-      <c r="AI2" s="80" t="s">
+      <c r="AH2" s="76" t="s">
+        <v>395</v>
+      </c>
+      <c r="AI2" s="76" t="s">
         <v>99</v>
       </c>
-      <c r="AJ2" s="80" t="s">
+      <c r="AJ2" s="76" t="s">
         <v>71</v>
       </c>
-      <c r="AK2" s="80" t="s">
+      <c r="AK2" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="AL2" s="80" t="s">
+      <c r="AL2" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="AM2" s="80" t="s">
+      <c r="AM2" s="76" t="s">
         <v>69</v>
       </c>
-      <c r="AN2" s="80" t="s">
+      <c r="AN2" s="76" t="s">
         <v>68</v>
       </c>
-      <c r="AO2" s="80" t="s">
+      <c r="AO2" s="76" t="s">
         <v>100</v>
       </c>
-      <c r="AP2" s="81" t="s">
+      <c r="AP2" s="77" t="s">
         <v>57</v>
       </c>
-      <c r="AQ2" s="81" t="s">
+      <c r="AQ2" s="77" t="s">
         <v>126</v>
       </c>
-      <c r="AR2" s="81" t="s">
+      <c r="AR2" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="AS2" s="81" t="s">
+      <c r="AS2" s="77" t="s">
         <v>59</v>
       </c>
-      <c r="AT2" s="81" t="s">
+      <c r="AT2" s="77" t="s">
         <v>60</v>
       </c>
-      <c r="AU2" s="82" t="s">
+      <c r="AU2" s="78" t="s">
         <v>57</v>
       </c>
-      <c r="AV2" s="82" t="s">
+      <c r="AV2" s="78" t="s">
         <v>56</v>
       </c>
-      <c r="AW2" s="82" t="s">
+      <c r="AW2" s="78" t="s">
         <v>58</v>
       </c>
-      <c r="AX2" s="82" t="s">
+      <c r="AX2" s="78" t="s">
         <v>59</v>
       </c>
-      <c r="AY2" s="82" t="s">
+      <c r="AY2" s="78" t="s">
         <v>60</v>
       </c>
-      <c r="AZ2" s="83" t="s">
+      <c r="AZ2" s="79" t="s">
         <v>5</v>
       </c>
       <c r="BA2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="BB2" s="83" t="s">
+      <c r="BB2" s="79" t="s">
         <v>7</v>
       </c>
-      <c r="BC2" s="82" t="s">
+      <c r="BC2" s="78" t="s">
         <v>5</v>
       </c>
       <c r="BD2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="BE2" s="82" t="s">
+      <c r="BE2" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="BF2" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="BG2" s="65" t="s">
-        <v>361</v>
+      <c r="BF2" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="BG2" s="61" t="s">
+        <v>356</v>
       </c>
       <c r="BH2" s="29" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="BI2" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="BJ2" s="88" t="s">
-        <v>474</v>
-      </c>
-      <c r="BK2" s="88" t="s">
-        <v>475</v>
-      </c>
-      <c r="BL2" s="88" t="s">
-        <v>362</v>
+        <v>356</v>
+      </c>
+      <c r="BJ2" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="BK2" s="84" t="s">
+        <v>466</v>
+      </c>
+      <c r="BL2" s="84" t="s">
+        <v>357</v>
       </c>
       <c r="BM2" s="24" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="BN2" s="24" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="BO2" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="BP2" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="BQ2" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="BR2" s="61" t="s">
-        <v>364</v>
+        <v>357</v>
+      </c>
+      <c r="BP2" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="BQ2" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="BR2" s="57" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:70" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -7020,7 +7576,7 @@
       <c r="P3" s="21"/>
       <c r="Q3" s="21"/>
       <c r="R3" s="21"/>
-      <c r="AE3" s="54"/>
+      <c r="AE3" s="50"/>
       <c r="BF3" s="27"/>
       <c r="BG3" s="27"/>
       <c r="BH3" s="27"/>
@@ -7135,119 +7691,109 @@
       <c r="BD4" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="BF4" s="64" t="s">
+      <c r="BF4" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="BG4" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="BH4" t="s">
+        <v>362</v>
+      </c>
+      <c r="BI4" t="s">
+        <v>363</v>
+      </c>
+      <c r="BJ4" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="BK4" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="BL4" s="83" t="s">
+        <v>463</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>461</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>462</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="BP4" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="BQ4" s="58">
+        <v>289</v>
+      </c>
+      <c r="BR4" s="58" t="s">
         <v>365</v>
-      </c>
-      <c r="BG4" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="BH4" t="s">
-        <v>367</v>
-      </c>
-      <c r="BI4" t="s">
-        <v>368</v>
-      </c>
-      <c r="BJ4" s="87" t="s">
-        <v>468</v>
-      </c>
-      <c r="BK4" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="BL4" s="87" t="s">
-        <v>472</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>470</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>471</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="BP4" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="BQ4" s="62">
-        <v>289</v>
-      </c>
-      <c r="BR4" s="62" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="P1 BA1:BB1 BS1:XFD1 A1:L1">
-    <cfRule type="containsText" dxfId="56" priority="24" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="45" priority="24" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O1">
-    <cfRule type="containsText" dxfId="55" priority="22" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="44" priority="22" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",O1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q1:R1">
-    <cfRule type="containsText" dxfId="54" priority="21" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="43" priority="21" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",Q1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BD1:BE1">
-    <cfRule type="containsText" dxfId="53" priority="20" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="42" priority="20" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BD1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1">
-    <cfRule type="expression" dxfId="52" priority="15">
+  <conditionalFormatting sqref="S1:AC1">
+    <cfRule type="expression" dxfId="41" priority="15">
       <formula>IF(COUNTIF($R$4:$R$1048576,"*"&amp;LEFT(S$1, FIND(".", S$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="S1">
-    <cfRule type="expression" dxfId="51" priority="11">
+  <conditionalFormatting sqref="S1:AC1">
+    <cfRule type="expression" dxfId="40" priority="11">
       <formula>IF(COUNTIF($R$4:$R$1048576,"*"&amp;LEFT(S$1, FIND(".", S$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="T1:AC1">
-    <cfRule type="expression" dxfId="50" priority="9">
-      <formula>IF(COUNTIF($R$4:$R$1048576,"*"&amp;LEFT(T$1, FIND(".", T$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="T1:AC1">
-    <cfRule type="expression" dxfId="49" priority="10">
-      <formula>IF(COUNTIF($R$4:$R$1048576,"*"&amp;LEFT(T$1, FIND(".", T$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="expression" dxfId="48" priority="7">
+    <cfRule type="expression" dxfId="39" priority="7">
       <formula>IF(COUNTIF($L$4:$L$1048576,"*"&amp;LEFT(M$1, FIND(".", M$1)-1)&amp;"*"),"FALSE","TRUE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M1:N1">
-    <cfRule type="expression" dxfId="47" priority="8">
+    <cfRule type="expression" dxfId="38" priority="8">
       <formula>IF(COUNTIF($L$4:$L$1048576,"*"&amp;LEFT(M$1, FIND(".", M$1)-1)&amp;"*"),"TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BP1:BR1">
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="37" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BP1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BF1:BG1">
-    <cfRule type="containsText" dxfId="45" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="36" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BF1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BH1:BI1">
-    <cfRule type="containsText" dxfId="44" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="35" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BH1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BL1">
-    <cfRule type="containsText" dxfId="43" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="34" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BL1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="BO1">
-    <cfRule type="containsText" dxfId="42" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="33" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",BO1)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7256,7 +7802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06C207F4-C211-4748-AEDC-244AE980111F}">
   <dimension ref="A1:AX4"/>
   <sheetViews>
@@ -7279,27 +7825,27 @@
     <col min="16" max="17" width="15.5703125" style="46" customWidth="1"/>
     <col min="18" max="19" width="15.5703125" customWidth="1"/>
     <col min="20" max="21" width="15.5703125" style="46" customWidth="1"/>
-    <col min="22" max="28" width="8.7109375" style="55" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="55"/>
+    <col min="22" max="28" width="8.7109375" style="51" customWidth="1"/>
+    <col min="29" max="29" width="9.140625" style="51"/>
     <col min="30" max="36" width="8.7109375" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="39" max="39" width="8" style="64" customWidth="1"/>
+    <col min="38" max="38" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="8" style="60" customWidth="1"/>
     <col min="40" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8" customWidth="1"/>
-    <col min="42" max="42" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.140625" style="83" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
     <col min="45" max="45" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="46" max="46" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="11" style="62" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="13" style="62" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="11" style="58" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="13" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -7308,22 +7854,22 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="59" t="s">
-        <v>318</v>
+      <c r="G1" s="55" t="s">
+        <v>313</v>
       </c>
       <c r="H1" s="36" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="I1" s="36" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>0</v>
@@ -7344,114 +7890,114 @@
         <v>2</v>
       </c>
       <c r="P1" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q1" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="R1" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>193</v>
+      </c>
+      <c r="V1" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="W1" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="X1" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="AB1" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>316</v>
+      </c>
+      <c r="AD1" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="S1" s="37" t="s">
+      <c r="AE1" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="T1" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="V1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="AG1" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="Y1" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z1" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="AA1" s="38" t="s">
-        <v>319</v>
-      </c>
-      <c r="AB1" s="38" t="s">
-        <v>320</v>
-      </c>
-      <c r="AC1" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="AD1" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="AE1" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="AF1" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="AG1" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="AH1" s="38" t="s">
-        <v>200</v>
-      </c>
       <c r="AI1" s="38" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="AJ1" s="38" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="AK1" s="38" t="s">
-        <v>321</v>
-      </c>
-      <c r="AL1" s="63" t="s">
+        <v>316</v>
+      </c>
+      <c r="AL1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AM1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="AN1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AO1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="AP1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="AQ1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="AR1" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="AS1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="AT1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="AU1" s="82" t="s">
+        <v>351</v>
+      </c>
+      <c r="AV1" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="AM1" s="63" t="s">
+      <c r="AW1" s="56" t="s">
         <v>353</v>
       </c>
-      <c r="AN1" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="AO1" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="AP1" s="86" t="s">
+      <c r="AX1" s="56" t="s">
         <v>354</v>
-      </c>
-      <c r="AQ1" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="AR1" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="AS1" s="86" t="s">
-        <v>354</v>
-      </c>
-      <c r="AT1" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="AU1" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="AV1" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="AW1" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="AX1" s="60" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="2" spans="1:50" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>74</v>
@@ -7460,22 +8006,22 @@
         <v>75</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="G2" s="24" t="s">
-        <v>547</v>
+        <v>538</v>
       </c>
       <c r="H2" s="24" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>5</v>
@@ -7495,117 +8041,117 @@
       <c r="O2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="P2" s="71" t="s">
+      <c r="P2" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="Q2" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="R2" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>324</v>
+      </c>
+      <c r="T2" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="U2" s="67" t="s">
+        <v>324</v>
+      </c>
+      <c r="V2" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="W2" s="80" t="s">
+        <v>326</v>
+      </c>
+      <c r="X2" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y2" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="Z2" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="AA2" s="81" t="s">
+        <v>327</v>
+      </c>
+      <c r="AB2" s="81" t="s">
         <v>328</v>
       </c>
-      <c r="Q2" s="71" t="s">
+      <c r="AC2" s="81" t="s">
         <v>329</v>
       </c>
-      <c r="R2" s="24" t="s">
-        <v>328</v>
-      </c>
-      <c r="S2" s="24" t="s">
+      <c r="AD2" s="24" t="s">
+        <v>325</v>
+      </c>
+      <c r="AE2" s="24" t="s">
+        <v>326</v>
+      </c>
+      <c r="AF2" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG2" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="AH2" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="AI2" s="29" t="s">
+        <v>327</v>
+      </c>
+      <c r="AJ2" s="29" t="s">
+        <v>330</v>
+      </c>
+      <c r="AK2" s="29" t="s">
         <v>329</v>
       </c>
-      <c r="T2" s="71" t="s">
-        <v>328</v>
-      </c>
-      <c r="U2" s="71" t="s">
-        <v>329</v>
-      </c>
-      <c r="V2" s="84" t="s">
-        <v>330</v>
-      </c>
-      <c r="W2" s="84" t="s">
-        <v>331</v>
-      </c>
-      <c r="X2" s="85" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y2" s="85" t="s">
-        <v>224</v>
-      </c>
-      <c r="Z2" s="85" t="s">
-        <v>225</v>
-      </c>
-      <c r="AA2" s="85" t="s">
-        <v>332</v>
-      </c>
-      <c r="AB2" s="85" t="s">
-        <v>333</v>
-      </c>
-      <c r="AC2" s="85" t="s">
-        <v>334</v>
-      </c>
-      <c r="AD2" s="24" t="s">
-        <v>330</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>331</v>
-      </c>
-      <c r="AF2" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG2" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="AH2" s="29" t="s">
-        <v>225</v>
-      </c>
-      <c r="AI2" s="29" t="s">
-        <v>332</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>335</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>334</v>
-      </c>
-      <c r="AL2" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="AM2" s="65" t="s">
-        <v>361</v>
+      <c r="AL2" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="AM2" s="61" t="s">
+        <v>356</v>
       </c>
       <c r="AN2" s="29" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="AO2" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="AP2" s="88" t="s">
-        <v>474</v>
-      </c>
-      <c r="AQ2" s="88" t="s">
-        <v>475</v>
-      </c>
-      <c r="AR2" s="88" t="s">
-        <v>362</v>
+        <v>356</v>
+      </c>
+      <c r="AP2" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="AQ2" s="84" t="s">
+        <v>466</v>
+      </c>
+      <c r="AR2" s="84" t="s">
+        <v>357</v>
       </c>
       <c r="AS2" s="24" t="s">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AT2" s="24" t="s">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="AU2" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="AV2" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="AW2" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="AX2" s="61" t="s">
-        <v>364</v>
+        <v>357</v>
+      </c>
+      <c r="AV2" s="57" t="s">
+        <v>366</v>
+      </c>
+      <c r="AW2" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="AX2" s="57" t="s">
+        <v>359</v>
       </c>
     </row>
-    <row r="3" spans="1:50" s="57" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:50" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="52" t="s">
         <v>103</v>
       </c>
-      <c r="M3" s="58"/>
+      <c r="M3" s="54"/>
       <c r="AL3" s="27"/>
       <c r="AM3" s="27"/>
       <c r="AN3" s="27"/>
@@ -7622,7 +8168,7 @@
     </row>
     <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -7631,610 +8177,197 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4" t="s">
+        <v>333</v>
+      </c>
+      <c r="G4" t="s">
+        <v>334</v>
+      </c>
+      <c r="H4" t="s">
+        <v>238</v>
+      </c>
+      <c r="I4" t="s">
+        <v>239</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>335</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="M4" t="s">
+        <v>337</v>
+      </c>
+      <c r="N4" t="s">
         <v>338</v>
       </c>
-      <c r="G4" t="s">
+      <c r="P4" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>258</v>
+      </c>
+      <c r="R4" t="s">
+        <v>259</v>
+      </c>
+      <c r="S4" t="s">
+        <v>260</v>
+      </c>
+      <c r="T4" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="U4" s="46" t="s">
+        <v>262</v>
+      </c>
+      <c r="V4" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="H4" t="s">
-        <v>240</v>
-      </c>
-      <c r="I4" t="s">
-        <v>241</v>
-      </c>
-      <c r="J4" s="25" t="s">
+      <c r="W4" s="51" t="s">
+        <v>264</v>
+      </c>
+      <c r="X4" s="51" t="s">
+        <v>221</v>
+      </c>
+      <c r="Y4" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z4" s="51" t="s">
+        <v>270</v>
+      </c>
+      <c r="AA4" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="AB4" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="M4" t="s">
+      <c r="AC4" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="N4" t="s">
+      <c r="AD4" t="s">
         <v>343</v>
       </c>
-      <c r="P4" s="46" t="s">
-        <v>259</v>
-      </c>
-      <c r="Q4" s="46" t="s">
-        <v>260</v>
-      </c>
-      <c r="R4" t="s">
-        <v>261</v>
-      </c>
-      <c r="S4" t="s">
-        <v>262</v>
-      </c>
-      <c r="T4" s="46" t="s">
-        <v>263</v>
-      </c>
-      <c r="U4" s="46" t="s">
-        <v>264</v>
-      </c>
-      <c r="V4" s="55" t="s">
+      <c r="AE4" t="s">
         <v>344</v>
       </c>
-      <c r="W4" s="55" t="s">
-        <v>266</v>
-      </c>
-      <c r="X4" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="Y4" s="55" t="s">
-        <v>271</v>
-      </c>
-      <c r="Z4" s="55" t="s">
-        <v>272</v>
-      </c>
-      <c r="AA4" s="55" t="s">
+      <c r="AF4" t="s">
+        <v>221</v>
+      </c>
+      <c r="AG4" t="s">
         <v>345</v>
       </c>
-      <c r="AB4" s="55" t="s">
+      <c r="AH4" t="s">
         <v>346</v>
       </c>
-      <c r="AC4" s="55" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD4" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>223</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>350</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>351</v>
-      </c>
       <c r="AI4" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="AJ4" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="AK4" t="s">
-        <v>347</v>
-      </c>
-      <c r="AL4" s="64" t="s">
+        <v>342</v>
+      </c>
+      <c r="AL4" s="60" t="s">
+        <v>360</v>
+      </c>
+      <c r="AM4" s="60" t="s">
+        <v>361</v>
+      </c>
+      <c r="AN4" t="s">
+        <v>362</v>
+      </c>
+      <c r="AO4" t="s">
+        <v>363</v>
+      </c>
+      <c r="AP4" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="AQ4" s="83" t="s">
+        <v>460</v>
+      </c>
+      <c r="AR4" s="83" t="s">
+        <v>463</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>462</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="AV4" s="58" t="s">
+        <v>364</v>
+      </c>
+      <c r="AW4" s="58">
+        <v>289</v>
+      </c>
+      <c r="AX4" s="58" t="s">
         <v>365</v>
-      </c>
-      <c r="AM4" s="64" t="s">
-        <v>366</v>
-      </c>
-      <c r="AN4" t="s">
-        <v>367</v>
-      </c>
-      <c r="AO4" t="s">
-        <v>368</v>
-      </c>
-      <c r="AP4" s="87" t="s">
-        <v>468</v>
-      </c>
-      <c r="AQ4" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="AR4" s="87" t="s">
-        <v>472</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>470</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>471</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="AV4" s="62" t="s">
-        <v>369</v>
-      </c>
-      <c r="AW4" s="62">
-        <v>289</v>
-      </c>
-      <c r="AX4" s="62" t="s">
-        <v>370</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:G1 K1:L1 V1:AC1 AY1:XFD1 P1:Q1">
-    <cfRule type="containsText" dxfId="41" priority="12" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="32" priority="12" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R1:S1">
-    <cfRule type="containsText" dxfId="40" priority="11" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="31" priority="11" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T1:U1">
-    <cfRule type="containsText" dxfId="39" priority="10" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="30" priority="10" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",T1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H1:I1">
-    <cfRule type="containsText" dxfId="38" priority="9" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="29" priority="9" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",H1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD1:AK1">
-    <cfRule type="containsText" dxfId="37" priority="8" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="28" priority="8" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N1:O1">
-    <cfRule type="containsText" dxfId="36" priority="7" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",N1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AV1:AX1">
-    <cfRule type="containsText" dxfId="35" priority="6" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AV1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL1:AM1">
-    <cfRule type="containsText" dxfId="34" priority="5" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AL1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN1:AO1">
-    <cfRule type="containsText" dxfId="33" priority="3" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AN1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR1">
-    <cfRule type="containsText" dxfId="32" priority="2" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AR1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AU1">
-    <cfRule type="containsText" dxfId="31" priority="1" operator="containsText" text="~*">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="~*">
       <formula>NOT(ISERROR(SEARCH("~*",AU1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{063F6330-2473-4301-8FE6-9C4C7B20F42A}">
-  <dimension ref="A1:AH4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
-    <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="103" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="106" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="3" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
-    <col min="13" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8" style="64" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="87" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="87" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="87" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11" style="62" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" style="62" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="13" style="62" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="115" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" style="115" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>421</v>
-      </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" t="s">
-        <v>424</v>
-      </c>
-      <c r="G1" s="101" t="s">
-        <v>422</v>
-      </c>
-      <c r="H1" s="104" t="s">
-        <v>422</v>
-      </c>
-      <c r="I1" s="104" t="s">
-        <v>422</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="N1" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="O1" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="Q1" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="R1" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="S1" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="T1" s="86" t="s">
-        <v>354</v>
-      </c>
-      <c r="U1" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="V1" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="W1" s="86" t="s">
-        <v>354</v>
-      </c>
-      <c r="X1" s="86" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y1" s="86" t="s">
-        <v>356</v>
-      </c>
-      <c r="Z1" s="60" t="s">
-        <v>357</v>
-      </c>
-      <c r="AA1" s="60" t="s">
-        <v>358</v>
-      </c>
-      <c r="AB1" s="60" t="s">
-        <v>359</v>
-      </c>
-      <c r="AC1" s="63" t="s">
-        <v>429</v>
-      </c>
-      <c r="AD1" s="63" t="s">
-        <v>429</v>
-      </c>
-      <c r="AE1" s="63" t="s">
-        <v>429</v>
-      </c>
-      <c r="AF1" s="113" t="s">
-        <v>430</v>
-      </c>
-      <c r="AG1" s="113" t="s">
-        <v>430</v>
-      </c>
-      <c r="AH1" s="113" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>426</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>425</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>431</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>436</v>
-      </c>
-      <c r="G2" s="102" t="s">
-        <v>433</v>
-      </c>
-      <c r="H2" s="82" t="s">
-        <v>433</v>
-      </c>
-      <c r="I2" s="112" t="s">
-        <v>433</v>
-      </c>
-      <c r="J2" s="83" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="L2" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="N2" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="O2" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="P2" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="Q2" s="65" t="s">
-        <v>361</v>
-      </c>
-      <c r="R2" s="29" t="s">
-        <v>360</v>
-      </c>
-      <c r="S2" s="29" t="s">
-        <v>361</v>
-      </c>
-      <c r="T2" s="88" t="s">
-        <v>474</v>
-      </c>
-      <c r="U2" s="88" t="s">
-        <v>475</v>
-      </c>
-      <c r="V2" s="88" t="s">
-        <v>362</v>
-      </c>
-      <c r="W2" s="24" t="s">
-        <v>474</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>475</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>362</v>
-      </c>
-      <c r="Z2" s="61" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA2" s="61" t="s">
-        <v>363</v>
-      </c>
-      <c r="AB2" s="61" t="s">
-        <v>364</v>
-      </c>
-      <c r="AC2" s="65" t="s">
-        <v>447</v>
-      </c>
-      <c r="AD2" s="8" t="s">
-        <v>447</v>
-      </c>
-      <c r="AE2" s="65" t="s">
-        <v>447</v>
-      </c>
-      <c r="AF2" s="114" t="s">
-        <v>450</v>
-      </c>
-      <c r="AG2" s="8" t="s">
-        <v>446</v>
-      </c>
-      <c r="AH2" s="114" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="G3" s="100"/>
-      <c r="H3" s="100"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="M3" s="28"/>
-    </row>
-    <row r="4" spans="1:34" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>427</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>428</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>432</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>437</v>
-      </c>
-      <c r="G4" s="102" t="s">
-        <v>242</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>434</v>
-      </c>
-      <c r="I4" s="105" t="s">
-        <v>435</v>
-      </c>
-      <c r="J4" s="107" t="s">
-        <v>438</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>441</v>
-      </c>
-      <c r="L4" s="31"/>
-      <c r="M4" s="29" t="s">
-        <v>439</v>
-      </c>
-      <c r="N4" s="29" t="s">
-        <v>440</v>
-      </c>
-      <c r="P4" s="108" t="s">
-        <v>442</v>
-      </c>
-      <c r="Q4" s="109" t="s">
-        <v>445</v>
-      </c>
-      <c r="R4" s="44" t="s">
-        <v>443</v>
-      </c>
-      <c r="S4" s="110" t="s">
-        <v>444</v>
-      </c>
-      <c r="T4" s="87" t="s">
-        <v>468</v>
-      </c>
-      <c r="U4" s="87" t="s">
-        <v>469</v>
-      </c>
-      <c r="V4" s="87" t="s">
-        <v>472</v>
-      </c>
-      <c r="W4" t="s">
-        <v>470</v>
-      </c>
-      <c r="X4" t="s">
-        <v>471</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="Z4" s="111" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA4" s="111">
-        <v>289</v>
-      </c>
-      <c r="AB4" s="111" t="s">
-        <v>370</v>
-      </c>
-      <c r="AC4" s="65" t="s">
-        <v>336</v>
-      </c>
-      <c r="AD4" s="8" t="s">
-        <v>448</v>
-      </c>
-      <c r="AE4" s="65" t="s">
-        <v>449</v>
-      </c>
-      <c r="AF4" s="114" t="s">
-        <v>451</v>
-      </c>
-      <c r="AG4" s="8" t="s">
-        <v>452</v>
-      </c>
-      <c r="AH4" s="114" t="s">
-        <v>453</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="K1:L1 AC1 N1:O1 A1:F1 AF1 AI1:XFD1">
-    <cfRule type="containsText" dxfId="30" priority="14" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",A1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Z1:AB1">
-    <cfRule type="containsText" dxfId="29" priority="8" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",Z1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P1:Q1">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",P1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R1:S1">
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",R1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="V1">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",V1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Y1">
-    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",Y1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AD1">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AD1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AE1">
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AE1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="AG1:AH1">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="~*">
-      <formula>NOT(ISERROR(SEARCH("~*",AG1)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="S4" r:id="rId1" xr:uid="{0A7080A1-871E-4178-B33A-58D688B4251E}"/>
-    <hyperlink ref="Q4" r:id="rId2" xr:uid="{9753B675-5FD4-4255-855F-50989EE18B68}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8253,23 +8386,23 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="117" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="118" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="113" customWidth="1"/>
+    <col min="6" max="7" width="8.7109375" style="114" customWidth="1"/>
     <col min="8" max="10" width="8.7109375" style="9" customWidth="1"/>
     <col min="11" max="11" width="8.7109375" style="3" customWidth="1"/>
     <col min="12" max="13" width="8.7109375" style="2" customWidth="1"/>
     <col min="14" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="64"/>
+    <col min="17" max="18" width="9.140625" style="60"/>
     <col min="19" max="20" width="9.140625" style="1"/>
-    <col min="21" max="22" width="9.140625" style="68"/>
+    <col min="21" max="22" width="9.140625" style="64"/>
     <col min="23" max="24" width="9.140625" style="1"/>
-    <col min="25" max="26" width="9.140625" style="130"/>
+    <col min="25" max="26" width="9.140625" style="126"/>
     <col min="27" max="28" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -8278,25 +8411,25 @@
         <v>3</v>
       </c>
       <c r="D1" s="36" t="s">
-        <v>455</v>
-      </c>
-      <c r="E1" s="140" t="s">
-        <v>476</v>
-      </c>
-      <c r="F1" s="134" t="s">
-        <v>477</v>
-      </c>
-      <c r="G1" s="134" t="s">
-        <v>478</v>
-      </c>
-      <c r="H1" s="116" t="s">
-        <v>456</v>
-      </c>
-      <c r="I1" s="116" t="s">
-        <v>457</v>
-      </c>
-      <c r="J1" s="116" t="s">
-        <v>458</v>
+        <v>446</v>
+      </c>
+      <c r="E1" s="136" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1" s="130" t="s">
+        <v>468</v>
+      </c>
+      <c r="G1" s="130" t="s">
+        <v>469</v>
+      </c>
+      <c r="H1" s="112" t="s">
+        <v>447</v>
+      </c>
+      <c r="I1" s="112" t="s">
+        <v>448</v>
+      </c>
+      <c r="J1" s="112" t="s">
+        <v>449</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>0</v>
@@ -8316,46 +8449,46 @@
       <c r="P1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="Q1" s="63" t="s">
-        <v>459</v>
-      </c>
-      <c r="R1" s="63" t="s">
-        <v>460</v>
-      </c>
-      <c r="S1" s="63" t="s">
-        <v>459</v>
-      </c>
-      <c r="T1" s="63" t="s">
-        <v>460</v>
-      </c>
-      <c r="U1" s="60" t="s">
-        <v>461</v>
-      </c>
-      <c r="V1" s="60" t="s">
-        <v>462</v>
-      </c>
-      <c r="W1" s="60" t="s">
-        <v>461</v>
-      </c>
-      <c r="X1" s="60" t="s">
-        <v>462</v>
-      </c>
-      <c r="Y1" s="128" t="s">
-        <v>463</v>
-      </c>
-      <c r="Z1" s="128" t="s">
-        <v>464</v>
-      </c>
-      <c r="AA1" s="128" t="s">
-        <v>463</v>
-      </c>
-      <c r="AB1" s="128" t="s">
-        <v>464</v>
+      <c r="Q1" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="R1" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>451</v>
+      </c>
+      <c r="U1" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="V1" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="W1" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="X1" s="56" t="s">
+        <v>453</v>
+      </c>
+      <c r="Y1" s="124" t="s">
+        <v>454</v>
+      </c>
+      <c r="Z1" s="124" t="s">
+        <v>455</v>
+      </c>
+      <c r="AA1" s="124" t="s">
+        <v>454</v>
+      </c>
+      <c r="AB1" s="124" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="2" spans="1:28" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>74</v>
@@ -8364,27 +8497,27 @@
         <v>75</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>501</v>
-      </c>
-      <c r="E2" s="121" t="s">
-        <v>558</v>
-      </c>
-      <c r="F2" s="122" t="s">
-        <v>559</v>
-      </c>
-      <c r="G2" s="122" t="s">
-        <v>560</v>
-      </c>
-      <c r="H2" s="123" t="s">
-        <v>558</v>
-      </c>
-      <c r="I2" s="123" t="s">
-        <v>559</v>
-      </c>
-      <c r="J2" s="123" t="s">
-        <v>560</v>
-      </c>
-      <c r="K2" s="83" t="s">
+        <v>492</v>
+      </c>
+      <c r="E2" s="117" t="s">
+        <v>549</v>
+      </c>
+      <c r="F2" s="118" t="s">
+        <v>550</v>
+      </c>
+      <c r="G2" s="118" t="s">
+        <v>551</v>
+      </c>
+      <c r="H2" s="119" t="s">
+        <v>549</v>
+      </c>
+      <c r="I2" s="119" t="s">
+        <v>550</v>
+      </c>
+      <c r="J2" s="119" t="s">
+        <v>551</v>
+      </c>
+      <c r="K2" s="79" t="s">
         <v>5</v>
       </c>
       <c r="L2" s="31" t="s">
@@ -8402,54 +8535,54 @@
       <c r="P2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="65" t="s">
-        <v>497</v>
-      </c>
-      <c r="R2" s="126" t="s">
-        <v>498</v>
+      <c r="Q2" s="61" t="s">
+        <v>488</v>
+      </c>
+      <c r="R2" s="122" t="s">
+        <v>489</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="T2" s="15" t="s">
-        <v>498</v>
-      </c>
-      <c r="U2" s="76" t="s">
-        <v>493</v>
-      </c>
-      <c r="V2" s="127" t="s">
-        <v>494</v>
+        <v>489</v>
+      </c>
+      <c r="U2" s="72" t="s">
+        <v>484</v>
+      </c>
+      <c r="V2" s="123" t="s">
+        <v>485</v>
       </c>
       <c r="W2" s="8" t="s">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="X2" s="15" t="s">
-        <v>494</v>
-      </c>
-      <c r="Y2" s="129" t="s">
-        <v>495</v>
-      </c>
-      <c r="Z2" s="131" t="s">
-        <v>496</v>
+        <v>485</v>
+      </c>
+      <c r="Y2" s="125" t="s">
+        <v>486</v>
+      </c>
+      <c r="Z2" s="127" t="s">
+        <v>487</v>
       </c>
       <c r="AA2" s="8" t="s">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="AB2" s="8" t="s">
-        <v>496</v>
+        <v>487</v>
       </c>
     </row>
     <row r="3" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="H3" s="100"/>
-      <c r="K3" s="100"/>
+      <c r="H3" s="96"/>
+      <c r="K3" s="96"/>
       <c r="N3" s="28"/>
     </row>
     <row r="4" spans="1:28" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>41</v>
@@ -8458,74 +8591,74 @@
         <v>33</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>153</v>
-      </c>
-      <c r="E4" s="119" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="124" t="s">
-        <v>465</v>
-      </c>
-      <c r="G4" s="120" t="s">
-        <v>465</v>
-      </c>
-      <c r="H4" s="82" t="s">
-        <v>467</v>
-      </c>
-      <c r="I4" s="125" t="s">
-        <v>466</v>
-      </c>
-      <c r="J4" s="125" t="s">
-        <v>466</v>
-      </c>
-      <c r="K4" s="83" t="s">
-        <v>479</v>
+        <v>151</v>
+      </c>
+      <c r="E4" s="115" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="120" t="s">
+        <v>456</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>456</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>458</v>
+      </c>
+      <c r="I4" s="121" t="s">
+        <v>457</v>
+      </c>
+      <c r="J4" s="121" t="s">
+        <v>457</v>
+      </c>
+      <c r="K4" s="79" t="s">
+        <v>470</v>
       </c>
       <c r="L4" s="31" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="M4" s="31"/>
       <c r="N4" s="29" t="s">
+        <v>472</v>
+      </c>
+      <c r="O4" s="29" t="s">
+        <v>473</v>
+      </c>
+      <c r="Q4" s="61" t="s">
+        <v>475</v>
+      </c>
+      <c r="R4" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="S4" s="8" t="s">
+        <v>476</v>
+      </c>
+      <c r="T4" s="8" t="s">
+        <v>477</v>
+      </c>
+      <c r="U4" s="72" t="s">
+        <v>478</v>
+      </c>
+      <c r="V4" s="72" t="s">
+        <v>479</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>480</v>
+      </c>
+      <c r="X4" s="8" t="s">
         <v>481</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="Y4" s="125" t="s">
         <v>482</v>
       </c>
-      <c r="Q4" s="65" t="s">
-        <v>484</v>
-      </c>
-      <c r="R4" s="65" t="s">
+      <c r="Z4" s="125" t="s">
+        <v>481</v>
+      </c>
+      <c r="AA4" s="8" t="s">
         <v>483</v>
       </c>
-      <c r="S4" s="8" t="s">
-        <v>485</v>
-      </c>
-      <c r="T4" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="U4" s="76" t="s">
-        <v>487</v>
-      </c>
-      <c r="V4" s="76" t="s">
-        <v>488</v>
-      </c>
-      <c r="W4" s="8" t="s">
-        <v>489</v>
-      </c>
-      <c r="X4" s="8" t="s">
-        <v>490</v>
-      </c>
-      <c r="Y4" s="129" t="s">
-        <v>491</v>
-      </c>
-      <c r="Z4" s="129" t="s">
-        <v>490</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>492</v>
-      </c>
       <c r="AB4" s="8" t="s">
-        <v>483</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>
@@ -8583,11 +8716,11 @@
     <col min="2" max="2" width="14.5703125" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="117" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="118" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="118" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="118" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="118" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="113" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" style="114" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="114" customWidth="1"/>
+    <col min="8" max="8" width="12.85546875" style="114" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" style="114" customWidth="1"/>
     <col min="10" max="11" width="8.7109375" style="9" customWidth="1"/>
     <col min="12" max="12" width="17.85546875" style="9" customWidth="1"/>
     <col min="13" max="13" width="12.85546875" style="9" customWidth="1"/>
@@ -8595,15 +8728,15 @@
     <col min="15" max="15" width="8.7109375" style="3" customWidth="1"/>
     <col min="16" max="17" width="8.7109375" style="2" customWidth="1"/>
     <col min="18" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" style="64" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="8" style="64" customWidth="1"/>
+    <col min="21" max="21" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="8" style="60" customWidth="1"/>
     <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>502</v>
+        <v>493</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -8612,37 +8745,37 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>503</v>
-      </c>
-      <c r="E1" s="140" t="s">
-        <v>476</v>
-      </c>
-      <c r="F1" s="141" t="s">
-        <v>523</v>
-      </c>
-      <c r="G1" s="134" t="s">
-        <v>505</v>
-      </c>
-      <c r="H1" s="141" t="s">
-        <v>506</v>
-      </c>
-      <c r="I1" s="134" t="s">
-        <v>507</v>
-      </c>
-      <c r="J1" s="134" t="s">
-        <v>476</v>
-      </c>
-      <c r="K1" s="141" t="s">
-        <v>523</v>
-      </c>
-      <c r="L1" s="134" t="s">
-        <v>505</v>
-      </c>
-      <c r="M1" s="141" t="s">
-        <v>506</v>
-      </c>
-      <c r="N1" s="134" t="s">
-        <v>507</v>
+        <v>494</v>
+      </c>
+      <c r="E1" s="136" t="s">
+        <v>467</v>
+      </c>
+      <c r="F1" s="137" t="s">
+        <v>514</v>
+      </c>
+      <c r="G1" s="130" t="s">
+        <v>496</v>
+      </c>
+      <c r="H1" s="137" t="s">
+        <v>497</v>
+      </c>
+      <c r="I1" s="130" t="s">
+        <v>498</v>
+      </c>
+      <c r="J1" s="130" t="s">
+        <v>467</v>
+      </c>
+      <c r="K1" s="137" t="s">
+        <v>514</v>
+      </c>
+      <c r="L1" s="130" t="s">
+        <v>496</v>
+      </c>
+      <c r="M1" s="137" t="s">
+        <v>497</v>
+      </c>
+      <c r="N1" s="130" t="s">
+        <v>498</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>0</v>
@@ -8662,63 +8795,63 @@
       <c r="T1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="V1" s="63" t="s">
-        <v>353</v>
-      </c>
-      <c r="W1" s="63" t="s">
-        <v>352</v>
-      </c>
-      <c r="X1" s="63" t="s">
-        <v>353</v>
+      <c r="U1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="V1" s="59" t="s">
+        <v>348</v>
+      </c>
+      <c r="W1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="X1" s="59" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="132" t="s">
-        <v>521</v>
-      </c>
-      <c r="B2" s="132" t="s">
+      <c r="A2" s="128" t="s">
+        <v>512</v>
+      </c>
+      <c r="B2" s="128" t="s">
         <v>74</v>
       </c>
-      <c r="C2" s="132" t="s">
+      <c r="C2" s="128" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="132" t="s">
-        <v>504</v>
-      </c>
-      <c r="E2" s="121" t="s">
-        <v>514</v>
-      </c>
-      <c r="F2" s="122" t="s">
-        <v>515</v>
-      </c>
-      <c r="G2" s="122" t="s">
-        <v>509</v>
-      </c>
-      <c r="H2" s="122" t="s">
-        <v>508</v>
-      </c>
-      <c r="I2" s="122" t="s">
-        <v>516</v>
-      </c>
-      <c r="J2" s="123" t="s">
-        <v>514</v>
-      </c>
-      <c r="K2" s="123" t="s">
-        <v>515</v>
-      </c>
-      <c r="L2" s="123" t="s">
-        <v>509</v>
-      </c>
-      <c r="M2" s="123" t="s">
-        <v>508</v>
-      </c>
-      <c r="N2" s="123" t="s">
-        <v>516</v>
-      </c>
-      <c r="O2" s="83" t="s">
+      <c r="D2" s="128" t="s">
+        <v>495</v>
+      </c>
+      <c r="E2" s="117" t="s">
+        <v>505</v>
+      </c>
+      <c r="F2" s="118" t="s">
+        <v>506</v>
+      </c>
+      <c r="G2" s="118" t="s">
+        <v>500</v>
+      </c>
+      <c r="H2" s="118" t="s">
+        <v>499</v>
+      </c>
+      <c r="I2" s="118" t="s">
+        <v>507</v>
+      </c>
+      <c r="J2" s="119" t="s">
+        <v>505</v>
+      </c>
+      <c r="K2" s="119" t="s">
+        <v>506</v>
+      </c>
+      <c r="L2" s="119" t="s">
+        <v>500</v>
+      </c>
+      <c r="M2" s="119" t="s">
+        <v>499</v>
+      </c>
+      <c r="N2" s="119" t="s">
+        <v>507</v>
+      </c>
+      <c r="O2" s="79" t="s">
         <v>5</v>
       </c>
       <c r="P2" s="31" t="s">
@@ -8736,33 +8869,33 @@
       <c r="T2" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="65" t="s">
-        <v>360</v>
-      </c>
-      <c r="V2" s="65" t="s">
-        <v>361</v>
+      <c r="U2" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="V2" s="61" t="s">
+        <v>356</v>
       </c>
       <c r="W2" s="29" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="X2" s="29" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
     </row>
     <row r="3" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="E3" s="133"/>
-      <c r="H3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="M3" s="100"/>
-      <c r="O3" s="100"/>
+      <c r="E3" s="129"/>
+      <c r="H3" s="96"/>
+      <c r="J3" s="96"/>
+      <c r="M3" s="96"/>
+      <c r="O3" s="96"/>
       <c r="R3" s="28"/>
     </row>
     <row r="4" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>41</v>
@@ -8771,60 +8904,60 @@
         <v>33</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>522</v>
-      </c>
-      <c r="E4" s="119" t="s">
-        <v>159</v>
-      </c>
-      <c r="F4" s="124" t="s">
-        <v>465</v>
-      </c>
-      <c r="G4" s="135" t="s">
-        <v>510</v>
-      </c>
-      <c r="H4" s="120" t="s">
-        <v>511</v>
-      </c>
-      <c r="I4" s="137" t="s">
-        <v>512</v>
-      </c>
-      <c r="J4" s="82" t="s">
-        <v>467</v>
-      </c>
-      <c r="K4" s="125" t="s">
-        <v>466</v>
-      </c>
-      <c r="L4" s="138" t="s">
         <v>513</v>
       </c>
-      <c r="M4" s="82" t="s">
-        <v>511</v>
-      </c>
-      <c r="N4" s="136"/>
-      <c r="O4" s="83" t="s">
-        <v>479</v>
+      <c r="E4" s="115" t="s">
+        <v>157</v>
+      </c>
+      <c r="F4" s="120" t="s">
+        <v>456</v>
+      </c>
+      <c r="G4" s="131" t="s">
+        <v>501</v>
+      </c>
+      <c r="H4" s="116" t="s">
+        <v>502</v>
+      </c>
+      <c r="I4" s="133" t="s">
+        <v>503</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>458</v>
+      </c>
+      <c r="K4" s="121" t="s">
+        <v>457</v>
+      </c>
+      <c r="L4" s="134" t="s">
+        <v>504</v>
+      </c>
+      <c r="M4" s="78" t="s">
+        <v>502</v>
+      </c>
+      <c r="N4" s="132"/>
+      <c r="O4" s="79" t="s">
+        <v>470</v>
       </c>
       <c r="P4" s="31" t="s">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="Q4" s="31"/>
       <c r="R4" s="29" t="s">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="S4" s="29" t="s">
-        <v>482</v>
-      </c>
-      <c r="U4" s="108" t="s">
-        <v>517</v>
-      </c>
-      <c r="V4" s="139" t="s">
-        <v>518</v>
+        <v>473</v>
+      </c>
+      <c r="U4" s="104" t="s">
+        <v>508</v>
+      </c>
+      <c r="V4" s="135" t="s">
+        <v>509</v>
       </c>
       <c r="W4" s="44" t="s">
-        <v>519</v>
-      </c>
-      <c r="X4" s="110" t="s">
-        <v>444</v>
+        <v>510</v>
+      </c>
+      <c r="X4" s="106" t="s">
+        <v>435</v>
       </c>
     </row>
   </sheetData>

--- a/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
+++ b/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E8B9E9B-4DDA-454D-94D0-8D841627A2F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E424FC-763B-4C4D-8BEB-CC943D8F5AAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1123" uniqueCount="563">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="566">
   <si>
     <t>Tag</t>
   </si>
@@ -2468,6 +2468,15 @@
   </si>
   <si>
     <t>TODO: More extensive free-form description of the Dataset.  It should include the content of the dataset (number of samples, file types, technology/protocol used to obtain the data…) and not contain more than 4 sentences.</t>
+  </si>
+  <si>
+    <t>TODO: leave this column empty, for subject_id will contain no units.</t>
+  </si>
+  <si>
+    <t>TODO: leave this column empty, for sex will contain no units.</t>
+  </si>
+  <si>
+    <t>TODO: leave this column empty, for phenotype will contain no units.</t>
   </si>
 </sst>
 </file>
@@ -5439,13 +5448,13 @@
     <col min="8" max="8" width="11.140625" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
     <col min="10" max="10" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="6.140625" style="2" customWidth="1"/>
     <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
     <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="6.140625" style="1" customWidth="1"/>
     <col min="15" max="15" width="10.140625" style="2" customWidth="1"/>
     <col min="16" max="16" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" style="2" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="6.140625" style="2" customWidth="1"/>
     <col min="18" max="18" width="6.42578125" style="25" customWidth="1"/>
     <col min="19" max="19" width="6.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="7.28515625" style="2" customWidth="1"/>
@@ -5620,21 +5629,27 @@
       <c r="J2" s="31" t="s">
         <v>552</v>
       </c>
-      <c r="K2" s="31"/>
+      <c r="K2" s="31" t="s">
+        <v>563</v>
+      </c>
       <c r="L2" s="8" t="s">
         <v>291</v>
       </c>
       <c r="M2" s="15" t="s">
         <v>553</v>
       </c>
-      <c r="N2" s="8"/>
+      <c r="N2" s="8" t="s">
+        <v>564</v>
+      </c>
       <c r="O2" s="31" t="s">
         <v>292</v>
       </c>
       <c r="P2" s="31" t="s">
         <v>554</v>
       </c>
-      <c r="Q2" s="31"/>
+      <c r="Q2" s="31" t="s">
+        <v>565</v>
+      </c>
       <c r="R2" s="30" t="s">
         <v>293</v>
       </c>

--- a/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
+++ b/templates/sequence-based-metadata/EGA_metadata_submission_template_v1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mcasado\Documents\GitHub\ega-metadata-schema\templates\sequence-based-metadata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66E424FC-763B-4C4D-8BEB-CC943D8F5AAB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DBE561C-4985-41EE-BD30-C18FDA2C24D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Readme" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1126" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1128" uniqueCount="568">
   <si>
     <t>Tag</t>
   </si>
@@ -285,9 +285,6 @@
   </si>
   <si>
     <t>TODO: Submitter designated name for the 'Experiment' (e.g. 'My_experiment13'). The name must be unique within the submission account.</t>
-  </si>
-  <si>
-    <t>TODO: Name (string) that identifies the parent study (encompasses this experiment) within the namespace defined by attribute 'Study_refCenter'.</t>
   </si>
   <si>
     <t xml:space="preserve">TODO: A label to name this tag (e.g. 'F', 'R', 'Forward_read'…). Can be used to determine read name. </t>
@@ -2219,9 +2216,6 @@
   </si>
   <si>
     <t>EGAC00001003356</t>
-  </si>
-  <si>
-    <t>TODO: Name (string) that identifies the parent experiment (that encompasses this run) within the namespace defined by 'Center_name*'.</t>
   </si>
   <si>
     <t>TODO: Submitter designated name for the 'Policy' (e.g. 'My_dac_HumanMicrobiome'). The name must be unique within the submission account.</t>
@@ -2477,6 +2471,41 @@
   </si>
   <si>
     <t>TODO: leave this column empty, for phenotype will contain no units.</t>
+  </si>
+  <si>
+    <t>TODO: Alias (e.g. 'Example!_Human Microbiome Project SP56J') that identifies the parent study (encompasses this experiment) within the namespace defined by attribute 'Study_refCenter'.</t>
+  </si>
+  <si>
+    <t>TODO: Alias (e.g. Example!_BM_15day_Africa-RG50002) that identifies the parent experiment (that encompasses this run) within the namespace defined by 'Center_name*'.</t>
+  </si>
+  <si>
+    <t>Controlled Vocabullary (CV)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Please bear in mind that lists of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>controlled vocabularies are case-sensitive</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. In other words, 'sequence_variation' will not be evaluated as 'SEQUENCE_VARIATION'</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -4481,205 +4510,214 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3716877C-2DD6-4C53-9859-D06BF40DA072}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" customWidth="1"/>
-    <col min="2" max="2" width="81.85546875" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" customWidth="1"/>
+    <col min="2" max="2" width="81.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="151" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2" s="152"/>
     </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="92" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" s="94" t="s">
         <v>397</v>
       </c>
-      <c r="B3" s="94" t="s">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="92" t="s">
         <v>398</v>
       </c>
+      <c r="B4" s="94" t="s">
+        <v>399</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="92" t="s">
-        <v>399</v>
-      </c>
-      <c r="B4" s="94" t="s">
+    <row r="5" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A5" s="92" t="s">
         <v>400</v>
       </c>
+      <c r="B5" s="94" t="s">
+        <v>401</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="92" t="s">
-        <v>401</v>
-      </c>
-      <c r="B5" s="94" t="s">
+    <row r="6" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="92" t="s">
         <v>402</v>
       </c>
+      <c r="B6" s="94" t="s">
+        <v>403</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="92" t="s">
-        <v>403</v>
-      </c>
-      <c r="B6" s="94" t="s">
+    <row r="7" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="92" t="s">
         <v>404</v>
       </c>
+      <c r="B7" s="94" t="s">
+        <v>555</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="92" t="s">
+    <row r="8" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="92" t="s">
+        <v>530</v>
+      </c>
+      <c r="B8" s="94" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="93" t="s">
         <v>405</v>
       </c>
-      <c r="B7" s="94" t="s">
-        <v>557</v>
+      <c r="B9" s="94" t="s">
+        <v>556</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="81" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="92" t="s">
-        <v>531</v>
-      </c>
-      <c r="B8" s="94" t="s">
-        <v>535</v>
+    <row r="10" spans="1:2" ht="87" x14ac:dyDescent="0.35">
+      <c r="A10" s="150" t="s">
+        <v>553</v>
+      </c>
+      <c r="B10" s="94" t="s">
+        <v>554</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="90" x14ac:dyDescent="0.25">
-      <c r="A9" s="93" t="s">
+    <row r="11" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="150" t="s">
+        <v>566</v>
+      </c>
+      <c r="B11" s="94" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="153" t="s">
         <v>406</v>
       </c>
-      <c r="B9" s="94" t="s">
-        <v>558</v>
-      </c>
+      <c r="B12" s="153"/>
     </row>
-    <row r="10" spans="1:2" ht="105" x14ac:dyDescent="0.25">
-      <c r="A10" s="150" t="s">
-        <v>555</v>
-      </c>
-      <c r="B10" s="94" t="s">
-        <v>556</v>
-      </c>
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="154" t="s">
+        <v>103</v>
+      </c>
+      <c r="B14" s="152"/>
     </row>
-    <row r="11" spans="1:2" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="153" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="19" t="s">
+        <v>104</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="85">
+        <v>1</v>
+      </c>
+      <c r="B16" s="94" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A17" s="86">
+        <v>2</v>
+      </c>
+      <c r="B17" s="94" t="s">
         <v>407</v>
       </c>
-      <c r="B11" s="153"/>
     </row>
-    <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="154" t="s">
-        <v>104</v>
-      </c>
-      <c r="B13" s="152"/>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="86">
+        <v>3</v>
+      </c>
+      <c r="B18" s="94" t="s">
+        <v>408</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="86" t="s">
+        <v>107</v>
+      </c>
+      <c r="B19" s="94" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="154" t="s">
+        <v>108</v>
+      </c>
+      <c r="B21" s="152"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>106</v>
-      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="85">
-        <v>1</v>
-      </c>
-      <c r="B15" s="94" t="s">
-        <v>107</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="87" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23" s="95" t="s">
+        <v>111</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A16" s="86">
-        <v>2</v>
-      </c>
-      <c r="B16" s="94" t="s">
-        <v>408</v>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="88" t="s">
+        <v>112</v>
+      </c>
+      <c r="B24" s="95" t="s">
+        <v>410</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="86">
-        <v>3</v>
-      </c>
-      <c r="B17" s="94" t="s">
-        <v>409</v>
+    <row r="25" spans="1:2" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="89" t="s">
+        <v>126</v>
+      </c>
+      <c r="B25" s="95" t="s">
+        <v>128</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="86" t="s">
-        <v>108</v>
-      </c>
-      <c r="B18" s="94" t="s">
-        <v>410</v>
+    <row r="26" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A26" s="90" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="95" t="s">
+        <v>411</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="154" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="152"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="87" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="95" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="88" t="s">
+    <row r="27" spans="1:2" ht="58" x14ac:dyDescent="0.35">
+      <c r="A27" s="91" t="s">
         <v>113</v>
       </c>
-      <c r="B23" s="95" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A24" s="89" t="s">
-        <v>127</v>
-      </c>
-      <c r="B24" s="95" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="90" t="s">
-        <v>128</v>
-      </c>
-      <c r="B25" s="95" t="s">
+      <c r="B27" s="95" t="s">
         <v>412</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
-        <v>114</v>
-      </c>
-      <c r="B26" s="95" t="s">
-        <v>413</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A21:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4691,29 +4729,29 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="8" width="12.140625" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="25" customWidth="1"/>
-    <col min="10" max="11" width="8.7109375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="8.7109375" style="83" customWidth="1"/>
-    <col min="13" max="14" width="8.7109375" style="142" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="83" customWidth="1"/>
-    <col min="16" max="16" width="8.7109375" style="1" customWidth="1"/>
-    <col min="17" max="18" width="8.7109375" style="146" customWidth="1"/>
-    <col min="19" max="19" width="8.7109375" style="1" customWidth="1"/>
-    <col min="20" max="20" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="8" width="12.1796875" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="25" customWidth="1"/>
+    <col min="10" max="11" width="8.7265625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="8.7265625" style="83" customWidth="1"/>
+    <col min="13" max="14" width="8.7265625" style="142" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="83" customWidth="1"/>
+    <col min="16" max="16" width="8.7265625" style="1" customWidth="1"/>
+    <col min="17" max="18" width="8.7265625" style="146" customWidth="1"/>
+    <col min="19" max="19" width="8.7265625" style="1" customWidth="1"/>
+    <col min="20" max="20" width="9.7265625" style="60" bestFit="1" customWidth="1"/>
     <col min="21" max="21" width="8" style="60" customWidth="1"/>
-    <col min="22" max="22" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -4722,19 +4760,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>515</v>
+      </c>
+      <c r="E1" t="s">
+        <v>535</v>
+      </c>
+      <c r="F1" t="s">
         <v>516</v>
       </c>
-      <c r="E1" t="s">
-        <v>536</v>
-      </c>
-      <c r="F1" t="s">
+      <c r="G1" s="1" t="s">
         <v>517</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="I1" s="22" t="s">
         <v>0</v>
@@ -4746,45 +4784,45 @@
         <v>2</v>
       </c>
       <c r="L1" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="M1" s="139" t="s">
         <v>520</v>
       </c>
-      <c r="M1" s="139" t="s">
+      <c r="N1" s="139" t="s">
         <v>521</v>
       </c>
-      <c r="N1" s="139" t="s">
+      <c r="O1" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="O1" s="23" t="s">
-        <v>523</v>
-      </c>
       <c r="P1" s="23" t="s">
+        <v>519</v>
+      </c>
+      <c r="Q1" s="139" t="s">
         <v>520</v>
       </c>
-      <c r="Q1" s="139" t="s">
+      <c r="R1" s="139" t="s">
         <v>521</v>
       </c>
-      <c r="R1" s="139" t="s">
+      <c r="S1" s="23" t="s">
         <v>522</v>
       </c>
-      <c r="S1" s="23" t="s">
-        <v>523</v>
-      </c>
       <c r="T1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="U1" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="U1" s="59" t="s">
-        <v>348</v>
-      </c>
       <c r="V1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="W1" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="W1" s="59" t="s">
-        <v>348</v>
-      </c>
     </row>
-    <row r="2" spans="1:23" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="128" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B2" s="128" t="s">
         <v>74</v>
@@ -4793,19 +4831,19 @@
         <v>75</v>
       </c>
       <c r="D2" s="128" t="s">
+        <v>538</v>
+      </c>
+      <c r="E2" s="128" t="s">
+        <v>539</v>
+      </c>
+      <c r="F2" s="148" t="s">
         <v>540</v>
       </c>
-      <c r="E2" s="128" t="s">
-        <v>541</v>
-      </c>
-      <c r="F2" s="148" t="s">
-        <v>542</v>
-      </c>
       <c r="G2" s="128" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="H2" s="128" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="I2" s="30" t="s">
         <v>5</v>
@@ -4817,45 +4855,45 @@
         <v>7</v>
       </c>
       <c r="L2" s="84" t="s">
+        <v>541</v>
+      </c>
+      <c r="M2" s="149" t="s">
+        <v>542</v>
+      </c>
+      <c r="N2" s="149" t="s">
         <v>543</v>
       </c>
-      <c r="M2" s="149" t="s">
+      <c r="O2" s="84" t="s">
         <v>544</v>
       </c>
-      <c r="N2" s="149" t="s">
-        <v>545</v>
-      </c>
-      <c r="O2" s="84" t="s">
-        <v>546</v>
-      </c>
       <c r="P2" s="8" t="s">
+        <v>541</v>
+      </c>
+      <c r="Q2" s="144" t="s">
+        <v>542</v>
+      </c>
+      <c r="R2" s="144" t="s">
         <v>543</v>
       </c>
-      <c r="Q2" s="144" t="s">
+      <c r="S2" s="15" t="s">
         <v>544</v>
       </c>
-      <c r="R2" s="144" t="s">
-        <v>545</v>
-      </c>
-      <c r="S2" s="15" t="s">
-        <v>546</v>
-      </c>
       <c r="T2" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="U2" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="U2" s="61" t="s">
-        <v>356</v>
-      </c>
       <c r="V2" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="W2" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="W2" s="29" t="s">
-        <v>356</v>
-      </c>
     </row>
-    <row r="3" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:23" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I3" s="129"/>
       <c r="M3" s="141"/>
@@ -4863,9 +4901,9 @@
       <c r="Q3" s="141"/>
       <c r="R3" s="141"/>
     </row>
-    <row r="4" spans="1:23" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:23" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>41</v>
@@ -4874,59 +4912,59 @@
         <v>33</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>532</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>536</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>518</v>
+      </c>
+      <c r="H4" s="147" t="s">
         <v>533</v>
       </c>
-      <c r="E4" s="8" t="s">
-        <v>537</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>519</v>
-      </c>
-      <c r="H4" s="147" t="s">
-        <v>534</v>
-      </c>
       <c r="I4" s="30" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="J4" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="K4" s="31"/>
       <c r="L4" s="138" t="s">
+        <v>523</v>
+      </c>
+      <c r="M4" s="140" t="s">
         <v>524</v>
       </c>
-      <c r="M4" s="140" t="s">
+      <c r="N4" s="140" t="s">
         <v>525</v>
       </c>
-      <c r="N4" s="140" t="s">
+      <c r="O4" s="143" t="s">
+        <v>529</v>
+      </c>
+      <c r="P4" s="8" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q4" s="144" t="s">
         <v>526</v>
       </c>
-      <c r="O4" s="143" t="s">
-        <v>530</v>
-      </c>
-      <c r="P4" s="8" t="s">
-        <v>524</v>
-      </c>
-      <c r="Q4" s="144" t="s">
+      <c r="R4" s="144" t="s">
         <v>527</v>
       </c>
-      <c r="R4" s="144" t="s">
+      <c r="S4" s="145" t="s">
         <v>528</v>
       </c>
-      <c r="S4" s="145" t="s">
-        <v>529</v>
-      </c>
       <c r="T4" s="104" t="s">
+        <v>507</v>
+      </c>
+      <c r="U4" s="135" t="s">
         <v>508</v>
       </c>
-      <c r="U4" s="135" t="s">
+      <c r="V4" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="V4" s="44" t="s">
-        <v>510</v>
-      </c>
       <c r="W4" s="106" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -4980,38 +5018,38 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="25" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
-    <col min="13" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="18" width="8.7109375" style="2" customWidth="1"/>
-    <col min="19" max="22" width="10.85546875" style="35" customWidth="1"/>
-    <col min="23" max="26" width="10.85546875" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
+    <col min="6" max="9" width="15.54296875" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="25" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" style="2" customWidth="1"/>
+    <col min="13" max="15" width="8.7265625" customWidth="1"/>
+    <col min="16" max="18" width="8.7265625" style="2" customWidth="1"/>
+    <col min="19" max="22" width="10.81640625" style="35" customWidth="1"/>
+    <col min="23" max="26" width="10.81640625" customWidth="1"/>
+    <col min="27" max="27" width="9.7265625" style="60" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="60" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1796875" style="83" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11" style="58" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.453125" style="58" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -5020,22 +5058,22 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E1" t="s">
         <v>131</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>132</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>133</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>134</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>135</v>
-      </c>
-      <c r="I1" t="s">
-        <v>136</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>0</v>
@@ -5065,72 +5103,72 @@
         <v>2</v>
       </c>
       <c r="S1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="T1" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="T1" s="23" t="s">
+      <c r="U1" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="U1" s="23" t="s">
+      <c r="V1" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="V1" s="23" t="s">
+      <c r="W1" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="X1" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y1" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z1" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="AA1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AC1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE1" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="AF1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="AH1" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="AI1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="AJ1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="AK1" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="AL1" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="AM1" s="56" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>140</v>
-      </c>
-      <c r="W1" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="X1" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="Y1" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="Z1" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="AA1" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="AB1" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="AC1" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD1" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="AE1" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="AF1" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="AG1" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="AH1" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="AI1" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="AJ1" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="AK1" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="AL1" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="AM1" s="56" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:39" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>141</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>74</v>
@@ -5139,22 +5177,22 @@
         <v>75</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="E2" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="29" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="24" t="s">
         <v>143</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="29" t="s">
         <v>144</v>
       </c>
-      <c r="H2" s="29" t="s">
-        <v>145</v>
-      </c>
       <c r="I2" s="29" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>5</v>
@@ -5184,78 +5222,78 @@
         <v>7</v>
       </c>
       <c r="S2" s="73" t="s">
+        <v>145</v>
+      </c>
+      <c r="T2" s="73" t="s">
         <v>146</v>
       </c>
-      <c r="T2" s="73" t="s">
+      <c r="U2" s="73" t="s">
         <v>147</v>
       </c>
-      <c r="U2" s="73" t="s">
+      <c r="V2" s="73" t="s">
         <v>148</v>
       </c>
-      <c r="V2" s="73" t="s">
-        <v>149</v>
-      </c>
       <c r="W2" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="X2" s="24" t="s">
         <v>146</v>
       </c>
-      <c r="X2" s="24" t="s">
+      <c r="Y2" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="Y2" s="24" t="s">
+      <c r="Z2" s="24" t="s">
         <v>148</v>
       </c>
-      <c r="Z2" s="24" t="s">
-        <v>149</v>
-      </c>
       <c r="AA2" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB2" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="AB2" s="61" t="s">
+      <c r="AC2" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE2" s="84" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF2" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG2" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="AC2" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AH2" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="AE2" s="84" t="s">
-        <v>465</v>
-      </c>
-      <c r="AF2" s="84" t="s">
-        <v>466</v>
-      </c>
-      <c r="AG2" s="84" t="s">
+      <c r="AK2" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="AL2" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="AH2" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="AI2" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="AK2" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="AL2" s="57" t="s">
+      <c r="AM2" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="AM2" s="57" t="s">
-        <v>359</v>
-      </c>
     </row>
-    <row r="3" spans="1:39" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M3" s="28"/>
     </row>
-    <row r="4" spans="1:39" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>41</v>
@@ -5264,105 +5302,105 @@
         <v>33</v>
       </c>
       <c r="D4" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="E4" s="29" t="s">
         <v>151</v>
       </c>
-      <c r="E4" s="29" t="s">
+      <c r="G4" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="H4" s="29" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="I4" s="29" t="s">
         <v>154</v>
       </c>
-      <c r="I4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="K4" s="31" t="s">
         <v>156</v>
-      </c>
-      <c r="K4" s="31" t="s">
-        <v>157</v>
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>158</v>
       </c>
-      <c r="N4" s="29" t="s">
+      <c r="P4" s="31" t="s">
         <v>159</v>
       </c>
-      <c r="P4" s="31" t="s">
-        <v>160</v>
-      </c>
       <c r="Q4" s="31" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="R4" s="31"/>
       <c r="S4" s="32" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="T4" s="32">
         <v>406</v>
       </c>
       <c r="U4" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="V4" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="V4" s="33" t="s">
+      <c r="W4" s="29" t="s">
         <v>163</v>
-      </c>
-      <c r="W4" s="29" t="s">
-        <v>164</v>
       </c>
       <c r="X4" s="29">
         <v>110649</v>
       </c>
       <c r="Y4" s="29" t="s">
+        <v>164</v>
+      </c>
+      <c r="Z4" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="Z4" s="34" t="s">
-        <v>166</v>
-      </c>
       <c r="AA4" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB4" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="AB4" s="60" t="s">
+      <c r="AC4" t="s">
         <v>361</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>362</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="AF4" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="AG4" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK4" s="58" t="s">
         <v>363</v>
-      </c>
-      <c r="AE4" s="83" t="s">
-        <v>459</v>
-      </c>
-      <c r="AF4" s="83" t="s">
-        <v>460</v>
-      </c>
-      <c r="AG4" s="83" t="s">
-        <v>463</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AK4" s="58" t="s">
-        <v>364</v>
       </c>
       <c r="AL4" s="58">
         <v>289</v>
       </c>
       <c r="AM4" s="58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.35">
       <c r="P7" s="31"/>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
@@ -5436,52 +5474,52 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="10.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" customWidth="1"/>
-    <col min="6" max="6" width="16.28515625" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" style="2" customWidth="1"/>
-    <col min="10" max="10" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.140625" style="2" customWidth="1"/>
-    <col min="12" max="12" width="7.28515625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="6.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="6.140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="10.140625" style="2" customWidth="1"/>
-    <col min="16" max="16" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="6.140625" style="2" customWidth="1"/>
-    <col min="18" max="18" width="6.42578125" style="25" customWidth="1"/>
-    <col min="19" max="19" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" style="2" customWidth="1"/>
-    <col min="21" max="21" width="6.42578125" customWidth="1"/>
-    <col min="22" max="22" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="7.28515625" customWidth="1"/>
-    <col min="24" max="24" width="6.42578125" style="2" customWidth="1"/>
-    <col min="25" max="25" width="6.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.28515625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.1796875" customWidth="1"/>
+    <col min="5" max="5" width="11.81640625" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.54296875" customWidth="1"/>
+    <col min="8" max="8" width="11.1796875" customWidth="1"/>
+    <col min="9" max="9" width="10.1796875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.1796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="7.26953125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.1796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="6.1796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1796875" style="2" customWidth="1"/>
+    <col min="16" max="16" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="6.1796875" style="2" customWidth="1"/>
+    <col min="18" max="18" width="6.453125" style="25" customWidth="1"/>
+    <col min="19" max="19" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="7.26953125" style="2" customWidth="1"/>
+    <col min="21" max="21" width="6.453125" customWidth="1"/>
+    <col min="22" max="22" width="6.1796875" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="7.26953125" customWidth="1"/>
+    <col min="24" max="24" width="6.453125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="6.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="7.26953125" style="2" customWidth="1"/>
+    <col min="27" max="27" width="9.7265625" style="60" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="8" style="60" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="8" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="8.1796875" style="83" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="37" max="37" width="11" style="58" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10.453125" style="58" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="13" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -5490,19 +5528,19 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>279</v>
+      </c>
+      <c r="E1" t="s">
         <v>280</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>281</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>282</v>
       </c>
-      <c r="G1" t="s">
-        <v>283</v>
-      </c>
       <c r="H1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="I1" s="47" t="s">
         <v>0</v>
@@ -5559,48 +5597,48 @@
         <v>2</v>
       </c>
       <c r="AA1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="AB1" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="AB1" s="59" t="s">
+      <c r="AC1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="AD1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AE1" s="82" t="s">
         <v>348</v>
       </c>
-      <c r="AC1" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="AD1" s="59" t="s">
+      <c r="AF1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="AG1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="AH1" s="82" t="s">
         <v>348</v>
       </c>
-      <c r="AE1" s="82" t="s">
+      <c r="AI1" s="82" t="s">
         <v>349</v>
       </c>
-      <c r="AF1" s="82" t="s">
+      <c r="AJ1" s="82" t="s">
         <v>350</v>
       </c>
-      <c r="AG1" s="82" t="s">
+      <c r="AK1" s="56" t="s">
         <v>351</v>
       </c>
-      <c r="AH1" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="AI1" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="AJ1" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="AK1" s="56" t="s">
+      <c r="AL1" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="AL1" s="56" t="s">
+      <c r="AM1" s="56" t="s">
         <v>353</v>
       </c>
-      <c r="AM1" s="56" t="s">
-        <v>354</v>
-      </c>
     </row>
-    <row r="2" spans="1:39" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>74</v>
@@ -5609,117 +5647,117 @@
         <v>75</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="29" t="s">
         <v>285</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="F2" s="29" t="s">
         <v>286</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="29" t="s">
         <v>287</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="H2" s="29" t="s">
         <v>288</v>
       </c>
-      <c r="H2" s="29" t="s">
+      <c r="I2" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="I2" s="31" t="s">
+      <c r="J2" s="31" t="s">
+        <v>550</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>290</v>
       </c>
-      <c r="J2" s="31" t="s">
+      <c r="M2" s="15" t="s">
+        <v>551</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>562</v>
+      </c>
+      <c r="O2" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="P2" s="31" t="s">
         <v>552</v>
       </c>
-      <c r="K2" s="31" t="s">
+      <c r="Q2" s="31" t="s">
         <v>563</v>
       </c>
-      <c r="L2" s="8" t="s">
-        <v>291</v>
-      </c>
-      <c r="M2" s="15" t="s">
-        <v>553</v>
-      </c>
-      <c r="N2" s="8" t="s">
-        <v>564</v>
-      </c>
-      <c r="O2" s="31" t="s">
+      <c r="R2" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="P2" s="31" t="s">
-        <v>554</v>
-      </c>
-      <c r="Q2" s="31" t="s">
-        <v>565</v>
-      </c>
-      <c r="R2" s="30" t="s">
+      <c r="S2" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="S2" s="31" t="s">
+      <c r="T2" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="T2" s="31" t="s">
-        <v>295</v>
-      </c>
       <c r="U2" s="29" t="s">
+        <v>292</v>
+      </c>
+      <c r="V2" s="29" t="s">
         <v>293</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="W2" s="29" t="s">
         <v>294</v>
       </c>
-      <c r="W2" s="29" t="s">
-        <v>295</v>
-      </c>
       <c r="X2" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y2" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Z2" s="31" t="s">
         <v>294</v>
       </c>
-      <c r="Z2" s="31" t="s">
-        <v>295</v>
-      </c>
       <c r="AA2" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="AB2" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="AB2" s="61" t="s">
+      <c r="AC2" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="AD2" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="AE2" s="84" t="s">
+        <v>464</v>
+      </c>
+      <c r="AF2" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="AG2" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="AC2" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="AD2" s="29" t="s">
+      <c r="AH2" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="AI2" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="AE2" s="84" t="s">
-        <v>465</v>
-      </c>
-      <c r="AF2" s="84" t="s">
-        <v>466</v>
-      </c>
-      <c r="AG2" s="84" t="s">
+      <c r="AK2" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="AL2" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="AH2" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="AI2" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="AK2" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="AL2" s="57" t="s">
+      <c r="AM2" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="AM2" s="57" t="s">
-        <v>359</v>
-      </c>
     </row>
-    <row r="3" spans="1:39" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M3" s="18"/>
       <c r="R3" s="50"/>
@@ -5737,9 +5775,9 @@
       <c r="AL3" s="27"/>
       <c r="AM3" s="27"/>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -5748,100 +5786,100 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E4">
         <v>9606</v>
       </c>
       <c r="F4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G4" t="s">
         <v>298</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>299</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="M4" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="I4" s="2" t="s">
-        <v>290</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="L4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="P4" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>292</v>
-      </c>
-      <c r="P4" s="2" t="s">
+      <c r="R4" s="25" t="s">
         <v>302</v>
       </c>
-      <c r="R4" s="25" t="s">
+      <c r="S4" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="T4" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" t="s">
         <v>305</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>306</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
+        <v>304</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="W4" t="s">
-        <v>305</v>
-      </c>
-      <c r="X4" s="2" t="s">
+      <c r="Y4" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="Y4" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="AA4" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="AB4" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="AB4" s="60" t="s">
+      <c r="AC4" t="s">
         <v>361</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>362</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="AF4" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="AG4" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="AH4" t="s">
+        <v>460</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AJ4" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AK4" s="58" t="s">
         <v>363</v>
-      </c>
-      <c r="AE4" s="83" t="s">
-        <v>459</v>
-      </c>
-      <c r="AF4" s="83" t="s">
-        <v>460</v>
-      </c>
-      <c r="AG4" s="83" t="s">
-        <v>463</v>
-      </c>
-      <c r="AH4" t="s">
-        <v>461</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>462</v>
-      </c>
-      <c r="AJ4" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AK4" s="58" t="s">
-        <v>364</v>
       </c>
       <c r="AL4" s="58">
         <v>289</v>
       </c>
       <c r="AM4" s="58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -5893,43 +5931,43 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="6" width="12.140625" customWidth="1"/>
-    <col min="7" max="7" width="8.7109375" style="99" customWidth="1"/>
-    <col min="8" max="8" width="8.7109375" style="9" customWidth="1"/>
-    <col min="9" max="9" width="8.7109375" style="102" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="3" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
-    <col min="13" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="16" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="12.1796875" customWidth="1"/>
+    <col min="7" max="7" width="8.7265625" style="99" customWidth="1"/>
+    <col min="8" max="8" width="8.7265625" style="9" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" style="102" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="3" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" style="2" customWidth="1"/>
+    <col min="13" max="15" width="8.7265625" customWidth="1"/>
+    <col min="16" max="16" width="9.7265625" style="60" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="8" style="60" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="8" customWidth="1"/>
-    <col min="20" max="20" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1796875" style="83" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="11" style="58" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.453125" style="58" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="13" style="58" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="14.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="14.42578125" style="111" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" customWidth="1"/>
+    <col min="29" max="29" width="9.7265625" style="60" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="9.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="9.7265625" style="60" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="14.453125" style="111" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.453125" style="1" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.453125" style="111" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="9.1796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:34" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -5938,22 +5976,22 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>414</v>
+      </c>
+      <c r="E1" t="s">
+        <v>105</v>
+      </c>
+      <c r="F1" t="s">
+        <v>416</v>
+      </c>
+      <c r="G1" s="97" t="s">
         <v>415</v>
       </c>
-      <c r="E1" t="s">
-        <v>106</v>
-      </c>
-      <c r="F1" t="s">
-        <v>417</v>
-      </c>
-      <c r="G1" s="97" t="s">
-        <v>416</v>
-      </c>
       <c r="H1" s="100" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="I1" s="100" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="J1" s="5" t="s">
         <v>0</v>
@@ -5974,66 +6012,66 @@
         <v>2</v>
       </c>
       <c r="P1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="Q1" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="Q1" s="59" t="s">
+      <c r="R1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="S1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="T1" s="82" t="s">
         <v>348</v>
       </c>
-      <c r="R1" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="S1" s="59" t="s">
+      <c r="U1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="V1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="W1" s="82" t="s">
         <v>348</v>
       </c>
-      <c r="T1" s="82" t="s">
+      <c r="X1" s="82" t="s">
         <v>349</v>
       </c>
-      <c r="U1" s="82" t="s">
+      <c r="Y1" s="82" t="s">
         <v>350</v>
       </c>
-      <c r="V1" s="82" t="s">
+      <c r="Z1" s="56" t="s">
         <v>351</v>
       </c>
-      <c r="W1" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="X1" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="Y1" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="Z1" s="56" t="s">
+      <c r="AA1" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="AA1" s="56" t="s">
+      <c r="AB1" s="56" t="s">
         <v>353</v>
       </c>
-      <c r="AB1" s="56" t="s">
-        <v>354</v>
-      </c>
       <c r="AC1" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="AD1" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="AE1" s="59" t="s">
+        <v>420</v>
+      </c>
+      <c r="AF1" s="109" t="s">
         <v>421</v>
       </c>
-      <c r="AD1" s="59" t="s">
+      <c r="AG1" s="109" t="s">
         <v>421</v>
       </c>
-      <c r="AE1" s="59" t="s">
+      <c r="AH1" s="109" t="s">
         <v>421</v>
       </c>
-      <c r="AF1" s="109" t="s">
-        <v>422</v>
-      </c>
-      <c r="AG1" s="109" t="s">
-        <v>422</v>
-      </c>
-      <c r="AH1" s="109" t="s">
-        <v>422</v>
-      </c>
     </row>
-    <row r="2" spans="1:34" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:34" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>74</v>
@@ -6042,22 +6080,22 @@
         <v>75</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G2" s="98" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H2" s="78" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I2" s="108" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="J2" s="79" t="s">
         <v>5</v>
@@ -6078,66 +6116,66 @@
         <v>7</v>
       </c>
       <c r="P2" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="Q2" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="Q2" s="61" t="s">
+      <c r="R2" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="S2" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="T2" s="84" t="s">
+        <v>464</v>
+      </c>
+      <c r="U2" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="V2" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="R2" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="S2" s="29" t="s">
+      <c r="W2" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="X2" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="Y2" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="T2" s="84" t="s">
-        <v>465</v>
-      </c>
-      <c r="U2" s="84" t="s">
-        <v>466</v>
-      </c>
-      <c r="V2" s="84" t="s">
+      <c r="Z2" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="AA2" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="W2" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="X2" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="Y2" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="Z2" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="AA2" s="57" t="s">
+      <c r="AB2" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="AB2" s="57" t="s">
-        <v>359</v>
-      </c>
       <c r="AC2" s="61" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AD2" s="8" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AE2" s="61" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="AF2" s="110" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="AG2" s="8" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="AH2" s="110" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
-    <row r="3" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:34" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G3" s="96"/>
       <c r="H3" s="96"/>
@@ -6145,9 +6183,9 @@
       <c r="J3" s="96"/>
       <c r="M3" s="28"/>
     </row>
-    <row r="4" spans="1:34" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>41</v>
@@ -6156,92 +6194,92 @@
         <v>33</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E4" s="29" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="F4" s="29" t="s">
+        <v>427</v>
+      </c>
+      <c r="G4" s="98" t="s">
+        <v>239</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>424</v>
+      </c>
+      <c r="I4" s="101" t="s">
+        <v>425</v>
+      </c>
+      <c r="J4" s="103" t="s">
         <v>428</v>
       </c>
-      <c r="G4" s="98" t="s">
-        <v>240</v>
-      </c>
-      <c r="H4" s="78" t="s">
-        <v>425</v>
-      </c>
-      <c r="I4" s="101" t="s">
-        <v>426</v>
-      </c>
-      <c r="J4" s="103" t="s">
-        <v>429</v>
-      </c>
       <c r="K4" s="31" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="L4" s="31"/>
       <c r="M4" s="29" t="s">
+        <v>429</v>
+      </c>
+      <c r="N4" s="29" t="s">
         <v>430</v>
       </c>
-      <c r="N4" s="29" t="s">
-        <v>431</v>
-      </c>
       <c r="P4" s="104" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q4" s="105" t="s">
+        <v>435</v>
+      </c>
+      <c r="R4" s="44" t="s">
         <v>433</v>
       </c>
-      <c r="Q4" s="105" t="s">
-        <v>436</v>
-      </c>
-      <c r="R4" s="44" t="s">
+      <c r="S4" s="106" t="s">
         <v>434</v>
       </c>
-      <c r="S4" s="106" t="s">
-        <v>435</v>
-      </c>
       <c r="T4" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="U4" s="83" t="s">
         <v>459</v>
       </c>
-      <c r="U4" s="83" t="s">
+      <c r="V4" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="W4" t="s">
         <v>460</v>
       </c>
-      <c r="V4" s="83" t="s">
+      <c r="X4" t="s">
+        <v>461</v>
+      </c>
+      <c r="Y4" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="W4" t="s">
-        <v>461</v>
-      </c>
-      <c r="X4" t="s">
-        <v>462</v>
-      </c>
-      <c r="Y4" s="1" t="s">
-        <v>464</v>
-      </c>
       <c r="Z4" s="107" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="AA4" s="107">
         <v>289</v>
       </c>
       <c r="AB4" s="107" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="AC4" s="61" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AD4" s="8" t="s">
+        <v>438</v>
+      </c>
+      <c r="AE4" s="61" t="s">
         <v>439</v>
       </c>
-      <c r="AE4" s="61" t="s">
-        <v>440</v>
-      </c>
       <c r="AF4" s="110" t="s">
+        <v>441</v>
+      </c>
+      <c r="AG4" s="8" t="s">
         <v>442</v>
       </c>
-      <c r="AG4" s="8" t="s">
+      <c r="AH4" s="110" t="s">
         <v>443</v>
-      </c>
-      <c r="AH4" s="110" t="s">
-        <v>444</v>
       </c>
     </row>
   </sheetData>
@@ -6306,47 +6344,47 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="16.5" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" customWidth="1"/>
-    <col min="7" max="7" width="20.28515625" customWidth="1"/>
-    <col min="8" max="29" width="15.5703125" customWidth="1"/>
-    <col min="30" max="30" width="8.7109375" style="25" customWidth="1"/>
-    <col min="31" max="32" width="8.7109375" style="2" customWidth="1"/>
-    <col min="33" max="34" width="15.5703125" style="46" customWidth="1"/>
-    <col min="35" max="36" width="15.5703125" customWidth="1"/>
-    <col min="37" max="38" width="15.5703125" style="46" customWidth="1"/>
-    <col min="39" max="44" width="8.7109375" style="41" customWidth="1"/>
-    <col min="45" max="50" width="8.7109375" customWidth="1"/>
-    <col min="51" max="51" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
+    <col min="6" max="6" width="15.54296875" customWidth="1"/>
+    <col min="7" max="7" width="20.26953125" customWidth="1"/>
+    <col min="8" max="29" width="15.54296875" customWidth="1"/>
+    <col min="30" max="30" width="8.7265625" style="25" customWidth="1"/>
+    <col min="31" max="32" width="8.7265625" style="2" customWidth="1"/>
+    <col min="33" max="34" width="15.54296875" style="46" customWidth="1"/>
+    <col min="35" max="36" width="15.54296875" customWidth="1"/>
+    <col min="37" max="38" width="15.54296875" style="46" customWidth="1"/>
+    <col min="39" max="44" width="8.7265625" style="41" customWidth="1"/>
+    <col min="45" max="50" width="8.7265625" customWidth="1"/>
+    <col min="51" max="51" width="9.7265625" style="60" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="8" style="60" customWidth="1"/>
-    <col min="53" max="53" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="54" max="54" width="8" customWidth="1"/>
-    <col min="55" max="55" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="8.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="57" max="57" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="8.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="8.1796875" style="83" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="10.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="11" style="58" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="10.453125" style="58" bestFit="1" customWidth="1"/>
     <col min="63" max="63" width="13" style="58" bestFit="1" customWidth="1"/>
-    <col min="64" max="65" width="8.7109375" style="42" customWidth="1"/>
-    <col min="66" max="67" width="8.7109375" customWidth="1"/>
-    <col min="68" max="69" width="8.7109375" style="42" customWidth="1"/>
-    <col min="70" max="71" width="8.7109375" style="63" customWidth="1"/>
-    <col min="72" max="73" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="8.7109375" style="64" customWidth="1"/>
+    <col min="64" max="65" width="8.7265625" style="42" customWidth="1"/>
+    <col min="66" max="67" width="8.7265625" customWidth="1"/>
+    <col min="68" max="69" width="8.7265625" style="42" customWidth="1"/>
+    <col min="70" max="71" width="8.7265625" style="63" customWidth="1"/>
+    <col min="72" max="73" width="8.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="8.7265625" style="64" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -6355,82 +6393,82 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E1" t="s">
         <v>168</v>
-      </c>
-      <c r="E1" t="s">
-        <v>169</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H1" t="s">
+        <v>169</v>
+      </c>
+      <c r="I1" t="s">
         <v>170</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>172</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>173</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>176</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>177</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>178</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>179</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>180</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>181</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>184</v>
       </c>
-      <c r="W1" s="36" t="s">
+      <c r="X1" s="36" t="s">
         <v>185</v>
       </c>
-      <c r="X1" s="36" t="s">
+      <c r="Y1" s="36" t="s">
         <v>186</v>
       </c>
-      <c r="Y1" s="36" t="s">
+      <c r="Z1" s="36" t="s">
         <v>187</v>
       </c>
-      <c r="Z1" s="36" t="s">
+      <c r="AA1" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="AA1" s="36" t="s">
+      <c r="AB1" s="36" t="s">
         <v>189</v>
       </c>
-      <c r="AB1" s="36" t="s">
+      <c r="AC1" s="36" t="s">
         <v>190</v>
-      </c>
-      <c r="AC1" s="36" t="s">
-        <v>191</v>
       </c>
       <c r="AD1" s="22" t="s">
         <v>0</v>
@@ -6442,135 +6480,135 @@
         <v>2</v>
       </c>
       <c r="AG1" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="AH1" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="AH1" s="37" t="s">
+      <c r="AI1" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="AJ1" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AK1" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="AL1" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="AM1" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="AI1" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="AJ1" s="37" t="s">
+      <c r="AN1" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="AO1" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="AP1" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="AQ1" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="AR1" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="AS1" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="AK1" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="AL1" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="AM1" s="38" t="s">
+      <c r="AT1" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="AN1" s="38" t="s">
+      <c r="AU1" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="AO1" s="38" t="s">
+      <c r="AV1" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="AP1" s="38" t="s">
+      <c r="AW1" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="AQ1" s="38" t="s">
+      <c r="AX1" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="AR1" s="38" t="s">
+      <c r="AY1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="AZ1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="BA1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="BB1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="BC1" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="BD1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="BE1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="BF1" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="BG1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="BH1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="BI1" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="BJ1" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="BK1" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="BL1" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="AS1" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="AT1" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="AU1" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="AV1" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="AW1" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="AX1" s="38" t="s">
+      <c r="BM1" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="BN1" s="39" t="s">
         <v>199</v>
       </c>
-      <c r="AY1" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="AZ1" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="BA1" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="BB1" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="BC1" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="BD1" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="BE1" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="BF1" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="BG1" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="BH1" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="BI1" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="BJ1" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="BK1" s="56" t="s">
-        <v>354</v>
-      </c>
-      <c r="BL1" s="39" t="s">
+      <c r="BO1" s="39" t="s">
         <v>200</v>
       </c>
-      <c r="BM1" s="39" t="s">
+      <c r="BP1" s="39" t="s">
+        <v>199</v>
+      </c>
+      <c r="BQ1" s="39" t="s">
+        <v>200</v>
+      </c>
+      <c r="BR1" s="40" t="s">
         <v>201</v>
       </c>
-      <c r="BN1" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="BO1" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="BP1" s="39" t="s">
-        <v>200</v>
-      </c>
-      <c r="BQ1" s="39" t="s">
-        <v>201</v>
-      </c>
-      <c r="BR1" s="40" t="s">
+      <c r="BS1" s="40" t="s">
         <v>202</v>
       </c>
-      <c r="BS1" s="40" t="s">
+      <c r="BT1" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="BT1" s="82" t="s">
+      <c r="BU1" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="BU1" s="82" t="s">
+      <c r="BV1" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="BV1" s="62" t="s">
+    </row>
+    <row r="2" spans="1:74" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>206</v>
-      </c>
-    </row>
-    <row r="2" spans="1:74" s="29" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>207</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>74</v>
@@ -6579,82 +6617,82 @@
         <v>75</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>207</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="H2" s="34" t="s">
         <v>211</v>
       </c>
-      <c r="H2" s="34" t="s">
+      <c r="I2" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="I2" s="24" t="s">
+      <c r="J2" s="24" t="s">
         <v>213</v>
       </c>
-      <c r="J2" s="24" t="s">
+      <c r="K2" s="24" t="s">
         <v>214</v>
       </c>
-      <c r="K2" s="24" t="s">
+      <c r="L2" s="24" t="s">
         <v>215</v>
       </c>
-      <c r="L2" s="24" t="s">
-        <v>216</v>
-      </c>
       <c r="M2" s="29" t="s">
+        <v>366</v>
+      </c>
+      <c r="N2" s="29" t="s">
         <v>367</v>
       </c>
-      <c r="N2" s="29" t="s">
+      <c r="O2" s="29" t="s">
         <v>368</v>
       </c>
-      <c r="O2" s="29" t="s">
+      <c r="P2" s="24" t="s">
         <v>369</v>
       </c>
-      <c r="P2" s="24" t="s">
+      <c r="Q2" s="29" t="s">
         <v>370</v>
       </c>
-      <c r="Q2" s="29" t="s">
+      <c r="R2" s="29" t="s">
         <v>371</v>
       </c>
-      <c r="R2" s="29" t="s">
+      <c r="S2" s="29" t="s">
         <v>372</v>
       </c>
-      <c r="S2" s="29" t="s">
+      <c r="T2" s="24" t="s">
         <v>373</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="U2" s="29" t="s">
         <v>374</v>
       </c>
-      <c r="U2" s="29" t="s">
+      <c r="V2" s="29" t="s">
         <v>375</v>
       </c>
-      <c r="V2" s="29" t="s">
+      <c r="W2" s="29" t="s">
         <v>376</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="X2" s="29" t="s">
         <v>377</v>
       </c>
-      <c r="X2" s="29" t="s">
+      <c r="Y2" s="29" t="s">
         <v>378</v>
       </c>
-      <c r="Y2" s="29" t="s">
+      <c r="Z2" s="29" t="s">
         <v>379</v>
       </c>
-      <c r="Z2" s="29" t="s">
+      <c r="AA2" s="24" t="s">
         <v>380</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AB2" s="29" t="s">
         <v>381</v>
       </c>
-      <c r="AB2" s="29" t="s">
+      <c r="AC2" s="29" t="s">
         <v>382</v>
-      </c>
-      <c r="AC2" s="29" t="s">
-        <v>383</v>
       </c>
       <c r="AD2" s="30" t="s">
         <v>5</v>
@@ -6666,135 +6704,135 @@
         <v>7</v>
       </c>
       <c r="AG2" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="AH2" s="67" t="s">
         <v>217</v>
       </c>
-      <c r="AH2" s="67" t="s">
+      <c r="AI2" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="AJ2" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="AK2" s="67" t="s">
+        <v>216</v>
+      </c>
+      <c r="AL2" s="67" t="s">
+        <v>217</v>
+      </c>
+      <c r="AM2" s="68" t="s">
         <v>218</v>
       </c>
-      <c r="AI2" s="24" t="s">
-        <v>217</v>
-      </c>
-      <c r="AJ2" s="24" t="s">
+      <c r="AN2" s="69" t="s">
+        <v>219</v>
+      </c>
+      <c r="AO2" s="68" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP2" s="68" t="s">
+        <v>221</v>
+      </c>
+      <c r="AQ2" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="AR2" s="68" t="s">
+        <v>223</v>
+      </c>
+      <c r="AS2" s="29" t="s">
         <v>218</v>
       </c>
-      <c r="AK2" s="67" t="s">
-        <v>217</v>
-      </c>
-      <c r="AL2" s="67" t="s">
-        <v>218</v>
-      </c>
-      <c r="AM2" s="68" t="s">
-        <v>219</v>
-      </c>
-      <c r="AN2" s="69" t="s">
+      <c r="AT2" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="AU2" s="29" t="s">
         <v>220</v>
       </c>
-      <c r="AO2" s="68" t="s">
+      <c r="AV2" s="29" t="s">
         <v>221</v>
       </c>
-      <c r="AP2" s="68" t="s">
+      <c r="AW2" s="29" t="s">
         <v>222</v>
       </c>
-      <c r="AQ2" s="68" t="s">
+      <c r="AX2" s="29" t="s">
         <v>223</v>
       </c>
-      <c r="AR2" s="68" t="s">
-        <v>224</v>
-      </c>
-      <c r="AS2" s="29" t="s">
-        <v>219</v>
-      </c>
-      <c r="AT2" s="24" t="s">
+      <c r="AY2" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="AZ2" s="61" t="s">
+        <v>355</v>
+      </c>
+      <c r="BA2" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="BB2" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="BC2" s="84" t="s">
+        <v>464</v>
+      </c>
+      <c r="BD2" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="BE2" s="84" t="s">
+        <v>356</v>
+      </c>
+      <c r="BF2" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="BG2" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="BH2" s="24" t="s">
+        <v>356</v>
+      </c>
+      <c r="BI2" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="BJ2" s="57" t="s">
+        <v>357</v>
+      </c>
+      <c r="BK2" s="57" t="s">
+        <v>358</v>
+      </c>
+      <c r="BL2" s="70" t="s">
         <v>225</v>
       </c>
-      <c r="AU2" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="AV2" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="AW2" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="AX2" s="29" t="s">
-        <v>224</v>
-      </c>
-      <c r="AY2" s="61" t="s">
-        <v>355</v>
-      </c>
-      <c r="AZ2" s="61" t="s">
-        <v>356</v>
-      </c>
-      <c r="BA2" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="BB2" s="29" t="s">
-        <v>356</v>
-      </c>
-      <c r="BC2" s="84" t="s">
-        <v>465</v>
-      </c>
-      <c r="BD2" s="84" t="s">
-        <v>466</v>
-      </c>
-      <c r="BE2" s="84" t="s">
-        <v>357</v>
-      </c>
-      <c r="BF2" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="BG2" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="BH2" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="BI2" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="BJ2" s="57" t="s">
-        <v>358</v>
-      </c>
-      <c r="BK2" s="57" t="s">
-        <v>359</v>
-      </c>
-      <c r="BL2" s="70" t="s">
+      <c r="BM2" s="70" t="s">
         <v>226</v>
       </c>
-      <c r="BM2" s="70" t="s">
+      <c r="BN2" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="BO2" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="BP2" s="70" t="s">
+        <v>225</v>
+      </c>
+      <c r="BQ2" s="70" t="s">
+        <v>226</v>
+      </c>
+      <c r="BR2" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="BN2" s="29" t="s">
-        <v>226</v>
-      </c>
-      <c r="BO2" s="29" t="s">
-        <v>227</v>
-      </c>
-      <c r="BP2" s="70" t="s">
-        <v>226</v>
-      </c>
-      <c r="BQ2" s="70" t="s">
-        <v>227</v>
-      </c>
-      <c r="BR2" s="71" t="s">
+      <c r="BS2" s="71" t="s">
         <v>228</v>
       </c>
-      <c r="BS2" s="71" t="s">
+      <c r="BT2" s="84" t="s">
         <v>229</v>
       </c>
-      <c r="BT2" s="84" t="s">
+      <c r="BU2" s="84" t="s">
         <v>230</v>
       </c>
-      <c r="BU2" s="84" t="s">
+      <c r="BV2" s="72" t="s">
         <v>231</v>
       </c>
-      <c r="BV2" s="72" t="s">
-        <v>232</v>
-      </c>
     </row>
-    <row r="3" spans="1:74" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:74" s="17" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L3" s="18"/>
       <c r="AD3" s="50"/>
@@ -6814,9 +6852,9 @@
       <c r="BT3" s="27"/>
       <c r="BU3" s="27"/>
     </row>
-    <row r="4" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:74" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -6825,199 +6863,199 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4" t="s">
+        <v>234</v>
+      </c>
+      <c r="G4" t="s">
         <v>235</v>
-      </c>
-      <c r="G4" t="s">
-        <v>236</v>
       </c>
       <c r="H4" t="s">
         <v>40</v>
       </c>
       <c r="I4" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="J4" t="s">
         <v>237</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>238</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>239</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>240</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>241</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>242</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>243</v>
-      </c>
-      <c r="P4" t="s">
-        <v>244</v>
       </c>
       <c r="Q4">
         <v>80</v>
       </c>
       <c r="R4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="S4">
         <v>10</v>
       </c>
       <c r="T4" t="s">
+        <v>245</v>
+      </c>
+      <c r="U4" t="s">
         <v>246</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" s="43" t="s">
+        <v>165</v>
+      </c>
+      <c r="W4" s="44" t="s">
         <v>247</v>
       </c>
-      <c r="V4" s="43" t="s">
-        <v>166</v>
-      </c>
-      <c r="W4" s="44" t="s">
+      <c r="X4" t="s">
         <v>248</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>249</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>250</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>251</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>252</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>253</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" s="25" t="s">
         <v>254</v>
       </c>
-      <c r="AD4" s="25" t="s">
+      <c r="AE4" s="45" t="s">
         <v>255</v>
       </c>
-      <c r="AE4" s="45" t="s">
+      <c r="AG4" s="46" t="s">
         <v>256</v>
       </c>
-      <c r="AG4" s="46" t="s">
+      <c r="AH4" s="46" t="s">
         <v>257</v>
       </c>
-      <c r="AH4" s="46" t="s">
+      <c r="AI4" t="s">
         <v>258</v>
       </c>
-      <c r="AI4" t="s">
+      <c r="AJ4" t="s">
         <v>259</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" s="46" t="s">
         <v>260</v>
       </c>
-      <c r="AK4" s="46" t="s">
+      <c r="AL4" s="46" t="s">
         <v>261</v>
       </c>
-      <c r="AL4" s="46" t="s">
+      <c r="AM4" s="41" t="s">
         <v>262</v>
       </c>
-      <c r="AM4" s="41" t="s">
+      <c r="AN4" s="41" t="s">
         <v>263</v>
       </c>
-      <c r="AN4" s="41" t="s">
+      <c r="AO4" s="41" t="s">
+        <v>220</v>
+      </c>
+      <c r="AP4" s="41" t="s">
         <v>264</v>
       </c>
-      <c r="AO4" s="41" t="s">
-        <v>221</v>
-      </c>
-      <c r="AP4" s="41" t="s">
+      <c r="AQ4" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="AQ4" s="41" t="s">
+      <c r="AS4" t="s">
         <v>266</v>
       </c>
-      <c r="AS4" t="s">
+      <c r="AT4" t="s">
         <v>267</v>
       </c>
-      <c r="AT4" t="s">
+      <c r="AU4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AV4" t="s">
         <v>268</v>
       </c>
-      <c r="AU4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AV4" t="s">
+      <c r="AW4" t="s">
         <v>269</v>
       </c>
-      <c r="AW4" t="s">
-        <v>270</v>
-      </c>
       <c r="AY4" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="AZ4" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="AZ4" s="60" t="s">
+      <c r="BA4" t="s">
         <v>361</v>
       </c>
-      <c r="BA4" t="s">
+      <c r="BB4" t="s">
         <v>362</v>
       </c>
-      <c r="BB4" t="s">
+      <c r="BC4" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="BD4" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="BE4" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="BF4" t="s">
+        <v>460</v>
+      </c>
+      <c r="BG4" t="s">
+        <v>461</v>
+      </c>
+      <c r="BH4" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="BI4" s="58" t="s">
         <v>363</v>
-      </c>
-      <c r="BC4" s="83" t="s">
-        <v>459</v>
-      </c>
-      <c r="BD4" s="83" t="s">
-        <v>460</v>
-      </c>
-      <c r="BE4" s="83" t="s">
-        <v>463</v>
-      </c>
-      <c r="BF4" t="s">
-        <v>461</v>
-      </c>
-      <c r="BG4" t="s">
-        <v>462</v>
-      </c>
-      <c r="BH4" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="BI4" s="58" t="s">
-        <v>364</v>
       </c>
       <c r="BJ4" s="58">
         <v>289</v>
       </c>
       <c r="BK4" s="58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="BL4" s="42" t="s">
+        <v>270</v>
+      </c>
+      <c r="BN4" t="s">
         <v>271</v>
       </c>
-      <c r="BN4" t="s">
+      <c r="BO4" t="s">
         <v>272</v>
       </c>
-      <c r="BO4" t="s">
+      <c r="BP4" s="42" t="s">
         <v>273</v>
       </c>
-      <c r="BP4" s="42" t="s">
+      <c r="BR4" s="63" t="s">
         <v>274</v>
       </c>
-      <c r="BR4" s="63" t="s">
+      <c r="BT4" s="83" t="s">
         <v>275</v>
       </c>
-      <c r="BT4" s="83" t="s">
+      <c r="BU4" s="83" t="s">
         <v>276</v>
       </c>
-      <c r="BU4" s="83" t="s">
+      <c r="BV4" s="64" t="s">
         <v>277</v>
-      </c>
-      <c r="BV4" s="64" t="s">
-        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -7127,39 +7165,39 @@
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="11" width="15.5703125" style="1" customWidth="1"/>
+    <col min="4" max="11" width="15.54296875" style="1" customWidth="1"/>
     <col min="12" max="12" width="19" style="1" customWidth="1"/>
-    <col min="13" max="13" width="21.7109375" style="7" customWidth="1"/>
-    <col min="14" max="14" width="15.5703125" style="7" customWidth="1"/>
-    <col min="15" max="18" width="15.5703125" style="8" customWidth="1"/>
-    <col min="19" max="30" width="15.5703125" style="1" customWidth="1"/>
-    <col min="31" max="31" width="8.7109375" style="66" customWidth="1"/>
-    <col min="32" max="41" width="8.7109375" style="11" customWidth="1"/>
-    <col min="42" max="46" width="8.7109375" style="13" customWidth="1"/>
-    <col min="47" max="51" width="8.7109375" style="9" customWidth="1"/>
-    <col min="52" max="54" width="8.7109375" style="3" customWidth="1"/>
-    <col min="55" max="55" width="9.140625" style="10"/>
-    <col min="58" max="58" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.7265625" style="7" customWidth="1"/>
+    <col min="14" max="14" width="15.54296875" style="7" customWidth="1"/>
+    <col min="15" max="18" width="15.54296875" style="8" customWidth="1"/>
+    <col min="19" max="30" width="15.54296875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="8.7265625" style="66" customWidth="1"/>
+    <col min="32" max="41" width="8.7265625" style="11" customWidth="1"/>
+    <col min="42" max="46" width="8.7265625" style="13" customWidth="1"/>
+    <col min="47" max="51" width="8.7265625" style="9" customWidth="1"/>
+    <col min="52" max="54" width="8.7265625" style="3" customWidth="1"/>
+    <col min="55" max="55" width="9.1796875" style="10"/>
+    <col min="58" max="58" width="9.7265625" style="60" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="8" style="60" customWidth="1"/>
-    <col min="60" max="60" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="61" max="61" width="8" customWidth="1"/>
-    <col min="62" max="62" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="8.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="8.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.1796875" style="83" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="68" max="68" width="11" style="58" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="10.453125" style="58" bestFit="1" customWidth="1"/>
     <col min="70" max="70" width="13" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:70" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>20</v>
       </c>
@@ -7194,13 +7232,13 @@
         <v>28</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="O1" s="8" t="s">
         <v>29</v>
@@ -7212,7 +7250,7 @@
         <v>31</v>
       </c>
       <c r="R1" s="8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S1" s="1" t="s">
         <v>9</v>
@@ -7251,37 +7289,37 @@
         <v>50</v>
       </c>
       <c r="AE1" s="65" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF1" s="12" t="s">
         <v>384</v>
       </c>
-      <c r="AF1" s="12" t="s">
+      <c r="AG1" s="12" t="s">
         <v>385</v>
       </c>
-      <c r="AG1" s="12" t="s">
+      <c r="AH1" s="12" t="s">
         <v>386</v>
       </c>
-      <c r="AH1" s="12" t="s">
+      <c r="AI1" s="12" t="s">
         <v>387</v>
       </c>
-      <c r="AI1" s="12" t="s">
+      <c r="AJ1" s="12" t="s">
         <v>388</v>
       </c>
-      <c r="AJ1" s="12" t="s">
+      <c r="AK1" s="12" t="s">
         <v>389</v>
       </c>
-      <c r="AK1" s="12" t="s">
+      <c r="AL1" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="AL1" s="12" t="s">
+      <c r="AM1" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="AM1" s="12" t="s">
+      <c r="AN1" s="12" t="s">
         <v>392</v>
       </c>
-      <c r="AN1" s="12" t="s">
+      <c r="AO1" s="12" t="s">
         <v>393</v>
-      </c>
-      <c r="AO1" s="12" t="s">
-        <v>394</v>
       </c>
       <c r="AP1" s="14" t="s">
         <v>51</v>
@@ -7332,46 +7370,46 @@
         <v>2</v>
       </c>
       <c r="BF1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="BG1" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="BG1" s="59" t="s">
+      <c r="BH1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="BI1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="BJ1" s="82" t="s">
         <v>348</v>
       </c>
-      <c r="BH1" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="BI1" s="59" t="s">
+      <c r="BK1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="BL1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="BM1" s="82" t="s">
         <v>348</v>
       </c>
-      <c r="BJ1" s="82" t="s">
+      <c r="BN1" s="82" t="s">
         <v>349</v>
       </c>
-      <c r="BK1" s="82" t="s">
+      <c r="BO1" s="82" t="s">
         <v>350</v>
       </c>
-      <c r="BL1" s="82" t="s">
+      <c r="BP1" s="56" t="s">
         <v>351</v>
       </c>
-      <c r="BM1" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="BN1" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="BO1" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="BP1" s="56" t="s">
+      <c r="BQ1" s="56" t="s">
         <v>352</v>
       </c>
-      <c r="BQ1" s="56" t="s">
+      <c r="BR1" s="56" t="s">
         <v>353</v>
       </c>
-      <c r="BR1" s="56" t="s">
-        <v>354</v>
-      </c>
     </row>
-    <row r="2" spans="1:70" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:70" s="29" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>80</v>
       </c>
@@ -7385,7 +7423,7 @@
         <v>21</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>81</v>
+        <v>564</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>76</v>
@@ -7397,25 +7435,25 @@
         <v>78</v>
       </c>
       <c r="I2" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="J2" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="K2" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="L2" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="N2" s="74" t="s">
+        <v>121</v>
+      </c>
+      <c r="O2" s="15" t="s">
         <v>86</v>
-      </c>
-      <c r="L2" s="15" t="s">
-        <v>119</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="N2" s="74" t="s">
-        <v>122</v>
-      </c>
-      <c r="O2" s="15" t="s">
-        <v>87</v>
       </c>
       <c r="P2" s="8" t="s">
         <v>79</v>
@@ -7424,46 +7462,46 @@
         <v>32</v>
       </c>
       <c r="R2" s="15" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="T2" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="T2" s="15" t="s">
+      <c r="U2" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="U2" s="15" t="s">
+      <c r="V2" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="V2" s="15" t="s">
+      <c r="W2" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="W2" s="15" t="s">
+      <c r="X2" s="15" t="s">
         <v>92</v>
       </c>
-      <c r="X2" s="15" t="s">
+      <c r="Y2" s="15" t="s">
         <v>93</v>
       </c>
-      <c r="Y2" s="15" t="s">
+      <c r="Z2" s="15" t="s">
         <v>94</v>
       </c>
-      <c r="Z2" s="15" t="s">
+      <c r="AA2" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="AA2" s="15" t="s">
+      <c r="AB2" s="15" t="s">
         <v>96</v>
       </c>
-      <c r="AB2" s="15" t="s">
+      <c r="AC2" s="15" t="s">
         <v>97</v>
-      </c>
-      <c r="AC2" s="15" t="s">
-        <v>98</v>
       </c>
       <c r="AD2" s="15" t="s">
         <v>67</v>
       </c>
       <c r="AE2" s="75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AF2" s="76" t="s">
         <v>73</v>
@@ -7472,10 +7510,10 @@
         <v>72</v>
       </c>
       <c r="AH2" s="76" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="AI2" s="76" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="AJ2" s="76" t="s">
         <v>71</v>
@@ -7484,7 +7522,7 @@
         <v>70</v>
       </c>
       <c r="AL2" s="76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="AM2" s="76" t="s">
         <v>69</v>
@@ -7493,13 +7531,13 @@
         <v>68</v>
       </c>
       <c r="AO2" s="76" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="AP2" s="77" t="s">
         <v>57</v>
       </c>
       <c r="AQ2" s="77" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AR2" s="77" t="s">
         <v>58</v>
@@ -7544,48 +7582,48 @@
         <v>7</v>
       </c>
       <c r="BF2" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="BG2" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="BG2" s="61" t="s">
+      <c r="BH2" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="BI2" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="BJ2" s="84" t="s">
+        <v>464</v>
+      </c>
+      <c r="BK2" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="BL2" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="BH2" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="BI2" s="29" t="s">
+      <c r="BM2" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="BN2" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="BO2" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="BJ2" s="84" t="s">
-        <v>465</v>
-      </c>
-      <c r="BK2" s="84" t="s">
-        <v>466</v>
-      </c>
-      <c r="BL2" s="84" t="s">
+      <c r="BP2" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="BQ2" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="BM2" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="BN2" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="BO2" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="BP2" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="BQ2" s="57" t="s">
+      <c r="BR2" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="BR2" s="57" t="s">
-        <v>359</v>
-      </c>
     </row>
-    <row r="3" spans="1:70" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:70" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="16" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="L3" s="18"/>
       <c r="P3" s="21"/>
@@ -7606,9 +7644,9 @@
       <c r="BQ3" s="27"/>
       <c r="BR3" s="27"/>
     </row>
-    <row r="4" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:70" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>41</v>
@@ -7617,7 +7655,7 @@
         <v>33</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E4" s="8" t="s">
         <v>40</v>
@@ -7641,7 +7679,7 @@
         <v>39</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M4" s="7">
         <v>390</v>
@@ -7659,7 +7697,7 @@
         <v>49</v>
       </c>
       <c r="R4" s="15" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="T4" s="1" t="s">
         <v>42</v>
@@ -7668,7 +7706,7 @@
         <v>1</v>
       </c>
       <c r="AQ4" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AR4" s="13" t="s">
         <v>62</v>
@@ -7707,43 +7745,43 @@
         <v>45</v>
       </c>
       <c r="BF4" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="BG4" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="BG4" s="60" t="s">
+      <c r="BH4" t="s">
         <v>361</v>
       </c>
-      <c r="BH4" t="s">
+      <c r="BI4" t="s">
         <v>362</v>
       </c>
-      <c r="BI4" t="s">
+      <c r="BJ4" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="BK4" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="BL4" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="BM4" t="s">
+        <v>460</v>
+      </c>
+      <c r="BN4" t="s">
+        <v>461</v>
+      </c>
+      <c r="BO4" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="BP4" s="58" t="s">
         <v>363</v>
-      </c>
-      <c r="BJ4" s="83" t="s">
-        <v>459</v>
-      </c>
-      <c r="BK4" s="83" t="s">
-        <v>460</v>
-      </c>
-      <c r="BL4" s="83" t="s">
-        <v>463</v>
-      </c>
-      <c r="BM4" t="s">
-        <v>461</v>
-      </c>
-      <c r="BN4" t="s">
-        <v>462</v>
-      </c>
-      <c r="BO4" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="BP4" s="58" t="s">
-        <v>364</v>
       </c>
       <c r="BQ4" s="58">
         <v>289</v>
       </c>
       <c r="BR4" s="58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -7825,42 +7863,42 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="8" width="15.5703125" customWidth="1"/>
-    <col min="9" max="9" width="26.140625" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="25" customWidth="1"/>
-    <col min="11" max="12" width="8.7109375" style="2" customWidth="1"/>
-    <col min="13" max="15" width="8.7109375" customWidth="1"/>
-    <col min="16" max="17" width="15.5703125" style="46" customWidth="1"/>
-    <col min="18" max="19" width="15.5703125" customWidth="1"/>
-    <col min="20" max="21" width="15.5703125" style="46" customWidth="1"/>
-    <col min="22" max="28" width="8.7109375" style="51" customWidth="1"/>
-    <col min="29" max="29" width="9.140625" style="51"/>
-    <col min="30" max="36" width="8.7109375" customWidth="1"/>
-    <col min="38" max="38" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="20.26953125" customWidth="1"/>
+    <col min="6" max="8" width="15.54296875" customWidth="1"/>
+    <col min="9" max="9" width="26.1796875" customWidth="1"/>
+    <col min="10" max="10" width="8.7265625" style="25" customWidth="1"/>
+    <col min="11" max="12" width="8.7265625" style="2" customWidth="1"/>
+    <col min="13" max="15" width="8.7265625" customWidth="1"/>
+    <col min="16" max="17" width="15.54296875" style="46" customWidth="1"/>
+    <col min="18" max="19" width="15.54296875" customWidth="1"/>
+    <col min="20" max="21" width="15.54296875" style="46" customWidth="1"/>
+    <col min="22" max="28" width="8.7265625" style="51" customWidth="1"/>
+    <col min="29" max="29" width="9.1796875" style="51"/>
+    <col min="30" max="36" width="8.7265625" customWidth="1"/>
+    <col min="38" max="38" width="9.7265625" style="60" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="8" style="60" customWidth="1"/>
-    <col min="40" max="40" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="8" customWidth="1"/>
-    <col min="42" max="42" width="8.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="8.140625" style="83" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="10.7109375" style="83" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="47" max="47" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="8.1796875" style="83" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.7265625" style="83" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="8.7265625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="10.7265625" bestFit="1" customWidth="1"/>
     <col min="48" max="48" width="11" style="58" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="10.42578125" style="58" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="10.453125" style="58" bestFit="1" customWidth="1"/>
     <col min="50" max="50" width="13" style="58" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -7869,22 +7907,22 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
+        <v>310</v>
+      </c>
+      <c r="E1" t="s">
         <v>311</v>
-      </c>
-      <c r="E1" t="s">
-        <v>312</v>
       </c>
       <c r="F1" t="s">
         <v>8</v>
       </c>
       <c r="G1" s="55" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>172</v>
-      </c>
-      <c r="I1" s="36" t="s">
-        <v>173</v>
       </c>
       <c r="J1" s="22" t="s">
         <v>0</v>
@@ -7905,114 +7943,114 @@
         <v>2</v>
       </c>
       <c r="P1" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="Q1" s="37" t="s">
         <v>192</v>
       </c>
-      <c r="Q1" s="37" t="s">
+      <c r="R1" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="T1" s="37" t="s">
+        <v>191</v>
+      </c>
+      <c r="U1" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="V1" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="R1" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="S1" s="37" t="s">
+      <c r="W1" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="X1" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="Y1" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="Z1" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="AA1" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="AB1" s="38" t="s">
+        <v>314</v>
+      </c>
+      <c r="AC1" s="38" t="s">
+        <v>315</v>
+      </c>
+      <c r="AD1" s="38" t="s">
         <v>193</v>
       </c>
-      <c r="T1" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="U1" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="V1" s="38" t="s">
+      <c r="AE1" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="AF1" s="38" t="s">
         <v>195</v>
       </c>
-      <c r="X1" s="38" t="s">
+      <c r="AG1" s="38" t="s">
         <v>196</v>
       </c>
-      <c r="Y1" s="38" t="s">
+      <c r="AH1" s="38" t="s">
         <v>197</v>
       </c>
-      <c r="Z1" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="AA1" s="38" t="s">
+      <c r="AI1" s="38" t="s">
+        <v>313</v>
+      </c>
+      <c r="AJ1" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="AB1" s="38" t="s">
+      <c r="AK1" s="38" t="s">
         <v>315</v>
       </c>
-      <c r="AC1" s="38" t="s">
+      <c r="AL1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="AM1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AN1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="AO1" s="59" t="s">
+        <v>347</v>
+      </c>
+      <c r="AP1" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="AQ1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="AR1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="AS1" s="82" t="s">
+        <v>348</v>
+      </c>
+      <c r="AT1" s="82" t="s">
+        <v>349</v>
+      </c>
+      <c r="AU1" s="82" t="s">
+        <v>350</v>
+      </c>
+      <c r="AV1" s="56" t="s">
+        <v>351</v>
+      </c>
+      <c r="AW1" s="56" t="s">
+        <v>352</v>
+      </c>
+      <c r="AX1" s="56" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="29" t="s">
         <v>316</v>
-      </c>
-      <c r="AD1" s="38" t="s">
-        <v>194</v>
-      </c>
-      <c r="AE1" s="38" t="s">
-        <v>195</v>
-      </c>
-      <c r="AF1" s="38" t="s">
-        <v>196</v>
-      </c>
-      <c r="AG1" s="38" t="s">
-        <v>197</v>
-      </c>
-      <c r="AH1" s="38" t="s">
-        <v>198</v>
-      </c>
-      <c r="AI1" s="38" t="s">
-        <v>314</v>
-      </c>
-      <c r="AJ1" s="38" t="s">
-        <v>315</v>
-      </c>
-      <c r="AK1" s="38" t="s">
-        <v>316</v>
-      </c>
-      <c r="AL1" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="AM1" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="AN1" s="59" t="s">
-        <v>347</v>
-      </c>
-      <c r="AO1" s="59" t="s">
-        <v>348</v>
-      </c>
-      <c r="AP1" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="AQ1" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="AR1" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="AS1" s="82" t="s">
-        <v>349</v>
-      </c>
-      <c r="AT1" s="82" t="s">
-        <v>350</v>
-      </c>
-      <c r="AU1" s="82" t="s">
-        <v>351</v>
-      </c>
-      <c r="AV1" s="56" t="s">
-        <v>352</v>
-      </c>
-      <c r="AW1" s="56" t="s">
-        <v>353</v>
-      </c>
-      <c r="AX1" s="56" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="2" spans="1:50" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>317</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>74</v>
@@ -8021,22 +8059,22 @@
         <v>75</v>
       </c>
       <c r="D2" s="29" t="s">
+        <v>317</v>
+      </c>
+      <c r="E2" s="24" t="s">
         <v>318</v>
       </c>
-      <c r="E2" s="24" t="s">
+      <c r="F2" s="29" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="G2" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="H2" s="24" t="s">
         <v>320</v>
       </c>
-      <c r="G2" s="24" t="s">
-        <v>538</v>
-      </c>
-      <c r="H2" s="24" t="s">
+      <c r="I2" s="24" t="s">
         <v>321</v>
-      </c>
-      <c r="I2" s="24" t="s">
-        <v>322</v>
       </c>
       <c r="J2" s="30" t="s">
         <v>5</v>
@@ -8057,114 +8095,114 @@
         <v>7</v>
       </c>
       <c r="P2" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q2" s="67" t="s">
         <v>323</v>
       </c>
-      <c r="Q2" s="67" t="s">
+      <c r="R2" s="24" t="s">
+        <v>322</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>323</v>
+      </c>
+      <c r="T2" s="67" t="s">
+        <v>322</v>
+      </c>
+      <c r="U2" s="67" t="s">
+        <v>323</v>
+      </c>
+      <c r="V2" s="80" t="s">
         <v>324</v>
       </c>
-      <c r="R2" s="24" t="s">
-        <v>323</v>
-      </c>
-      <c r="S2" s="24" t="s">
+      <c r="W2" s="80" t="s">
+        <v>325</v>
+      </c>
+      <c r="X2" s="81" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y2" s="81" t="s">
+        <v>221</v>
+      </c>
+      <c r="Z2" s="81" t="s">
+        <v>222</v>
+      </c>
+      <c r="AA2" s="81" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB2" s="81" t="s">
+        <v>327</v>
+      </c>
+      <c r="AC2" s="81" t="s">
+        <v>328</v>
+      </c>
+      <c r="AD2" s="24" t="s">
         <v>324</v>
       </c>
-      <c r="T2" s="67" t="s">
-        <v>323</v>
-      </c>
-      <c r="U2" s="67" t="s">
-        <v>324</v>
-      </c>
-      <c r="V2" s="80" t="s">
+      <c r="AE2" s="24" t="s">
         <v>325</v>
       </c>
-      <c r="W2" s="80" t="s">
+      <c r="AF2" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG2" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="AH2" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="AI2" s="29" t="s">
         <v>326</v>
       </c>
-      <c r="X2" s="81" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y2" s="81" t="s">
-        <v>222</v>
-      </c>
-      <c r="Z2" s="81" t="s">
-        <v>223</v>
-      </c>
-      <c r="AA2" s="81" t="s">
-        <v>327</v>
-      </c>
-      <c r="AB2" s="81" t="s">
+      <c r="AJ2" s="29" t="s">
+        <v>329</v>
+      </c>
+      <c r="AK2" s="29" t="s">
         <v>328</v>
       </c>
-      <c r="AC2" s="81" t="s">
-        <v>329</v>
-      </c>
-      <c r="AD2" s="24" t="s">
-        <v>325</v>
-      </c>
-      <c r="AE2" s="24" t="s">
-        <v>326</v>
-      </c>
-      <c r="AF2" s="29" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG2" s="29" t="s">
-        <v>222</v>
-      </c>
-      <c r="AH2" s="29" t="s">
-        <v>223</v>
-      </c>
-      <c r="AI2" s="29" t="s">
-        <v>327</v>
-      </c>
-      <c r="AJ2" s="29" t="s">
-        <v>330</v>
-      </c>
-      <c r="AK2" s="29" t="s">
-        <v>329</v>
-      </c>
       <c r="AL2" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="AM2" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="AM2" s="61" t="s">
+      <c r="AN2" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="AO2" s="29" t="s">
+        <v>355</v>
+      </c>
+      <c r="AP2" s="84" t="s">
+        <v>464</v>
+      </c>
+      <c r="AQ2" s="84" t="s">
+        <v>465</v>
+      </c>
+      <c r="AR2" s="84" t="s">
         <v>356</v>
       </c>
-      <c r="AN2" s="29" t="s">
-        <v>355</v>
-      </c>
-      <c r="AO2" s="29" t="s">
+      <c r="AS2" s="24" t="s">
+        <v>464</v>
+      </c>
+      <c r="AT2" s="24" t="s">
+        <v>465</v>
+      </c>
+      <c r="AU2" s="24" t="s">
         <v>356</v>
       </c>
-      <c r="AP2" s="84" t="s">
-        <v>465</v>
-      </c>
-      <c r="AQ2" s="84" t="s">
-        <v>466</v>
-      </c>
-      <c r="AR2" s="84" t="s">
+      <c r="AV2" s="57" t="s">
+        <v>365</v>
+      </c>
+      <c r="AW2" s="57" t="s">
         <v>357</v>
       </c>
-      <c r="AS2" s="24" t="s">
-        <v>465</v>
-      </c>
-      <c r="AT2" s="24" t="s">
-        <v>466</v>
-      </c>
-      <c r="AU2" s="24" t="s">
-        <v>357</v>
-      </c>
-      <c r="AV2" s="57" t="s">
-        <v>366</v>
-      </c>
-      <c r="AW2" s="57" t="s">
+      <c r="AX2" s="57" t="s">
         <v>358</v>
       </c>
-      <c r="AX2" s="57" t="s">
-        <v>359</v>
-      </c>
     </row>
-    <row r="3" spans="1:50" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:50" s="53" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="52" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="M3" s="54"/>
       <c r="AL3" s="27"/>
@@ -8181,9 +8219,9 @@
       <c r="AW3" s="27"/>
       <c r="AX3" s="27"/>
     </row>
-    <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:50" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B4" t="s">
         <v>41</v>
@@ -8192,139 +8230,139 @@
         <v>33</v>
       </c>
       <c r="D4" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E4" t="s">
         <v>41</v>
       </c>
       <c r="F4" t="s">
+        <v>332</v>
+      </c>
+      <c r="G4" t="s">
         <v>333</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
+        <v>237</v>
+      </c>
+      <c r="I4" t="s">
+        <v>238</v>
+      </c>
+      <c r="J4" s="25" t="s">
         <v>334</v>
       </c>
-      <c r="H4" t="s">
-        <v>238</v>
-      </c>
-      <c r="I4" t="s">
-        <v>239</v>
-      </c>
-      <c r="J4" s="25" t="s">
+      <c r="K4" s="2" t="s">
         <v>335</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="M4" t="s">
         <v>336</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>337</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" s="46" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="R4" t="s">
+        <v>258</v>
+      </c>
+      <c r="S4" t="s">
+        <v>259</v>
+      </c>
+      <c r="T4" s="46" t="s">
+        <v>260</v>
+      </c>
+      <c r="U4" s="46" t="s">
+        <v>261</v>
+      </c>
+      <c r="V4" s="51" t="s">
         <v>338</v>
       </c>
-      <c r="P4" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="Q4" s="46" t="s">
-        <v>258</v>
-      </c>
-      <c r="R4" t="s">
-        <v>259</v>
-      </c>
-      <c r="S4" t="s">
-        <v>260</v>
-      </c>
-      <c r="T4" s="46" t="s">
-        <v>261</v>
-      </c>
-      <c r="U4" s="46" t="s">
-        <v>262</v>
-      </c>
-      <c r="V4" s="51" t="s">
+      <c r="W4" s="51" t="s">
+        <v>263</v>
+      </c>
+      <c r="X4" s="51" t="s">
+        <v>220</v>
+      </c>
+      <c r="Y4" s="51" t="s">
+        <v>268</v>
+      </c>
+      <c r="Z4" s="51" t="s">
+        <v>269</v>
+      </c>
+      <c r="AA4" s="51" t="s">
         <v>339</v>
       </c>
-      <c r="W4" s="51" t="s">
-        <v>264</v>
-      </c>
-      <c r="X4" s="51" t="s">
-        <v>221</v>
-      </c>
-      <c r="Y4" s="51" t="s">
-        <v>269</v>
-      </c>
-      <c r="Z4" s="51" t="s">
-        <v>270</v>
-      </c>
-      <c r="AA4" s="51" t="s">
+      <c r="AB4" s="51" t="s">
         <v>340</v>
       </c>
-      <c r="AB4" s="51" t="s">
+      <c r="AC4" s="51" t="s">
         <v>341</v>
       </c>
-      <c r="AC4" s="51" t="s">
+      <c r="AD4" t="s">
         <v>342</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>343</v>
       </c>
-      <c r="AE4" t="s">
+      <c r="AF4" t="s">
+        <v>220</v>
+      </c>
+      <c r="AG4" t="s">
         <v>344</v>
       </c>
-      <c r="AF4" t="s">
-        <v>221</v>
-      </c>
-      <c r="AG4" t="s">
+      <c r="AH4" t="s">
         <v>345</v>
       </c>
-      <c r="AH4" t="s">
-        <v>346</v>
-      </c>
       <c r="AI4" t="s">
+        <v>339</v>
+      </c>
+      <c r="AJ4" t="s">
         <v>340</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AK4" t="s">
         <v>341</v>
       </c>
-      <c r="AK4" t="s">
-        <v>342</v>
-      </c>
       <c r="AL4" s="60" t="s">
+        <v>359</v>
+      </c>
+      <c r="AM4" s="60" t="s">
         <v>360</v>
       </c>
-      <c r="AM4" s="60" t="s">
+      <c r="AN4" t="s">
         <v>361</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AO4" t="s">
         <v>362</v>
       </c>
-      <c r="AO4" t="s">
+      <c r="AP4" s="83" t="s">
+        <v>458</v>
+      </c>
+      <c r="AQ4" s="83" t="s">
+        <v>459</v>
+      </c>
+      <c r="AR4" s="83" t="s">
+        <v>462</v>
+      </c>
+      <c r="AS4" t="s">
+        <v>460</v>
+      </c>
+      <c r="AT4" t="s">
+        <v>461</v>
+      </c>
+      <c r="AU4" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="AV4" s="58" t="s">
         <v>363</v>
-      </c>
-      <c r="AP4" s="83" t="s">
-        <v>459</v>
-      </c>
-      <c r="AQ4" s="83" t="s">
-        <v>460</v>
-      </c>
-      <c r="AR4" s="83" t="s">
-        <v>463</v>
-      </c>
-      <c r="AS4" t="s">
-        <v>461</v>
-      </c>
-      <c r="AT4" t="s">
-        <v>462</v>
-      </c>
-      <c r="AU4" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="AV4" s="58" t="s">
-        <v>364</v>
       </c>
       <c r="AW4" s="58">
         <v>289</v>
       </c>
       <c r="AX4" s="58" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
   </sheetData>
@@ -8395,29 +8433,29 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="113" customWidth="1"/>
-    <col min="6" max="7" width="8.7109375" style="114" customWidth="1"/>
-    <col min="8" max="10" width="8.7109375" style="9" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="3" customWidth="1"/>
-    <col min="12" max="13" width="8.7109375" style="2" customWidth="1"/>
-    <col min="14" max="16" width="8.7109375" customWidth="1"/>
-    <col min="17" max="18" width="9.140625" style="60"/>
-    <col min="19" max="20" width="9.140625" style="1"/>
-    <col min="21" max="22" width="9.140625" style="64"/>
-    <col min="23" max="24" width="9.140625" style="1"/>
-    <col min="25" max="26" width="9.140625" style="126"/>
-    <col min="27" max="28" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="113" customWidth="1"/>
+    <col min="6" max="7" width="8.7265625" style="114" customWidth="1"/>
+    <col min="8" max="10" width="8.7265625" style="9" customWidth="1"/>
+    <col min="11" max="11" width="8.7265625" style="3" customWidth="1"/>
+    <col min="12" max="13" width="8.7265625" style="2" customWidth="1"/>
+    <col min="14" max="16" width="8.7265625" customWidth="1"/>
+    <col min="17" max="18" width="9.1796875" style="60"/>
+    <col min="19" max="20" width="9.1796875" style="1"/>
+    <col min="21" max="22" width="9.1796875" style="64"/>
+    <col min="23" max="24" width="9.1796875" style="1"/>
+    <col min="25" max="26" width="9.1796875" style="126"/>
+    <col min="27" max="28" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -8426,25 +8464,25 @@
         <v>3</v>
       </c>
       <c r="D1" s="36" t="s">
+        <v>445</v>
+      </c>
+      <c r="E1" s="136" t="s">
+        <v>466</v>
+      </c>
+      <c r="F1" s="130" t="s">
+        <v>467</v>
+      </c>
+      <c r="G1" s="130" t="s">
+        <v>468</v>
+      </c>
+      <c r="H1" s="112" t="s">
         <v>446</v>
       </c>
-      <c r="E1" s="136" t="s">
-        <v>467</v>
-      </c>
-      <c r="F1" s="130" t="s">
-        <v>468</v>
-      </c>
-      <c r="G1" s="130" t="s">
-        <v>469</v>
-      </c>
-      <c r="H1" s="112" t="s">
+      <c r="I1" s="112" t="s">
         <v>447</v>
       </c>
-      <c r="I1" s="112" t="s">
+      <c r="J1" s="112" t="s">
         <v>448</v>
-      </c>
-      <c r="J1" s="112" t="s">
-        <v>449</v>
       </c>
       <c r="K1" s="5" t="s">
         <v>0</v>
@@ -8465,45 +8503,45 @@
         <v>2</v>
       </c>
       <c r="Q1" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="R1" s="59" t="s">
         <v>450</v>
       </c>
-      <c r="R1" s="59" t="s">
+      <c r="S1" s="59" t="s">
+        <v>449</v>
+      </c>
+      <c r="T1" s="59" t="s">
+        <v>450</v>
+      </c>
+      <c r="U1" s="56" t="s">
         <v>451</v>
       </c>
-      <c r="S1" s="59" t="s">
-        <v>450</v>
-      </c>
-      <c r="T1" s="59" t="s">
+      <c r="V1" s="56" t="s">
+        <v>452</v>
+      </c>
+      <c r="W1" s="56" t="s">
         <v>451</v>
       </c>
-      <c r="U1" s="56" t="s">
+      <c r="X1" s="56" t="s">
         <v>452</v>
       </c>
-      <c r="V1" s="56" t="s">
+      <c r="Y1" s="124" t="s">
         <v>453</v>
       </c>
-      <c r="W1" s="56" t="s">
-        <v>452</v>
-      </c>
-      <c r="X1" s="56" t="s">
+      <c r="Z1" s="124" t="s">
+        <v>454</v>
+      </c>
+      <c r="AA1" s="124" t="s">
         <v>453</v>
       </c>
-      <c r="Y1" s="124" t="s">
+      <c r="AB1" s="124" t="s">
         <v>454</v>
       </c>
-      <c r="Z1" s="124" t="s">
-        <v>455</v>
-      </c>
-      <c r="AA1" s="124" t="s">
-        <v>454</v>
-      </c>
-      <c r="AB1" s="124" t="s">
-        <v>455</v>
-      </c>
     </row>
-    <row r="2" spans="1:28" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="29" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>74</v>
@@ -8512,25 +8550,25 @@
         <v>75</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E2" s="117" t="s">
+        <v>547</v>
+      </c>
+      <c r="F2" s="118" t="s">
+        <v>548</v>
+      </c>
+      <c r="G2" s="118" t="s">
         <v>549</v>
       </c>
-      <c r="F2" s="118" t="s">
-        <v>550</v>
-      </c>
-      <c r="G2" s="118" t="s">
-        <v>551</v>
-      </c>
       <c r="H2" s="119" t="s">
+        <v>547</v>
+      </c>
+      <c r="I2" s="119" t="s">
+        <v>548</v>
+      </c>
+      <c r="J2" s="119" t="s">
         <v>549</v>
-      </c>
-      <c r="I2" s="119" t="s">
-        <v>550</v>
-      </c>
-      <c r="J2" s="119" t="s">
-        <v>551</v>
       </c>
       <c r="K2" s="79" t="s">
         <v>5</v>
@@ -8551,53 +8589,53 @@
         <v>7</v>
       </c>
       <c r="Q2" s="61" t="s">
+        <v>487</v>
+      </c>
+      <c r="R2" s="122" t="s">
         <v>488</v>
       </c>
-      <c r="R2" s="122" t="s">
-        <v>489</v>
-      </c>
       <c r="S2" s="8" t="s">
+        <v>487</v>
+      </c>
+      <c r="T2" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="T2" s="15" t="s">
-        <v>489</v>
-      </c>
       <c r="U2" s="72" t="s">
+        <v>483</v>
+      </c>
+      <c r="V2" s="123" t="s">
         <v>484</v>
       </c>
-      <c r="V2" s="123" t="s">
+      <c r="W2" s="8" t="s">
+        <v>483</v>
+      </c>
+      <c r="X2" s="15" t="s">
+        <v>484</v>
+      </c>
+      <c r="Y2" s="125" t="s">
         <v>485</v>
       </c>
-      <c r="W2" s="8" t="s">
-        <v>484</v>
-      </c>
-      <c r="X2" s="15" t="s">
+      <c r="Z2" s="127" t="s">
+        <v>486</v>
+      </c>
+      <c r="AA2" s="8" t="s">
         <v>485</v>
       </c>
-      <c r="Y2" s="125" t="s">
+      <c r="AB2" s="8" t="s">
         <v>486</v>
       </c>
-      <c r="Z2" s="127" t="s">
-        <v>487</v>
-      </c>
-      <c r="AA2" s="8" t="s">
-        <v>486</v>
-      </c>
-      <c r="AB2" s="8" t="s">
-        <v>487</v>
-      </c>
     </row>
-    <row r="3" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H3" s="96"/>
       <c r="K3" s="96"/>
       <c r="N3" s="28"/>
     </row>
-    <row r="4" spans="1:28" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>41</v>
@@ -8606,74 +8644,74 @@
         <v>33</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="120" t="s">
+        <v>455</v>
+      </c>
+      <c r="G4" s="116" t="s">
+        <v>455</v>
+      </c>
+      <c r="H4" s="78" t="s">
+        <v>457</v>
+      </c>
+      <c r="I4" s="121" t="s">
         <v>456</v>
       </c>
-      <c r="G4" s="116" t="s">
+      <c r="J4" s="121" t="s">
         <v>456</v>
       </c>
-      <c r="H4" s="78" t="s">
-        <v>458</v>
-      </c>
-      <c r="I4" s="121" t="s">
-        <v>457</v>
-      </c>
-      <c r="J4" s="121" t="s">
-        <v>457</v>
-      </c>
       <c r="K4" s="79" t="s">
+        <v>469</v>
+      </c>
+      <c r="L4" s="31" t="s">
         <v>470</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>471</v>
       </c>
       <c r="M4" s="31"/>
       <c r="N4" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="O4" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="O4" s="29" t="s">
+      <c r="Q4" s="61" t="s">
+        <v>474</v>
+      </c>
+      <c r="R4" s="61" t="s">
         <v>473</v>
       </c>
-      <c r="Q4" s="61" t="s">
+      <c r="S4" s="8" t="s">
         <v>475</v>
       </c>
-      <c r="R4" s="61" t="s">
-        <v>474</v>
-      </c>
-      <c r="S4" s="8" t="s">
+      <c r="T4" s="8" t="s">
         <v>476</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="U4" s="72" t="s">
         <v>477</v>
       </c>
-      <c r="U4" s="72" t="s">
+      <c r="V4" s="72" t="s">
         <v>478</v>
       </c>
-      <c r="V4" s="72" t="s">
+      <c r="W4" s="8" t="s">
         <v>479</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="X4" s="8" t="s">
         <v>480</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="Y4" s="125" t="s">
         <v>481</v>
       </c>
-      <c r="Y4" s="125" t="s">
+      <c r="Z4" s="125" t="s">
+        <v>480</v>
+      </c>
+      <c r="AA4" s="8" t="s">
         <v>482</v>
       </c>
-      <c r="Z4" s="125" t="s">
-        <v>481</v>
-      </c>
-      <c r="AA4" s="8" t="s">
-        <v>483</v>
-      </c>
       <c r="AB4" s="8" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
   </sheetData>
@@ -8725,33 +8763,33 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="14.5703125" customWidth="1"/>
+    <col min="1" max="1" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
-    <col min="4" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="8.7109375" style="113" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" style="114" customWidth="1"/>
-    <col min="7" max="7" width="17.85546875" style="114" customWidth="1"/>
-    <col min="8" max="8" width="12.85546875" style="114" customWidth="1"/>
-    <col min="9" max="9" width="13.42578125" style="114" customWidth="1"/>
-    <col min="10" max="11" width="8.7109375" style="9" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" style="9" customWidth="1"/>
-    <col min="13" max="13" width="12.85546875" style="9" customWidth="1"/>
-    <col min="14" max="14" width="13.42578125" style="9" customWidth="1"/>
-    <col min="15" max="15" width="8.7109375" style="3" customWidth="1"/>
-    <col min="16" max="17" width="8.7109375" style="2" customWidth="1"/>
-    <col min="18" max="20" width="8.7109375" customWidth="1"/>
-    <col min="21" max="21" width="9.7109375" style="60" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" style="113" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="114" customWidth="1"/>
+    <col min="7" max="7" width="17.81640625" style="114" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" style="114" customWidth="1"/>
+    <col min="9" max="9" width="13.453125" style="114" customWidth="1"/>
+    <col min="10" max="11" width="8.7265625" style="9" customWidth="1"/>
+    <col min="12" max="12" width="17.81640625" style="9" customWidth="1"/>
+    <col min="13" max="13" width="12.81640625" style="9" customWidth="1"/>
+    <col min="14" max="14" width="13.453125" style="9" customWidth="1"/>
+    <col min="15" max="15" width="8.7265625" style="3" customWidth="1"/>
+    <col min="16" max="17" width="8.7265625" style="2" customWidth="1"/>
+    <col min="18" max="20" width="8.7265625" customWidth="1"/>
+    <col min="21" max="21" width="9.7265625" style="60" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="8" style="60" customWidth="1"/>
-    <col min="23" max="23" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.7265625" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B1" t="s">
         <v>4</v>
@@ -8760,37 +8798,37 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E1" s="136" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F1" s="137" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G1" s="130" t="s">
+        <v>495</v>
+      </c>
+      <c r="H1" s="137" t="s">
         <v>496</v>
       </c>
-      <c r="H1" s="137" t="s">
+      <c r="I1" s="130" t="s">
         <v>497</v>
       </c>
-      <c r="I1" s="130" t="s">
-        <v>498</v>
-      </c>
       <c r="J1" s="130" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K1" s="137" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="L1" s="130" t="s">
+        <v>495</v>
+      </c>
+      <c r="M1" s="137" t="s">
         <v>496</v>
       </c>
-      <c r="M1" s="137" t="s">
+      <c r="N1" s="130" t="s">
         <v>497</v>
-      </c>
-      <c r="N1" s="130" t="s">
-        <v>498</v>
       </c>
       <c r="O1" s="5" t="s">
         <v>0</v>
@@ -8811,21 +8849,21 @@
         <v>2</v>
       </c>
       <c r="U1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="V1" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="V1" s="59" t="s">
-        <v>348</v>
-      </c>
       <c r="W1" s="59" t="s">
+        <v>346</v>
+      </c>
+      <c r="X1" s="59" t="s">
         <v>347</v>
       </c>
-      <c r="X1" s="59" t="s">
-        <v>348</v>
-      </c>
     </row>
-    <row r="2" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" s="29" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="128" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B2" s="128" t="s">
         <v>74</v>
@@ -8834,37 +8872,37 @@
         <v>75</v>
       </c>
       <c r="D2" s="128" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E2" s="117" t="s">
+        <v>504</v>
+      </c>
+      <c r="F2" s="118" t="s">
         <v>505</v>
       </c>
-      <c r="F2" s="118" t="s">
+      <c r="G2" s="118" t="s">
+        <v>499</v>
+      </c>
+      <c r="H2" s="118" t="s">
+        <v>498</v>
+      </c>
+      <c r="I2" s="118" t="s">
         <v>506</v>
       </c>
-      <c r="G2" s="118" t="s">
-        <v>500</v>
-      </c>
-      <c r="H2" s="118" t="s">
+      <c r="J2" s="119" t="s">
+        <v>504</v>
+      </c>
+      <c r="K2" s="119" t="s">
+        <v>505</v>
+      </c>
+      <c r="L2" s="119" t="s">
         <v>499</v>
       </c>
-      <c r="I2" s="118" t="s">
-        <v>507</v>
-      </c>
-      <c r="J2" s="119" t="s">
-        <v>505</v>
-      </c>
-      <c r="K2" s="119" t="s">
+      <c r="M2" s="119" t="s">
+        <v>498</v>
+      </c>
+      <c r="N2" s="119" t="s">
         <v>506</v>
-      </c>
-      <c r="L2" s="119" t="s">
-        <v>500</v>
-      </c>
-      <c r="M2" s="119" t="s">
-        <v>499</v>
-      </c>
-      <c r="N2" s="119" t="s">
-        <v>507</v>
       </c>
       <c r="O2" s="79" t="s">
         <v>5</v>
@@ -8885,21 +8923,21 @@
         <v>7</v>
       </c>
       <c r="U2" s="61" t="s">
+        <v>354</v>
+      </c>
+      <c r="V2" s="61" t="s">
         <v>355</v>
       </c>
-      <c r="V2" s="61" t="s">
-        <v>356</v>
-      </c>
       <c r="W2" s="29" t="s">
+        <v>354</v>
+      </c>
+      <c r="X2" s="29" t="s">
         <v>355</v>
       </c>
-      <c r="X2" s="29" t="s">
-        <v>356</v>
-      </c>
     </row>
-    <row r="3" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" s="27" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="26" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E3" s="129"/>
       <c r="H3" s="96"/>
@@ -8908,9 +8946,9 @@
       <c r="O3" s="96"/>
       <c r="R3" s="28"/>
     </row>
-    <row r="4" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" s="29" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="29" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>41</v>
@@ -8919,60 +8957,60 @@
         <v>33</v>
       </c>
       <c r="D4" s="29" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E4" s="115" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="F4" s="120" t="s">
+        <v>455</v>
+      </c>
+      <c r="G4" s="131" t="s">
+        <v>500</v>
+      </c>
+      <c r="H4" s="116" t="s">
+        <v>501</v>
+      </c>
+      <c r="I4" s="133" t="s">
+        <v>502</v>
+      </c>
+      <c r="J4" s="78" t="s">
+        <v>457</v>
+      </c>
+      <c r="K4" s="121" t="s">
         <v>456</v>
       </c>
-      <c r="G4" s="131" t="s">
+      <c r="L4" s="134" t="s">
+        <v>503</v>
+      </c>
+      <c r="M4" s="78" t="s">
         <v>501</v>
-      </c>
-      <c r="H4" s="116" t="s">
-        <v>502</v>
-      </c>
-      <c r="I4" s="133" t="s">
-        <v>503</v>
-      </c>
-      <c r="J4" s="78" t="s">
-        <v>458</v>
-      </c>
-      <c r="K4" s="121" t="s">
-        <v>457</v>
-      </c>
-      <c r="L4" s="134" t="s">
-        <v>504</v>
-      </c>
-      <c r="M4" s="78" t="s">
-        <v>502</v>
       </c>
       <c r="N4" s="132"/>
       <c r="O4" s="79" t="s">
+        <v>469</v>
+      </c>
+      <c r="P4" s="31" t="s">
         <v>470</v>
-      </c>
-      <c r="P4" s="31" t="s">
-        <v>471</v>
       </c>
       <c r="Q4" s="31"/>
       <c r="R4" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="S4" s="29" t="s">
         <v>472</v>
       </c>
-      <c r="S4" s="29" t="s">
-        <v>473</v>
-      </c>
       <c r="U4" s="104" t="s">
+        <v>507</v>
+      </c>
+      <c r="V4" s="135" t="s">
         <v>508</v>
       </c>
-      <c r="V4" s="135" t="s">
+      <c r="W4" s="44" t="s">
         <v>509</v>
       </c>
-      <c r="W4" s="44" t="s">
-        <v>510</v>
-      </c>
       <c r="X4" s="106" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
